--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2172100</v>
+        <v>2045200</v>
       </c>
       <c r="E8" s="3">
-        <v>2123600</v>
+        <v>1999600</v>
       </c>
       <c r="F8" s="3">
-        <v>2066100</v>
+        <v>1945500</v>
       </c>
       <c r="G8" s="3">
-        <v>2106900</v>
+        <v>1983800</v>
       </c>
       <c r="H8" s="3">
-        <v>2114400</v>
+        <v>1990900</v>
       </c>
       <c r="I8" s="3">
-        <v>2041600</v>
+        <v>1922300</v>
       </c>
       <c r="J8" s="3">
-        <v>1962500</v>
+        <v>1847900</v>
       </c>
       <c r="K8" s="3">
         <v>1990900</v>
@@ -787,25 +787,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1539800</v>
+        <v>1449900</v>
       </c>
       <c r="E9" s="3">
-        <v>1516400</v>
+        <v>1427800</v>
       </c>
       <c r="F9" s="3">
-        <v>1464000</v>
+        <v>1378500</v>
       </c>
       <c r="G9" s="3">
-        <v>1501500</v>
+        <v>1413800</v>
       </c>
       <c r="H9" s="3">
-        <v>1459800</v>
+        <v>1374500</v>
       </c>
       <c r="I9" s="3">
-        <v>1428900</v>
+        <v>1345400</v>
       </c>
       <c r="J9" s="3">
-        <v>1408900</v>
+        <v>1326600</v>
       </c>
       <c r="K9" s="3">
         <v>1414100</v>
@@ -834,25 +834,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>632200</v>
+        <v>595300</v>
       </c>
       <c r="E10" s="3">
-        <v>607200</v>
+        <v>571800</v>
       </c>
       <c r="F10" s="3">
-        <v>602100</v>
+        <v>567000</v>
       </c>
       <c r="G10" s="3">
-        <v>605400</v>
+        <v>570100</v>
       </c>
       <c r="H10" s="3">
-        <v>654600</v>
+        <v>616400</v>
       </c>
       <c r="I10" s="3">
-        <v>612700</v>
+        <v>576900</v>
       </c>
       <c r="J10" s="3">
-        <v>553600</v>
+        <v>521200</v>
       </c>
       <c r="K10" s="3">
         <v>576800</v>
@@ -1003,16 +1003,16 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="H14" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-35700</v>
+        <v>-33600</v>
       </c>
       <c r="K14" s="3">
         <v>9300</v>
@@ -1041,25 +1041,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="E15" s="3">
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="G15" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="H15" s="3">
-        <v>12600</v>
+        <v>11900</v>
       </c>
       <c r="I15" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="J15" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="K15" s="3">
         <v>13100</v>
@@ -1104,25 +1104,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1789700</v>
+        <v>1685200</v>
       </c>
       <c r="E17" s="3">
-        <v>1748300</v>
+        <v>1646200</v>
       </c>
       <c r="F17" s="3">
-        <v>1709900</v>
+        <v>1610000</v>
       </c>
       <c r="G17" s="3">
-        <v>1723300</v>
+        <v>1622700</v>
       </c>
       <c r="H17" s="3">
-        <v>1711900</v>
+        <v>1611900</v>
       </c>
       <c r="I17" s="3">
-        <v>1752100</v>
+        <v>1649800</v>
       </c>
       <c r="J17" s="3">
-        <v>1635300</v>
+        <v>1539700</v>
       </c>
       <c r="K17" s="3">
         <v>1710600</v>
@@ -1151,25 +1151,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>382400</v>
+        <v>360000</v>
       </c>
       <c r="E18" s="3">
-        <v>375400</v>
+        <v>353400</v>
       </c>
       <c r="F18" s="3">
-        <v>356200</v>
+        <v>335400</v>
       </c>
       <c r="G18" s="3">
-        <v>383600</v>
+        <v>361200</v>
       </c>
       <c r="H18" s="3">
-        <v>402500</v>
+        <v>379000</v>
       </c>
       <c r="I18" s="3">
-        <v>289400</v>
+        <v>272500</v>
       </c>
       <c r="J18" s="3">
-        <v>327200</v>
+        <v>308100</v>
       </c>
       <c r="K18" s="3">
         <v>280300</v>
@@ -1217,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>67800</v>
+        <v>63800</v>
       </c>
       <c r="E20" s="3">
-        <v>84700</v>
+        <v>79700</v>
       </c>
       <c r="F20" s="3">
-        <v>93000</v>
+        <v>87600</v>
       </c>
       <c r="G20" s="3">
-        <v>95500</v>
+        <v>89900</v>
       </c>
       <c r="H20" s="3">
-        <v>68800</v>
+        <v>64800</v>
       </c>
       <c r="I20" s="3">
-        <v>66200</v>
+        <v>62300</v>
       </c>
       <c r="J20" s="3">
-        <v>66000</v>
+        <v>62200</v>
       </c>
       <c r="K20" s="3">
         <v>65200</v>
@@ -1264,25 +1264,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>524500</v>
+        <v>493800</v>
       </c>
       <c r="E21" s="3">
-        <v>527600</v>
+        <v>496800</v>
       </c>
       <c r="F21" s="3">
-        <v>518800</v>
+        <v>488500</v>
       </c>
       <c r="G21" s="3">
-        <v>557600</v>
+        <v>525000</v>
       </c>
       <c r="H21" s="3">
-        <v>544000</v>
+        <v>512200</v>
       </c>
       <c r="I21" s="3">
-        <v>417000</v>
+        <v>392600</v>
       </c>
       <c r="J21" s="3">
-        <v>454200</v>
+        <v>427600</v>
       </c>
       <c r="K21" s="3">
         <v>428000</v>
@@ -1311,25 +1311,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="E22" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="F22" s="3">
-        <v>17900</v>
+        <v>16900</v>
       </c>
       <c r="G22" s="3">
-        <v>29800</v>
+        <v>28000</v>
       </c>
       <c r="H22" s="3">
-        <v>16300</v>
+        <v>15300</v>
       </c>
       <c r="I22" s="3">
-        <v>15800</v>
+        <v>14900</v>
       </c>
       <c r="J22" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="K22" s="3">
         <v>18500</v>
@@ -1358,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>432300</v>
+        <v>407100</v>
       </c>
       <c r="E23" s="3">
-        <v>440100</v>
+        <v>414400</v>
       </c>
       <c r="F23" s="3">
-        <v>431300</v>
+        <v>406100</v>
       </c>
       <c r="G23" s="3">
-        <v>449300</v>
+        <v>423100</v>
       </c>
       <c r="H23" s="3">
-        <v>455000</v>
+        <v>428500</v>
       </c>
       <c r="I23" s="3">
-        <v>339800</v>
+        <v>320000</v>
       </c>
       <c r="J23" s="3">
-        <v>376300</v>
+        <v>354300</v>
       </c>
       <c r="K23" s="3">
         <v>327100</v>
@@ -1405,25 +1405,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86500</v>
+        <v>81500</v>
       </c>
       <c r="E24" s="3">
-        <v>80500</v>
+        <v>75800</v>
       </c>
       <c r="F24" s="3">
-        <v>94100</v>
+        <v>88600</v>
       </c>
       <c r="G24" s="3">
-        <v>99200</v>
+        <v>93400</v>
       </c>
       <c r="H24" s="3">
-        <v>97800</v>
+        <v>92100</v>
       </c>
       <c r="I24" s="3">
-        <v>75100</v>
+        <v>70700</v>
       </c>
       <c r="J24" s="3">
-        <v>82300</v>
+        <v>77500</v>
       </c>
       <c r="K24" s="3">
         <v>89300</v>
@@ -1499,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>345800</v>
+        <v>325600</v>
       </c>
       <c r="E26" s="3">
-        <v>359600</v>
+        <v>338600</v>
       </c>
       <c r="F26" s="3">
-        <v>337300</v>
+        <v>317600</v>
       </c>
       <c r="G26" s="3">
-        <v>350100</v>
+        <v>329700</v>
       </c>
       <c r="H26" s="3">
-        <v>357200</v>
+        <v>336400</v>
       </c>
       <c r="I26" s="3">
-        <v>264700</v>
+        <v>249300</v>
       </c>
       <c r="J26" s="3">
-        <v>293900</v>
+        <v>276800</v>
       </c>
       <c r="K26" s="3">
         <v>237800</v>
@@ -1546,25 +1546,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>344800</v>
+        <v>324700</v>
       </c>
       <c r="E27" s="3">
-        <v>358400</v>
+        <v>337500</v>
       </c>
       <c r="F27" s="3">
-        <v>335200</v>
+        <v>315600</v>
       </c>
       <c r="G27" s="3">
-        <v>348700</v>
+        <v>328300</v>
       </c>
       <c r="H27" s="3">
-        <v>352400</v>
+        <v>331900</v>
       </c>
       <c r="I27" s="3">
-        <v>265200</v>
+        <v>249700</v>
       </c>
       <c r="J27" s="3">
-        <v>297700</v>
+        <v>280300</v>
       </c>
       <c r="K27" s="3">
         <v>238100</v>
@@ -1781,25 +1781,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-67800</v>
+        <v>-63800</v>
       </c>
       <c r="E32" s="3">
-        <v>-84700</v>
+        <v>-79700</v>
       </c>
       <c r="F32" s="3">
-        <v>-93000</v>
+        <v>-87600</v>
       </c>
       <c r="G32" s="3">
-        <v>-95500</v>
+        <v>-89900</v>
       </c>
       <c r="H32" s="3">
-        <v>-68800</v>
+        <v>-64800</v>
       </c>
       <c r="I32" s="3">
-        <v>-66200</v>
+        <v>-62300</v>
       </c>
       <c r="J32" s="3">
-        <v>-66000</v>
+        <v>-62200</v>
       </c>
       <c r="K32" s="3">
         <v>-65200</v>
@@ -1828,25 +1828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>344800</v>
+        <v>324700</v>
       </c>
       <c r="E33" s="3">
-        <v>358400</v>
+        <v>337500</v>
       </c>
       <c r="F33" s="3">
-        <v>335200</v>
+        <v>315600</v>
       </c>
       <c r="G33" s="3">
-        <v>348700</v>
+        <v>328300</v>
       </c>
       <c r="H33" s="3">
-        <v>352400</v>
+        <v>331900</v>
       </c>
       <c r="I33" s="3">
-        <v>265200</v>
+        <v>249700</v>
       </c>
       <c r="J33" s="3">
-        <v>297700</v>
+        <v>280300</v>
       </c>
       <c r="K33" s="3">
         <v>260700</v>
@@ -1922,25 +1922,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>344800</v>
+        <v>324700</v>
       </c>
       <c r="E35" s="3">
-        <v>358400</v>
+        <v>337500</v>
       </c>
       <c r="F35" s="3">
-        <v>335200</v>
+        <v>315600</v>
       </c>
       <c r="G35" s="3">
-        <v>348700</v>
+        <v>328300</v>
       </c>
       <c r="H35" s="3">
-        <v>352400</v>
+        <v>331900</v>
       </c>
       <c r="I35" s="3">
-        <v>265200</v>
+        <v>249700</v>
       </c>
       <c r="J35" s="3">
-        <v>297700</v>
+        <v>280300</v>
       </c>
       <c r="K35" s="3">
         <v>260700</v>
@@ -2059,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2620400</v>
+        <v>2467300</v>
       </c>
       <c r="E41" s="3">
-        <v>2533400</v>
+        <v>2385400</v>
       </c>
       <c r="F41" s="3">
-        <v>3389300</v>
+        <v>3191400</v>
       </c>
       <c r="G41" s="3">
-        <v>2225700</v>
+        <v>2095800</v>
       </c>
       <c r="H41" s="3">
-        <v>2004500</v>
+        <v>1887400</v>
       </c>
       <c r="I41" s="3">
-        <v>1120600</v>
+        <v>1055200</v>
       </c>
       <c r="J41" s="3">
-        <v>992400</v>
+        <v>934500</v>
       </c>
       <c r="K41" s="3">
         <v>649600</v>
@@ -2106,25 +2106,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2295100</v>
+        <v>2161100</v>
       </c>
       <c r="E42" s="3">
-        <v>2039500</v>
+        <v>1920400</v>
       </c>
       <c r="F42" s="3">
-        <v>2553600</v>
+        <v>2404500</v>
       </c>
       <c r="G42" s="3">
-        <v>3329200</v>
+        <v>3134700</v>
       </c>
       <c r="H42" s="3">
-        <v>3004300</v>
+        <v>2828900</v>
       </c>
       <c r="I42" s="3">
-        <v>3493400</v>
+        <v>3289300</v>
       </c>
       <c r="J42" s="3">
-        <v>3520200</v>
+        <v>3314600</v>
       </c>
       <c r="K42" s="3">
         <v>3634700</v>
@@ -2153,25 +2153,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2250200</v>
+        <v>2118800</v>
       </c>
       <c r="E43" s="3">
-        <v>2277400</v>
+        <v>2144400</v>
       </c>
       <c r="F43" s="3">
-        <v>2282400</v>
+        <v>2149100</v>
       </c>
       <c r="G43" s="3">
-        <v>2137700</v>
+        <v>2012800</v>
       </c>
       <c r="H43" s="3">
-        <v>2175700</v>
+        <v>2048700</v>
       </c>
       <c r="I43" s="3">
-        <v>2355100</v>
+        <v>2217600</v>
       </c>
       <c r="J43" s="3">
-        <v>2173600</v>
+        <v>2046700</v>
       </c>
       <c r="K43" s="3">
         <v>2182200</v>
@@ -2200,25 +2200,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61900</v>
+        <v>58300</v>
       </c>
       <c r="E44" s="3">
-        <v>68000</v>
+        <v>64000</v>
       </c>
       <c r="F44" s="3">
-        <v>96100</v>
+        <v>90500</v>
       </c>
       <c r="G44" s="3">
-        <v>101100</v>
+        <v>95200</v>
       </c>
       <c r="H44" s="3">
-        <v>96800</v>
+        <v>91200</v>
       </c>
       <c r="I44" s="3">
-        <v>85200</v>
+        <v>80200</v>
       </c>
       <c r="J44" s="3">
-        <v>79000</v>
+        <v>74400</v>
       </c>
       <c r="K44" s="3">
         <v>75000</v>
@@ -2247,25 +2247,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>201500</v>
+        <v>189700</v>
       </c>
       <c r="E45" s="3">
-        <v>230800</v>
+        <v>217300</v>
       </c>
       <c r="F45" s="3">
-        <v>258900</v>
+        <v>243800</v>
       </c>
       <c r="G45" s="3">
-        <v>235900</v>
+        <v>222100</v>
       </c>
       <c r="H45" s="3">
-        <v>289000</v>
+        <v>272100</v>
       </c>
       <c r="I45" s="3">
-        <v>319100</v>
+        <v>300500</v>
       </c>
       <c r="J45" s="3">
-        <v>310800</v>
+        <v>292600</v>
       </c>
       <c r="K45" s="3">
         <v>777400</v>
@@ -2294,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7429200</v>
+        <v>6995300</v>
       </c>
       <c r="E46" s="3">
-        <v>7149100</v>
+        <v>6731500</v>
       </c>
       <c r="F46" s="3">
-        <v>8580400</v>
+        <v>8079300</v>
       </c>
       <c r="G46" s="3">
-        <v>8029600</v>
+        <v>7560600</v>
       </c>
       <c r="H46" s="3">
-        <v>7570300</v>
+        <v>7128200</v>
       </c>
       <c r="I46" s="3">
-        <v>7373400</v>
+        <v>6942800</v>
       </c>
       <c r="J46" s="3">
-        <v>7076000</v>
+        <v>6662800</v>
       </c>
       <c r="K46" s="3">
         <v>7319000</v>
@@ -2341,25 +2341,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>510400</v>
+        <v>480600</v>
       </c>
       <c r="E47" s="3">
-        <v>413400</v>
+        <v>389200</v>
       </c>
       <c r="F47" s="3">
-        <v>415300</v>
+        <v>391000</v>
       </c>
       <c r="G47" s="3">
-        <v>576200</v>
+        <v>542500</v>
       </c>
       <c r="H47" s="3">
-        <v>508200</v>
+        <v>478500</v>
       </c>
       <c r="I47" s="3">
-        <v>513100</v>
+        <v>483100</v>
       </c>
       <c r="J47" s="3">
-        <v>485600</v>
+        <v>457200</v>
       </c>
       <c r="K47" s="3">
         <v>514800</v>
@@ -2388,25 +2388,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1323400</v>
+        <v>1246100</v>
       </c>
       <c r="E48" s="3">
-        <v>1283400</v>
+        <v>1208500</v>
       </c>
       <c r="F48" s="3">
-        <v>1231800</v>
+        <v>1159800</v>
       </c>
       <c r="G48" s="3">
-        <v>991200</v>
+        <v>933300</v>
       </c>
       <c r="H48" s="3">
-        <v>985700</v>
+        <v>928100</v>
       </c>
       <c r="I48" s="3">
-        <v>959900</v>
+        <v>903900</v>
       </c>
       <c r="J48" s="3">
-        <v>917600</v>
+        <v>864000</v>
       </c>
       <c r="K48" s="3">
         <v>939300</v>
@@ -2435,25 +2435,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1942300</v>
+        <v>1828800</v>
       </c>
       <c r="E49" s="3">
-        <v>1889000</v>
+        <v>1778700</v>
       </c>
       <c r="F49" s="3">
-        <v>1825500</v>
+        <v>1718900</v>
       </c>
       <c r="G49" s="3">
-        <v>1835600</v>
+        <v>1728400</v>
       </c>
       <c r="H49" s="3">
-        <v>1946500</v>
+        <v>1832800</v>
       </c>
       <c r="I49" s="3">
-        <v>2050600</v>
+        <v>1930800</v>
       </c>
       <c r="J49" s="3">
-        <v>1958300</v>
+        <v>1843900</v>
       </c>
       <c r="K49" s="3">
         <v>1962200</v>
@@ -2576,25 +2576,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184600</v>
+        <v>173800</v>
       </c>
       <c r="E52" s="3">
-        <v>251800</v>
+        <v>237100</v>
       </c>
       <c r="F52" s="3">
-        <v>248200</v>
+        <v>233700</v>
       </c>
       <c r="G52" s="3">
-        <v>265100</v>
+        <v>249600</v>
       </c>
       <c r="H52" s="3">
-        <v>343200</v>
+        <v>323100</v>
       </c>
       <c r="I52" s="3">
-        <v>361900</v>
+        <v>340700</v>
       </c>
       <c r="J52" s="3">
-        <v>278300</v>
+        <v>262000</v>
       </c>
       <c r="K52" s="3">
         <v>263500</v>
@@ -2670,25 +2670,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11389900</v>
+        <v>10724600</v>
       </c>
       <c r="E54" s="3">
-        <v>10986700</v>
+        <v>10345000</v>
       </c>
       <c r="F54" s="3">
-        <v>12301200</v>
+        <v>11582800</v>
       </c>
       <c r="G54" s="3">
-        <v>11697700</v>
+        <v>11014500</v>
       </c>
       <c r="H54" s="3">
-        <v>11353900</v>
+        <v>10690800</v>
       </c>
       <c r="I54" s="3">
-        <v>11258900</v>
+        <v>10601300</v>
       </c>
       <c r="J54" s="3">
-        <v>10715800</v>
+        <v>10090000</v>
       </c>
       <c r="K54" s="3">
         <v>10998900</v>
@@ -2755,25 +2755,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1131200</v>
+        <v>1065100</v>
       </c>
       <c r="E57" s="3">
-        <v>1172100</v>
+        <v>1103700</v>
       </c>
       <c r="F57" s="3">
-        <v>1179900</v>
+        <v>1111000</v>
       </c>
       <c r="G57" s="3">
-        <v>1239800</v>
+        <v>1167400</v>
       </c>
       <c r="H57" s="3">
-        <v>1113000</v>
+        <v>1048000</v>
       </c>
       <c r="I57" s="3">
-        <v>1190500</v>
+        <v>1121000</v>
       </c>
       <c r="J57" s="3">
-        <v>1060400</v>
+        <v>998500</v>
       </c>
       <c r="K57" s="3">
         <v>985100</v>
@@ -2802,25 +2802,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1105900</v>
+        <v>1041300</v>
       </c>
       <c r="E58" s="3">
-        <v>1100600</v>
+        <v>1036300</v>
       </c>
       <c r="F58" s="3">
-        <v>1230100</v>
+        <v>1158300</v>
       </c>
       <c r="G58" s="3">
-        <v>998200</v>
+        <v>939900</v>
       </c>
       <c r="H58" s="3">
-        <v>756200</v>
+        <v>712100</v>
       </c>
       <c r="I58" s="3">
-        <v>880700</v>
+        <v>829200</v>
       </c>
       <c r="J58" s="3">
-        <v>992200</v>
+        <v>934200</v>
       </c>
       <c r="K58" s="3">
         <v>1344600</v>
@@ -2849,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>793300</v>
+        <v>747000</v>
       </c>
       <c r="E59" s="3">
-        <v>709400</v>
+        <v>667900</v>
       </c>
       <c r="F59" s="3">
-        <v>753200</v>
+        <v>709200</v>
       </c>
       <c r="G59" s="3">
-        <v>771500</v>
+        <v>726400</v>
       </c>
       <c r="H59" s="3">
-        <v>842100</v>
+        <v>792900</v>
       </c>
       <c r="I59" s="3">
-        <v>871000</v>
+        <v>820200</v>
       </c>
       <c r="J59" s="3">
-        <v>740500</v>
+        <v>697200</v>
       </c>
       <c r="K59" s="3">
         <v>757500</v>
@@ -2896,25 +2896,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3030500</v>
+        <v>2853500</v>
       </c>
       <c r="E60" s="3">
-        <v>2982100</v>
+        <v>2807900</v>
       </c>
       <c r="F60" s="3">
-        <v>3163200</v>
+        <v>2978500</v>
       </c>
       <c r="G60" s="3">
-        <v>3009500</v>
+        <v>2833700</v>
       </c>
       <c r="H60" s="3">
-        <v>2711300</v>
+        <v>2552900</v>
       </c>
       <c r="I60" s="3">
-        <v>2942300</v>
+        <v>2770400</v>
       </c>
       <c r="J60" s="3">
-        <v>2793100</v>
+        <v>2629900</v>
       </c>
       <c r="K60" s="3">
         <v>3087300</v>
@@ -2943,25 +2943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>462400</v>
+        <v>435300</v>
       </c>
       <c r="E61" s="3">
-        <v>461400</v>
+        <v>434400</v>
       </c>
       <c r="F61" s="3">
-        <v>466500</v>
+        <v>439200</v>
       </c>
       <c r="G61" s="3">
-        <v>398300</v>
+        <v>375000</v>
       </c>
       <c r="H61" s="3">
-        <v>701800</v>
+        <v>660800</v>
       </c>
       <c r="I61" s="3">
-        <v>734700</v>
+        <v>691800</v>
       </c>
       <c r="J61" s="3">
-        <v>660700</v>
+        <v>622100</v>
       </c>
       <c r="K61" s="3">
         <v>654600</v>
@@ -2990,25 +2990,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>298100</v>
+        <v>280700</v>
       </c>
       <c r="E62" s="3">
-        <v>294200</v>
+        <v>277100</v>
       </c>
       <c r="F62" s="3">
-        <v>308300</v>
+        <v>290300</v>
       </c>
       <c r="G62" s="3">
-        <v>276600</v>
+        <v>260400</v>
       </c>
       <c r="H62" s="3">
-        <v>223300</v>
+        <v>210300</v>
       </c>
       <c r="I62" s="3">
-        <v>234600</v>
+        <v>220900</v>
       </c>
       <c r="J62" s="3">
-        <v>216400</v>
+        <v>203800</v>
       </c>
       <c r="K62" s="3">
         <v>238900</v>
@@ -3178,25 +3178,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3813100</v>
+        <v>3590400</v>
       </c>
       <c r="E66" s="3">
-        <v>3758700</v>
+        <v>3539200</v>
       </c>
       <c r="F66" s="3">
-        <v>3976900</v>
+        <v>3744600</v>
       </c>
       <c r="G66" s="3">
-        <v>3721400</v>
+        <v>3504000</v>
       </c>
       <c r="H66" s="3">
-        <v>3672400</v>
+        <v>3457900</v>
       </c>
       <c r="I66" s="3">
-        <v>3944000</v>
+        <v>3713700</v>
       </c>
       <c r="J66" s="3">
-        <v>3700700</v>
+        <v>3484600</v>
       </c>
       <c r="K66" s="3">
         <v>4015600</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7100800</v>
+        <v>6686100</v>
       </c>
       <c r="E72" s="3">
-        <v>6752600</v>
+        <v>6358300</v>
       </c>
       <c r="F72" s="3">
-        <v>7852900</v>
+        <v>7394300</v>
       </c>
       <c r="G72" s="3">
-        <v>7514700</v>
+        <v>7075800</v>
       </c>
       <c r="H72" s="3">
-        <v>7253500</v>
+        <v>6829800</v>
       </c>
       <c r="I72" s="3">
-        <v>6893700</v>
+        <v>6491000</v>
       </c>
       <c r="J72" s="3">
-        <v>6649800</v>
+        <v>6261500</v>
       </c>
       <c r="K72" s="3">
         <v>6576600</v>
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7576700</v>
+        <v>7134200</v>
       </c>
       <c r="E76" s="3">
-        <v>7227900</v>
+        <v>6805800</v>
       </c>
       <c r="F76" s="3">
-        <v>8324400</v>
+        <v>7838200</v>
       </c>
       <c r="G76" s="3">
-        <v>7976300</v>
+        <v>7510500</v>
       </c>
       <c r="H76" s="3">
-        <v>7681500</v>
+        <v>7232900</v>
       </c>
       <c r="I76" s="3">
-        <v>7314900</v>
+        <v>6887600</v>
       </c>
       <c r="J76" s="3">
-        <v>7015100</v>
+        <v>6605400</v>
       </c>
       <c r="K76" s="3">
         <v>6983300</v>
@@ -3766,25 +3766,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>344800</v>
+        <v>324700</v>
       </c>
       <c r="E81" s="3">
-        <v>358400</v>
+        <v>337500</v>
       </c>
       <c r="F81" s="3">
-        <v>335200</v>
+        <v>315600</v>
       </c>
       <c r="G81" s="3">
-        <v>348700</v>
+        <v>328300</v>
       </c>
       <c r="H81" s="3">
-        <v>352400</v>
+        <v>331900</v>
       </c>
       <c r="I81" s="3">
-        <v>265200</v>
+        <v>249700</v>
       </c>
       <c r="J81" s="3">
-        <v>297700</v>
+        <v>280300</v>
       </c>
       <c r="K81" s="3">
         <v>260700</v>
@@ -3832,25 +3832,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74300</v>
+        <v>70000</v>
       </c>
       <c r="E83" s="3">
-        <v>67600</v>
+        <v>63600</v>
       </c>
       <c r="F83" s="3">
-        <v>69600</v>
+        <v>65500</v>
       </c>
       <c r="G83" s="3">
-        <v>78600</v>
+        <v>74000</v>
       </c>
       <c r="H83" s="3">
-        <v>72600</v>
+        <v>68400</v>
       </c>
       <c r="I83" s="3">
-        <v>61300</v>
+        <v>57800</v>
       </c>
       <c r="J83" s="3">
-        <v>60900</v>
+        <v>57300</v>
       </c>
       <c r="K83" s="3">
         <v>82500</v>
@@ -4114,25 +4114,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>429100</v>
+        <v>404100</v>
       </c>
       <c r="E89" s="3">
-        <v>382700</v>
+        <v>360300</v>
       </c>
       <c r="F89" s="3">
-        <v>403700</v>
+        <v>380100</v>
       </c>
       <c r="G89" s="3">
-        <v>467000</v>
+        <v>439800</v>
       </c>
       <c r="H89" s="3">
-        <v>500600</v>
+        <v>471400</v>
       </c>
       <c r="I89" s="3">
-        <v>260900</v>
+        <v>245700</v>
       </c>
       <c r="J89" s="3">
-        <v>404500</v>
+        <v>380900</v>
       </c>
       <c r="K89" s="3">
         <v>108600</v>
@@ -4180,25 +4180,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87700</v>
+        <v>-82600</v>
       </c>
       <c r="E91" s="3">
-        <v>-81800</v>
+        <v>-77000</v>
       </c>
       <c r="F91" s="3">
-        <v>-76700</v>
+        <v>-72200</v>
       </c>
       <c r="G91" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-78900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-92200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-83800</v>
-      </c>
       <c r="J91" s="3">
-        <v>-64900</v>
+        <v>-61100</v>
       </c>
       <c r="K91" s="3">
         <v>-93600</v>
@@ -4321,25 +4321,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-304900</v>
+        <v>-287100</v>
       </c>
       <c r="E94" s="3">
-        <v>472300</v>
+        <v>444700</v>
       </c>
       <c r="F94" s="3">
-        <v>707600</v>
+        <v>666300</v>
       </c>
       <c r="G94" s="3">
-        <v>-116800</v>
+        <v>-110000</v>
       </c>
       <c r="H94" s="3">
-        <v>508200</v>
+        <v>478600</v>
       </c>
       <c r="I94" s="3">
-        <v>-22700</v>
+        <v>-21400</v>
       </c>
       <c r="J94" s="3">
-        <v>335000</v>
+        <v>315400</v>
       </c>
       <c r="K94" s="3">
         <v>-187100</v>
@@ -4575,25 +4575,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60600</v>
+        <v>-57000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1718200</v>
+        <v>-1617900</v>
       </c>
       <c r="F100" s="3">
-        <v>49600</v>
+        <v>46700</v>
       </c>
       <c r="G100" s="3">
-        <v>-124700</v>
+        <v>-117400</v>
       </c>
       <c r="H100" s="3">
-        <v>-105200</v>
+        <v>-99000</v>
       </c>
       <c r="I100" s="3">
-        <v>-129800</v>
+        <v>-122200</v>
       </c>
       <c r="J100" s="3">
-        <v>-333500</v>
+        <v>-314000</v>
       </c>
       <c r="K100" s="3">
         <v>-76900</v>
@@ -4622,25 +4622,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F101" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-17500</v>
+        <v>-16500</v>
       </c>
       <c r="I101" s="3">
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="J101" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="K101" s="3">
         <v>4800</v>
@@ -4669,25 +4669,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72800</v>
+        <v>68600</v>
       </c>
       <c r="E102" s="3">
-        <v>-857000</v>
+        <v>-806900</v>
       </c>
       <c r="F102" s="3">
-        <v>1163400</v>
+        <v>1095400</v>
       </c>
       <c r="G102" s="3">
-        <v>221200</v>
+        <v>208300</v>
       </c>
       <c r="H102" s="3">
-        <v>886100</v>
+        <v>834400</v>
       </c>
       <c r="I102" s="3">
-        <v>132500</v>
+        <v>124700</v>
       </c>
       <c r="J102" s="3">
-        <v>411300</v>
+        <v>387200</v>
       </c>
       <c r="K102" s="3">
         <v>-150600</v>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2045200</v>
+        <v>2008800</v>
       </c>
       <c r="E8" s="3">
-        <v>1999600</v>
+        <v>2116300</v>
       </c>
       <c r="F8" s="3">
-        <v>1945500</v>
+        <v>2083900</v>
       </c>
       <c r="G8" s="3">
-        <v>1983800</v>
+        <v>2037400</v>
       </c>
       <c r="H8" s="3">
+        <v>1982300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2021300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2028500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1922300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1847900</v>
+      </c>
+      <c r="M8" s="3">
         <v>1990900</v>
       </c>
-      <c r="I8" s="3">
-        <v>1922300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1847900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1990900</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1976500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1941000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1970300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1927500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1886200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1449900</v>
+        <v>1396800</v>
       </c>
       <c r="E9" s="3">
-        <v>1427800</v>
+        <v>1537400</v>
       </c>
       <c r="F9" s="3">
-        <v>1378500</v>
+        <v>1477300</v>
       </c>
       <c r="G9" s="3">
-        <v>1413800</v>
+        <v>1454800</v>
       </c>
       <c r="H9" s="3">
-        <v>1374500</v>
+        <v>1404600</v>
       </c>
       <c r="I9" s="3">
+        <v>1440500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1400500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1345400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1326600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1414100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1387800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1369300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1404200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1388600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1330800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>595300</v>
+        <v>612000</v>
       </c>
       <c r="E10" s="3">
-        <v>571800</v>
+        <v>578900</v>
       </c>
       <c r="F10" s="3">
-        <v>567000</v>
+        <v>606600</v>
       </c>
       <c r="G10" s="3">
-        <v>570100</v>
+        <v>582600</v>
       </c>
       <c r="H10" s="3">
-        <v>616400</v>
+        <v>577700</v>
       </c>
       <c r="I10" s="3">
+        <v>580800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>628000</v>
+      </c>
+      <c r="K10" s="3">
         <v>576900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>521200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>576800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>588700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>571700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>566100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>538900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>555400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,88 +1042,100 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-4000</v>
+      </c>
       <c r="J14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-33600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>9300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L15" s="3">
         <v>11300</v>
       </c>
-      <c r="E15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="P15" s="3">
         <v>11300</v>
       </c>
-      <c r="K15" s="3">
-        <v>13100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>13000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>12800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>11300</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>6200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1685200</v>
+        <v>1645900</v>
       </c>
       <c r="E17" s="3">
-        <v>1646200</v>
+        <v>1760800</v>
       </c>
       <c r="F17" s="3">
-        <v>1610000</v>
+        <v>1717000</v>
       </c>
       <c r="G17" s="3">
-        <v>1622700</v>
+        <v>1677300</v>
       </c>
       <c r="H17" s="3">
-        <v>1611900</v>
+        <v>1640500</v>
       </c>
       <c r="I17" s="3">
+        <v>1653300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1642400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1649800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1539700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1710600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1690600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1607900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1650900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1585300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1566000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>360000</v>
+        <v>362900</v>
       </c>
       <c r="E18" s="3">
-        <v>353400</v>
+        <v>355500</v>
       </c>
       <c r="F18" s="3">
-        <v>335400</v>
+        <v>366800</v>
       </c>
       <c r="G18" s="3">
-        <v>361200</v>
+        <v>360100</v>
       </c>
       <c r="H18" s="3">
-        <v>379000</v>
+        <v>341800</v>
       </c>
       <c r="I18" s="3">
+        <v>368000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K18" s="3">
         <v>272500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>308100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>280300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>285900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>333200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>319500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>342100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>320200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>63800</v>
+        <v>67600</v>
       </c>
       <c r="E20" s="3">
-        <v>79700</v>
+        <v>59700</v>
       </c>
       <c r="F20" s="3">
-        <v>87600</v>
+        <v>65000</v>
       </c>
       <c r="G20" s="3">
-        <v>89900</v>
+        <v>81300</v>
       </c>
       <c r="H20" s="3">
-        <v>64800</v>
+        <v>89200</v>
       </c>
       <c r="I20" s="3">
+        <v>91600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K20" s="3">
         <v>62300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>62200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>65200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>82600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>86600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>78400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>71100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>65200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>493800</v>
+        <v>513300</v>
       </c>
       <c r="E21" s="3">
-        <v>496800</v>
+        <v>493300</v>
       </c>
       <c r="F21" s="3">
-        <v>488500</v>
+        <v>503200</v>
       </c>
       <c r="G21" s="3">
-        <v>525000</v>
+        <v>506200</v>
       </c>
       <c r="H21" s="3">
-        <v>512200</v>
+        <v>497700</v>
       </c>
       <c r="I21" s="3">
+        <v>535000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K21" s="3">
         <v>392600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>427600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>428000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>444800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>495000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>469300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>526000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>460000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16700</v>
+        <v>13500</v>
       </c>
       <c r="E22" s="3">
-        <v>18800</v>
+        <v>15700</v>
       </c>
       <c r="F22" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="G22" s="3">
-        <v>28000</v>
+        <v>19200</v>
       </c>
       <c r="H22" s="3">
-        <v>15300</v>
+        <v>17200</v>
       </c>
       <c r="I22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K22" s="3">
         <v>14900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>18500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>10300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>10100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>407100</v>
+        <v>416900</v>
       </c>
       <c r="E23" s="3">
-        <v>414400</v>
+        <v>399500</v>
       </c>
       <c r="F23" s="3">
-        <v>406100</v>
+        <v>414800</v>
       </c>
       <c r="G23" s="3">
-        <v>423100</v>
+        <v>422200</v>
       </c>
       <c r="H23" s="3">
-        <v>428500</v>
+        <v>413800</v>
       </c>
       <c r="I23" s="3">
+        <v>431100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>436600</v>
+      </c>
+      <c r="K23" s="3">
         <v>320000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>354300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>327100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>357400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>409500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>387800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>405300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>380100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81500</v>
+        <v>92100</v>
       </c>
       <c r="E24" s="3">
-        <v>75800</v>
+        <v>83600</v>
       </c>
       <c r="F24" s="3">
-        <v>88600</v>
+        <v>83000</v>
       </c>
       <c r="G24" s="3">
-        <v>93400</v>
+        <v>77200</v>
       </c>
       <c r="H24" s="3">
-        <v>92100</v>
+        <v>90200</v>
       </c>
       <c r="I24" s="3">
+        <v>95200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K24" s="3">
         <v>70700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>77500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>89300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>77400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>92900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>86700</v>
       </c>
       <c r="O24" s="3">
         <v>92900</v>
       </c>
       <c r="P24" s="3">
+        <v>86700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>92900</v>
+      </c>
+      <c r="R24" s="3">
         <v>88700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>325600</v>
+        <v>324800</v>
       </c>
       <c r="E26" s="3">
-        <v>338600</v>
+        <v>315900</v>
       </c>
       <c r="F26" s="3">
-        <v>317600</v>
+        <v>331800</v>
       </c>
       <c r="G26" s="3">
-        <v>329700</v>
+        <v>345000</v>
       </c>
       <c r="H26" s="3">
-        <v>336400</v>
+        <v>323600</v>
       </c>
       <c r="I26" s="3">
+        <v>335900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>342700</v>
+      </c>
+      <c r="K26" s="3">
         <v>249300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>276800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>237800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>279900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>316600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>301100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>312400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>291400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>324700</v>
+        <v>322000</v>
       </c>
       <c r="E27" s="3">
-        <v>337500</v>
+        <v>313300</v>
       </c>
       <c r="F27" s="3">
-        <v>315600</v>
+        <v>330800</v>
       </c>
       <c r="G27" s="3">
-        <v>328300</v>
+        <v>343800</v>
       </c>
       <c r="H27" s="3">
-        <v>331900</v>
+        <v>321600</v>
       </c>
       <c r="I27" s="3">
+        <v>334500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>338100</v>
+      </c>
+      <c r="K27" s="3">
         <v>249700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>280300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>238100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>280100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>316900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>311600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>290700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,14 +1782,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>22600</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>22600</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-63800</v>
+        <v>-67600</v>
       </c>
       <c r="E32" s="3">
-        <v>-79700</v>
+        <v>-59700</v>
       </c>
       <c r="F32" s="3">
-        <v>-87600</v>
+        <v>-65000</v>
       </c>
       <c r="G32" s="3">
-        <v>-89900</v>
+        <v>-81300</v>
       </c>
       <c r="H32" s="3">
-        <v>-64800</v>
+        <v>-89200</v>
       </c>
       <c r="I32" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-62300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-62200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-65200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-82600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-86600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-78400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-71100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>324700</v>
+        <v>322000</v>
       </c>
       <c r="E33" s="3">
-        <v>337500</v>
+        <v>313300</v>
       </c>
       <c r="F33" s="3">
-        <v>315600</v>
+        <v>330800</v>
       </c>
       <c r="G33" s="3">
-        <v>328300</v>
+        <v>343800</v>
       </c>
       <c r="H33" s="3">
-        <v>331900</v>
+        <v>321600</v>
       </c>
       <c r="I33" s="3">
+        <v>334500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>338100</v>
+      </c>
+      <c r="K33" s="3">
         <v>249700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>280300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>260700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>280100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>316900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>311600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>290700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>324700</v>
+        <v>322000</v>
       </c>
       <c r="E35" s="3">
-        <v>337500</v>
+        <v>313300</v>
       </c>
       <c r="F35" s="3">
-        <v>315600</v>
+        <v>330800</v>
       </c>
       <c r="G35" s="3">
-        <v>328300</v>
+        <v>343800</v>
       </c>
       <c r="H35" s="3">
-        <v>331900</v>
+        <v>321600</v>
       </c>
       <c r="I35" s="3">
+        <v>334500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>338100</v>
+      </c>
+      <c r="K35" s="3">
         <v>249700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>280300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>260700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>280100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>316900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>311600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>290700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2467300</v>
+        <v>2147700</v>
       </c>
       <c r="E41" s="3">
-        <v>2385400</v>
+        <v>1946400</v>
       </c>
       <c r="F41" s="3">
-        <v>3191400</v>
+        <v>2514000</v>
       </c>
       <c r="G41" s="3">
-        <v>2095800</v>
+        <v>2430500</v>
       </c>
       <c r="H41" s="3">
-        <v>1887400</v>
+        <v>3251700</v>
       </c>
       <c r="I41" s="3">
+        <v>2135400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1923100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1055200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>934500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>649600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>752900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>743400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>785400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>726300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>826000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2161100</v>
+        <v>2869900</v>
       </c>
       <c r="E42" s="3">
-        <v>1920400</v>
+        <v>2543700</v>
       </c>
       <c r="F42" s="3">
-        <v>2404500</v>
+        <v>2201900</v>
       </c>
       <c r="G42" s="3">
-        <v>3134700</v>
+        <v>1956700</v>
       </c>
       <c r="H42" s="3">
-        <v>2828900</v>
+        <v>2450000</v>
       </c>
       <c r="I42" s="3">
+        <v>3194000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2882400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3289300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3314600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3634700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3462900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4840800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4623800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4049700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3766400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2118800</v>
+        <v>2090900</v>
       </c>
       <c r="E43" s="3">
-        <v>2144400</v>
+        <v>2241900</v>
       </c>
       <c r="F43" s="3">
-        <v>2149100</v>
+        <v>2158800</v>
       </c>
       <c r="G43" s="3">
-        <v>2012800</v>
+        <v>2185000</v>
       </c>
       <c r="H43" s="3">
-        <v>2048700</v>
+        <v>2189800</v>
       </c>
       <c r="I43" s="3">
+        <v>2050900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2087400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2217600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2046700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2182200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2212900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2257800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2283300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2125900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2321200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58300</v>
+        <v>52800</v>
       </c>
       <c r="E44" s="3">
-        <v>64000</v>
+        <v>67200</v>
       </c>
       <c r="F44" s="3">
-        <v>90500</v>
+        <v>59400</v>
       </c>
       <c r="G44" s="3">
-        <v>95200</v>
+        <v>65200</v>
       </c>
       <c r="H44" s="3">
-        <v>91200</v>
+        <v>92200</v>
       </c>
       <c r="I44" s="3">
+        <v>97000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K44" s="3">
         <v>80200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>74400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>75000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>62600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>74900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>68200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>73900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>97500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>189700</v>
+        <v>208300</v>
       </c>
       <c r="E45" s="3">
-        <v>217300</v>
+        <v>203300</v>
       </c>
       <c r="F45" s="3">
-        <v>243800</v>
+        <v>193300</v>
       </c>
       <c r="G45" s="3">
-        <v>222100</v>
+        <v>221400</v>
       </c>
       <c r="H45" s="3">
-        <v>272100</v>
+        <v>248400</v>
       </c>
       <c r="I45" s="3">
+        <v>226300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>277200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>292600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>777400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>399600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>371700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>412900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>450200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>382100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6995300</v>
+        <v>7369600</v>
       </c>
       <c r="E46" s="3">
-        <v>6731500</v>
+        <v>7002400</v>
       </c>
       <c r="F46" s="3">
-        <v>8079300</v>
+        <v>7127500</v>
       </c>
       <c r="G46" s="3">
-        <v>7560600</v>
+        <v>6858800</v>
       </c>
       <c r="H46" s="3">
-        <v>7128200</v>
+        <v>8232100</v>
       </c>
       <c r="I46" s="3">
+        <v>7703600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7263000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6942800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6662800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7319000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6890800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8288700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8173700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7426000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7393100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>480600</v>
+        <v>522200</v>
       </c>
       <c r="E47" s="3">
-        <v>389200</v>
+        <v>462400</v>
       </c>
       <c r="F47" s="3">
-        <v>391000</v>
+        <v>489700</v>
       </c>
       <c r="G47" s="3">
-        <v>542500</v>
+        <v>396600</v>
       </c>
       <c r="H47" s="3">
-        <v>478500</v>
+        <v>398400</v>
       </c>
       <c r="I47" s="3">
+        <v>552800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>487600</v>
+      </c>
+      <c r="K47" s="3">
         <v>483100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>457200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>514800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>469000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>460600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>450600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>355300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>349500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1246100</v>
+        <v>1318200</v>
       </c>
       <c r="E48" s="3">
-        <v>1208500</v>
+        <v>1318300</v>
       </c>
       <c r="F48" s="3">
-        <v>1159800</v>
+        <v>1269700</v>
       </c>
       <c r="G48" s="3">
-        <v>933300</v>
+        <v>1231300</v>
       </c>
       <c r="H48" s="3">
-        <v>928100</v>
+        <v>1181800</v>
       </c>
       <c r="I48" s="3">
+        <v>951000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>945700</v>
+      </c>
+      <c r="K48" s="3">
         <v>903900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>864000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>939300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1039900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1038300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1027000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>961800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>969600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1828800</v>
+        <v>1981400</v>
       </c>
       <c r="E49" s="3">
-        <v>1778700</v>
+        <v>1985100</v>
       </c>
       <c r="F49" s="3">
-        <v>1718900</v>
+        <v>1863400</v>
       </c>
       <c r="G49" s="3">
-        <v>1728400</v>
+        <v>1812300</v>
       </c>
       <c r="H49" s="3">
-        <v>1832800</v>
+        <v>1751400</v>
       </c>
       <c r="I49" s="3">
+        <v>1761100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1867400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1930800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1843900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1962200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2115800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2160500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2053400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1952900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2076300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>173800</v>
+        <v>138300</v>
       </c>
       <c r="E52" s="3">
-        <v>237100</v>
+        <v>237600</v>
       </c>
       <c r="F52" s="3">
-        <v>233700</v>
+        <v>177100</v>
       </c>
       <c r="G52" s="3">
-        <v>249600</v>
+        <v>241600</v>
       </c>
       <c r="H52" s="3">
-        <v>323100</v>
+        <v>238100</v>
       </c>
       <c r="I52" s="3">
+        <v>254300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>329200</v>
+      </c>
+      <c r="K52" s="3">
         <v>340700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>262000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>263500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>206300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>245100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>305700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>238700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>230900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10724600</v>
+        <v>11329700</v>
       </c>
       <c r="E54" s="3">
-        <v>10345000</v>
+        <v>11005800</v>
       </c>
       <c r="F54" s="3">
-        <v>11582800</v>
+        <v>10927500</v>
       </c>
       <c r="G54" s="3">
-        <v>11014500</v>
+        <v>10540600</v>
       </c>
       <c r="H54" s="3">
-        <v>10690800</v>
+        <v>11801800</v>
       </c>
       <c r="I54" s="3">
+        <v>11222800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10892900</v>
+      </c>
+      <c r="K54" s="3">
         <v>10601300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10090000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10998900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10722000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12193100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12010400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10934700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11019400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1065100</v>
+        <v>1011000</v>
       </c>
       <c r="E57" s="3">
-        <v>1103700</v>
+        <v>1052400</v>
       </c>
       <c r="F57" s="3">
-        <v>1111000</v>
+        <v>1085300</v>
       </c>
       <c r="G57" s="3">
-        <v>1167400</v>
+        <v>1124500</v>
       </c>
       <c r="H57" s="3">
-        <v>1048000</v>
+        <v>1132000</v>
       </c>
       <c r="I57" s="3">
+        <v>1189500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1067800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1121000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>998500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>985100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1031000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1007000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1068700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>902400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>956000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1041300</v>
+        <v>1031400</v>
       </c>
       <c r="E58" s="3">
-        <v>1036300</v>
+        <v>1074400</v>
       </c>
       <c r="F58" s="3">
-        <v>1158300</v>
+        <v>1061000</v>
       </c>
       <c r="G58" s="3">
-        <v>939900</v>
+        <v>1055900</v>
       </c>
       <c r="H58" s="3">
-        <v>712100</v>
+        <v>1180200</v>
       </c>
       <c r="I58" s="3">
+        <v>957700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>725500</v>
+      </c>
+      <c r="K58" s="3">
         <v>829200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>934200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1344600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1477300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1651500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1644300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1692200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1878400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>747000</v>
+        <v>812000</v>
       </c>
       <c r="E59" s="3">
-        <v>667900</v>
+        <v>788000</v>
       </c>
       <c r="F59" s="3">
-        <v>709200</v>
+        <v>761100</v>
       </c>
       <c r="G59" s="3">
-        <v>726400</v>
+        <v>680600</v>
       </c>
       <c r="H59" s="3">
-        <v>792900</v>
+        <v>722600</v>
       </c>
       <c r="I59" s="3">
+        <v>740100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>807900</v>
+      </c>
+      <c r="K59" s="3">
         <v>820200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>697200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>757500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>687900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>616800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>675700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>568500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>577000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2853500</v>
+        <v>2854400</v>
       </c>
       <c r="E60" s="3">
-        <v>2807900</v>
+        <v>2914800</v>
       </c>
       <c r="F60" s="3">
-        <v>2978500</v>
+        <v>2907400</v>
       </c>
       <c r="G60" s="3">
-        <v>2833700</v>
+        <v>2861000</v>
       </c>
       <c r="H60" s="3">
-        <v>2552900</v>
+        <v>3034800</v>
       </c>
       <c r="I60" s="3">
+        <v>2887300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2601200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2770400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2629900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3087300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3196200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3275200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3388700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3163100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3411400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>435300</v>
+        <v>235600</v>
       </c>
       <c r="E61" s="3">
-        <v>434400</v>
+        <v>235400</v>
       </c>
       <c r="F61" s="3">
-        <v>439200</v>
+        <v>443600</v>
       </c>
       <c r="G61" s="3">
-        <v>375000</v>
+        <v>442700</v>
       </c>
       <c r="H61" s="3">
-        <v>660800</v>
+        <v>447500</v>
       </c>
       <c r="I61" s="3">
+        <v>382100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>673300</v>
+      </c>
+      <c r="K61" s="3">
         <v>691800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>622100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>654600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>430400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>450500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>469800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>270200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>275800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>280700</v>
+        <v>321900</v>
       </c>
       <c r="E62" s="3">
-        <v>277100</v>
+        <v>321400</v>
       </c>
       <c r="F62" s="3">
-        <v>290300</v>
+        <v>286000</v>
       </c>
       <c r="G62" s="3">
-        <v>260400</v>
+        <v>282300</v>
       </c>
       <c r="H62" s="3">
-        <v>210300</v>
+        <v>295800</v>
       </c>
       <c r="I62" s="3">
+        <v>265400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K62" s="3">
         <v>220900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>203800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>238900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>258000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>299000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>298000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>298600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>327500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3590400</v>
+        <v>3426100</v>
       </c>
       <c r="E66" s="3">
-        <v>3539200</v>
+        <v>3496900</v>
       </c>
       <c r="F66" s="3">
-        <v>3744600</v>
+        <v>3658300</v>
       </c>
       <c r="G66" s="3">
-        <v>3504000</v>
+        <v>3606100</v>
       </c>
       <c r="H66" s="3">
-        <v>3457900</v>
+        <v>3815400</v>
       </c>
       <c r="I66" s="3">
+        <v>3570300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3523300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3713700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3484600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4015600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3919100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4060100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4191700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3764900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4048700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6686100</v>
+        <v>7395800</v>
       </c>
       <c r="E72" s="3">
-        <v>6358300</v>
+        <v>7031100</v>
       </c>
       <c r="F72" s="3">
-        <v>7394300</v>
+        <v>6812500</v>
       </c>
       <c r="G72" s="3">
-        <v>7075800</v>
+        <v>6478500</v>
       </c>
       <c r="H72" s="3">
-        <v>6829800</v>
+        <v>7534100</v>
       </c>
       <c r="I72" s="3">
+        <v>7209600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6959000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6491000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6261500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6576600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6409300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7695400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7362300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6785400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6552600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7134200</v>
+        <v>7903600</v>
       </c>
       <c r="E76" s="3">
-        <v>6805800</v>
+        <v>7509000</v>
       </c>
       <c r="F76" s="3">
-        <v>7838200</v>
+        <v>7269100</v>
       </c>
       <c r="G76" s="3">
-        <v>7510500</v>
+        <v>6934500</v>
       </c>
       <c r="H76" s="3">
-        <v>7232900</v>
+        <v>7986400</v>
       </c>
       <c r="I76" s="3">
+        <v>7652500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7369700</v>
+      </c>
+      <c r="K76" s="3">
         <v>6887600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6605400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6983300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6802900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8133000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7818800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7169800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6970800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>324700</v>
+        <v>322000</v>
       </c>
       <c r="E81" s="3">
-        <v>337500</v>
+        <v>313300</v>
       </c>
       <c r="F81" s="3">
-        <v>315600</v>
+        <v>330800</v>
       </c>
       <c r="G81" s="3">
-        <v>328300</v>
+        <v>343800</v>
       </c>
       <c r="H81" s="3">
-        <v>331900</v>
+        <v>321600</v>
       </c>
       <c r="I81" s="3">
+        <v>334500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>338100</v>
+      </c>
+      <c r="K81" s="3">
         <v>249700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>280300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>260700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>280100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>316900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>311600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>290700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70000</v>
+        <v>82900</v>
       </c>
       <c r="E83" s="3">
-        <v>63600</v>
+        <v>78100</v>
       </c>
       <c r="F83" s="3">
-        <v>65500</v>
+        <v>71300</v>
       </c>
       <c r="G83" s="3">
-        <v>74000</v>
+        <v>64800</v>
       </c>
       <c r="H83" s="3">
-        <v>68400</v>
+        <v>66700</v>
       </c>
       <c r="I83" s="3">
+        <v>75400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K83" s="3">
         <v>57800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>57300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>82500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>76300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>75200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>71500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>112700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>74600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>404100</v>
+        <v>563200</v>
       </c>
       <c r="E89" s="3">
-        <v>360300</v>
+        <v>189500</v>
       </c>
       <c r="F89" s="3">
-        <v>380100</v>
+        <v>411700</v>
       </c>
       <c r="G89" s="3">
-        <v>439800</v>
+        <v>367100</v>
       </c>
       <c r="H89" s="3">
-        <v>471400</v>
+        <v>387300</v>
       </c>
       <c r="I89" s="3">
+        <v>448100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>480300</v>
+      </c>
+      <c r="K89" s="3">
         <v>245700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>380900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>108600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>431300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>250800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>427400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>352600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>363600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82600</v>
+        <v>-57300</v>
       </c>
       <c r="E91" s="3">
-        <v>-77000</v>
+        <v>-80300</v>
       </c>
       <c r="F91" s="3">
-        <v>-72200</v>
+        <v>-84200</v>
       </c>
       <c r="G91" s="3">
-        <v>-74300</v>
+        <v>-78500</v>
       </c>
       <c r="H91" s="3">
-        <v>-86800</v>
+        <v>-73500</v>
       </c>
       <c r="I91" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-78900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-61100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-93600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-83500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-78300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-60800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-57100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-69900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-287100</v>
+        <v>-261400</v>
       </c>
       <c r="E94" s="3">
-        <v>444700</v>
+        <v>-381300</v>
       </c>
       <c r="F94" s="3">
-        <v>666300</v>
+        <v>-292500</v>
       </c>
       <c r="G94" s="3">
-        <v>-110000</v>
+        <v>453100</v>
       </c>
       <c r="H94" s="3">
-        <v>478600</v>
+        <v>678900</v>
       </c>
       <c r="I94" s="3">
+        <v>-112100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>487600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>315400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-187100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1361700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-239500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-420700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-180600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-689300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4390,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-73400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4408,28 +4876,34 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-78400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-80200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57000</v>
+        <v>-95300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1617900</v>
+        <v>-375000</v>
       </c>
       <c r="F100" s="3">
-        <v>46700</v>
+        <v>-58100</v>
       </c>
       <c r="G100" s="3">
-        <v>-117400</v>
+        <v>-1648400</v>
       </c>
       <c r="H100" s="3">
-        <v>-99000</v>
+        <v>47600</v>
       </c>
       <c r="I100" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-122200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-314000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-76900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-39600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>25200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-262300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>404100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>8700</v>
       </c>
-      <c r="E101" s="3">
-        <v>5900</v>
-      </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>8800</v>
       </c>
       <c r="G101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K101" s="3">
         <v>22600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-30800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>6500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68600</v>
+        <v>204600</v>
       </c>
       <c r="E102" s="3">
-        <v>-806900</v>
+        <v>-558100</v>
       </c>
       <c r="F102" s="3">
-        <v>1095400</v>
+        <v>69900</v>
       </c>
       <c r="G102" s="3">
-        <v>208300</v>
+        <v>-822200</v>
       </c>
       <c r="H102" s="3">
-        <v>834400</v>
+        <v>1116100</v>
       </c>
       <c r="I102" s="3">
+        <v>212200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>850200</v>
+      </c>
+      <c r="K102" s="3">
         <v>124700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>387200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-150600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-25200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>32400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-121200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>84900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2008800</v>
+        <v>2045000</v>
       </c>
       <c r="E8" s="3">
-        <v>2116300</v>
+        <v>2017700</v>
       </c>
       <c r="F8" s="3">
-        <v>2083900</v>
+        <v>2125700</v>
       </c>
       <c r="G8" s="3">
-        <v>2037400</v>
+        <v>2093200</v>
       </c>
       <c r="H8" s="3">
-        <v>1982300</v>
+        <v>2046500</v>
       </c>
       <c r="I8" s="3">
-        <v>2021300</v>
+        <v>1991100</v>
       </c>
       <c r="J8" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2028500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1922300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1847900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1990900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1976500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1941000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1970300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1927500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1886200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1396800</v>
+        <v>1425900</v>
       </c>
       <c r="E9" s="3">
-        <v>1537400</v>
+        <v>1403100</v>
       </c>
       <c r="F9" s="3">
-        <v>1477300</v>
+        <v>1544200</v>
       </c>
       <c r="G9" s="3">
-        <v>1454800</v>
+        <v>1483900</v>
       </c>
       <c r="H9" s="3">
-        <v>1404600</v>
+        <v>1461300</v>
       </c>
       <c r="I9" s="3">
-        <v>1440500</v>
+        <v>1410800</v>
       </c>
       <c r="J9" s="3">
+        <v>1446900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1400500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1345400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1326600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1414100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1387800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1369300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1404200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1388600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1330800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>612000</v>
+        <v>619100</v>
       </c>
       <c r="E10" s="3">
-        <v>578900</v>
+        <v>614700</v>
       </c>
       <c r="F10" s="3">
-        <v>606600</v>
+        <v>581500</v>
       </c>
       <c r="G10" s="3">
-        <v>582600</v>
+        <v>609300</v>
       </c>
       <c r="H10" s="3">
-        <v>577700</v>
+        <v>585200</v>
       </c>
       <c r="I10" s="3">
-        <v>580800</v>
+        <v>580300</v>
       </c>
       <c r="J10" s="3">
+        <v>583400</v>
+      </c>
+      <c r="K10" s="3">
         <v>628000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>576900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>521200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>576800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>588700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>571700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>566100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>538900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>555400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>3600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1048,23 +1068,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11200</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-33600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1072,70 +1092,76 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-17000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E15" s="3">
         <v>13800</v>
       </c>
-      <c r="E15" s="3">
-        <v>12300</v>
-      </c>
       <c r="F15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G15" s="3">
         <v>11600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10200</v>
       </c>
-      <c r="H15" s="3">
-        <v>10000</v>
-      </c>
       <c r="I15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1645900</v>
+        <v>1664300</v>
       </c>
       <c r="E17" s="3">
-        <v>1760800</v>
+        <v>1653300</v>
       </c>
       <c r="F17" s="3">
-        <v>1717000</v>
+        <v>1768700</v>
       </c>
       <c r="G17" s="3">
-        <v>1677300</v>
+        <v>1724700</v>
       </c>
       <c r="H17" s="3">
-        <v>1640500</v>
+        <v>1684800</v>
       </c>
       <c r="I17" s="3">
-        <v>1653300</v>
+        <v>1647800</v>
       </c>
       <c r="J17" s="3">
+        <v>1660700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1642400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1649800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1539700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1710600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1690600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1607900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1650900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1585300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1566000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>362900</v>
+        <v>380700</v>
       </c>
       <c r="E18" s="3">
-        <v>355500</v>
+        <v>364500</v>
       </c>
       <c r="F18" s="3">
-        <v>366800</v>
+        <v>357000</v>
       </c>
       <c r="G18" s="3">
-        <v>360100</v>
+        <v>368500</v>
       </c>
       <c r="H18" s="3">
-        <v>341800</v>
+        <v>361700</v>
       </c>
       <c r="I18" s="3">
-        <v>368000</v>
+        <v>343300</v>
       </c>
       <c r="J18" s="3">
+        <v>369600</v>
+      </c>
+      <c r="K18" s="3">
         <v>386200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>272500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>308100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>280300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>285900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>333200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>319500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>342100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>320200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="E20" s="3">
-        <v>59700</v>
+        <v>67900</v>
       </c>
       <c r="F20" s="3">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="3">
-        <v>81300</v>
+        <v>65300</v>
       </c>
       <c r="H20" s="3">
-        <v>89200</v>
+        <v>81600</v>
       </c>
       <c r="I20" s="3">
-        <v>91600</v>
+        <v>89600</v>
       </c>
       <c r="J20" s="3">
+        <v>92000</v>
+      </c>
+      <c r="K20" s="3">
         <v>66000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>65200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>82600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>86600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>78400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>71100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>65200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>513300</v>
+        <v>537700</v>
       </c>
       <c r="E21" s="3">
-        <v>493300</v>
+        <v>515600</v>
       </c>
       <c r="F21" s="3">
-        <v>503200</v>
+        <v>495500</v>
       </c>
       <c r="G21" s="3">
-        <v>506200</v>
+        <v>505400</v>
       </c>
       <c r="H21" s="3">
-        <v>497700</v>
+        <v>508500</v>
       </c>
       <c r="I21" s="3">
-        <v>535000</v>
+        <v>500000</v>
       </c>
       <c r="J21" s="3">
+        <v>537300</v>
+      </c>
+      <c r="K21" s="3">
         <v>521900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>392600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>427600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>428000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>444800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>495000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>469300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>526000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>460000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13500</v>
+        <v>14800</v>
       </c>
       <c r="E22" s="3">
-        <v>15700</v>
+        <v>13600</v>
       </c>
       <c r="F22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G22" s="3">
         <v>17100</v>
       </c>
-      <c r="G22" s="3">
-        <v>19200</v>
-      </c>
       <c r="H22" s="3">
-        <v>17200</v>
+        <v>19300</v>
       </c>
       <c r="I22" s="3">
-        <v>28500</v>
+        <v>17300</v>
       </c>
       <c r="J22" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>416900</v>
+        <v>433900</v>
       </c>
       <c r="E23" s="3">
-        <v>399500</v>
+        <v>418800</v>
       </c>
       <c r="F23" s="3">
-        <v>414800</v>
+        <v>401200</v>
       </c>
       <c r="G23" s="3">
-        <v>422200</v>
+        <v>416600</v>
       </c>
       <c r="H23" s="3">
-        <v>413800</v>
+        <v>424100</v>
       </c>
       <c r="I23" s="3">
-        <v>431100</v>
+        <v>415600</v>
       </c>
       <c r="J23" s="3">
+        <v>433000</v>
+      </c>
+      <c r="K23" s="3">
         <v>436600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>320000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>354300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>327100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>357400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>409500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>387800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>405300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>380100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92100</v>
+        <v>97800</v>
       </c>
       <c r="E24" s="3">
-        <v>83600</v>
+        <v>92500</v>
       </c>
       <c r="F24" s="3">
-        <v>83000</v>
+        <v>84000</v>
       </c>
       <c r="G24" s="3">
-        <v>77200</v>
+        <v>83400</v>
       </c>
       <c r="H24" s="3">
-        <v>90200</v>
+        <v>77500</v>
       </c>
       <c r="I24" s="3">
-        <v>95200</v>
+        <v>90600</v>
       </c>
       <c r="J24" s="3">
+        <v>95600</v>
+      </c>
+      <c r="K24" s="3">
         <v>93800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>70700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>77500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>77400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>92900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>86700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>92900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>88700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>324800</v>
+        <v>336100</v>
       </c>
       <c r="E26" s="3">
-        <v>315900</v>
+        <v>326200</v>
       </c>
       <c r="F26" s="3">
-        <v>331800</v>
+        <v>317300</v>
       </c>
       <c r="G26" s="3">
-        <v>345000</v>
+        <v>333200</v>
       </c>
       <c r="H26" s="3">
-        <v>323600</v>
+        <v>346500</v>
       </c>
       <c r="I26" s="3">
-        <v>335900</v>
+        <v>325000</v>
       </c>
       <c r="J26" s="3">
+        <v>337400</v>
+      </c>
+      <c r="K26" s="3">
         <v>342700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>249300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>276800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>237800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>279900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>316600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>301100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>312400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>291400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>322000</v>
+        <v>333600</v>
       </c>
       <c r="E27" s="3">
-        <v>313300</v>
+        <v>323400</v>
       </c>
       <c r="F27" s="3">
-        <v>330800</v>
+        <v>314700</v>
       </c>
       <c r="G27" s="3">
-        <v>343800</v>
+        <v>332300</v>
       </c>
       <c r="H27" s="3">
-        <v>321600</v>
+        <v>345400</v>
       </c>
       <c r="I27" s="3">
-        <v>334500</v>
+        <v>323000</v>
       </c>
       <c r="J27" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K27" s="3">
         <v>338100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>249700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>280300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>238100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>280100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>316900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>311600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>290700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,11 +1849,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>22600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-67600</v>
+        <v>-68000</v>
       </c>
       <c r="E32" s="3">
-        <v>-59700</v>
+        <v>-67900</v>
       </c>
       <c r="F32" s="3">
-        <v>-65000</v>
+        <v>-60000</v>
       </c>
       <c r="G32" s="3">
-        <v>-81300</v>
+        <v>-65300</v>
       </c>
       <c r="H32" s="3">
-        <v>-89200</v>
+        <v>-81600</v>
       </c>
       <c r="I32" s="3">
-        <v>-91600</v>
+        <v>-89600</v>
       </c>
       <c r="J32" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-66000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-65200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-82600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-86600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-71100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-65200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>322000</v>
+        <v>333600</v>
       </c>
       <c r="E33" s="3">
-        <v>313300</v>
+        <v>323400</v>
       </c>
       <c r="F33" s="3">
-        <v>330800</v>
+        <v>314700</v>
       </c>
       <c r="G33" s="3">
-        <v>343800</v>
+        <v>332300</v>
       </c>
       <c r="H33" s="3">
-        <v>321600</v>
+        <v>345400</v>
       </c>
       <c r="I33" s="3">
-        <v>334500</v>
+        <v>323000</v>
       </c>
       <c r="J33" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K33" s="3">
         <v>338100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>249700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>280300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>260700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>280100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>316900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>311600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>290700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>322000</v>
+        <v>333600</v>
       </c>
       <c r="E35" s="3">
-        <v>313300</v>
+        <v>323400</v>
       </c>
       <c r="F35" s="3">
-        <v>330800</v>
+        <v>314700</v>
       </c>
       <c r="G35" s="3">
-        <v>343800</v>
+        <v>332300</v>
       </c>
       <c r="H35" s="3">
-        <v>321600</v>
+        <v>345400</v>
       </c>
       <c r="I35" s="3">
-        <v>334500</v>
+        <v>323000</v>
       </c>
       <c r="J35" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K35" s="3">
         <v>338100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>249700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>280300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>260700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>280100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>316900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>311600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>290700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2147700</v>
+        <v>2062300</v>
       </c>
       <c r="E41" s="3">
-        <v>1946400</v>
+        <v>2157300</v>
       </c>
       <c r="F41" s="3">
-        <v>2514000</v>
+        <v>1955100</v>
       </c>
       <c r="G41" s="3">
-        <v>2430500</v>
+        <v>2525200</v>
       </c>
       <c r="H41" s="3">
-        <v>3251700</v>
+        <v>2441400</v>
       </c>
       <c r="I41" s="3">
-        <v>2135400</v>
+        <v>3266200</v>
       </c>
       <c r="J41" s="3">
+        <v>2144900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1923100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1055200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>934500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>649600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>752900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>743400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>785400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>726300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>826000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2869900</v>
+        <v>3485700</v>
       </c>
       <c r="E42" s="3">
-        <v>2543700</v>
+        <v>2882700</v>
       </c>
       <c r="F42" s="3">
-        <v>2201900</v>
+        <v>2555000</v>
       </c>
       <c r="G42" s="3">
-        <v>1956700</v>
+        <v>2211700</v>
       </c>
       <c r="H42" s="3">
-        <v>2450000</v>
+        <v>1965400</v>
       </c>
       <c r="I42" s="3">
-        <v>3194000</v>
+        <v>2460900</v>
       </c>
       <c r="J42" s="3">
+        <v>3208200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2882400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3289300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3314600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3634700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3462900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4840800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4623800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4049700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3766400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2090900</v>
+        <v>2019700</v>
       </c>
       <c r="E43" s="3">
-        <v>2241900</v>
+        <v>2100200</v>
       </c>
       <c r="F43" s="3">
-        <v>2158800</v>
+        <v>2251900</v>
       </c>
       <c r="G43" s="3">
-        <v>2185000</v>
+        <v>2168500</v>
       </c>
       <c r="H43" s="3">
-        <v>2189800</v>
+        <v>2194700</v>
       </c>
       <c r="I43" s="3">
-        <v>2050900</v>
+        <v>2199500</v>
       </c>
       <c r="J43" s="3">
+        <v>2060000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2087400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2217600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2046700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2182200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2212900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2257800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2283300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2125900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2321200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>52800</v>
+        <v>44100</v>
       </c>
       <c r="E44" s="3">
-        <v>67200</v>
+        <v>53000</v>
       </c>
       <c r="F44" s="3">
-        <v>59400</v>
+        <v>67500</v>
       </c>
       <c r="G44" s="3">
-        <v>65200</v>
+        <v>59700</v>
       </c>
       <c r="H44" s="3">
-        <v>92200</v>
+        <v>65500</v>
       </c>
       <c r="I44" s="3">
-        <v>97000</v>
+        <v>92700</v>
       </c>
       <c r="J44" s="3">
+        <v>97400</v>
+      </c>
+      <c r="K44" s="3">
         <v>92900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>80200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>74400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>75000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>74900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>68200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>73900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>208300</v>
+        <v>225400</v>
       </c>
       <c r="E45" s="3">
-        <v>203300</v>
+        <v>209300</v>
       </c>
       <c r="F45" s="3">
-        <v>193300</v>
+        <v>204200</v>
       </c>
       <c r="G45" s="3">
-        <v>221400</v>
+        <v>194200</v>
       </c>
       <c r="H45" s="3">
-        <v>248400</v>
+        <v>222400</v>
       </c>
       <c r="I45" s="3">
-        <v>226300</v>
+        <v>249500</v>
       </c>
       <c r="J45" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K45" s="3">
         <v>277200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>292600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>777400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>399600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>371700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>412900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>450200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>382100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7369600</v>
+        <v>7837200</v>
       </c>
       <c r="E46" s="3">
-        <v>7002400</v>
+        <v>7402400</v>
       </c>
       <c r="F46" s="3">
-        <v>7127500</v>
+        <v>7033600</v>
       </c>
       <c r="G46" s="3">
-        <v>6858800</v>
+        <v>7159300</v>
       </c>
       <c r="H46" s="3">
-        <v>8232100</v>
+        <v>6889400</v>
       </c>
       <c r="I46" s="3">
-        <v>7703600</v>
+        <v>8268800</v>
       </c>
       <c r="J46" s="3">
+        <v>7737900</v>
+      </c>
+      <c r="K46" s="3">
         <v>7263000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6942800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6662800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7319000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6890800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8288700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8173700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7426000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7393100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>522200</v>
+        <v>540400</v>
       </c>
       <c r="E47" s="3">
-        <v>462400</v>
+        <v>524600</v>
       </c>
       <c r="F47" s="3">
-        <v>489700</v>
+        <v>464500</v>
       </c>
       <c r="G47" s="3">
-        <v>396600</v>
+        <v>491900</v>
       </c>
       <c r="H47" s="3">
-        <v>398400</v>
+        <v>398300</v>
       </c>
       <c r="I47" s="3">
-        <v>552800</v>
+        <v>400200</v>
       </c>
       <c r="J47" s="3">
+        <v>555300</v>
+      </c>
+      <c r="K47" s="3">
         <v>487600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>483100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>457200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>514800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>469000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>460600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>450600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>355300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>349500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1318200</v>
+        <v>1311400</v>
       </c>
       <c r="E48" s="3">
-        <v>1318300</v>
+        <v>1324100</v>
       </c>
       <c r="F48" s="3">
-        <v>1269700</v>
+        <v>1324200</v>
       </c>
       <c r="G48" s="3">
-        <v>1231300</v>
+        <v>1275300</v>
       </c>
       <c r="H48" s="3">
-        <v>1181800</v>
+        <v>1236800</v>
       </c>
       <c r="I48" s="3">
-        <v>951000</v>
+        <v>1187000</v>
       </c>
       <c r="J48" s="3">
+        <v>955200</v>
+      </c>
+      <c r="K48" s="3">
         <v>945700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>903900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>864000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>939300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1039900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1038300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1027000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>961800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>969600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1981400</v>
+        <v>2036000</v>
       </c>
       <c r="E49" s="3">
-        <v>1985100</v>
+        <v>1990200</v>
       </c>
       <c r="F49" s="3">
-        <v>1863400</v>
+        <v>1994000</v>
       </c>
       <c r="G49" s="3">
-        <v>1812300</v>
+        <v>1871700</v>
       </c>
       <c r="H49" s="3">
-        <v>1751400</v>
+        <v>1820400</v>
       </c>
       <c r="I49" s="3">
-        <v>1761100</v>
+        <v>1759200</v>
       </c>
       <c r="J49" s="3">
+        <v>1768900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1867400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1930800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1843900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1962200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2115800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2160500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2053400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1952900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2076300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138300</v>
+        <v>116500</v>
       </c>
       <c r="E52" s="3">
-        <v>237600</v>
+        <v>138900</v>
       </c>
       <c r="F52" s="3">
-        <v>177100</v>
+        <v>238700</v>
       </c>
       <c r="G52" s="3">
-        <v>241600</v>
+        <v>177900</v>
       </c>
       <c r="H52" s="3">
-        <v>238100</v>
+        <v>242600</v>
       </c>
       <c r="I52" s="3">
-        <v>254300</v>
+        <v>239200</v>
       </c>
       <c r="J52" s="3">
+        <v>255500</v>
+      </c>
+      <c r="K52" s="3">
         <v>329200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>340700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>262000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>263500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>206300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>245100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>305700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>238700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>230900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11329700</v>
+        <v>11841700</v>
       </c>
       <c r="E54" s="3">
-        <v>11005800</v>
+        <v>11380200</v>
       </c>
       <c r="F54" s="3">
-        <v>10927500</v>
+        <v>11054800</v>
       </c>
       <c r="G54" s="3">
-        <v>10540600</v>
+        <v>10976100</v>
       </c>
       <c r="H54" s="3">
-        <v>11801800</v>
+        <v>10587600</v>
       </c>
       <c r="I54" s="3">
-        <v>11222800</v>
+        <v>11854400</v>
       </c>
       <c r="J54" s="3">
+        <v>11272800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10892900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10601300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10090000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10998900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10722000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12193100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12010400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10934700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11019400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1011000</v>
+        <v>1109800</v>
       </c>
       <c r="E57" s="3">
-        <v>1052400</v>
+        <v>1015500</v>
       </c>
       <c r="F57" s="3">
-        <v>1085300</v>
+        <v>1057100</v>
       </c>
       <c r="G57" s="3">
-        <v>1124500</v>
+        <v>1090100</v>
       </c>
       <c r="H57" s="3">
-        <v>1132000</v>
+        <v>1129500</v>
       </c>
       <c r="I57" s="3">
-        <v>1189500</v>
+        <v>1137100</v>
       </c>
       <c r="J57" s="3">
+        <v>1194800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1067800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1121000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>998500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>985100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1031000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1007000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1068700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>902400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>956000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1031400</v>
+        <v>1103800</v>
       </c>
       <c r="E58" s="3">
-        <v>1074400</v>
+        <v>1036000</v>
       </c>
       <c r="F58" s="3">
-        <v>1061000</v>
+        <v>1079200</v>
       </c>
       <c r="G58" s="3">
-        <v>1055900</v>
+        <v>1065700</v>
       </c>
       <c r="H58" s="3">
-        <v>1180200</v>
+        <v>1060600</v>
       </c>
       <c r="I58" s="3">
-        <v>957700</v>
+        <v>1185500</v>
       </c>
       <c r="J58" s="3">
+        <v>962000</v>
+      </c>
+      <c r="K58" s="3">
         <v>725500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>829200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>934200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1344600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1477300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1651500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1644300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1692200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1878400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>812000</v>
+        <v>839800</v>
       </c>
       <c r="E59" s="3">
-        <v>788000</v>
+        <v>815600</v>
       </c>
       <c r="F59" s="3">
-        <v>761100</v>
+        <v>791500</v>
       </c>
       <c r="G59" s="3">
-        <v>680600</v>
+        <v>764500</v>
       </c>
       <c r="H59" s="3">
-        <v>722600</v>
+        <v>683600</v>
       </c>
       <c r="I59" s="3">
-        <v>740100</v>
+        <v>725800</v>
       </c>
       <c r="J59" s="3">
+        <v>743400</v>
+      </c>
+      <c r="K59" s="3">
         <v>807900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>820200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>697200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>757500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>687900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>616800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>675700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>568500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>577000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2854400</v>
+        <v>3053400</v>
       </c>
       <c r="E60" s="3">
-        <v>2914800</v>
+        <v>2867100</v>
       </c>
       <c r="F60" s="3">
-        <v>2907400</v>
+        <v>2927800</v>
       </c>
       <c r="G60" s="3">
-        <v>2861000</v>
+        <v>2920400</v>
       </c>
       <c r="H60" s="3">
-        <v>3034800</v>
+        <v>2873800</v>
       </c>
       <c r="I60" s="3">
-        <v>2887300</v>
+        <v>3048300</v>
       </c>
       <c r="J60" s="3">
+        <v>2900200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2601200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2770400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2629900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3087300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3196200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3275200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3388700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3163100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3411400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>235600</v>
+        <v>169700</v>
       </c>
       <c r="E61" s="3">
-        <v>235400</v>
+        <v>236700</v>
       </c>
       <c r="F61" s="3">
-        <v>443600</v>
+        <v>236500</v>
       </c>
       <c r="G61" s="3">
-        <v>442700</v>
+        <v>445600</v>
       </c>
       <c r="H61" s="3">
-        <v>447500</v>
+        <v>444600</v>
       </c>
       <c r="I61" s="3">
-        <v>382100</v>
+        <v>449500</v>
       </c>
       <c r="J61" s="3">
+        <v>383800</v>
+      </c>
+      <c r="K61" s="3">
         <v>673300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>691800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>622100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>654600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>430400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>450500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>469800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>270200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>275800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>321900</v>
+        <v>314500</v>
       </c>
       <c r="E62" s="3">
-        <v>321400</v>
+        <v>323300</v>
       </c>
       <c r="F62" s="3">
-        <v>286000</v>
+        <v>322800</v>
       </c>
       <c r="G62" s="3">
-        <v>282300</v>
+        <v>287300</v>
       </c>
       <c r="H62" s="3">
-        <v>295800</v>
+        <v>283500</v>
       </c>
       <c r="I62" s="3">
-        <v>265400</v>
+        <v>297100</v>
       </c>
       <c r="J62" s="3">
+        <v>266500</v>
+      </c>
+      <c r="K62" s="3">
         <v>214300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>220900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>203800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>238900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>258000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>299000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>298000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>298600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>327500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3426100</v>
+        <v>3553900</v>
       </c>
       <c r="E66" s="3">
-        <v>3496900</v>
+        <v>3441400</v>
       </c>
       <c r="F66" s="3">
-        <v>3658300</v>
+        <v>3512400</v>
       </c>
       <c r="G66" s="3">
-        <v>3606100</v>
+        <v>3674600</v>
       </c>
       <c r="H66" s="3">
-        <v>3815400</v>
+        <v>3622200</v>
       </c>
       <c r="I66" s="3">
-        <v>3570300</v>
+        <v>3832400</v>
       </c>
       <c r="J66" s="3">
+        <v>3586200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3523300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3713700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3484600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4015600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3919100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4060100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4191700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3764900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4048700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7395800</v>
+        <v>7757800</v>
       </c>
       <c r="E72" s="3">
-        <v>7031100</v>
+        <v>7428800</v>
       </c>
       <c r="F72" s="3">
-        <v>6812500</v>
+        <v>7062400</v>
       </c>
       <c r="G72" s="3">
-        <v>6478500</v>
+        <v>6842900</v>
       </c>
       <c r="H72" s="3">
-        <v>7534100</v>
+        <v>6507300</v>
       </c>
       <c r="I72" s="3">
-        <v>7209600</v>
+        <v>7567700</v>
       </c>
       <c r="J72" s="3">
+        <v>7241700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6959000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6491000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6261500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6576600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6409300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7695400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7362300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6785400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6552600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7903600</v>
+        <v>8287800</v>
       </c>
       <c r="E76" s="3">
-        <v>7509000</v>
+        <v>7938800</v>
       </c>
       <c r="F76" s="3">
-        <v>7269100</v>
+        <v>7542400</v>
       </c>
       <c r="G76" s="3">
-        <v>6934500</v>
+        <v>7301500</v>
       </c>
       <c r="H76" s="3">
-        <v>7986400</v>
+        <v>6965400</v>
       </c>
       <c r="I76" s="3">
-        <v>7652500</v>
+        <v>8022000</v>
       </c>
       <c r="J76" s="3">
+        <v>7686600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7369700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6887600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6605400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6983300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6802900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8133000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7818800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7169800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6970800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>322000</v>
+        <v>333600</v>
       </c>
       <c r="E81" s="3">
-        <v>313300</v>
+        <v>323400</v>
       </c>
       <c r="F81" s="3">
-        <v>330800</v>
+        <v>314700</v>
       </c>
       <c r="G81" s="3">
-        <v>343800</v>
+        <v>332300</v>
       </c>
       <c r="H81" s="3">
-        <v>321600</v>
+        <v>345400</v>
       </c>
       <c r="I81" s="3">
-        <v>334500</v>
+        <v>323000</v>
       </c>
       <c r="J81" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K81" s="3">
         <v>338100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>249700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>280300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>260700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>280100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>316900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>311600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>290700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>82900</v>
+        <v>89000</v>
       </c>
       <c r="E83" s="3">
-        <v>78100</v>
+        <v>83300</v>
       </c>
       <c r="F83" s="3">
-        <v>71300</v>
+        <v>78400</v>
       </c>
       <c r="G83" s="3">
-        <v>64800</v>
+        <v>71600</v>
       </c>
       <c r="H83" s="3">
-        <v>66700</v>
+        <v>65100</v>
       </c>
       <c r="I83" s="3">
-        <v>75400</v>
+        <v>67000</v>
       </c>
       <c r="J83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K83" s="3">
         <v>69700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>76300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>112700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>74600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>563200</v>
+        <v>597100</v>
       </c>
       <c r="E89" s="3">
-        <v>189500</v>
+        <v>565700</v>
       </c>
       <c r="F89" s="3">
-        <v>411700</v>
+        <v>190400</v>
       </c>
       <c r="G89" s="3">
-        <v>367100</v>
+        <v>413500</v>
       </c>
       <c r="H89" s="3">
-        <v>387300</v>
+        <v>368800</v>
       </c>
       <c r="I89" s="3">
-        <v>448100</v>
+        <v>389000</v>
       </c>
       <c r="J89" s="3">
+        <v>450100</v>
+      </c>
+      <c r="K89" s="3">
         <v>480300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>245700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>380900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>108600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>431300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>427400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>352600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>363600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57300</v>
+        <v>-55400</v>
       </c>
       <c r="E91" s="3">
-        <v>-80300</v>
+        <v>-57600</v>
       </c>
       <c r="F91" s="3">
-        <v>-84200</v>
+        <v>-80600</v>
       </c>
       <c r="G91" s="3">
-        <v>-78500</v>
+        <v>-84500</v>
       </c>
       <c r="H91" s="3">
-        <v>-73500</v>
+        <v>-78900</v>
       </c>
       <c r="I91" s="3">
-        <v>-75700</v>
+        <v>-73900</v>
       </c>
       <c r="J91" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-88400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-93600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-261400</v>
+        <v>-668400</v>
       </c>
       <c r="E94" s="3">
-        <v>-381300</v>
+        <v>-262600</v>
       </c>
       <c r="F94" s="3">
-        <v>-292500</v>
+        <v>-383000</v>
       </c>
       <c r="G94" s="3">
-        <v>453100</v>
+        <v>-293800</v>
       </c>
       <c r="H94" s="3">
-        <v>678900</v>
+        <v>455100</v>
       </c>
       <c r="I94" s="3">
-        <v>-112100</v>
+        <v>681900</v>
       </c>
       <c r="J94" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="K94" s="3">
         <v>487600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>315400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-187100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1361700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-239500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-420700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-180600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-689300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-73400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-73700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4882,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-78400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4894,16 +5128,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-80200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-95300</v>
+        <v>-22900</v>
       </c>
       <c r="E100" s="3">
-        <v>-375000</v>
+        <v>-95700</v>
       </c>
       <c r="F100" s="3">
-        <v>-58100</v>
+        <v>-376700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1648400</v>
+        <v>-58400</v>
       </c>
       <c r="H100" s="3">
-        <v>47600</v>
+        <v>-1655800</v>
       </c>
       <c r="I100" s="3">
-        <v>-119600</v>
+        <v>47800</v>
       </c>
       <c r="J100" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-122200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-314000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>25200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-262300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>404100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8700</v>
       </c>
-      <c r="F101" s="3">
-        <v>8800</v>
-      </c>
       <c r="G101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-4100</v>
-      </c>
       <c r="J101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-30800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>204600</v>
+        <v>-93000</v>
       </c>
       <c r="E102" s="3">
-        <v>-558100</v>
+        <v>205500</v>
       </c>
       <c r="F102" s="3">
-        <v>69900</v>
+        <v>-560600</v>
       </c>
       <c r="G102" s="3">
-        <v>-822200</v>
+        <v>70200</v>
       </c>
       <c r="H102" s="3">
-        <v>1116100</v>
+        <v>-825900</v>
       </c>
       <c r="I102" s="3">
-        <v>212200</v>
+        <v>1121100</v>
       </c>
       <c r="J102" s="3">
+        <v>213200</v>
+      </c>
+      <c r="K102" s="3">
         <v>850200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>124700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>387200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-150600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-121200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2045000</v>
+        <v>2156200</v>
       </c>
       <c r="E8" s="3">
-        <v>2017700</v>
+        <v>2079800</v>
       </c>
       <c r="F8" s="3">
-        <v>2125700</v>
+        <v>2052000</v>
       </c>
       <c r="G8" s="3">
-        <v>2093200</v>
+        <v>2161800</v>
       </c>
       <c r="H8" s="3">
-        <v>2046500</v>
+        <v>2128700</v>
       </c>
       <c r="I8" s="3">
-        <v>1991100</v>
+        <v>2081300</v>
       </c>
       <c r="J8" s="3">
+        <v>2024900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2030400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2028500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1922300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1847900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1990900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1976500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1941000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1970300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1927500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1886200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1425900</v>
+        <v>1435300</v>
       </c>
       <c r="E9" s="3">
-        <v>1403100</v>
+        <v>1450100</v>
       </c>
       <c r="F9" s="3">
-        <v>1544200</v>
+        <v>1426900</v>
       </c>
       <c r="G9" s="3">
-        <v>1483900</v>
+        <v>1570500</v>
       </c>
       <c r="H9" s="3">
-        <v>1461300</v>
+        <v>1509100</v>
       </c>
       <c r="I9" s="3">
-        <v>1410800</v>
+        <v>1486200</v>
       </c>
       <c r="J9" s="3">
+        <v>1434800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1446900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1345400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1326600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1414100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1387800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1369300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1404200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1388600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1330800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>619100</v>
+        <v>720800</v>
       </c>
       <c r="E10" s="3">
-        <v>614700</v>
+        <v>629600</v>
       </c>
       <c r="F10" s="3">
-        <v>581500</v>
+        <v>625100</v>
       </c>
       <c r="G10" s="3">
-        <v>609300</v>
+        <v>591400</v>
       </c>
       <c r="H10" s="3">
-        <v>585200</v>
+        <v>619600</v>
       </c>
       <c r="I10" s="3">
-        <v>580300</v>
+        <v>595100</v>
       </c>
       <c r="J10" s="3">
+        <v>590100</v>
+      </c>
+      <c r="K10" s="3">
         <v>583400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>628000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>576900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>521200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>576800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>588700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>571700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>566100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>538900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>555400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,16 +1064,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E14" s="3">
         <v>3600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1071,23 +1090,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-33600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1095,73 +1114,79 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="E15" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="F15" s="3">
-        <v>12400</v>
+        <v>14100</v>
       </c>
       <c r="G15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M15" s="3">
         <v>11600</v>
       </c>
-      <c r="H15" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="S15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="T15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="U15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
-        <v>12100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>11600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>11300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>13100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>13000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>12800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>11300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>12500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6200</v>
-      </c>
-      <c r="T15" s="3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1664300</v>
+        <v>1690900</v>
       </c>
       <c r="E17" s="3">
-        <v>1653300</v>
+        <v>1692600</v>
       </c>
       <c r="F17" s="3">
-        <v>1768700</v>
+        <v>1681400</v>
       </c>
       <c r="G17" s="3">
-        <v>1724700</v>
+        <v>1798700</v>
       </c>
       <c r="H17" s="3">
-        <v>1684800</v>
+        <v>1754000</v>
       </c>
       <c r="I17" s="3">
-        <v>1647800</v>
+        <v>1713400</v>
       </c>
       <c r="J17" s="3">
+        <v>1675800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1660700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1642400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1649800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1539700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1710600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1690600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1607900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1650900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1585300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1566000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>380700</v>
+        <v>465300</v>
       </c>
       <c r="E18" s="3">
-        <v>364500</v>
+        <v>387100</v>
       </c>
       <c r="F18" s="3">
-        <v>357000</v>
+        <v>370700</v>
       </c>
       <c r="G18" s="3">
-        <v>368500</v>
+        <v>363100</v>
       </c>
       <c r="H18" s="3">
-        <v>361700</v>
+        <v>374700</v>
       </c>
       <c r="I18" s="3">
-        <v>343300</v>
+        <v>367900</v>
       </c>
       <c r="J18" s="3">
+        <v>349100</v>
+      </c>
+      <c r="K18" s="3">
         <v>369600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>386200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>272500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>308100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>280300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>285900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>333200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>319500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>342100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>320200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68000</v>
+        <v>81100</v>
       </c>
       <c r="E20" s="3">
-        <v>67900</v>
+        <v>69200</v>
       </c>
       <c r="F20" s="3">
-        <v>60000</v>
+        <v>69000</v>
       </c>
       <c r="G20" s="3">
-        <v>65300</v>
+        <v>61000</v>
       </c>
       <c r="H20" s="3">
-        <v>81600</v>
+        <v>66400</v>
       </c>
       <c r="I20" s="3">
-        <v>89600</v>
+        <v>83000</v>
       </c>
       <c r="J20" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K20" s="3">
         <v>92000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>66000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>62200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>65200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>82600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>86600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>78400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>71100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>65200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>537700</v>
+        <v>655500</v>
       </c>
       <c r="E21" s="3">
-        <v>515600</v>
+        <v>546900</v>
       </c>
       <c r="F21" s="3">
-        <v>495500</v>
+        <v>524400</v>
       </c>
       <c r="G21" s="3">
-        <v>505400</v>
+        <v>503900</v>
       </c>
       <c r="H21" s="3">
+        <v>514000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>517100</v>
+      </c>
+      <c r="J21" s="3">
         <v>508500</v>
       </c>
-      <c r="I21" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>537300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>521900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>392600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>427600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>428000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>444800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>495000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>469300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>526000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>460000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14800</v>
+        <v>16800</v>
       </c>
       <c r="E22" s="3">
-        <v>13600</v>
+        <v>15000</v>
       </c>
       <c r="F22" s="3">
-        <v>15800</v>
+        <v>13800</v>
       </c>
       <c r="G22" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="H22" s="3">
-        <v>19300</v>
+        <v>17400</v>
       </c>
       <c r="I22" s="3">
-        <v>17300</v>
+        <v>19600</v>
       </c>
       <c r="J22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K22" s="3">
         <v>28700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>433900</v>
+        <v>529600</v>
       </c>
       <c r="E23" s="3">
-        <v>418800</v>
+        <v>441300</v>
       </c>
       <c r="F23" s="3">
-        <v>401200</v>
+        <v>425900</v>
       </c>
       <c r="G23" s="3">
-        <v>416600</v>
+        <v>408100</v>
       </c>
       <c r="H23" s="3">
-        <v>424100</v>
+        <v>423700</v>
       </c>
       <c r="I23" s="3">
-        <v>415600</v>
+        <v>431300</v>
       </c>
       <c r="J23" s="3">
+        <v>422700</v>
+      </c>
+      <c r="K23" s="3">
         <v>433000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>436600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>320000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>354300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>327100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>357400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>409500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>387800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>405300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>380100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97800</v>
+        <v>117300</v>
       </c>
       <c r="E24" s="3">
-        <v>92500</v>
+        <v>99500</v>
       </c>
       <c r="F24" s="3">
-        <v>84000</v>
+        <v>94100</v>
       </c>
       <c r="G24" s="3">
-        <v>83400</v>
+        <v>85400</v>
       </c>
       <c r="H24" s="3">
+        <v>84800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>95600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>93800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>70700</v>
+      </c>
+      <c r="N24" s="3">
         <v>77500</v>
       </c>
-      <c r="I24" s="3">
-        <v>90600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>95600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>93800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>70700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>77500</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>89300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>77400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>92900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>86700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>92900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>88700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>336100</v>
+        <v>412300</v>
       </c>
       <c r="E26" s="3">
-        <v>326200</v>
+        <v>341800</v>
       </c>
       <c r="F26" s="3">
-        <v>317300</v>
+        <v>331800</v>
       </c>
       <c r="G26" s="3">
-        <v>333200</v>
+        <v>322700</v>
       </c>
       <c r="H26" s="3">
-        <v>346500</v>
+        <v>338900</v>
       </c>
       <c r="I26" s="3">
-        <v>325000</v>
+        <v>352400</v>
       </c>
       <c r="J26" s="3">
+        <v>330500</v>
+      </c>
+      <c r="K26" s="3">
         <v>337400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>342700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>249300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>276800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>237800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>279900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>316600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>301100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>312400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>291400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>333600</v>
+        <v>408200</v>
       </c>
       <c r="E27" s="3">
-        <v>323400</v>
+        <v>339300</v>
       </c>
       <c r="F27" s="3">
-        <v>314700</v>
+        <v>328900</v>
       </c>
       <c r="G27" s="3">
-        <v>332300</v>
+        <v>320100</v>
       </c>
       <c r="H27" s="3">
-        <v>345400</v>
+        <v>337900</v>
       </c>
       <c r="I27" s="3">
-        <v>323000</v>
+        <v>351200</v>
       </c>
       <c r="J27" s="3">
+        <v>328500</v>
+      </c>
+      <c r="K27" s="3">
         <v>336000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>338100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>249700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>280300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>238100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>280100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>311600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>290700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,11 +1912,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>22600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68000</v>
+        <v>-81100</v>
       </c>
       <c r="E32" s="3">
-        <v>-67900</v>
+        <v>-69200</v>
       </c>
       <c r="F32" s="3">
-        <v>-60000</v>
+        <v>-69000</v>
       </c>
       <c r="G32" s="3">
-        <v>-65300</v>
+        <v>-61000</v>
       </c>
       <c r="H32" s="3">
-        <v>-81600</v>
+        <v>-66400</v>
       </c>
       <c r="I32" s="3">
-        <v>-89600</v>
+        <v>-83000</v>
       </c>
       <c r="J32" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-92000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-66000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-62200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-65200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-82600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-86600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-78400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-71100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-65200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>333600</v>
+        <v>408200</v>
       </c>
       <c r="E33" s="3">
-        <v>323400</v>
+        <v>339300</v>
       </c>
       <c r="F33" s="3">
-        <v>314700</v>
+        <v>328900</v>
       </c>
       <c r="G33" s="3">
-        <v>332300</v>
+        <v>320100</v>
       </c>
       <c r="H33" s="3">
-        <v>345400</v>
+        <v>337900</v>
       </c>
       <c r="I33" s="3">
-        <v>323000</v>
+        <v>351200</v>
       </c>
       <c r="J33" s="3">
+        <v>328500</v>
+      </c>
+      <c r="K33" s="3">
         <v>336000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>338100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>249700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>280300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>260700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>280100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>311600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>290700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>333600</v>
+        <v>408200</v>
       </c>
       <c r="E35" s="3">
-        <v>323400</v>
+        <v>339300</v>
       </c>
       <c r="F35" s="3">
-        <v>314700</v>
+        <v>328900</v>
       </c>
       <c r="G35" s="3">
-        <v>332300</v>
+        <v>320100</v>
       </c>
       <c r="H35" s="3">
-        <v>345400</v>
+        <v>337900</v>
       </c>
       <c r="I35" s="3">
-        <v>323000</v>
+        <v>351200</v>
       </c>
       <c r="J35" s="3">
+        <v>328500</v>
+      </c>
+      <c r="K35" s="3">
         <v>336000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>338100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>249700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>280300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>260700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>280100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>311600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>290700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2062300</v>
+        <v>1918600</v>
       </c>
       <c r="E41" s="3">
-        <v>2157300</v>
+        <v>2097300</v>
       </c>
       <c r="F41" s="3">
-        <v>1955100</v>
+        <v>2193900</v>
       </c>
       <c r="G41" s="3">
-        <v>2525200</v>
+        <v>1988300</v>
       </c>
       <c r="H41" s="3">
-        <v>2441400</v>
+        <v>2568100</v>
       </c>
       <c r="I41" s="3">
-        <v>3266200</v>
+        <v>2482900</v>
       </c>
       <c r="J41" s="3">
+        <v>3321700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2144900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1923100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1055200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>934500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>649600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>752900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>743400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>785400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>726300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>826000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3485700</v>
+        <v>4298700</v>
       </c>
       <c r="E42" s="3">
-        <v>2882700</v>
+        <v>3545000</v>
       </c>
       <c r="F42" s="3">
-        <v>2555000</v>
+        <v>2931700</v>
       </c>
       <c r="G42" s="3">
-        <v>2211700</v>
+        <v>2598400</v>
       </c>
       <c r="H42" s="3">
-        <v>1965400</v>
+        <v>2249300</v>
       </c>
       <c r="I42" s="3">
-        <v>2460900</v>
+        <v>1998800</v>
       </c>
       <c r="J42" s="3">
+        <v>2502700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3208200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2882400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3289300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3314600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3634700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3462900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4840800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4623800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4049700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3766400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2019700</v>
+        <v>2034100</v>
       </c>
       <c r="E43" s="3">
-        <v>2100200</v>
+        <v>2054100</v>
       </c>
       <c r="F43" s="3">
-        <v>2251900</v>
+        <v>2135900</v>
       </c>
       <c r="G43" s="3">
-        <v>2168500</v>
+        <v>2290200</v>
       </c>
       <c r="H43" s="3">
-        <v>2194700</v>
+        <v>2205300</v>
       </c>
       <c r="I43" s="3">
-        <v>2199500</v>
+        <v>2232000</v>
       </c>
       <c r="J43" s="3">
+        <v>2236900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2060000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2087400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2217600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2046700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2182200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2212900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2257800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2283300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2125900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2321200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>44100</v>
+        <v>50600</v>
       </c>
       <c r="E44" s="3">
-        <v>53000</v>
+        <v>44900</v>
       </c>
       <c r="F44" s="3">
-        <v>67500</v>
+        <v>53900</v>
       </c>
       <c r="G44" s="3">
-        <v>59700</v>
+        <v>68600</v>
       </c>
       <c r="H44" s="3">
-        <v>65500</v>
+        <v>60700</v>
       </c>
       <c r="I44" s="3">
-        <v>92700</v>
+        <v>66600</v>
       </c>
       <c r="J44" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K44" s="3">
         <v>97400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>80200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>74400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>75000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>74900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>68200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>73900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>97500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>225400</v>
+        <v>242400</v>
       </c>
       <c r="E45" s="3">
-        <v>209300</v>
+        <v>229200</v>
       </c>
       <c r="F45" s="3">
-        <v>204200</v>
+        <v>212800</v>
       </c>
       <c r="G45" s="3">
-        <v>194200</v>
+        <v>207600</v>
       </c>
       <c r="H45" s="3">
-        <v>222400</v>
+        <v>197500</v>
       </c>
       <c r="I45" s="3">
-        <v>249500</v>
+        <v>226200</v>
       </c>
       <c r="J45" s="3">
+        <v>253700</v>
+      </c>
+      <c r="K45" s="3">
         <v>227300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>277200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>292600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>777400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>399600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>371700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>412900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>450200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>382100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7837200</v>
+        <v>8544400</v>
       </c>
       <c r="E46" s="3">
-        <v>7402400</v>
+        <v>7970400</v>
       </c>
       <c r="F46" s="3">
-        <v>7033600</v>
+        <v>7528200</v>
       </c>
       <c r="G46" s="3">
-        <v>7159300</v>
+        <v>7153100</v>
       </c>
       <c r="H46" s="3">
-        <v>6889400</v>
+        <v>7281000</v>
       </c>
       <c r="I46" s="3">
-        <v>8268800</v>
+        <v>7006500</v>
       </c>
       <c r="J46" s="3">
+        <v>8409300</v>
+      </c>
+      <c r="K46" s="3">
         <v>7737900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7263000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6942800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6662800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7319000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6890800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8288700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8173700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7426000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7393100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>540400</v>
+        <v>541200</v>
       </c>
       <c r="E47" s="3">
-        <v>524600</v>
+        <v>549600</v>
       </c>
       <c r="F47" s="3">
-        <v>464500</v>
+        <v>533500</v>
       </c>
       <c r="G47" s="3">
-        <v>491900</v>
+        <v>472400</v>
       </c>
       <c r="H47" s="3">
-        <v>398300</v>
+        <v>500300</v>
       </c>
       <c r="I47" s="3">
-        <v>400200</v>
+        <v>405100</v>
       </c>
       <c r="J47" s="3">
+        <v>407000</v>
+      </c>
+      <c r="K47" s="3">
         <v>555300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>487600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>483100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>457200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>514800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>469000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>460600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>450600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>355300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>349500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1311400</v>
+        <v>1359500</v>
       </c>
       <c r="E48" s="3">
-        <v>1324100</v>
+        <v>1333700</v>
       </c>
       <c r="F48" s="3">
-        <v>1324200</v>
+        <v>1346600</v>
       </c>
       <c r="G48" s="3">
-        <v>1275300</v>
+        <v>1346700</v>
       </c>
       <c r="H48" s="3">
-        <v>1236800</v>
+        <v>1297000</v>
       </c>
       <c r="I48" s="3">
-        <v>1187000</v>
+        <v>1257800</v>
       </c>
       <c r="J48" s="3">
+        <v>1207200</v>
+      </c>
+      <c r="K48" s="3">
         <v>955200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>945700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>903900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>864000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>939300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1039900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1038300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1027000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>961800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>969600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2036000</v>
+        <v>2055400</v>
       </c>
       <c r="E49" s="3">
-        <v>1990200</v>
+        <v>2070700</v>
       </c>
       <c r="F49" s="3">
-        <v>1994000</v>
+        <v>2024100</v>
       </c>
       <c r="G49" s="3">
-        <v>1871700</v>
+        <v>2027900</v>
       </c>
       <c r="H49" s="3">
-        <v>1820400</v>
+        <v>1903500</v>
       </c>
       <c r="I49" s="3">
-        <v>1759200</v>
+        <v>1851300</v>
       </c>
       <c r="J49" s="3">
+        <v>1789100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1768900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1867400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1930800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1843900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1962200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2115800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2160500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2053400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1952900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2076300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116500</v>
+        <v>127500</v>
       </c>
       <c r="E52" s="3">
-        <v>138900</v>
+        <v>118500</v>
       </c>
       <c r="F52" s="3">
+        <v>141300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>242700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>180900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>246800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>255500</v>
+      </c>
+      <c r="L52" s="3">
+        <v>329200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>340700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>262000</v>
+      </c>
+      <c r="O52" s="3">
+        <v>263500</v>
+      </c>
+      <c r="P52" s="3">
+        <v>206300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>245100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>305700</v>
+      </c>
+      <c r="S52" s="3">
         <v>238700</v>
       </c>
-      <c r="G52" s="3">
-        <v>177900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>242600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>239200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>255500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>329200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>340700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>262000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>263500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>206300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>245100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>305700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>238700</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>230900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11841700</v>
+        <v>12628000</v>
       </c>
       <c r="E54" s="3">
-        <v>11380200</v>
+        <v>12043000</v>
       </c>
       <c r="F54" s="3">
-        <v>11054800</v>
+        <v>11573600</v>
       </c>
       <c r="G54" s="3">
-        <v>10976100</v>
+        <v>11242800</v>
       </c>
       <c r="H54" s="3">
-        <v>10587600</v>
+        <v>11162700</v>
       </c>
       <c r="I54" s="3">
-        <v>11854400</v>
+        <v>10767500</v>
       </c>
       <c r="J54" s="3">
+        <v>12055900</v>
+      </c>
+      <c r="K54" s="3">
         <v>11272800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10892900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10601300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10090000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10998900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10722000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12193100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12010400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10934700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11019400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1109800</v>
+        <v>1148400</v>
       </c>
       <c r="E57" s="3">
-        <v>1015500</v>
+        <v>1128600</v>
       </c>
       <c r="F57" s="3">
-        <v>1057100</v>
+        <v>1032800</v>
       </c>
       <c r="G57" s="3">
-        <v>1090100</v>
+        <v>1075100</v>
       </c>
       <c r="H57" s="3">
-        <v>1129500</v>
+        <v>1108600</v>
       </c>
       <c r="I57" s="3">
-        <v>1137100</v>
+        <v>1148700</v>
       </c>
       <c r="J57" s="3">
+        <v>1156400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1194800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1067800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1121000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>998500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>985100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1031000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1007000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1068700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>902400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>956000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1103800</v>
+        <v>1111200</v>
       </c>
       <c r="E58" s="3">
-        <v>1036000</v>
+        <v>1122500</v>
       </c>
       <c r="F58" s="3">
-        <v>1079200</v>
+        <v>1053600</v>
       </c>
       <c r="G58" s="3">
-        <v>1065700</v>
+        <v>1097500</v>
       </c>
       <c r="H58" s="3">
-        <v>1060600</v>
+        <v>1083900</v>
       </c>
       <c r="I58" s="3">
-        <v>1185500</v>
+        <v>1078600</v>
       </c>
       <c r="J58" s="3">
+        <v>1205600</v>
+      </c>
+      <c r="K58" s="3">
         <v>962000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>725500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>829200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>934200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1344600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1477300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1651500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1644300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1692200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1878400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>839800</v>
+        <v>2551300</v>
       </c>
       <c r="E59" s="3">
-        <v>815600</v>
+        <v>854100</v>
       </c>
       <c r="F59" s="3">
-        <v>791500</v>
+        <v>829400</v>
       </c>
       <c r="G59" s="3">
-        <v>764500</v>
+        <v>805000</v>
       </c>
       <c r="H59" s="3">
-        <v>683600</v>
+        <v>777500</v>
       </c>
       <c r="I59" s="3">
-        <v>725800</v>
+        <v>695200</v>
       </c>
       <c r="J59" s="3">
+        <v>738100</v>
+      </c>
+      <c r="K59" s="3">
         <v>743400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>807900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>820200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>697200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>757500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>687900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>616800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>675700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>568500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>577000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3053400</v>
+        <v>4811000</v>
       </c>
       <c r="E60" s="3">
-        <v>2867100</v>
+        <v>3105300</v>
       </c>
       <c r="F60" s="3">
-        <v>2927800</v>
+        <v>2915800</v>
       </c>
       <c r="G60" s="3">
-        <v>2920400</v>
+        <v>2977600</v>
       </c>
       <c r="H60" s="3">
-        <v>2873800</v>
+        <v>2970000</v>
       </c>
       <c r="I60" s="3">
-        <v>3048300</v>
+        <v>2922600</v>
       </c>
       <c r="J60" s="3">
+        <v>3100200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2900200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2601200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2770400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2629900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3087300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3196200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3275200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3388700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3163100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3411400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>169700</v>
+        <v>180400</v>
       </c>
       <c r="E61" s="3">
-        <v>236700</v>
+        <v>172600</v>
       </c>
       <c r="F61" s="3">
-        <v>236500</v>
+        <v>240700</v>
       </c>
       <c r="G61" s="3">
-        <v>445600</v>
+        <v>240500</v>
       </c>
       <c r="H61" s="3">
-        <v>444600</v>
+        <v>453100</v>
       </c>
       <c r="I61" s="3">
-        <v>449500</v>
+        <v>452200</v>
       </c>
       <c r="J61" s="3">
+        <v>457100</v>
+      </c>
+      <c r="K61" s="3">
         <v>383800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>673300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>691800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>622100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>654600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>430400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>450500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>469800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>270200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>275800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>314500</v>
+        <v>362700</v>
       </c>
       <c r="E62" s="3">
-        <v>323300</v>
+        <v>319800</v>
       </c>
       <c r="F62" s="3">
-        <v>322800</v>
+        <v>328800</v>
       </c>
       <c r="G62" s="3">
-        <v>287300</v>
+        <v>328300</v>
       </c>
       <c r="H62" s="3">
-        <v>283500</v>
+        <v>292200</v>
       </c>
       <c r="I62" s="3">
-        <v>297100</v>
+        <v>288400</v>
       </c>
       <c r="J62" s="3">
+        <v>302100</v>
+      </c>
+      <c r="K62" s="3">
         <v>266500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>214300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>220900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>203800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>238900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>258000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>299000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>298000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>298600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>327500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3553900</v>
+        <v>5374400</v>
       </c>
       <c r="E66" s="3">
-        <v>3441400</v>
+        <v>3614300</v>
       </c>
       <c r="F66" s="3">
-        <v>3512400</v>
+        <v>3499900</v>
       </c>
       <c r="G66" s="3">
-        <v>3674600</v>
+        <v>3572200</v>
       </c>
       <c r="H66" s="3">
-        <v>3622200</v>
+        <v>3737100</v>
       </c>
       <c r="I66" s="3">
-        <v>3832400</v>
+        <v>3683700</v>
       </c>
       <c r="J66" s="3">
+        <v>3897500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3586200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3523300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3713700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3484600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4015600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3919100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4060100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4191700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3764900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4048700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7757800</v>
+        <v>6696800</v>
       </c>
       <c r="E72" s="3">
-        <v>7428800</v>
+        <v>7889700</v>
       </c>
       <c r="F72" s="3">
-        <v>7062400</v>
+        <v>7555000</v>
       </c>
       <c r="G72" s="3">
-        <v>6842900</v>
+        <v>7182500</v>
       </c>
       <c r="H72" s="3">
-        <v>6507300</v>
+        <v>6959200</v>
       </c>
       <c r="I72" s="3">
-        <v>7567700</v>
+        <v>6618000</v>
       </c>
       <c r="J72" s="3">
+        <v>7696300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7241700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6959000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6491000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6261500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6576600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6409300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7695400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7362300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6785400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6552600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8287800</v>
+        <v>7253600</v>
       </c>
       <c r="E76" s="3">
-        <v>7938800</v>
+        <v>8428700</v>
       </c>
       <c r="F76" s="3">
-        <v>7542400</v>
+        <v>8073700</v>
       </c>
       <c r="G76" s="3">
-        <v>7301500</v>
+        <v>7670600</v>
       </c>
       <c r="H76" s="3">
-        <v>6965400</v>
+        <v>7425600</v>
       </c>
       <c r="I76" s="3">
-        <v>8022000</v>
+        <v>7083800</v>
       </c>
       <c r="J76" s="3">
+        <v>8158400</v>
+      </c>
+      <c r="K76" s="3">
         <v>7686600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7369700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6887600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6605400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6983300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6802900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8133000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7818800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7169800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6970800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>333600</v>
+        <v>408200</v>
       </c>
       <c r="E81" s="3">
-        <v>323400</v>
+        <v>339300</v>
       </c>
       <c r="F81" s="3">
-        <v>314700</v>
+        <v>328900</v>
       </c>
       <c r="G81" s="3">
-        <v>332300</v>
+        <v>320100</v>
       </c>
       <c r="H81" s="3">
-        <v>345400</v>
+        <v>337900</v>
       </c>
       <c r="I81" s="3">
-        <v>323000</v>
+        <v>351200</v>
       </c>
       <c r="J81" s="3">
+        <v>328500</v>
+      </c>
+      <c r="K81" s="3">
         <v>336000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>338100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>249700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>280300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>260700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>280100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>311600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>290700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89000</v>
+        <v>109100</v>
       </c>
       <c r="E83" s="3">
-        <v>83300</v>
+        <v>90500</v>
       </c>
       <c r="F83" s="3">
-        <v>78400</v>
+        <v>84700</v>
       </c>
       <c r="G83" s="3">
-        <v>71600</v>
+        <v>79800</v>
       </c>
       <c r="H83" s="3">
-        <v>65100</v>
+        <v>72900</v>
       </c>
       <c r="I83" s="3">
-        <v>67000</v>
+        <v>66200</v>
       </c>
       <c r="J83" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K83" s="3">
         <v>75700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>112700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>74600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>597100</v>
+        <v>609900</v>
       </c>
       <c r="E89" s="3">
-        <v>565700</v>
+        <v>607300</v>
       </c>
       <c r="F89" s="3">
-        <v>190400</v>
+        <v>575300</v>
       </c>
       <c r="G89" s="3">
-        <v>413500</v>
+        <v>193600</v>
       </c>
       <c r="H89" s="3">
-        <v>368800</v>
+        <v>420600</v>
       </c>
       <c r="I89" s="3">
-        <v>389000</v>
+        <v>375000</v>
       </c>
       <c r="J89" s="3">
+        <v>395600</v>
+      </c>
+      <c r="K89" s="3">
         <v>450100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>480300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>245700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>380900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>108600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>431300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>250800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>427400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>352600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>363600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55400</v>
+        <v>-70400</v>
       </c>
       <c r="E91" s="3">
-        <v>-57600</v>
+        <v>-56400</v>
       </c>
       <c r="F91" s="3">
-        <v>-80600</v>
+        <v>-58600</v>
       </c>
       <c r="G91" s="3">
-        <v>-84500</v>
+        <v>-82000</v>
       </c>
       <c r="H91" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-78900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-73900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-76100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-88400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-93600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-668400</v>
+        <v>-734700</v>
       </c>
       <c r="E94" s="3">
-        <v>-262600</v>
+        <v>-679800</v>
       </c>
       <c r="F94" s="3">
-        <v>-383000</v>
+        <v>-267000</v>
       </c>
       <c r="G94" s="3">
-        <v>-293800</v>
+        <v>-389500</v>
       </c>
       <c r="H94" s="3">
-        <v>455100</v>
+        <v>-298800</v>
       </c>
       <c r="I94" s="3">
-        <v>681900</v>
+        <v>462900</v>
       </c>
       <c r="J94" s="3">
+        <v>693500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-112600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>487600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>315400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-187100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1361700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-239500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-420700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-180600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-689300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-73700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-75000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5119,11 +5352,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-78400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5131,16 +5364,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-80200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22900</v>
+        <v>-53700</v>
       </c>
       <c r="E100" s="3">
-        <v>-95700</v>
+        <v>-23300</v>
       </c>
       <c r="F100" s="3">
-        <v>-376700</v>
+        <v>-97400</v>
       </c>
       <c r="G100" s="3">
-        <v>-58400</v>
+        <v>-383100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1655800</v>
+        <v>-59300</v>
       </c>
       <c r="I100" s="3">
-        <v>47800</v>
+        <v>-1683900</v>
       </c>
       <c r="J100" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-120200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-122200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-314000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-76900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>25200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-262300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>404100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>8700</v>
       </c>
       <c r="G101" s="3">
         <v>8900</v>
       </c>
       <c r="H101" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-30800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-93000</v>
+        <v>-179400</v>
       </c>
       <c r="E102" s="3">
-        <v>205500</v>
+        <v>-94600</v>
       </c>
       <c r="F102" s="3">
-        <v>-560600</v>
+        <v>209000</v>
       </c>
       <c r="G102" s="3">
-        <v>70200</v>
+        <v>-570100</v>
       </c>
       <c r="H102" s="3">
-        <v>-825900</v>
+        <v>71400</v>
       </c>
       <c r="I102" s="3">
-        <v>1121100</v>
+        <v>-839900</v>
       </c>
       <c r="J102" s="3">
+        <v>1140200</v>
+      </c>
+      <c r="K102" s="3">
         <v>213200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>850200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>124700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>387200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-150600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-121200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2156200</v>
+        <v>2153100</v>
       </c>
       <c r="E8" s="3">
-        <v>2079800</v>
+        <v>2076700</v>
       </c>
       <c r="F8" s="3">
-        <v>2052000</v>
+        <v>2049100</v>
       </c>
       <c r="G8" s="3">
-        <v>2161800</v>
+        <v>2158700</v>
       </c>
       <c r="H8" s="3">
-        <v>2128700</v>
+        <v>2125600</v>
       </c>
       <c r="I8" s="3">
-        <v>2081300</v>
+        <v>2078300</v>
       </c>
       <c r="J8" s="3">
-        <v>2024900</v>
+        <v>2022000</v>
       </c>
       <c r="K8" s="3">
         <v>2030400</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1435300</v>
+        <v>1433300</v>
       </c>
       <c r="E9" s="3">
-        <v>1450100</v>
+        <v>1448000</v>
       </c>
       <c r="F9" s="3">
-        <v>1426900</v>
+        <v>1424800</v>
       </c>
       <c r="G9" s="3">
-        <v>1570500</v>
+        <v>1568200</v>
       </c>
       <c r="H9" s="3">
-        <v>1509100</v>
+        <v>1506900</v>
       </c>
       <c r="I9" s="3">
-        <v>1486200</v>
+        <v>1484000</v>
       </c>
       <c r="J9" s="3">
-        <v>1434800</v>
+        <v>1432700</v>
       </c>
       <c r="K9" s="3">
         <v>1446900</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>720800</v>
+        <v>719800</v>
       </c>
       <c r="E10" s="3">
-        <v>629600</v>
+        <v>628700</v>
       </c>
       <c r="F10" s="3">
-        <v>625100</v>
+        <v>624200</v>
       </c>
       <c r="G10" s="3">
-        <v>591400</v>
+        <v>590500</v>
       </c>
       <c r="H10" s="3">
-        <v>619600</v>
+        <v>618700</v>
       </c>
       <c r="I10" s="3">
-        <v>595100</v>
+        <v>594300</v>
       </c>
       <c r="J10" s="3">
-        <v>590100</v>
+        <v>589300</v>
       </c>
       <c r="K10" s="3">
         <v>583400</v>
@@ -1138,7 +1138,7 @@
         <v>14800</v>
       </c>
       <c r="F15" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="3">
         <v>12600</v>
@@ -1150,7 +1150,7 @@
         <v>10400</v>
       </c>
       <c r="J15" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="K15" s="3">
         <v>11000</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1690900</v>
+        <v>1688500</v>
       </c>
       <c r="E17" s="3">
-        <v>1692600</v>
+        <v>1690200</v>
       </c>
       <c r="F17" s="3">
-        <v>1681400</v>
+        <v>1678900</v>
       </c>
       <c r="G17" s="3">
-        <v>1798700</v>
+        <v>1796100</v>
       </c>
       <c r="H17" s="3">
-        <v>1754000</v>
+        <v>1751500</v>
       </c>
       <c r="I17" s="3">
-        <v>1713400</v>
+        <v>1710900</v>
       </c>
       <c r="J17" s="3">
-        <v>1675800</v>
+        <v>1673400</v>
       </c>
       <c r="K17" s="3">
         <v>1660700</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>465300</v>
+        <v>464600</v>
       </c>
       <c r="E18" s="3">
-        <v>387100</v>
+        <v>386600</v>
       </c>
       <c r="F18" s="3">
-        <v>370700</v>
+        <v>370100</v>
       </c>
       <c r="G18" s="3">
-        <v>363100</v>
+        <v>362600</v>
       </c>
       <c r="H18" s="3">
-        <v>374700</v>
+        <v>374200</v>
       </c>
       <c r="I18" s="3">
-        <v>367900</v>
+        <v>367300</v>
       </c>
       <c r="J18" s="3">
-        <v>349100</v>
+        <v>348600</v>
       </c>
       <c r="K18" s="3">
         <v>369600</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>81100</v>
+        <v>81000</v>
       </c>
       <c r="E20" s="3">
-        <v>69200</v>
+        <v>69100</v>
       </c>
       <c r="F20" s="3">
-        <v>69000</v>
+        <v>68900</v>
       </c>
       <c r="G20" s="3">
-        <v>61000</v>
+        <v>60900</v>
       </c>
       <c r="H20" s="3">
-        <v>66400</v>
+        <v>66300</v>
       </c>
       <c r="I20" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="J20" s="3">
-        <v>91100</v>
+        <v>91000</v>
       </c>
       <c r="K20" s="3">
         <v>92000</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>655500</v>
+        <v>654500</v>
       </c>
       <c r="E21" s="3">
-        <v>546900</v>
+        <v>546100</v>
       </c>
       <c r="F21" s="3">
-        <v>524400</v>
+        <v>523600</v>
       </c>
       <c r="G21" s="3">
-        <v>503900</v>
+        <v>503200</v>
       </c>
       <c r="H21" s="3">
-        <v>514000</v>
+        <v>513300</v>
       </c>
       <c r="I21" s="3">
-        <v>517100</v>
+        <v>516400</v>
       </c>
       <c r="J21" s="3">
-        <v>508500</v>
+        <v>507700</v>
       </c>
       <c r="K21" s="3">
         <v>537300</v>
@@ -1479,7 +1479,7 @@
         <v>13800</v>
       </c>
       <c r="G22" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="H22" s="3">
         <v>17400</v>
@@ -1488,7 +1488,7 @@
         <v>19600</v>
       </c>
       <c r="J22" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="K22" s="3">
         <v>28700</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>529600</v>
+        <v>528800</v>
       </c>
       <c r="E23" s="3">
-        <v>441300</v>
+        <v>440700</v>
       </c>
       <c r="F23" s="3">
-        <v>425900</v>
+        <v>425300</v>
       </c>
       <c r="G23" s="3">
-        <v>408100</v>
+        <v>407500</v>
       </c>
       <c r="H23" s="3">
-        <v>423700</v>
+        <v>423100</v>
       </c>
       <c r="I23" s="3">
-        <v>431300</v>
+        <v>430700</v>
       </c>
       <c r="J23" s="3">
-        <v>422700</v>
+        <v>422100</v>
       </c>
       <c r="K23" s="3">
         <v>433000</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117300</v>
+        <v>117100</v>
       </c>
       <c r="E24" s="3">
-        <v>99500</v>
+        <v>99300</v>
       </c>
       <c r="F24" s="3">
-        <v>94100</v>
+        <v>94000</v>
       </c>
       <c r="G24" s="3">
-        <v>85400</v>
+        <v>85300</v>
       </c>
       <c r="H24" s="3">
-        <v>84800</v>
+        <v>84700</v>
       </c>
       <c r="I24" s="3">
-        <v>78900</v>
+        <v>78700</v>
       </c>
       <c r="J24" s="3">
-        <v>92200</v>
+        <v>92000</v>
       </c>
       <c r="K24" s="3">
         <v>95600</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>412300</v>
+        <v>411700</v>
       </c>
       <c r="E26" s="3">
-        <v>341800</v>
+        <v>341300</v>
       </c>
       <c r="F26" s="3">
-        <v>331800</v>
+        <v>331300</v>
       </c>
       <c r="G26" s="3">
-        <v>322700</v>
+        <v>322200</v>
       </c>
       <c r="H26" s="3">
-        <v>338900</v>
+        <v>338400</v>
       </c>
       <c r="I26" s="3">
-        <v>352400</v>
+        <v>351900</v>
       </c>
       <c r="J26" s="3">
-        <v>330500</v>
+        <v>330000</v>
       </c>
       <c r="K26" s="3">
         <v>337400</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>408200</v>
+        <v>407600</v>
       </c>
       <c r="E27" s="3">
-        <v>339300</v>
+        <v>338800</v>
       </c>
       <c r="F27" s="3">
-        <v>328900</v>
+        <v>328400</v>
       </c>
       <c r="G27" s="3">
-        <v>320100</v>
+        <v>319600</v>
       </c>
       <c r="H27" s="3">
-        <v>337900</v>
+        <v>337400</v>
       </c>
       <c r="I27" s="3">
-        <v>351200</v>
+        <v>350700</v>
       </c>
       <c r="J27" s="3">
-        <v>328500</v>
+        <v>328000</v>
       </c>
       <c r="K27" s="3">
         <v>336000</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-81100</v>
+        <v>-81000</v>
       </c>
       <c r="E32" s="3">
-        <v>-69200</v>
+        <v>-69100</v>
       </c>
       <c r="F32" s="3">
-        <v>-69000</v>
+        <v>-68900</v>
       </c>
       <c r="G32" s="3">
-        <v>-61000</v>
+        <v>-60900</v>
       </c>
       <c r="H32" s="3">
-        <v>-66400</v>
+        <v>-66300</v>
       </c>
       <c r="I32" s="3">
-        <v>-83000</v>
+        <v>-82900</v>
       </c>
       <c r="J32" s="3">
-        <v>-91100</v>
+        <v>-91000</v>
       </c>
       <c r="K32" s="3">
         <v>-92000</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>408200</v>
+        <v>407600</v>
       </c>
       <c r="E33" s="3">
-        <v>339300</v>
+        <v>338800</v>
       </c>
       <c r="F33" s="3">
-        <v>328900</v>
+        <v>328400</v>
       </c>
       <c r="G33" s="3">
-        <v>320100</v>
+        <v>319600</v>
       </c>
       <c r="H33" s="3">
-        <v>337900</v>
+        <v>337400</v>
       </c>
       <c r="I33" s="3">
-        <v>351200</v>
+        <v>350700</v>
       </c>
       <c r="J33" s="3">
-        <v>328500</v>
+        <v>328000</v>
       </c>
       <c r="K33" s="3">
         <v>336000</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>408200</v>
+        <v>407600</v>
       </c>
       <c r="E35" s="3">
-        <v>339300</v>
+        <v>338800</v>
       </c>
       <c r="F35" s="3">
-        <v>328900</v>
+        <v>328400</v>
       </c>
       <c r="G35" s="3">
-        <v>320100</v>
+        <v>319600</v>
       </c>
       <c r="H35" s="3">
-        <v>337900</v>
+        <v>337400</v>
       </c>
       <c r="I35" s="3">
-        <v>351200</v>
+        <v>350700</v>
       </c>
       <c r="J35" s="3">
-        <v>328500</v>
+        <v>328000</v>
       </c>
       <c r="K35" s="3">
         <v>336000</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1918600</v>
+        <v>1915800</v>
       </c>
       <c r="E41" s="3">
-        <v>2097300</v>
+        <v>2094300</v>
       </c>
       <c r="F41" s="3">
-        <v>2193900</v>
+        <v>2190700</v>
       </c>
       <c r="G41" s="3">
-        <v>1988300</v>
+        <v>1985400</v>
       </c>
       <c r="H41" s="3">
-        <v>2568100</v>
+        <v>2564400</v>
       </c>
       <c r="I41" s="3">
-        <v>2482900</v>
+        <v>2479300</v>
       </c>
       <c r="J41" s="3">
-        <v>3321700</v>
+        <v>3316900</v>
       </c>
       <c r="K41" s="3">
         <v>2144900</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4298700</v>
+        <v>4292400</v>
       </c>
       <c r="E42" s="3">
-        <v>3545000</v>
+        <v>3539800</v>
       </c>
       <c r="F42" s="3">
-        <v>2931700</v>
+        <v>2927400</v>
       </c>
       <c r="G42" s="3">
-        <v>2598400</v>
+        <v>2594600</v>
       </c>
       <c r="H42" s="3">
-        <v>2249300</v>
+        <v>2246100</v>
       </c>
       <c r="I42" s="3">
-        <v>1998800</v>
+        <v>1995900</v>
       </c>
       <c r="J42" s="3">
-        <v>2502700</v>
+        <v>2499100</v>
       </c>
       <c r="K42" s="3">
         <v>3208200</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2034100</v>
+        <v>2031200</v>
       </c>
       <c r="E43" s="3">
-        <v>2054100</v>
+        <v>2051100</v>
       </c>
       <c r="F43" s="3">
-        <v>2135900</v>
+        <v>2132800</v>
       </c>
       <c r="G43" s="3">
-        <v>2290200</v>
+        <v>2286800</v>
       </c>
       <c r="H43" s="3">
-        <v>2205300</v>
+        <v>2202100</v>
       </c>
       <c r="I43" s="3">
-        <v>2232000</v>
+        <v>2228800</v>
       </c>
       <c r="J43" s="3">
-        <v>2236900</v>
+        <v>2233700</v>
       </c>
       <c r="K43" s="3">
         <v>2060000</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="E44" s="3">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="F44" s="3">
         <v>53900</v>
       </c>
       <c r="G44" s="3">
-        <v>68600</v>
+        <v>68500</v>
       </c>
       <c r="H44" s="3">
-        <v>60700</v>
+        <v>60600</v>
       </c>
       <c r="I44" s="3">
-        <v>66600</v>
+        <v>66500</v>
       </c>
       <c r="J44" s="3">
-        <v>94200</v>
+        <v>94100</v>
       </c>
       <c r="K44" s="3">
         <v>97400</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>242400</v>
+        <v>242000</v>
       </c>
       <c r="E45" s="3">
-        <v>229200</v>
+        <v>228900</v>
       </c>
       <c r="F45" s="3">
-        <v>212800</v>
+        <v>212500</v>
       </c>
       <c r="G45" s="3">
-        <v>207600</v>
+        <v>207300</v>
       </c>
       <c r="H45" s="3">
-        <v>197500</v>
+        <v>197200</v>
       </c>
       <c r="I45" s="3">
-        <v>226200</v>
+        <v>225900</v>
       </c>
       <c r="J45" s="3">
-        <v>253700</v>
+        <v>253400</v>
       </c>
       <c r="K45" s="3">
         <v>227300</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8544400</v>
+        <v>8531900</v>
       </c>
       <c r="E46" s="3">
-        <v>7970400</v>
+        <v>7958900</v>
       </c>
       <c r="F46" s="3">
-        <v>7528200</v>
+        <v>7517300</v>
       </c>
       <c r="G46" s="3">
-        <v>7153100</v>
+        <v>7142800</v>
       </c>
       <c r="H46" s="3">
-        <v>7281000</v>
+        <v>7270400</v>
       </c>
       <c r="I46" s="3">
-        <v>7006500</v>
+        <v>6996300</v>
       </c>
       <c r="J46" s="3">
-        <v>8409300</v>
+        <v>8397100</v>
       </c>
       <c r="K46" s="3">
         <v>7737900</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>541200</v>
+        <v>540400</v>
       </c>
       <c r="E47" s="3">
-        <v>549600</v>
+        <v>548800</v>
       </c>
       <c r="F47" s="3">
-        <v>533500</v>
+        <v>532700</v>
       </c>
       <c r="G47" s="3">
-        <v>472400</v>
+        <v>471700</v>
       </c>
       <c r="H47" s="3">
-        <v>500300</v>
+        <v>499500</v>
       </c>
       <c r="I47" s="3">
-        <v>405100</v>
+        <v>404500</v>
       </c>
       <c r="J47" s="3">
-        <v>407000</v>
+        <v>406400</v>
       </c>
       <c r="K47" s="3">
         <v>555300</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1359500</v>
+        <v>1357500</v>
       </c>
       <c r="E48" s="3">
-        <v>1333700</v>
+        <v>1331800</v>
       </c>
       <c r="F48" s="3">
-        <v>1346600</v>
+        <v>1344600</v>
       </c>
       <c r="G48" s="3">
-        <v>1346700</v>
+        <v>1344700</v>
       </c>
       <c r="H48" s="3">
-        <v>1297000</v>
+        <v>1295100</v>
       </c>
       <c r="I48" s="3">
-        <v>1257800</v>
+        <v>1256000</v>
       </c>
       <c r="J48" s="3">
-        <v>1207200</v>
+        <v>1205500</v>
       </c>
       <c r="K48" s="3">
         <v>955200</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2055400</v>
+        <v>2052500</v>
       </c>
       <c r="E49" s="3">
-        <v>2070700</v>
+        <v>2067700</v>
       </c>
       <c r="F49" s="3">
-        <v>2024100</v>
+        <v>2021100</v>
       </c>
       <c r="G49" s="3">
-        <v>2027900</v>
+        <v>2024900</v>
       </c>
       <c r="H49" s="3">
-        <v>1903500</v>
+        <v>1900800</v>
       </c>
       <c r="I49" s="3">
-        <v>1851300</v>
+        <v>1848600</v>
       </c>
       <c r="J49" s="3">
-        <v>1789100</v>
+        <v>1786500</v>
       </c>
       <c r="K49" s="3">
         <v>1768900</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>127500</v>
+        <v>127400</v>
       </c>
       <c r="E52" s="3">
-        <v>118500</v>
+        <v>118400</v>
       </c>
       <c r="F52" s="3">
-        <v>141300</v>
+        <v>141100</v>
       </c>
       <c r="G52" s="3">
-        <v>242700</v>
+        <v>242400</v>
       </c>
       <c r="H52" s="3">
-        <v>180900</v>
+        <v>180700</v>
       </c>
       <c r="I52" s="3">
-        <v>246800</v>
+        <v>246400</v>
       </c>
       <c r="J52" s="3">
-        <v>243300</v>
+        <v>242900</v>
       </c>
       <c r="K52" s="3">
         <v>255500</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12628000</v>
+        <v>12609700</v>
       </c>
       <c r="E54" s="3">
-        <v>12043000</v>
+        <v>12025500</v>
       </c>
       <c r="F54" s="3">
-        <v>11573600</v>
+        <v>11556800</v>
       </c>
       <c r="G54" s="3">
-        <v>11242800</v>
+        <v>11226400</v>
       </c>
       <c r="H54" s="3">
-        <v>11162700</v>
+        <v>11146500</v>
       </c>
       <c r="I54" s="3">
-        <v>10767500</v>
+        <v>10751900</v>
       </c>
       <c r="J54" s="3">
-        <v>12055900</v>
+        <v>12038400</v>
       </c>
       <c r="K54" s="3">
         <v>11272800</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1148400</v>
+        <v>1146800</v>
       </c>
       <c r="E57" s="3">
-        <v>1128600</v>
+        <v>1127000</v>
       </c>
       <c r="F57" s="3">
-        <v>1032800</v>
+        <v>1031300</v>
       </c>
       <c r="G57" s="3">
-        <v>1075100</v>
+        <v>1073500</v>
       </c>
       <c r="H57" s="3">
-        <v>1108600</v>
+        <v>1107000</v>
       </c>
       <c r="I57" s="3">
-        <v>1148700</v>
+        <v>1147100</v>
       </c>
       <c r="J57" s="3">
-        <v>1156400</v>
+        <v>1154700</v>
       </c>
       <c r="K57" s="3">
         <v>1194800</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1111200</v>
+        <v>1109600</v>
       </c>
       <c r="E58" s="3">
-        <v>1122500</v>
+        <v>1120900</v>
       </c>
       <c r="F58" s="3">
-        <v>1053600</v>
+        <v>1052100</v>
       </c>
       <c r="G58" s="3">
-        <v>1097500</v>
+        <v>1095900</v>
       </c>
       <c r="H58" s="3">
-        <v>1083900</v>
+        <v>1082300</v>
       </c>
       <c r="I58" s="3">
-        <v>1078600</v>
+        <v>1077100</v>
       </c>
       <c r="J58" s="3">
-        <v>1205600</v>
+        <v>1203900</v>
       </c>
       <c r="K58" s="3">
         <v>962000</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2551300</v>
+        <v>2547600</v>
       </c>
       <c r="E59" s="3">
-        <v>854100</v>
+        <v>852900</v>
       </c>
       <c r="F59" s="3">
-        <v>829400</v>
+        <v>828200</v>
       </c>
       <c r="G59" s="3">
-        <v>805000</v>
+        <v>803800</v>
       </c>
       <c r="H59" s="3">
-        <v>777500</v>
+        <v>776400</v>
       </c>
       <c r="I59" s="3">
-        <v>695200</v>
+        <v>694200</v>
       </c>
       <c r="J59" s="3">
-        <v>738100</v>
+        <v>737100</v>
       </c>
       <c r="K59" s="3">
         <v>743400</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4811000</v>
+        <v>4804000</v>
       </c>
       <c r="E60" s="3">
-        <v>3105300</v>
+        <v>3100800</v>
       </c>
       <c r="F60" s="3">
-        <v>2915800</v>
+        <v>2911600</v>
       </c>
       <c r="G60" s="3">
-        <v>2977600</v>
+        <v>2973200</v>
       </c>
       <c r="H60" s="3">
-        <v>2970000</v>
+        <v>2965700</v>
       </c>
       <c r="I60" s="3">
-        <v>2922600</v>
+        <v>2918400</v>
       </c>
       <c r="J60" s="3">
-        <v>3100200</v>
+        <v>3095600</v>
       </c>
       <c r="K60" s="3">
         <v>2900200</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>180400</v>
+        <v>180100</v>
       </c>
       <c r="E61" s="3">
-        <v>172600</v>
+        <v>172400</v>
       </c>
       <c r="F61" s="3">
-        <v>240700</v>
+        <v>240300</v>
       </c>
       <c r="G61" s="3">
-        <v>240500</v>
+        <v>240100</v>
       </c>
       <c r="H61" s="3">
-        <v>453100</v>
+        <v>452500</v>
       </c>
       <c r="I61" s="3">
-        <v>452200</v>
+        <v>451500</v>
       </c>
       <c r="J61" s="3">
-        <v>457100</v>
+        <v>456500</v>
       </c>
       <c r="K61" s="3">
         <v>383800</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>362700</v>
+        <v>362100</v>
       </c>
       <c r="E62" s="3">
-        <v>319800</v>
+        <v>319400</v>
       </c>
       <c r="F62" s="3">
-        <v>328800</v>
+        <v>328300</v>
       </c>
       <c r="G62" s="3">
-        <v>328300</v>
+        <v>327800</v>
       </c>
       <c r="H62" s="3">
-        <v>292200</v>
+        <v>291800</v>
       </c>
       <c r="I62" s="3">
-        <v>288400</v>
+        <v>287900</v>
       </c>
       <c r="J62" s="3">
-        <v>302100</v>
+        <v>301700</v>
       </c>
       <c r="K62" s="3">
         <v>266500</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5374400</v>
+        <v>5366600</v>
       </c>
       <c r="E66" s="3">
-        <v>3614300</v>
+        <v>3609000</v>
       </c>
       <c r="F66" s="3">
-        <v>3499900</v>
+        <v>3494800</v>
       </c>
       <c r="G66" s="3">
-        <v>3572200</v>
+        <v>3567000</v>
       </c>
       <c r="H66" s="3">
-        <v>3737100</v>
+        <v>3731600</v>
       </c>
       <c r="I66" s="3">
-        <v>3683700</v>
+        <v>3678400</v>
       </c>
       <c r="J66" s="3">
-        <v>3897500</v>
+        <v>3891900</v>
       </c>
       <c r="K66" s="3">
         <v>3586200</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6696800</v>
+        <v>6687100</v>
       </c>
       <c r="E72" s="3">
-        <v>7889700</v>
+        <v>7878200</v>
       </c>
       <c r="F72" s="3">
-        <v>7555000</v>
+        <v>7544100</v>
       </c>
       <c r="G72" s="3">
-        <v>7182500</v>
+        <v>7172000</v>
       </c>
       <c r="H72" s="3">
-        <v>6959200</v>
+        <v>6949100</v>
       </c>
       <c r="I72" s="3">
-        <v>6618000</v>
+        <v>6608300</v>
       </c>
       <c r="J72" s="3">
-        <v>7696300</v>
+        <v>7685100</v>
       </c>
       <c r="K72" s="3">
         <v>7241700</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7253600</v>
+        <v>7243000</v>
       </c>
       <c r="E76" s="3">
-        <v>8428700</v>
+        <v>8416400</v>
       </c>
       <c r="F76" s="3">
-        <v>8073700</v>
+        <v>8062000</v>
       </c>
       <c r="G76" s="3">
-        <v>7670600</v>
+        <v>7659500</v>
       </c>
       <c r="H76" s="3">
-        <v>7425600</v>
+        <v>7414800</v>
       </c>
       <c r="I76" s="3">
-        <v>7083800</v>
+        <v>7073500</v>
       </c>
       <c r="J76" s="3">
-        <v>8158400</v>
+        <v>8146500</v>
       </c>
       <c r="K76" s="3">
         <v>7686600</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>408200</v>
+        <v>407600</v>
       </c>
       <c r="E81" s="3">
-        <v>339300</v>
+        <v>338800</v>
       </c>
       <c r="F81" s="3">
-        <v>328900</v>
+        <v>328400</v>
       </c>
       <c r="G81" s="3">
-        <v>320100</v>
+        <v>319600</v>
       </c>
       <c r="H81" s="3">
-        <v>337900</v>
+        <v>337400</v>
       </c>
       <c r="I81" s="3">
-        <v>351200</v>
+        <v>350700</v>
       </c>
       <c r="J81" s="3">
-        <v>328500</v>
+        <v>328000</v>
       </c>
       <c r="K81" s="3">
         <v>336000</v>
@@ -4627,25 +4627,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>109100</v>
+        <v>108900</v>
       </c>
       <c r="E83" s="3">
-        <v>90500</v>
+        <v>90400</v>
       </c>
       <c r="F83" s="3">
-        <v>84700</v>
+        <v>84600</v>
       </c>
       <c r="G83" s="3">
-        <v>79800</v>
+        <v>79700</v>
       </c>
       <c r="H83" s="3">
-        <v>72900</v>
+        <v>72800</v>
       </c>
       <c r="I83" s="3">
-        <v>66200</v>
+        <v>66100</v>
       </c>
       <c r="J83" s="3">
-        <v>68200</v>
+        <v>68100</v>
       </c>
       <c r="K83" s="3">
         <v>75700</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>609900</v>
+        <v>609000</v>
       </c>
       <c r="E89" s="3">
-        <v>607300</v>
+        <v>606400</v>
       </c>
       <c r="F89" s="3">
-        <v>575300</v>
+        <v>574500</v>
       </c>
       <c r="G89" s="3">
-        <v>193600</v>
+        <v>193300</v>
       </c>
       <c r="H89" s="3">
-        <v>420600</v>
+        <v>419900</v>
       </c>
       <c r="I89" s="3">
-        <v>375000</v>
+        <v>374500</v>
       </c>
       <c r="J89" s="3">
-        <v>395600</v>
+        <v>395100</v>
       </c>
       <c r="K89" s="3">
         <v>450100</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70400</v>
+        <v>-70300</v>
       </c>
       <c r="E91" s="3">
-        <v>-56400</v>
+        <v>-56300</v>
       </c>
       <c r="F91" s="3">
-        <v>-58600</v>
+        <v>-58500</v>
       </c>
       <c r="G91" s="3">
-        <v>-82000</v>
+        <v>-81900</v>
       </c>
       <c r="H91" s="3">
-        <v>-86000</v>
+        <v>-85900</v>
       </c>
       <c r="I91" s="3">
-        <v>-80200</v>
+        <v>-80100</v>
       </c>
       <c r="J91" s="3">
-        <v>-75100</v>
+        <v>-75000</v>
       </c>
       <c r="K91" s="3">
         <v>-76100</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-734700</v>
+        <v>-733600</v>
       </c>
       <c r="E94" s="3">
-        <v>-679800</v>
+        <v>-678800</v>
       </c>
       <c r="F94" s="3">
-        <v>-267000</v>
+        <v>-266700</v>
       </c>
       <c r="G94" s="3">
-        <v>-389500</v>
+        <v>-389000</v>
       </c>
       <c r="H94" s="3">
-        <v>-298800</v>
+        <v>-298400</v>
       </c>
       <c r="I94" s="3">
-        <v>462900</v>
+        <v>462200</v>
       </c>
       <c r="J94" s="3">
-        <v>693500</v>
+        <v>692500</v>
       </c>
       <c r="K94" s="3">
         <v>-112600</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-75000</v>
+        <v>-74900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5558,22 +5558,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53700</v>
+        <v>-53600</v>
       </c>
       <c r="E100" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="F100" s="3">
-        <v>-97400</v>
+        <v>-97200</v>
       </c>
       <c r="G100" s="3">
-        <v>-383100</v>
+        <v>-382500</v>
       </c>
       <c r="H100" s="3">
         <v>-59300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1683900</v>
+        <v>-1681500</v>
       </c>
       <c r="J100" s="3">
         <v>48600</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-179400</v>
+        <v>-179100</v>
       </c>
       <c r="E102" s="3">
-        <v>-94600</v>
+        <v>-94400</v>
       </c>
       <c r="F102" s="3">
-        <v>209000</v>
+        <v>208700</v>
       </c>
       <c r="G102" s="3">
-        <v>-570100</v>
+        <v>-569300</v>
       </c>
       <c r="H102" s="3">
-        <v>71400</v>
+        <v>71300</v>
       </c>
       <c r="I102" s="3">
-        <v>-839900</v>
+        <v>-838700</v>
       </c>
       <c r="J102" s="3">
-        <v>1140200</v>
+        <v>1138500</v>
       </c>
       <c r="K102" s="3">
         <v>213200</v>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2153100</v>
+        <v>2454900</v>
       </c>
       <c r="E8" s="3">
-        <v>2076700</v>
+        <v>2185000</v>
       </c>
       <c r="F8" s="3">
-        <v>2049100</v>
+        <v>2107600</v>
       </c>
       <c r="G8" s="3">
-        <v>2158700</v>
+        <v>2032900</v>
       </c>
       <c r="H8" s="3">
-        <v>2125600</v>
+        <v>2005800</v>
       </c>
       <c r="I8" s="3">
+        <v>2113100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2080800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2078300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2022000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2030400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2028500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1922300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1847900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1990900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1976500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1941000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1970300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1927500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1886200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1433300</v>
+        <v>1715800</v>
       </c>
       <c r="E9" s="3">
-        <v>1448000</v>
+        <v>1476900</v>
       </c>
       <c r="F9" s="3">
-        <v>1424800</v>
+        <v>1403000</v>
       </c>
       <c r="G9" s="3">
-        <v>1568200</v>
+        <v>1417500</v>
       </c>
       <c r="H9" s="3">
-        <v>1506900</v>
+        <v>1394800</v>
       </c>
       <c r="I9" s="3">
+        <v>1535100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1475100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1484000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1432700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1446900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1400500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1345400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1326600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1414100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1387800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1369300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1404200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1388600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1330800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>719800</v>
+        <v>739200</v>
       </c>
       <c r="E10" s="3">
-        <v>628700</v>
+        <v>708100</v>
       </c>
       <c r="F10" s="3">
-        <v>624200</v>
+        <v>704600</v>
       </c>
       <c r="G10" s="3">
-        <v>590500</v>
+        <v>615400</v>
       </c>
       <c r="H10" s="3">
-        <v>618700</v>
+        <v>611000</v>
       </c>
       <c r="I10" s="3">
+        <v>578000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>605700</v>
+      </c>
+      <c r="K10" s="3">
         <v>594300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>589300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>583400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>628000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>576900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>521200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>576800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>588700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>571700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>566100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>538900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>555400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,22 +1101,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>22400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>21900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1093,100 +1133,112 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>11200</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-33600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>9300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>-17000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13800</v>
+        <v>37600</v>
       </c>
       <c r="E15" s="3">
-        <v>14800</v>
+        <v>21900</v>
       </c>
       <c r="F15" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="G15" s="3">
-        <v>12600</v>
+        <v>14400</v>
       </c>
       <c r="H15" s="3">
-        <v>11800</v>
+        <v>13700</v>
       </c>
       <c r="I15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K15" s="3">
         <v>10400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>10200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>11000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>11300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>13100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>13000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>12800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>11300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>12500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>6200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1688500</v>
+        <v>1988000</v>
       </c>
       <c r="E17" s="3">
-        <v>1690200</v>
+        <v>1725500</v>
       </c>
       <c r="F17" s="3">
-        <v>1678900</v>
+        <v>1652800</v>
       </c>
       <c r="G17" s="3">
-        <v>1796100</v>
+        <v>1654500</v>
       </c>
       <c r="H17" s="3">
-        <v>1751500</v>
+        <v>1643500</v>
       </c>
       <c r="I17" s="3">
+        <v>1758200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1714500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1710900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1673400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1660700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1642400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1649800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1539700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1710600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1690600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1607900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1650900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1585300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1566000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>464600</v>
+        <v>467000</v>
       </c>
       <c r="E18" s="3">
-        <v>386600</v>
+        <v>459500</v>
       </c>
       <c r="F18" s="3">
-        <v>370100</v>
+        <v>454800</v>
       </c>
       <c r="G18" s="3">
-        <v>362600</v>
+        <v>378400</v>
       </c>
       <c r="H18" s="3">
-        <v>374200</v>
+        <v>362300</v>
       </c>
       <c r="I18" s="3">
+        <v>354900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K18" s="3">
         <v>367300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>348600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>369600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>386200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>272500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>308100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>280300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>285900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>333200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>319500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>342100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>320200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1412,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>81000</v>
+        <v>62200</v>
       </c>
       <c r="E20" s="3">
-        <v>69100</v>
+        <v>58000</v>
       </c>
       <c r="F20" s="3">
-        <v>68900</v>
+        <v>79300</v>
       </c>
       <c r="G20" s="3">
-        <v>60900</v>
+        <v>67600</v>
       </c>
       <c r="H20" s="3">
-        <v>66300</v>
+        <v>67500</v>
       </c>
       <c r="I20" s="3">
+        <v>59700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K20" s="3">
         <v>82900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>91000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>92000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>66000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>62300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>62200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>65200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>82600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>86600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>78400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>71100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>65200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>654500</v>
+        <v>642000</v>
       </c>
       <c r="E21" s="3">
-        <v>546100</v>
+        <v>611600</v>
       </c>
       <c r="F21" s="3">
-        <v>523600</v>
+        <v>640700</v>
       </c>
       <c r="G21" s="3">
-        <v>503200</v>
+        <v>534600</v>
       </c>
       <c r="H21" s="3">
-        <v>513300</v>
+        <v>512500</v>
       </c>
       <c r="I21" s="3">
+        <v>492600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>502400</v>
+      </c>
+      <c r="K21" s="3">
         <v>516400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>507700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>537300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>521900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>392600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>427600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>428000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>444800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>495000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>469300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>526000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>460000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16800</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
-        <v>15000</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
-        <v>13800</v>
+        <v>16400</v>
       </c>
       <c r="G22" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>19600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M22" s="3">
+        <v>28700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P22" s="3">
         <v>16000</v>
       </c>
-      <c r="H22" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>19600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>17500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>28700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>15600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>16000</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>18500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>11100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>10300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>8000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>5300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>528800</v>
+        <v>519200</v>
       </c>
       <c r="E23" s="3">
-        <v>440700</v>
+        <v>504300</v>
       </c>
       <c r="F23" s="3">
-        <v>425300</v>
+        <v>517700</v>
       </c>
       <c r="G23" s="3">
-        <v>407500</v>
+        <v>431400</v>
       </c>
       <c r="H23" s="3">
-        <v>423100</v>
+        <v>416300</v>
       </c>
       <c r="I23" s="3">
+        <v>398900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>414200</v>
+      </c>
+      <c r="K23" s="3">
         <v>430700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>422100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>433000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>436600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>320000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>354300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>327100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>357400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>409500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>387800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>405300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>380100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117100</v>
+        <v>83700</v>
       </c>
       <c r="E24" s="3">
-        <v>99300</v>
+        <v>104300</v>
       </c>
       <c r="F24" s="3">
-        <v>94000</v>
+        <v>114600</v>
       </c>
       <c r="G24" s="3">
-        <v>85300</v>
+        <v>97200</v>
       </c>
       <c r="H24" s="3">
-        <v>84700</v>
+        <v>92000</v>
       </c>
       <c r="I24" s="3">
+        <v>83500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K24" s="3">
         <v>78700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>92000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>95600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>93800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>70700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>77500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>89300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>77400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>92900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>86700</v>
       </c>
       <c r="S24" s="3">
         <v>92900</v>
       </c>
       <c r="T24" s="3">
+        <v>86700</v>
+      </c>
+      <c r="U24" s="3">
+        <v>92900</v>
+      </c>
+      <c r="V24" s="3">
         <v>88700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>411700</v>
+        <v>435400</v>
       </c>
       <c r="E26" s="3">
-        <v>341300</v>
+        <v>400000</v>
       </c>
       <c r="F26" s="3">
+        <v>403000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>334100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>324300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>315400</v>
+      </c>
+      <c r="J26" s="3">
         <v>331300</v>
       </c>
-      <c r="G26" s="3">
-        <v>322200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>338400</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>351900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>330000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>337400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>342700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>249300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>276800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>237800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>279900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>316600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>301100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>312400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>291400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>407600</v>
+        <v>434700</v>
       </c>
       <c r="E27" s="3">
-        <v>338800</v>
+        <v>399700</v>
       </c>
       <c r="F27" s="3">
-        <v>328400</v>
+        <v>399000</v>
       </c>
       <c r="G27" s="3">
-        <v>319600</v>
+        <v>331600</v>
       </c>
       <c r="H27" s="3">
-        <v>337400</v>
+        <v>321500</v>
       </c>
       <c r="I27" s="3">
+        <v>312800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>330300</v>
+      </c>
+      <c r="K27" s="3">
         <v>350700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>328000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>336000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>338100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>249700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>280300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>238100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>280100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>316900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>311600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>290700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1993,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1915,14 +2037,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>22600</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>22600</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-81000</v>
+        <v>-62200</v>
       </c>
       <c r="E32" s="3">
-        <v>-69100</v>
+        <v>-58000</v>
       </c>
       <c r="F32" s="3">
-        <v>-68900</v>
+        <v>-79300</v>
       </c>
       <c r="G32" s="3">
-        <v>-60900</v>
+        <v>-67600</v>
       </c>
       <c r="H32" s="3">
-        <v>-66300</v>
+        <v>-67500</v>
       </c>
       <c r="I32" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-82900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-91000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-92000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-66000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-62300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-62200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-65200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-82600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-86600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-78400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-71100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-65200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>407600</v>
+        <v>434700</v>
       </c>
       <c r="E33" s="3">
-        <v>338800</v>
+        <v>399700</v>
       </c>
       <c r="F33" s="3">
-        <v>328400</v>
+        <v>399000</v>
       </c>
       <c r="G33" s="3">
-        <v>319600</v>
+        <v>331600</v>
       </c>
       <c r="H33" s="3">
-        <v>337400</v>
+        <v>321500</v>
       </c>
       <c r="I33" s="3">
+        <v>312800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>330300</v>
+      </c>
+      <c r="K33" s="3">
         <v>350700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>328000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>336000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>338100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>249700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>280300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>260700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>280100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>316900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>311600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>290700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>407600</v>
+        <v>434700</v>
       </c>
       <c r="E35" s="3">
-        <v>338800</v>
+        <v>399700</v>
       </c>
       <c r="F35" s="3">
-        <v>328400</v>
+        <v>399000</v>
       </c>
       <c r="G35" s="3">
-        <v>319600</v>
+        <v>331600</v>
       </c>
       <c r="H35" s="3">
-        <v>337400</v>
+        <v>321500</v>
       </c>
       <c r="I35" s="3">
+        <v>312800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>330300</v>
+      </c>
+      <c r="K35" s="3">
         <v>350700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>328000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>336000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>338100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>249700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>280300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>260700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>280100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>316900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>311600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>290700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2572,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1915800</v>
+        <v>1891300</v>
       </c>
       <c r="E41" s="3">
-        <v>2094300</v>
+        <v>2283700</v>
       </c>
       <c r="F41" s="3">
-        <v>2190700</v>
+        <v>1875400</v>
       </c>
       <c r="G41" s="3">
-        <v>1985400</v>
+        <v>2050100</v>
       </c>
       <c r="H41" s="3">
-        <v>2564400</v>
+        <v>2144500</v>
       </c>
       <c r="I41" s="3">
+        <v>1943500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2510300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2479300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3316900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2144900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1923100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1055200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>934500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>649600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>752900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>743400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>785400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>726300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>826000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4292400</v>
+        <v>2238300</v>
       </c>
       <c r="E42" s="3">
-        <v>3539800</v>
+        <v>2355000</v>
       </c>
       <c r="F42" s="3">
-        <v>2927400</v>
+        <v>4201800</v>
       </c>
       <c r="G42" s="3">
-        <v>2594600</v>
+        <v>3465100</v>
       </c>
       <c r="H42" s="3">
-        <v>2246100</v>
+        <v>2865600</v>
       </c>
       <c r="I42" s="3">
+        <v>2539900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2198700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1995900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2499100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3208200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2882400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3289300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3314600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3634700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3462900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4840800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>4623800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>4049700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3766400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2031200</v>
+        <v>2400500</v>
       </c>
       <c r="E43" s="3">
-        <v>2051100</v>
+        <v>2093400</v>
       </c>
       <c r="F43" s="3">
-        <v>2132800</v>
+        <v>1988300</v>
       </c>
       <c r="G43" s="3">
-        <v>2286800</v>
+        <v>2007800</v>
       </c>
       <c r="H43" s="3">
-        <v>2202100</v>
+        <v>2087700</v>
       </c>
       <c r="I43" s="3">
+        <v>2238600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2155600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2228800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2233700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2060000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2087400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2217600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2046700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2182200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2212900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2257800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2283300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2125900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2321200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>50500</v>
+        <v>47700</v>
       </c>
       <c r="E44" s="3">
-        <v>44800</v>
+        <v>57300</v>
       </c>
       <c r="F44" s="3">
-        <v>53900</v>
+        <v>49400</v>
       </c>
       <c r="G44" s="3">
-        <v>68500</v>
+        <v>43800</v>
       </c>
       <c r="H44" s="3">
-        <v>60600</v>
+        <v>52700</v>
       </c>
       <c r="I44" s="3">
+        <v>67100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K44" s="3">
         <v>66500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>94100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>97400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>92900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>80200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>74400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>75000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>62600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>74900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>68200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>73900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>97500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>242000</v>
+        <v>259900</v>
       </c>
       <c r="E45" s="3">
-        <v>228900</v>
+        <v>247400</v>
       </c>
       <c r="F45" s="3">
-        <v>212500</v>
+        <v>236900</v>
       </c>
       <c r="G45" s="3">
-        <v>207300</v>
+        <v>224100</v>
       </c>
       <c r="H45" s="3">
-        <v>197200</v>
+        <v>208000</v>
       </c>
       <c r="I45" s="3">
+        <v>203000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K45" s="3">
         <v>225900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>253400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>227300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>277200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>292600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>777400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>399600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>371700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>412900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>450200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>382100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8531900</v>
+        <v>6837600</v>
       </c>
       <c r="E46" s="3">
-        <v>7958900</v>
+        <v>7036900</v>
       </c>
       <c r="F46" s="3">
-        <v>7517300</v>
+        <v>8351900</v>
       </c>
       <c r="G46" s="3">
-        <v>7142800</v>
+        <v>7790900</v>
       </c>
       <c r="H46" s="3">
-        <v>7270400</v>
+        <v>7358600</v>
       </c>
       <c r="I46" s="3">
+        <v>6992000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7117000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6996300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8397100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7737900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7263000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6942800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6662800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7319000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6890800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8288700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8173700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7426000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7393100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>540400</v>
+        <v>529100</v>
       </c>
       <c r="E47" s="3">
-        <v>548800</v>
+        <v>499600</v>
       </c>
       <c r="F47" s="3">
-        <v>532700</v>
+        <v>529000</v>
       </c>
       <c r="G47" s="3">
-        <v>471700</v>
+        <v>537200</v>
       </c>
       <c r="H47" s="3">
-        <v>499500</v>
+        <v>521500</v>
       </c>
       <c r="I47" s="3">
+        <v>461700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>489000</v>
+      </c>
+      <c r="K47" s="3">
         <v>404500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>406400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>555300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>487600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>483100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>457200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>514800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>469000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>460600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>450600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>355300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>349500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1357500</v>
+        <v>1432700</v>
       </c>
       <c r="E48" s="3">
-        <v>1331800</v>
+        <v>1366700</v>
       </c>
       <c r="F48" s="3">
-        <v>1344600</v>
+        <v>1328800</v>
       </c>
       <c r="G48" s="3">
-        <v>1344700</v>
+        <v>1303700</v>
       </c>
       <c r="H48" s="3">
-        <v>1295100</v>
+        <v>1316200</v>
       </c>
       <c r="I48" s="3">
+        <v>1316300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1267800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1256000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1205500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>955200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>945700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>903900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>864000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>939300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1039900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1038300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1027000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>961800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>969600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2052500</v>
+        <v>3584600</v>
       </c>
       <c r="E49" s="3">
-        <v>2067700</v>
+        <v>2047300</v>
       </c>
       <c r="F49" s="3">
-        <v>2021100</v>
+        <v>2009100</v>
       </c>
       <c r="G49" s="3">
-        <v>2024900</v>
+        <v>2024000</v>
       </c>
       <c r="H49" s="3">
-        <v>1900800</v>
+        <v>1978500</v>
       </c>
       <c r="I49" s="3">
+        <v>1982200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1860600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1848600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1786500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1768900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1867400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1930800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1843900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1962200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2115800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2160500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2053400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1952900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2076300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>127400</v>
+        <v>143700</v>
       </c>
       <c r="E52" s="3">
-        <v>118400</v>
+        <v>232400</v>
       </c>
       <c r="F52" s="3">
-        <v>141100</v>
+        <v>124700</v>
       </c>
       <c r="G52" s="3">
-        <v>242400</v>
+        <v>115900</v>
       </c>
       <c r="H52" s="3">
-        <v>180700</v>
+        <v>138100</v>
       </c>
       <c r="I52" s="3">
+        <v>237300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K52" s="3">
         <v>246400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>242900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>255500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>329200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>340700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>262000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>263500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>206300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>245100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>305700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>238700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>230900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12609700</v>
+        <v>12527800</v>
       </c>
       <c r="E54" s="3">
-        <v>12025500</v>
+        <v>11182800</v>
       </c>
       <c r="F54" s="3">
-        <v>11556800</v>
+        <v>12343500</v>
       </c>
       <c r="G54" s="3">
-        <v>11226400</v>
+        <v>11771600</v>
       </c>
       <c r="H54" s="3">
-        <v>11146500</v>
+        <v>11312900</v>
       </c>
       <c r="I54" s="3">
+        <v>10989500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10911200</v>
+      </c>
+      <c r="K54" s="3">
         <v>10751900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12038400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11272800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10892900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10601300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10090000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10998900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10722000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12193100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12010400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10934700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11019400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3532,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1146800</v>
+        <v>1196300</v>
       </c>
       <c r="E57" s="3">
-        <v>1127000</v>
+        <v>1060800</v>
       </c>
       <c r="F57" s="3">
-        <v>1031300</v>
+        <v>1122600</v>
       </c>
       <c r="G57" s="3">
-        <v>1073500</v>
+        <v>1103200</v>
       </c>
       <c r="H57" s="3">
-        <v>1107000</v>
+        <v>1009500</v>
       </c>
       <c r="I57" s="3">
+        <v>1050800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1083700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1147100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1154700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1194800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1067800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1121000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>998500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>985100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1007000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1068700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>902400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>956000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1109600</v>
+        <v>926900</v>
       </c>
       <c r="E58" s="3">
-        <v>1120900</v>
+        <v>1123700</v>
       </c>
       <c r="F58" s="3">
-        <v>1052100</v>
+        <v>1086200</v>
       </c>
       <c r="G58" s="3">
-        <v>1095900</v>
+        <v>1097200</v>
       </c>
       <c r="H58" s="3">
-        <v>1082300</v>
+        <v>1029900</v>
       </c>
       <c r="I58" s="3">
+        <v>1072800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1059400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1077100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1203900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>962000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>725500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>829200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>934200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1344600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1477300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1651500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1644300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1692200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1878400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2547600</v>
+        <v>977500</v>
       </c>
       <c r="E59" s="3">
-        <v>852900</v>
+        <v>909600</v>
       </c>
       <c r="F59" s="3">
-        <v>828200</v>
+        <v>2493800</v>
       </c>
       <c r="G59" s="3">
-        <v>803800</v>
+        <v>834900</v>
       </c>
       <c r="H59" s="3">
-        <v>776400</v>
+        <v>810800</v>
       </c>
       <c r="I59" s="3">
+        <v>786900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>760000</v>
+      </c>
+      <c r="K59" s="3">
         <v>694200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>737100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>743400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>807900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>820200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>697200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>757500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>687900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>616800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>675700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>568500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>577000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4804000</v>
+        <v>3100700</v>
       </c>
       <c r="E60" s="3">
-        <v>3100800</v>
+        <v>3094000</v>
       </c>
       <c r="F60" s="3">
-        <v>2911600</v>
+        <v>4702600</v>
       </c>
       <c r="G60" s="3">
-        <v>2973200</v>
+        <v>3035300</v>
       </c>
       <c r="H60" s="3">
-        <v>2965700</v>
+        <v>2850100</v>
       </c>
       <c r="I60" s="3">
+        <v>2910500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2903100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2918400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3095600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2900200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2601200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2770400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2629900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3087300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3196200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3275200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3388700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3163100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3411400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>180100</v>
+        <v>958400</v>
       </c>
       <c r="E61" s="3">
-        <v>172400</v>
+        <v>282100</v>
       </c>
       <c r="F61" s="3">
-        <v>240300</v>
+        <v>176300</v>
       </c>
       <c r="G61" s="3">
-        <v>240100</v>
+        <v>168700</v>
       </c>
       <c r="H61" s="3">
-        <v>452500</v>
+        <v>235300</v>
       </c>
       <c r="I61" s="3">
+        <v>235100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K61" s="3">
         <v>451500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>456500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>383800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>673300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>691800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>622100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>654600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>430400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>450500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>469800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>270200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>275800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>362100</v>
+        <v>523000</v>
       </c>
       <c r="E62" s="3">
-        <v>319400</v>
+        <v>347400</v>
       </c>
       <c r="F62" s="3">
-        <v>328300</v>
+        <v>354500</v>
       </c>
       <c r="G62" s="3">
-        <v>327800</v>
+        <v>312600</v>
       </c>
       <c r="H62" s="3">
-        <v>291800</v>
+        <v>321400</v>
       </c>
       <c r="I62" s="3">
+        <v>320900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K62" s="3">
         <v>287900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>301700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>266500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>214300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>220900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>203800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>238900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>258000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>299000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>298000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>298600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>327500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5366600</v>
+        <v>4596800</v>
       </c>
       <c r="E66" s="3">
-        <v>3609000</v>
+        <v>3743700</v>
       </c>
       <c r="F66" s="3">
-        <v>3494800</v>
+        <v>5253400</v>
       </c>
       <c r="G66" s="3">
-        <v>3567000</v>
+        <v>3532800</v>
       </c>
       <c r="H66" s="3">
-        <v>3731600</v>
+        <v>3421100</v>
       </c>
       <c r="I66" s="3">
+        <v>3491700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3652900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3678400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3891900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3586200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3523300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3713700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3484600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4015600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3919100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4060100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4191700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3764900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4048700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6687100</v>
+        <v>7367300</v>
       </c>
       <c r="E72" s="3">
-        <v>7878200</v>
+        <v>6909100</v>
       </c>
       <c r="F72" s="3">
-        <v>7544100</v>
+        <v>6545900</v>
       </c>
       <c r="G72" s="3">
-        <v>7172000</v>
+        <v>7711900</v>
       </c>
       <c r="H72" s="3">
-        <v>6949100</v>
+        <v>7384800</v>
       </c>
       <c r="I72" s="3">
+        <v>7020700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6802400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6608300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7685100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7241700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6959000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6491000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6261500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6576600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6409300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>7695400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>7362300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6785400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>6552600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7243000</v>
+        <v>7931000</v>
       </c>
       <c r="E76" s="3">
-        <v>8416400</v>
+        <v>7439100</v>
       </c>
       <c r="F76" s="3">
-        <v>8062000</v>
+        <v>7090200</v>
       </c>
       <c r="G76" s="3">
-        <v>7659500</v>
+        <v>8238800</v>
       </c>
       <c r="H76" s="3">
-        <v>7414800</v>
+        <v>7891800</v>
       </c>
       <c r="I76" s="3">
+        <v>7497800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7258300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7073500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8146500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7686600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7369700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6887600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6605400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6983300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6802900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8133000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7818800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7169800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6970800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>407600</v>
+        <v>434700</v>
       </c>
       <c r="E81" s="3">
-        <v>338800</v>
+        <v>399700</v>
       </c>
       <c r="F81" s="3">
-        <v>328400</v>
+        <v>399000</v>
       </c>
       <c r="G81" s="3">
-        <v>319600</v>
+        <v>331600</v>
       </c>
       <c r="H81" s="3">
-        <v>337400</v>
+        <v>321500</v>
       </c>
       <c r="I81" s="3">
+        <v>312800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>330300</v>
+      </c>
+      <c r="K81" s="3">
         <v>350700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>328000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>336000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>338100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>249700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>280300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>260700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>280100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>316900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>311600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>290700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>108900</v>
+        <v>112800</v>
       </c>
       <c r="E83" s="3">
-        <v>90400</v>
+        <v>94100</v>
       </c>
       <c r="F83" s="3">
-        <v>84600</v>
+        <v>106600</v>
       </c>
       <c r="G83" s="3">
-        <v>79700</v>
+        <v>88500</v>
       </c>
       <c r="H83" s="3">
-        <v>72800</v>
+        <v>82800</v>
       </c>
       <c r="I83" s="3">
+        <v>78000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K83" s="3">
         <v>66100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>68100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>75700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>69700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>57800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>57300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>82500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>76300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>75200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>71500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>112700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>74600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>609000</v>
+        <v>451000</v>
       </c>
       <c r="E89" s="3">
-        <v>606400</v>
+        <v>232500</v>
       </c>
       <c r="F89" s="3">
-        <v>574500</v>
+        <v>596100</v>
       </c>
       <c r="G89" s="3">
-        <v>193300</v>
+        <v>593600</v>
       </c>
       <c r="H89" s="3">
-        <v>419900</v>
+        <v>562400</v>
       </c>
       <c r="I89" s="3">
+        <v>189300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>411100</v>
+      </c>
+      <c r="K89" s="3">
         <v>374500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>395100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>450100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>480300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>245700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>380900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>108600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>431300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>250800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>427400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>352600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>363600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70300</v>
+        <v>-62300</v>
       </c>
       <c r="E91" s="3">
-        <v>-56300</v>
+        <v>-82200</v>
       </c>
       <c r="F91" s="3">
-        <v>-58500</v>
+        <v>-68800</v>
       </c>
       <c r="G91" s="3">
-        <v>-81900</v>
+        <v>-55100</v>
       </c>
       <c r="H91" s="3">
-        <v>-85900</v>
+        <v>-57300</v>
       </c>
       <c r="I91" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-80100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-75000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-76100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-88400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-78900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-61100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-93600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-78300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-60800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-57100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-69900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-733600</v>
+        <v>-1244200</v>
       </c>
       <c r="E94" s="3">
-        <v>-678800</v>
+        <v>1747700</v>
       </c>
       <c r="F94" s="3">
-        <v>-266700</v>
+        <v>-718200</v>
       </c>
       <c r="G94" s="3">
-        <v>-389000</v>
+        <v>-664500</v>
       </c>
       <c r="H94" s="3">
-        <v>-298400</v>
+        <v>-261000</v>
       </c>
       <c r="I94" s="3">
+        <v>-380700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-292100</v>
+      </c>
+      <c r="K94" s="3">
         <v>462200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>692500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-112600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>487600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-21400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>315400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-187100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1361700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-239500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-420700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-180600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-689300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5331,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-74900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-73300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5355,28 +5823,34 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-78400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-80200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53600</v>
+        <v>391300</v>
       </c>
       <c r="E100" s="3">
-        <v>-23200</v>
+        <v>-1562500</v>
       </c>
       <c r="F100" s="3">
-        <v>-97200</v>
+        <v>-52500</v>
       </c>
       <c r="G100" s="3">
-        <v>-382500</v>
+        <v>-22700</v>
       </c>
       <c r="H100" s="3">
-        <v>-59300</v>
+        <v>-95200</v>
       </c>
       <c r="I100" s="3">
+        <v>-374400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>48600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-120200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-122200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-314000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-76900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-39600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>25200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-262300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>404100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900</v>
+        <v>10700</v>
       </c>
       <c r="E101" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>9000</v>
-      </c>
       <c r="I101" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K101" s="3">
         <v>6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-16800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>22600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-30800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>6500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-179100</v>
+        <v>-391300</v>
       </c>
       <c r="E102" s="3">
-        <v>-94400</v>
+        <v>407200</v>
       </c>
       <c r="F102" s="3">
-        <v>208700</v>
+        <v>-175300</v>
       </c>
       <c r="G102" s="3">
-        <v>-569300</v>
+        <v>-92400</v>
       </c>
       <c r="H102" s="3">
-        <v>71300</v>
+        <v>204300</v>
       </c>
       <c r="I102" s="3">
+        <v>-557200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-838700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1138500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>213200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>850200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>124700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>387200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-150600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-25200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>32400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-121200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>84900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2454900</v>
+        <v>2621700</v>
       </c>
       <c r="E8" s="3">
-        <v>2185000</v>
+        <v>2433000</v>
       </c>
       <c r="F8" s="3">
-        <v>2107600</v>
+        <v>2165500</v>
       </c>
       <c r="G8" s="3">
-        <v>2032900</v>
+        <v>2088800</v>
       </c>
       <c r="H8" s="3">
-        <v>2005800</v>
+        <v>2014800</v>
       </c>
       <c r="I8" s="3">
-        <v>2113100</v>
+        <v>1987900</v>
       </c>
       <c r="J8" s="3">
+        <v>2094300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2080800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2078300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2022000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2030400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2028500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1922300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1847900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1990900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1976500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1941000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1970300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1927500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1886200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1715800</v>
+        <v>1833700</v>
       </c>
       <c r="E9" s="3">
-        <v>1476900</v>
+        <v>1700500</v>
       </c>
       <c r="F9" s="3">
-        <v>1403000</v>
+        <v>1463700</v>
       </c>
       <c r="G9" s="3">
-        <v>1417500</v>
+        <v>1390500</v>
       </c>
       <c r="H9" s="3">
-        <v>1394800</v>
+        <v>1404800</v>
       </c>
       <c r="I9" s="3">
-        <v>1535100</v>
+        <v>1382300</v>
       </c>
       <c r="J9" s="3">
+        <v>1521400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1475100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1484000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1432700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1446900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1345400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1326600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1414100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1387800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1369300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1404200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1388600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1330800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>739200</v>
+        <v>788000</v>
       </c>
       <c r="E10" s="3">
-        <v>708100</v>
+        <v>732600</v>
       </c>
       <c r="F10" s="3">
-        <v>704600</v>
+        <v>701800</v>
       </c>
       <c r="G10" s="3">
-        <v>615400</v>
+        <v>698300</v>
       </c>
       <c r="H10" s="3">
-        <v>611000</v>
+        <v>610000</v>
       </c>
       <c r="I10" s="3">
-        <v>578000</v>
+        <v>605600</v>
       </c>
       <c r="J10" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K10" s="3">
         <v>605700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>594300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>589300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>583400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>628000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>576900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>521200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>576800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>588700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>571700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>566100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>538900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>555400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,25 +1124,28 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>21900</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H14" s="3">
         <v>3500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1139,23 +1159,23 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11200</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1163,82 +1183,88 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-17000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37600</v>
+        <v>28200</v>
       </c>
       <c r="E15" s="3">
-        <v>21900</v>
+        <v>37200</v>
       </c>
       <c r="F15" s="3">
-        <v>13500</v>
+        <v>21700</v>
       </c>
       <c r="G15" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="H15" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="I15" s="3">
-        <v>12300</v>
+        <v>13600</v>
       </c>
       <c r="J15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K15" s="3">
         <v>11500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1988000</v>
+        <v>2156200</v>
       </c>
       <c r="E17" s="3">
-        <v>1725500</v>
+        <v>1970200</v>
       </c>
       <c r="F17" s="3">
-        <v>1652800</v>
+        <v>1710100</v>
       </c>
       <c r="G17" s="3">
-        <v>1654500</v>
+        <v>1638100</v>
       </c>
       <c r="H17" s="3">
-        <v>1643500</v>
+        <v>1639700</v>
       </c>
       <c r="I17" s="3">
-        <v>1758200</v>
+        <v>1628800</v>
       </c>
       <c r="J17" s="3">
+        <v>1742500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1714500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1710900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1673400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1660700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1642400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1649800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1539700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1710600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1690600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1607900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1650900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1585300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1566000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>467000</v>
+        <v>465500</v>
       </c>
       <c r="E18" s="3">
-        <v>459500</v>
+        <v>462800</v>
       </c>
       <c r="F18" s="3">
-        <v>454800</v>
+        <v>455400</v>
       </c>
       <c r="G18" s="3">
-        <v>378400</v>
+        <v>450700</v>
       </c>
       <c r="H18" s="3">
-        <v>362300</v>
+        <v>375000</v>
       </c>
       <c r="I18" s="3">
-        <v>354900</v>
+        <v>359100</v>
       </c>
       <c r="J18" s="3">
+        <v>351800</v>
+      </c>
+      <c r="K18" s="3">
         <v>366300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>367300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>348600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>369600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>386200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>272500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>308100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>280300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>285900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>333200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>319500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>342100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>320200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>57500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>78600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>67000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>66800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>64900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>82900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>91000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>92000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>66000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>62300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>62200</v>
       </c>
-      <c r="E20" s="3">
-        <v>58000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>79300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>67600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>67500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>59700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>64900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>82900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>91000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>92000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>66000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>62300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>62200</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>65200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>82600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>86600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>78400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>71100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>65200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>642000</v>
+        <v>623100</v>
       </c>
       <c r="E21" s="3">
-        <v>611600</v>
+        <v>636300</v>
       </c>
       <c r="F21" s="3">
-        <v>640700</v>
+        <v>606200</v>
       </c>
       <c r="G21" s="3">
-        <v>534600</v>
+        <v>635000</v>
       </c>
       <c r="H21" s="3">
-        <v>512500</v>
+        <v>529800</v>
       </c>
       <c r="I21" s="3">
-        <v>492600</v>
+        <v>508000</v>
       </c>
       <c r="J21" s="3">
+        <v>488200</v>
+      </c>
+      <c r="K21" s="3">
         <v>502400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>516400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>507700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>537300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>521900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>392600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>427600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>428000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>444800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>495000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>469300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>526000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>460000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10000</v>
+        <v>19400</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
-        <v>16400</v>
+        <v>13100</v>
       </c>
       <c r="G22" s="3">
-        <v>14700</v>
+        <v>16300</v>
       </c>
       <c r="H22" s="3">
-        <v>13500</v>
+        <v>14600</v>
       </c>
       <c r="I22" s="3">
-        <v>15700</v>
+        <v>13400</v>
       </c>
       <c r="J22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>519200</v>
+        <v>500700</v>
       </c>
       <c r="E23" s="3">
-        <v>504300</v>
+        <v>514500</v>
       </c>
       <c r="F23" s="3">
-        <v>517700</v>
+        <v>499800</v>
       </c>
       <c r="G23" s="3">
-        <v>431400</v>
+        <v>513100</v>
       </c>
       <c r="H23" s="3">
-        <v>416300</v>
+        <v>427500</v>
       </c>
       <c r="I23" s="3">
-        <v>398900</v>
+        <v>412600</v>
       </c>
       <c r="J23" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K23" s="3">
         <v>414200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>430700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>422100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>433000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>436600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>320000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>354300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>327100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>357400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>409500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>387800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>405300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>380100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83700</v>
+        <v>110100</v>
       </c>
       <c r="E24" s="3">
-        <v>104300</v>
+        <v>83000</v>
       </c>
       <c r="F24" s="3">
-        <v>114600</v>
+        <v>103400</v>
       </c>
       <c r="G24" s="3">
-        <v>97200</v>
+        <v>113600</v>
       </c>
       <c r="H24" s="3">
+        <v>96300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>91200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>82900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>78700</v>
+      </c>
+      <c r="M24" s="3">
         <v>92000</v>
       </c>
-      <c r="I24" s="3">
-        <v>83500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>82900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>78700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>92000</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>95600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>93800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>70700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>77500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>89300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>77400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>92900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>86700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>92900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>88700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>435400</v>
+        <v>390600</v>
       </c>
       <c r="E26" s="3">
-        <v>400000</v>
+        <v>431600</v>
       </c>
       <c r="F26" s="3">
-        <v>403000</v>
+        <v>396400</v>
       </c>
       <c r="G26" s="3">
-        <v>334100</v>
+        <v>399400</v>
       </c>
       <c r="H26" s="3">
-        <v>324300</v>
+        <v>331200</v>
       </c>
       <c r="I26" s="3">
-        <v>315400</v>
+        <v>321400</v>
       </c>
       <c r="J26" s="3">
+        <v>312600</v>
+      </c>
+      <c r="K26" s="3">
         <v>331300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>351900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>330000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>337400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>342700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>249300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>276800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>237800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>279900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>316600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>301100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>312400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>291400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>434700</v>
+        <v>390700</v>
       </c>
       <c r="E27" s="3">
-        <v>399700</v>
+        <v>430800</v>
       </c>
       <c r="F27" s="3">
-        <v>399000</v>
+        <v>396200</v>
       </c>
       <c r="G27" s="3">
-        <v>331600</v>
+        <v>395500</v>
       </c>
       <c r="H27" s="3">
-        <v>321500</v>
+        <v>328700</v>
       </c>
       <c r="I27" s="3">
-        <v>312800</v>
+        <v>318600</v>
       </c>
       <c r="J27" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K27" s="3">
         <v>330300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>350700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>328000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>336000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>338100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>249700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>280300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>238100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>280100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>316900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>311600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>290700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2043,11 +2104,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>22600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-62200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-58000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-79300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-67600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-67500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-59700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-91000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-92000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-66000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-62300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-62200</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-65200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-82600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-86600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-78400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-71100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-65200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>434700</v>
+        <v>390700</v>
       </c>
       <c r="E33" s="3">
-        <v>399700</v>
+        <v>430800</v>
       </c>
       <c r="F33" s="3">
-        <v>399000</v>
+        <v>396200</v>
       </c>
       <c r="G33" s="3">
-        <v>331600</v>
+        <v>395500</v>
       </c>
       <c r="H33" s="3">
-        <v>321500</v>
+        <v>328700</v>
       </c>
       <c r="I33" s="3">
-        <v>312800</v>
+        <v>318600</v>
       </c>
       <c r="J33" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K33" s="3">
         <v>330300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>350700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>328000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>336000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>338100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>249700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>280300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>260700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>280100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>316900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>311600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>290700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>434700</v>
+        <v>390700</v>
       </c>
       <c r="E35" s="3">
-        <v>399700</v>
+        <v>430800</v>
       </c>
       <c r="F35" s="3">
-        <v>399000</v>
+        <v>396200</v>
       </c>
       <c r="G35" s="3">
-        <v>331600</v>
+        <v>395500</v>
       </c>
       <c r="H35" s="3">
-        <v>321500</v>
+        <v>328700</v>
       </c>
       <c r="I35" s="3">
-        <v>312800</v>
+        <v>318600</v>
       </c>
       <c r="J35" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K35" s="3">
         <v>330300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>350700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>328000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>336000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>338100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>249700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>280300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>260700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>280100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>316900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>311600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>290700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1891300</v>
+        <v>1893200</v>
       </c>
       <c r="E41" s="3">
-        <v>2283700</v>
+        <v>1874400</v>
       </c>
       <c r="F41" s="3">
-        <v>1875400</v>
+        <v>2263300</v>
       </c>
       <c r="G41" s="3">
-        <v>2050100</v>
+        <v>1858700</v>
       </c>
       <c r="H41" s="3">
-        <v>2144500</v>
+        <v>2031800</v>
       </c>
       <c r="I41" s="3">
-        <v>1943500</v>
+        <v>2125400</v>
       </c>
       <c r="J41" s="3">
+        <v>1926200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2510300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2479300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3316900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2144900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1923100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1055200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>934500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>649600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>752900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>743400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>785400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>726300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>826000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2238300</v>
+        <v>2335700</v>
       </c>
       <c r="E42" s="3">
-        <v>2355000</v>
+        <v>2218300</v>
       </c>
       <c r="F42" s="3">
-        <v>4201800</v>
+        <v>2334000</v>
       </c>
       <c r="G42" s="3">
-        <v>3465100</v>
+        <v>4164300</v>
       </c>
       <c r="H42" s="3">
-        <v>2865600</v>
+        <v>3434200</v>
       </c>
       <c r="I42" s="3">
-        <v>2539900</v>
+        <v>2840100</v>
       </c>
       <c r="J42" s="3">
+        <v>2517200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2198700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1995900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2499100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3208200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2882400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3289300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3314600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3634700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3462900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4840800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4623800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4049700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3766400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2400500</v>
+        <v>2534000</v>
       </c>
       <c r="E43" s="3">
-        <v>2093400</v>
+        <v>2379100</v>
       </c>
       <c r="F43" s="3">
-        <v>1988300</v>
+        <v>2074700</v>
       </c>
       <c r="G43" s="3">
-        <v>2007800</v>
+        <v>1970500</v>
       </c>
       <c r="H43" s="3">
-        <v>2087700</v>
+        <v>1989900</v>
       </c>
       <c r="I43" s="3">
-        <v>2238600</v>
+        <v>2069100</v>
       </c>
       <c r="J43" s="3">
+        <v>2218600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2155600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2228800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2233700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2060000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2087400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2217600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2046700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2182200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2212900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2257800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2283300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2125900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2321200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>47700</v>
+        <v>37800</v>
       </c>
       <c r="E44" s="3">
-        <v>57300</v>
+        <v>47200</v>
       </c>
       <c r="F44" s="3">
-        <v>49400</v>
+        <v>56800</v>
       </c>
       <c r="G44" s="3">
-        <v>43800</v>
+        <v>49000</v>
       </c>
       <c r="H44" s="3">
-        <v>52700</v>
+        <v>43500</v>
       </c>
       <c r="I44" s="3">
-        <v>67100</v>
+        <v>52300</v>
       </c>
       <c r="J44" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K44" s="3">
         <v>59300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>94100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>97400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>92900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>80200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>74400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>75000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>74900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>68200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>73900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>97500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259900</v>
+        <v>292100</v>
       </c>
       <c r="E45" s="3">
-        <v>247400</v>
+        <v>257500</v>
       </c>
       <c r="F45" s="3">
-        <v>236900</v>
+        <v>245200</v>
       </c>
       <c r="G45" s="3">
-        <v>224100</v>
+        <v>234800</v>
       </c>
       <c r="H45" s="3">
-        <v>208000</v>
+        <v>222100</v>
       </c>
       <c r="I45" s="3">
-        <v>203000</v>
+        <v>206200</v>
       </c>
       <c r="J45" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K45" s="3">
         <v>193000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>225900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>253400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>227300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>277200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>292600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>777400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>399600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>371700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>412900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>450200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>382100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6837600</v>
+        <v>7092800</v>
       </c>
       <c r="E46" s="3">
-        <v>7036900</v>
+        <v>6776600</v>
       </c>
       <c r="F46" s="3">
-        <v>8351900</v>
+        <v>6974100</v>
       </c>
       <c r="G46" s="3">
-        <v>7790900</v>
+        <v>8277300</v>
       </c>
       <c r="H46" s="3">
-        <v>7358600</v>
+        <v>7721400</v>
       </c>
       <c r="I46" s="3">
-        <v>6992000</v>
+        <v>7293000</v>
       </c>
       <c r="J46" s="3">
+        <v>6929600</v>
+      </c>
+      <c r="K46" s="3">
         <v>7117000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6996300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8397100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7737900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7263000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6942800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6662800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7319000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6890800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8288700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8173700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7426000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7393100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>529100</v>
+        <v>543200</v>
       </c>
       <c r="E47" s="3">
-        <v>499600</v>
+        <v>524400</v>
       </c>
       <c r="F47" s="3">
-        <v>529000</v>
+        <v>495100</v>
       </c>
       <c r="G47" s="3">
-        <v>537200</v>
+        <v>524300</v>
       </c>
       <c r="H47" s="3">
-        <v>521500</v>
+        <v>532400</v>
       </c>
       <c r="I47" s="3">
-        <v>461700</v>
+        <v>516800</v>
       </c>
       <c r="J47" s="3">
+        <v>457600</v>
+      </c>
+      <c r="K47" s="3">
         <v>489000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>404500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>406400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>555300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>487600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>483100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>457200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>514800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>469000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>460600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>450600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>355300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>349500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1432700</v>
+        <v>1427900</v>
       </c>
       <c r="E48" s="3">
-        <v>1366700</v>
+        <v>1420000</v>
       </c>
       <c r="F48" s="3">
-        <v>1328800</v>
+        <v>1354500</v>
       </c>
       <c r="G48" s="3">
-        <v>1303700</v>
+        <v>1317000</v>
       </c>
       <c r="H48" s="3">
-        <v>1316200</v>
+        <v>1292000</v>
       </c>
       <c r="I48" s="3">
-        <v>1316300</v>
+        <v>1304500</v>
       </c>
       <c r="J48" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1267800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1256000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1205500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>955200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>945700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>903900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>864000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>939300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1039900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1038300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1027000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>961800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>969600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3584600</v>
+        <v>3620000</v>
       </c>
       <c r="E49" s="3">
-        <v>2047300</v>
+        <v>3552600</v>
       </c>
       <c r="F49" s="3">
-        <v>2009100</v>
+        <v>2029000</v>
       </c>
       <c r="G49" s="3">
-        <v>2024000</v>
+        <v>1991200</v>
       </c>
       <c r="H49" s="3">
-        <v>1978500</v>
+        <v>2006000</v>
       </c>
       <c r="I49" s="3">
-        <v>1982200</v>
+        <v>1960800</v>
       </c>
       <c r="J49" s="3">
+        <v>1964500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1860600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1848600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1786500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1768900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1867400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1930800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1843900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1962200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2115800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2160500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2053400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1952900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2076300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>143700</v>
+        <v>141300</v>
       </c>
       <c r="E52" s="3">
-        <v>232400</v>
+        <v>142500</v>
       </c>
       <c r="F52" s="3">
-        <v>124700</v>
+        <v>230400</v>
       </c>
       <c r="G52" s="3">
-        <v>115900</v>
+        <v>123600</v>
       </c>
       <c r="H52" s="3">
-        <v>138100</v>
+        <v>114800</v>
       </c>
       <c r="I52" s="3">
-        <v>237300</v>
+        <v>136900</v>
       </c>
       <c r="J52" s="3">
+        <v>235100</v>
+      </c>
+      <c r="K52" s="3">
         <v>176900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>246400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>242900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>255500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>329200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>340700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>262000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>263500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>206300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>245100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>305700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>238700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>230900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12527800</v>
+        <v>12825300</v>
       </c>
       <c r="E54" s="3">
-        <v>11182800</v>
+        <v>12416000</v>
       </c>
       <c r="F54" s="3">
-        <v>12343500</v>
+        <v>11083000</v>
       </c>
       <c r="G54" s="3">
-        <v>11771600</v>
+        <v>12233400</v>
       </c>
       <c r="H54" s="3">
-        <v>11312900</v>
+        <v>11666600</v>
       </c>
       <c r="I54" s="3">
-        <v>10989500</v>
+        <v>11212000</v>
       </c>
       <c r="J54" s="3">
+        <v>10891400</v>
+      </c>
+      <c r="K54" s="3">
         <v>10911200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10751900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12038400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11272800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10892900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10601300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10090000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10998900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10722000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12193100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12010400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10934700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11019400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1196300</v>
+        <v>1210100</v>
       </c>
       <c r="E57" s="3">
-        <v>1060800</v>
+        <v>1185600</v>
       </c>
       <c r="F57" s="3">
-        <v>1122600</v>
+        <v>1051300</v>
       </c>
       <c r="G57" s="3">
-        <v>1103200</v>
+        <v>1112500</v>
       </c>
       <c r="H57" s="3">
-        <v>1009500</v>
+        <v>1093400</v>
       </c>
       <c r="I57" s="3">
-        <v>1050800</v>
+        <v>1000500</v>
       </c>
       <c r="J57" s="3">
+        <v>1041500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1083700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1147100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1154700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1194800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1067800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1121000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>998500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>985100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1031000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1007000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1068700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>902400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>956000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>926900</v>
+        <v>901200</v>
       </c>
       <c r="E58" s="3">
-        <v>1123700</v>
+        <v>918700</v>
       </c>
       <c r="F58" s="3">
-        <v>1086200</v>
+        <v>1113600</v>
       </c>
       <c r="G58" s="3">
-        <v>1097200</v>
+        <v>1076500</v>
       </c>
       <c r="H58" s="3">
-        <v>1029900</v>
+        <v>1087400</v>
       </c>
       <c r="I58" s="3">
-        <v>1072800</v>
+        <v>1020700</v>
       </c>
       <c r="J58" s="3">
+        <v>1063200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1059400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1077100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1203900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>962000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>725500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>829200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>934200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1344600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1477300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1651500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1644300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1692200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1878400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>977500</v>
+        <v>971500</v>
       </c>
       <c r="E59" s="3">
-        <v>909600</v>
+        <v>968800</v>
       </c>
       <c r="F59" s="3">
-        <v>2493800</v>
+        <v>901500</v>
       </c>
       <c r="G59" s="3">
-        <v>834900</v>
+        <v>2471600</v>
       </c>
       <c r="H59" s="3">
-        <v>810800</v>
+        <v>827400</v>
       </c>
       <c r="I59" s="3">
-        <v>786900</v>
+        <v>803500</v>
       </c>
       <c r="J59" s="3">
+        <v>779800</v>
+      </c>
+      <c r="K59" s="3">
         <v>760000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>694200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>737100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>743400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>807900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>820200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>697200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>757500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>687900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>616800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>675700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>568500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>577000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100700</v>
+        <v>3082800</v>
       </c>
       <c r="E60" s="3">
-        <v>3094000</v>
+        <v>3073000</v>
       </c>
       <c r="F60" s="3">
-        <v>4702600</v>
+        <v>3066400</v>
       </c>
       <c r="G60" s="3">
-        <v>3035300</v>
+        <v>4660600</v>
       </c>
       <c r="H60" s="3">
-        <v>2850100</v>
+        <v>3008200</v>
       </c>
       <c r="I60" s="3">
-        <v>2910500</v>
+        <v>2824700</v>
       </c>
       <c r="J60" s="3">
+        <v>2884500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2903100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2918400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3095600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2601200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2770400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2629900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3087300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3196200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3275200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3388700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3163100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3411400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>958400</v>
+        <v>941100</v>
       </c>
       <c r="E61" s="3">
-        <v>282100</v>
+        <v>949800</v>
       </c>
       <c r="F61" s="3">
-        <v>176300</v>
+        <v>279500</v>
       </c>
       <c r="G61" s="3">
-        <v>168700</v>
+        <v>174700</v>
       </c>
       <c r="H61" s="3">
-        <v>235300</v>
+        <v>167200</v>
       </c>
       <c r="I61" s="3">
-        <v>235100</v>
+        <v>233200</v>
       </c>
       <c r="J61" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K61" s="3">
         <v>442900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>451500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>456500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>383800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>673300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>691800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>622100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>654600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>430400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>450500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>469800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>270200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>275800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>523000</v>
+        <v>500100</v>
       </c>
       <c r="E62" s="3">
-        <v>347400</v>
+        <v>518300</v>
       </c>
       <c r="F62" s="3">
-        <v>354500</v>
+        <v>344300</v>
       </c>
       <c r="G62" s="3">
-        <v>312600</v>
+        <v>351300</v>
       </c>
       <c r="H62" s="3">
-        <v>321400</v>
+        <v>309800</v>
       </c>
       <c r="I62" s="3">
-        <v>320900</v>
+        <v>318500</v>
       </c>
       <c r="J62" s="3">
+        <v>318000</v>
+      </c>
+      <c r="K62" s="3">
         <v>285600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>287900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>301700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>266500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>214300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>220900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>203800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>238900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>258000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>299000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>298000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>298600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>327500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4596800</v>
+        <v>4538500</v>
       </c>
       <c r="E66" s="3">
-        <v>3743700</v>
+        <v>4555800</v>
       </c>
       <c r="F66" s="3">
-        <v>5253400</v>
+        <v>3710300</v>
       </c>
       <c r="G66" s="3">
-        <v>3532800</v>
+        <v>5206500</v>
       </c>
       <c r="H66" s="3">
-        <v>3421100</v>
+        <v>3501300</v>
       </c>
       <c r="I66" s="3">
-        <v>3491700</v>
+        <v>3390500</v>
       </c>
       <c r="J66" s="3">
+        <v>3460500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3652900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3678400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3891900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3586200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3523300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3713700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3484600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4015600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3919100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4060100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4191700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3764900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4048700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7367300</v>
+        <v>7736300</v>
       </c>
       <c r="E72" s="3">
-        <v>6909100</v>
+        <v>7301500</v>
       </c>
       <c r="F72" s="3">
-        <v>6545900</v>
+        <v>6847400</v>
       </c>
       <c r="G72" s="3">
-        <v>7711900</v>
+        <v>6487500</v>
       </c>
       <c r="H72" s="3">
-        <v>7384800</v>
+        <v>7643100</v>
       </c>
       <c r="I72" s="3">
-        <v>7020700</v>
+        <v>7318900</v>
       </c>
       <c r="J72" s="3">
+        <v>6958000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6802400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6608300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7685100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7241700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6959000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6491000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6261500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6576600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6409300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7695400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7362300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6785400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6552600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7931000</v>
+        <v>8286800</v>
       </c>
       <c r="E76" s="3">
-        <v>7439100</v>
+        <v>7860300</v>
       </c>
       <c r="F76" s="3">
-        <v>7090200</v>
+        <v>7372800</v>
       </c>
       <c r="G76" s="3">
-        <v>8238800</v>
+        <v>7026900</v>
       </c>
       <c r="H76" s="3">
-        <v>7891800</v>
+        <v>8165300</v>
       </c>
       <c r="I76" s="3">
-        <v>7497800</v>
+        <v>7821400</v>
       </c>
       <c r="J76" s="3">
+        <v>7430900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7258300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7073500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8146500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7686600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7369700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6887600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6605400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6983300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6802900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8133000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7818800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7169800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6970800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>434700</v>
+        <v>390700</v>
       </c>
       <c r="E81" s="3">
-        <v>399700</v>
+        <v>430800</v>
       </c>
       <c r="F81" s="3">
-        <v>399000</v>
+        <v>396200</v>
       </c>
       <c r="G81" s="3">
-        <v>331600</v>
+        <v>395500</v>
       </c>
       <c r="H81" s="3">
-        <v>321500</v>
+        <v>328700</v>
       </c>
       <c r="I81" s="3">
-        <v>312800</v>
+        <v>318600</v>
       </c>
       <c r="J81" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K81" s="3">
         <v>330300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>350700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>328000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>336000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>338100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>249700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>280300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>260700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>280100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>316900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>311600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>290700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>112800</v>
+        <v>102900</v>
       </c>
       <c r="E83" s="3">
-        <v>94100</v>
+        <v>111800</v>
       </c>
       <c r="F83" s="3">
-        <v>106600</v>
+        <v>93200</v>
       </c>
       <c r="G83" s="3">
-        <v>88500</v>
+        <v>105700</v>
       </c>
       <c r="H83" s="3">
-        <v>82800</v>
+        <v>87700</v>
       </c>
       <c r="I83" s="3">
-        <v>78000</v>
+        <v>82000</v>
       </c>
       <c r="J83" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K83" s="3">
         <v>71200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>76300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>71500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>112700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>74600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>451000</v>
+        <v>318400</v>
       </c>
       <c r="E89" s="3">
-        <v>232500</v>
+        <v>447000</v>
       </c>
       <c r="F89" s="3">
-        <v>596100</v>
+        <v>230400</v>
       </c>
       <c r="G89" s="3">
-        <v>593600</v>
+        <v>590800</v>
       </c>
       <c r="H89" s="3">
-        <v>562400</v>
+        <v>588300</v>
       </c>
       <c r="I89" s="3">
-        <v>189300</v>
+        <v>557400</v>
       </c>
       <c r="J89" s="3">
+        <v>187600</v>
+      </c>
+      <c r="K89" s="3">
         <v>411100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>374500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>395100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>450100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>480300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>245700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>380900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>108600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>431300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>250800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>427400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>352600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>363600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62300</v>
+        <v>-76100</v>
       </c>
       <c r="E91" s="3">
-        <v>-82200</v>
+        <v>-61700</v>
       </c>
       <c r="F91" s="3">
-        <v>-68800</v>
+        <v>-81500</v>
       </c>
       <c r="G91" s="3">
-        <v>-55100</v>
+        <v>-68200</v>
       </c>
       <c r="H91" s="3">
-        <v>-57300</v>
+        <v>-54600</v>
       </c>
       <c r="I91" s="3">
-        <v>-80200</v>
+        <v>-56700</v>
       </c>
       <c r="J91" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-84000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-88400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-93600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-57100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-69900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1244200</v>
+        <v>-224400</v>
       </c>
       <c r="E94" s="3">
-        <v>1747700</v>
+        <v>-1233100</v>
       </c>
       <c r="F94" s="3">
-        <v>-718200</v>
+        <v>1732200</v>
       </c>
       <c r="G94" s="3">
-        <v>-664500</v>
+        <v>-711800</v>
       </c>
       <c r="H94" s="3">
-        <v>-261000</v>
+        <v>-658500</v>
       </c>
       <c r="I94" s="3">
-        <v>-380700</v>
+        <v>-258700</v>
       </c>
       <c r="J94" s="3">
+        <v>-377300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-292100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>462200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>692500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-112600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>487600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>315400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-187100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1361700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-239500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-420700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-180600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-689300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5805,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-73300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-72600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5829,11 +6063,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-78400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5841,16 +6075,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-80200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>391300</v>
+        <v>-60800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1562500</v>
+        <v>387800</v>
       </c>
       <c r="F100" s="3">
-        <v>-52500</v>
+        <v>-1548600</v>
       </c>
       <c r="G100" s="3">
-        <v>-22700</v>
+        <v>-52000</v>
       </c>
       <c r="H100" s="3">
-        <v>-95200</v>
+        <v>-22500</v>
       </c>
       <c r="I100" s="3">
-        <v>-374400</v>
+        <v>-94300</v>
       </c>
       <c r="J100" s="3">
+        <v>-371100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-58000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-122200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-76900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-39600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>25200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-262300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>404100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10700</v>
+        <v>-13900</v>
       </c>
       <c r="E101" s="3">
-        <v>-10500</v>
+        <v>10600</v>
       </c>
       <c r="F101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I101" s="3">
-        <v>8700</v>
+        <v>-1800</v>
       </c>
       <c r="J101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K101" s="3">
         <v>8800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-30800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-391300</v>
+        <v>19200</v>
       </c>
       <c r="E102" s="3">
-        <v>407200</v>
+        <v>-387800</v>
       </c>
       <c r="F102" s="3">
-        <v>-175300</v>
+        <v>403600</v>
       </c>
       <c r="G102" s="3">
-        <v>-92400</v>
+        <v>-173800</v>
       </c>
       <c r="H102" s="3">
-        <v>204300</v>
+        <v>-91600</v>
       </c>
       <c r="I102" s="3">
-        <v>-557200</v>
+        <v>202500</v>
       </c>
       <c r="J102" s="3">
+        <v>-552300</v>
+      </c>
+      <c r="K102" s="3">
         <v>69800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-838700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1138500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>213200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>850200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>124700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>387200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-150600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>32400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-121200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2621700</v>
+        <v>2655000</v>
       </c>
       <c r="E8" s="3">
-        <v>2433000</v>
+        <v>2570500</v>
       </c>
       <c r="F8" s="3">
-        <v>2165500</v>
+        <v>2385600</v>
       </c>
       <c r="G8" s="3">
-        <v>2088800</v>
+        <v>2123300</v>
       </c>
       <c r="H8" s="3">
-        <v>2014800</v>
+        <v>2048100</v>
       </c>
       <c r="I8" s="3">
-        <v>1987900</v>
+        <v>1975500</v>
       </c>
       <c r="J8" s="3">
+        <v>1949100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2094300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2080800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2078300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2022000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2030400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2028500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1922300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1847900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1990900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1976500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1941000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1970300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1927500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1886200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1833700</v>
+        <v>1866100</v>
       </c>
       <c r="E9" s="3">
-        <v>1700500</v>
+        <v>1797900</v>
       </c>
       <c r="F9" s="3">
-        <v>1463700</v>
+        <v>1667300</v>
       </c>
       <c r="G9" s="3">
-        <v>1390500</v>
+        <v>1435200</v>
       </c>
       <c r="H9" s="3">
-        <v>1404800</v>
+        <v>1363400</v>
       </c>
       <c r="I9" s="3">
-        <v>1382300</v>
+        <v>1377400</v>
       </c>
       <c r="J9" s="3">
+        <v>1355400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1521400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1475100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1484000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1432700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1446900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1345400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1326600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1414100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1387800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1369300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1404200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1388600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1330800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>788000</v>
+        <v>788900</v>
       </c>
       <c r="E10" s="3">
-        <v>732600</v>
+        <v>772600</v>
       </c>
       <c r="F10" s="3">
-        <v>701800</v>
+        <v>718300</v>
       </c>
       <c r="G10" s="3">
-        <v>698300</v>
+        <v>688100</v>
       </c>
       <c r="H10" s="3">
-        <v>610000</v>
+        <v>684700</v>
       </c>
       <c r="I10" s="3">
-        <v>605600</v>
+        <v>598100</v>
       </c>
       <c r="J10" s="3">
+        <v>593800</v>
+      </c>
+      <c r="K10" s="3">
         <v>572900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>605700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>594300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>589300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>583400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>628000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>576900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>521200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>576800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>588700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>571700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>566100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>538900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>555400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,14 +1160,14 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>21700</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>21300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1162,23 +1181,23 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-33600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1186,85 +1205,91 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>-17000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28200</v>
+        <v>21700</v>
       </c>
       <c r="E15" s="3">
-        <v>37200</v>
+        <v>27700</v>
       </c>
       <c r="F15" s="3">
-        <v>21700</v>
+        <v>36500</v>
       </c>
       <c r="G15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J15" s="3">
         <v>13400</v>
       </c>
-      <c r="H15" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>11300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>6200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2156200</v>
+        <v>2190500</v>
       </c>
       <c r="E17" s="3">
-        <v>1970200</v>
+        <v>2114100</v>
       </c>
       <c r="F17" s="3">
-        <v>1710100</v>
+        <v>1931800</v>
       </c>
       <c r="G17" s="3">
-        <v>1638100</v>
+        <v>1676700</v>
       </c>
       <c r="H17" s="3">
-        <v>1639700</v>
+        <v>1606100</v>
       </c>
       <c r="I17" s="3">
-        <v>1628800</v>
+        <v>1607700</v>
       </c>
       <c r="J17" s="3">
+        <v>1597100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1742500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1714500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1710900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1673400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1660700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1642400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1649800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1539700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1710600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1690600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1607900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1650900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1585300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1566000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>465500</v>
+        <v>464400</v>
       </c>
       <c r="E18" s="3">
-        <v>462800</v>
+        <v>456400</v>
       </c>
       <c r="F18" s="3">
-        <v>455400</v>
+        <v>453800</v>
       </c>
       <c r="G18" s="3">
-        <v>450700</v>
+        <v>446600</v>
       </c>
       <c r="H18" s="3">
-        <v>375000</v>
+        <v>441900</v>
       </c>
       <c r="I18" s="3">
-        <v>359100</v>
+        <v>367700</v>
       </c>
       <c r="J18" s="3">
+        <v>352100</v>
+      </c>
+      <c r="K18" s="3">
         <v>351800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>366300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>367300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>348600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>369600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>386200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>272500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>308100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>280300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>285900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>333200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>319500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>342100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>320200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>54700</v>
+        <v>47800</v>
       </c>
       <c r="E20" s="3">
-        <v>61700</v>
+        <v>53600</v>
       </c>
       <c r="F20" s="3">
-        <v>57500</v>
+        <v>60500</v>
       </c>
       <c r="G20" s="3">
-        <v>78600</v>
+        <v>56400</v>
       </c>
       <c r="H20" s="3">
-        <v>67000</v>
+        <v>77100</v>
       </c>
       <c r="I20" s="3">
-        <v>66800</v>
+        <v>65700</v>
       </c>
       <c r="J20" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K20" s="3">
         <v>59100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>64900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>91000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>92000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>66000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>62300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>62200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>65200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>82600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>86600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>78400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>71100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>65200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>623100</v>
+        <v>609700</v>
       </c>
       <c r="E21" s="3">
-        <v>636300</v>
+        <v>610900</v>
       </c>
       <c r="F21" s="3">
-        <v>606200</v>
+        <v>623900</v>
       </c>
       <c r="G21" s="3">
-        <v>635000</v>
+        <v>594300</v>
       </c>
       <c r="H21" s="3">
-        <v>529800</v>
+        <v>622600</v>
       </c>
       <c r="I21" s="3">
-        <v>508000</v>
+        <v>519500</v>
       </c>
       <c r="J21" s="3">
+        <v>498100</v>
+      </c>
+      <c r="K21" s="3">
         <v>488200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>502400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>516400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>537300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>521900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>392600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>427600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>428000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>444800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>495000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>469300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>526000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>460000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>19400</v>
+        <v>18300</v>
       </c>
       <c r="E22" s="3">
-        <v>9900</v>
+        <v>19100</v>
       </c>
       <c r="F22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J22" s="3">
         <v>13100</v>
       </c>
-      <c r="G22" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500700</v>
+        <v>493900</v>
       </c>
       <c r="E23" s="3">
-        <v>514500</v>
+        <v>491000</v>
       </c>
       <c r="F23" s="3">
-        <v>499800</v>
+        <v>504500</v>
       </c>
       <c r="G23" s="3">
-        <v>513100</v>
+        <v>490100</v>
       </c>
       <c r="H23" s="3">
-        <v>427500</v>
+        <v>503100</v>
       </c>
       <c r="I23" s="3">
-        <v>412600</v>
+        <v>419200</v>
       </c>
       <c r="J23" s="3">
+        <v>404500</v>
+      </c>
+      <c r="K23" s="3">
         <v>395300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>414200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>430700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>422100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>433000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>436600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>320000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>354300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>327100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>357400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>409500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>387800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>405300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>380100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>110100</v>
+        <v>105400</v>
       </c>
       <c r="E24" s="3">
-        <v>83000</v>
+        <v>107900</v>
       </c>
       <c r="F24" s="3">
-        <v>103400</v>
+        <v>81400</v>
       </c>
       <c r="G24" s="3">
-        <v>113600</v>
+        <v>101400</v>
       </c>
       <c r="H24" s="3">
-        <v>96300</v>
+        <v>111400</v>
       </c>
       <c r="I24" s="3">
-        <v>91200</v>
+        <v>94500</v>
       </c>
       <c r="J24" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K24" s="3">
         <v>82700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>78700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>92000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>95600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>77500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>89300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>77400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>92900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>86700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>92900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>88700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>390600</v>
+        <v>388500</v>
       </c>
       <c r="E26" s="3">
-        <v>431600</v>
+        <v>383000</v>
       </c>
       <c r="F26" s="3">
-        <v>396400</v>
+        <v>423100</v>
       </c>
       <c r="G26" s="3">
-        <v>399400</v>
+        <v>388700</v>
       </c>
       <c r="H26" s="3">
-        <v>331200</v>
+        <v>391600</v>
       </c>
       <c r="I26" s="3">
-        <v>321400</v>
+        <v>324700</v>
       </c>
       <c r="J26" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K26" s="3">
         <v>312600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>331300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>351900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>330000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>337400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>342700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>249300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>276800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>237800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>279900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>316600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>301100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>312400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>291400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>390700</v>
+        <v>388000</v>
       </c>
       <c r="E27" s="3">
-        <v>430800</v>
+        <v>383000</v>
       </c>
       <c r="F27" s="3">
-        <v>396200</v>
+        <v>422400</v>
       </c>
       <c r="G27" s="3">
-        <v>395500</v>
+        <v>388500</v>
       </c>
       <c r="H27" s="3">
-        <v>328700</v>
+        <v>387700</v>
       </c>
       <c r="I27" s="3">
-        <v>318600</v>
+        <v>322300</v>
       </c>
       <c r="J27" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K27" s="3">
         <v>310100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>330300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>350700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>328000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>336000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>338100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>249700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>280300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>238100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>280100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>316900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>311600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>290700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2149,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2107,11 +2167,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>22600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-54700</v>
+        <v>-47800</v>
       </c>
       <c r="E32" s="3">
-        <v>-61700</v>
+        <v>-53600</v>
       </c>
       <c r="F32" s="3">
-        <v>-57500</v>
+        <v>-60500</v>
       </c>
       <c r="G32" s="3">
-        <v>-78600</v>
+        <v>-56400</v>
       </c>
       <c r="H32" s="3">
-        <v>-67000</v>
+        <v>-77100</v>
       </c>
       <c r="I32" s="3">
-        <v>-66800</v>
+        <v>-65700</v>
       </c>
       <c r="J32" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-59100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-64900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-91000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-92000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-66000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-62200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-65200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-82600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-86600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-78400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-71100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-65200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>390700</v>
+        <v>388000</v>
       </c>
       <c r="E33" s="3">
-        <v>430800</v>
+        <v>383000</v>
       </c>
       <c r="F33" s="3">
-        <v>396200</v>
+        <v>422400</v>
       </c>
       <c r="G33" s="3">
-        <v>395500</v>
+        <v>388500</v>
       </c>
       <c r="H33" s="3">
-        <v>328700</v>
+        <v>387700</v>
       </c>
       <c r="I33" s="3">
-        <v>318600</v>
+        <v>322300</v>
       </c>
       <c r="J33" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K33" s="3">
         <v>310100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>330300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>350700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>328000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>336000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>338100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>249700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>280300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>260700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>280100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>316900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>311600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>290700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>390700</v>
+        <v>388000</v>
       </c>
       <c r="E35" s="3">
-        <v>430800</v>
+        <v>383000</v>
       </c>
       <c r="F35" s="3">
-        <v>396200</v>
+        <v>422400</v>
       </c>
       <c r="G35" s="3">
-        <v>395500</v>
+        <v>388500</v>
       </c>
       <c r="H35" s="3">
-        <v>328700</v>
+        <v>387700</v>
       </c>
       <c r="I35" s="3">
-        <v>318600</v>
+        <v>322300</v>
       </c>
       <c r="J35" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K35" s="3">
         <v>310100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>330300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>350700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>328000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>336000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>338100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>249700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>280300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>260700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>280100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>316900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>311600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>290700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1893200</v>
+        <v>1404500</v>
       </c>
       <c r="E41" s="3">
-        <v>1874400</v>
+        <v>1856300</v>
       </c>
       <c r="F41" s="3">
-        <v>2263300</v>
+        <v>1837900</v>
       </c>
       <c r="G41" s="3">
-        <v>1858700</v>
+        <v>2219200</v>
       </c>
       <c r="H41" s="3">
-        <v>2031800</v>
+        <v>1822400</v>
       </c>
       <c r="I41" s="3">
-        <v>2125400</v>
+        <v>1992200</v>
       </c>
       <c r="J41" s="3">
+        <v>2083900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1926200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2510300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2479300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3316900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2144900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1923100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1055200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>934500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>649600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>752900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>743400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>785400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>726300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>826000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2335700</v>
+        <v>3072700</v>
       </c>
       <c r="E42" s="3">
-        <v>2218300</v>
+        <v>2290200</v>
       </c>
       <c r="F42" s="3">
-        <v>2334000</v>
+        <v>2175000</v>
       </c>
       <c r="G42" s="3">
-        <v>4164300</v>
+        <v>2288500</v>
       </c>
       <c r="H42" s="3">
-        <v>3434200</v>
+        <v>4083100</v>
       </c>
       <c r="I42" s="3">
-        <v>2840100</v>
+        <v>3367200</v>
       </c>
       <c r="J42" s="3">
+        <v>2784700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2517200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2198700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1995900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2499100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3208200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2882400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3289300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3314600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3634700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3462900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4840800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4623800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4049700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3766400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2534000</v>
+        <v>2607000</v>
       </c>
       <c r="E43" s="3">
-        <v>2379100</v>
+        <v>2484600</v>
       </c>
       <c r="F43" s="3">
-        <v>2074700</v>
+        <v>2332700</v>
       </c>
       <c r="G43" s="3">
-        <v>1970500</v>
+        <v>2034300</v>
       </c>
       <c r="H43" s="3">
-        <v>1989900</v>
+        <v>1932100</v>
       </c>
       <c r="I43" s="3">
-        <v>2069100</v>
+        <v>1951100</v>
       </c>
       <c r="J43" s="3">
+        <v>2028800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2218600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2155600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2228800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2233700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2060000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2087400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2217600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2046700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2182200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2212900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2257800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2283300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2125900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2321200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37800</v>
+        <v>13400</v>
       </c>
       <c r="E44" s="3">
-        <v>47200</v>
+        <v>10200</v>
       </c>
       <c r="F44" s="3">
-        <v>56800</v>
+        <v>12400</v>
       </c>
       <c r="G44" s="3">
-        <v>49000</v>
+        <v>13900</v>
       </c>
       <c r="H44" s="3">
-        <v>43500</v>
+        <v>15700</v>
       </c>
       <c r="I44" s="3">
-        <v>52300</v>
+        <v>17100</v>
       </c>
       <c r="J44" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K44" s="3">
         <v>66500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>94100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>97400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>92900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>80200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>74400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>75000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>74900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>68200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>73900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>97500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>292100</v>
+        <v>362200</v>
       </c>
       <c r="E45" s="3">
-        <v>257500</v>
+        <v>313300</v>
       </c>
       <c r="F45" s="3">
-        <v>245200</v>
+        <v>286500</v>
       </c>
       <c r="G45" s="3">
-        <v>234800</v>
+        <v>282200</v>
       </c>
       <c r="H45" s="3">
-        <v>222100</v>
+        <v>262500</v>
       </c>
       <c r="I45" s="3">
-        <v>206200</v>
+        <v>243200</v>
       </c>
       <c r="J45" s="3">
+        <v>231900</v>
+      </c>
+      <c r="K45" s="3">
         <v>201100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>193000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>225900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>253400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>227300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>277200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>292600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>777400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>399600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>371700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>412900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>450200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>382100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7092800</v>
+        <v>7459700</v>
       </c>
       <c r="E46" s="3">
-        <v>6776600</v>
+        <v>6954500</v>
       </c>
       <c r="F46" s="3">
-        <v>6974100</v>
+        <v>6644400</v>
       </c>
       <c r="G46" s="3">
-        <v>8277300</v>
+        <v>6838000</v>
       </c>
       <c r="H46" s="3">
-        <v>7721400</v>
+        <v>8115900</v>
       </c>
       <c r="I46" s="3">
-        <v>7293000</v>
+        <v>7570800</v>
       </c>
       <c r="J46" s="3">
+        <v>7150700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6929600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7117000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6996300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8397100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7737900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7263000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6942800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6662800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7319000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6890800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8288700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8173700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7426000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7393100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>543200</v>
+        <v>469100</v>
       </c>
       <c r="E47" s="3">
-        <v>524400</v>
+        <v>484600</v>
       </c>
       <c r="F47" s="3">
-        <v>495100</v>
+        <v>463600</v>
       </c>
       <c r="G47" s="3">
-        <v>524300</v>
+        <v>481000</v>
       </c>
       <c r="H47" s="3">
-        <v>532400</v>
+        <v>463000</v>
       </c>
       <c r="I47" s="3">
-        <v>516800</v>
+        <v>469300</v>
       </c>
       <c r="J47" s="3">
+        <v>451000</v>
+      </c>
+      <c r="K47" s="3">
         <v>457600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>489000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>404500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>406400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>555300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>487600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>483100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>457200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>514800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>469000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>460600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>450600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>355300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>349500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1427900</v>
+        <v>1420600</v>
       </c>
       <c r="E48" s="3">
-        <v>1420000</v>
+        <v>1400000</v>
       </c>
       <c r="F48" s="3">
-        <v>1354500</v>
+        <v>1392300</v>
       </c>
       <c r="G48" s="3">
-        <v>1317000</v>
+        <v>1328100</v>
       </c>
       <c r="H48" s="3">
-        <v>1292000</v>
+        <v>1291300</v>
       </c>
       <c r="I48" s="3">
-        <v>1304500</v>
+        <v>1266800</v>
       </c>
       <c r="J48" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1304600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1267800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1256000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1205500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>955200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>945700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>903900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>864000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>939300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1039900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1038300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1027000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>961800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>969600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3620000</v>
+        <v>3754600</v>
       </c>
       <c r="E49" s="3">
-        <v>3552600</v>
+        <v>3549400</v>
       </c>
       <c r="F49" s="3">
-        <v>2029000</v>
+        <v>3483300</v>
       </c>
       <c r="G49" s="3">
-        <v>1991200</v>
+        <v>1989400</v>
       </c>
       <c r="H49" s="3">
-        <v>2006000</v>
+        <v>1952400</v>
       </c>
       <c r="I49" s="3">
-        <v>1960800</v>
+        <v>1966800</v>
       </c>
       <c r="J49" s="3">
+        <v>1922600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1964500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1860600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1848600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1786500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1768900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1867400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1930800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1843900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1962200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2115800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2160500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2053400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1952900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2076300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>141300</v>
+        <v>193000</v>
       </c>
       <c r="E52" s="3">
-        <v>142500</v>
+        <v>186500</v>
       </c>
       <c r="F52" s="3">
-        <v>230400</v>
+        <v>190300</v>
       </c>
       <c r="G52" s="3">
-        <v>123600</v>
+        <v>230300</v>
       </c>
       <c r="H52" s="3">
-        <v>114800</v>
+        <v>172200</v>
       </c>
       <c r="I52" s="3">
-        <v>136900</v>
+        <v>165300</v>
       </c>
       <c r="J52" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K52" s="3">
         <v>235100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>176900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>246400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>242900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>255500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>329200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>340700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>262000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>263500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>206300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>245100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>305700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>238700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>230900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12825300</v>
+        <v>13297000</v>
       </c>
       <c r="E54" s="3">
-        <v>12416000</v>
+        <v>12575100</v>
       </c>
       <c r="F54" s="3">
-        <v>11083000</v>
+        <v>12173800</v>
       </c>
       <c r="G54" s="3">
-        <v>12233400</v>
+        <v>10866800</v>
       </c>
       <c r="H54" s="3">
-        <v>11666600</v>
+        <v>11994800</v>
       </c>
       <c r="I54" s="3">
-        <v>11212000</v>
+        <v>11439100</v>
       </c>
       <c r="J54" s="3">
+        <v>10993300</v>
+      </c>
+      <c r="K54" s="3">
         <v>10891400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10911200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10751900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12038400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11272800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10892900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10601300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10090000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10998900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10722000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12193100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12010400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10934700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11019400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1210100</v>
+        <v>1143700</v>
       </c>
       <c r="E57" s="3">
-        <v>1185600</v>
+        <v>1186500</v>
       </c>
       <c r="F57" s="3">
-        <v>1051300</v>
+        <v>1162500</v>
       </c>
       <c r="G57" s="3">
-        <v>1112500</v>
+        <v>1030800</v>
       </c>
       <c r="H57" s="3">
-        <v>1093400</v>
+        <v>1090800</v>
       </c>
       <c r="I57" s="3">
-        <v>1000500</v>
+        <v>1072000</v>
       </c>
       <c r="J57" s="3">
+        <v>981000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1041500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1083700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1147100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1154700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1194800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1067800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1121000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>998500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>985100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1031000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1007000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1068700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>902400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>956000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>901200</v>
+        <v>1139000</v>
       </c>
       <c r="E58" s="3">
-        <v>918700</v>
+        <v>883600</v>
       </c>
       <c r="F58" s="3">
-        <v>1113600</v>
+        <v>900700</v>
       </c>
       <c r="G58" s="3">
-        <v>1076500</v>
+        <v>1091900</v>
       </c>
       <c r="H58" s="3">
-        <v>1087400</v>
+        <v>1055500</v>
       </c>
       <c r="I58" s="3">
-        <v>1020700</v>
+        <v>1066200</v>
       </c>
       <c r="J58" s="3">
+        <v>1000800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1063200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1059400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1077100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1203900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>962000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>725500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>829200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>934200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1344600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1477300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1651500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1644300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1692200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1878400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>971500</v>
+        <v>999100</v>
       </c>
       <c r="E59" s="3">
-        <v>968800</v>
+        <v>952500</v>
       </c>
       <c r="F59" s="3">
-        <v>901500</v>
+        <v>949900</v>
       </c>
       <c r="G59" s="3">
-        <v>2471600</v>
+        <v>883900</v>
       </c>
       <c r="H59" s="3">
-        <v>827400</v>
+        <v>2423400</v>
       </c>
       <c r="I59" s="3">
-        <v>803500</v>
+        <v>811300</v>
       </c>
       <c r="J59" s="3">
+        <v>787800</v>
+      </c>
+      <c r="K59" s="3">
         <v>779800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>760000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>694200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>737100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>743400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>807900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>820200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>697200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>757500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>687900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>616800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>675700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>568500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>577000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3082800</v>
+        <v>3281800</v>
       </c>
       <c r="E60" s="3">
-        <v>3073000</v>
+        <v>3022700</v>
       </c>
       <c r="F60" s="3">
-        <v>3066400</v>
+        <v>3013100</v>
       </c>
       <c r="G60" s="3">
-        <v>4660600</v>
+        <v>3006600</v>
       </c>
       <c r="H60" s="3">
-        <v>3008200</v>
+        <v>4569700</v>
       </c>
       <c r="I60" s="3">
-        <v>2824700</v>
+        <v>2949600</v>
       </c>
       <c r="J60" s="3">
+        <v>2769600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2884500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2903100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2918400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3095600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2601200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2770400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2629900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3087300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3196200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3275200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3388700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3163100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3411400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>941100</v>
+        <v>921100</v>
       </c>
       <c r="E61" s="3">
-        <v>949800</v>
+        <v>922800</v>
       </c>
       <c r="F61" s="3">
-        <v>279500</v>
+        <v>931300</v>
       </c>
       <c r="G61" s="3">
-        <v>174700</v>
+        <v>274100</v>
       </c>
       <c r="H61" s="3">
-        <v>167200</v>
+        <v>171300</v>
       </c>
       <c r="I61" s="3">
-        <v>233200</v>
+        <v>164000</v>
       </c>
       <c r="J61" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K61" s="3">
         <v>233000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>442900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>451500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>456500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>383800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>673300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>691800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>622100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>654600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>430400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>450500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>469800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>270200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>275800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500100</v>
+        <v>541500</v>
       </c>
       <c r="E62" s="3">
-        <v>518300</v>
+        <v>490300</v>
       </c>
       <c r="F62" s="3">
-        <v>344300</v>
+        <v>508200</v>
       </c>
       <c r="G62" s="3">
-        <v>351300</v>
+        <v>337600</v>
       </c>
       <c r="H62" s="3">
-        <v>309800</v>
+        <v>344500</v>
       </c>
       <c r="I62" s="3">
-        <v>318500</v>
+        <v>303800</v>
       </c>
       <c r="J62" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K62" s="3">
         <v>318000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>285600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>287900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>301700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>266500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>214300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>220900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>203800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>238900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>258000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>299000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>298000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>298600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>327500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4538500</v>
+        <v>4750200</v>
       </c>
       <c r="E66" s="3">
-        <v>4555800</v>
+        <v>4450000</v>
       </c>
       <c r="F66" s="3">
-        <v>3710300</v>
+        <v>4466900</v>
       </c>
       <c r="G66" s="3">
-        <v>5206500</v>
+        <v>3637900</v>
       </c>
       <c r="H66" s="3">
-        <v>3501300</v>
+        <v>5104900</v>
       </c>
       <c r="I66" s="3">
-        <v>3390500</v>
+        <v>3433000</v>
       </c>
       <c r="J66" s="3">
+        <v>3324400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3460500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3652900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3678400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3891900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3586200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3523300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3713700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3484600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4015600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3919100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4060100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4191700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3764900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4048700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7736300</v>
+        <v>8057200</v>
       </c>
       <c r="E72" s="3">
-        <v>7301500</v>
+        <v>7635100</v>
       </c>
       <c r="F72" s="3">
-        <v>6847400</v>
+        <v>7209900</v>
       </c>
       <c r="G72" s="3">
-        <v>6487500</v>
+        <v>6754000</v>
       </c>
       <c r="H72" s="3">
-        <v>7643100</v>
+        <v>6384100</v>
       </c>
       <c r="I72" s="3">
-        <v>7318900</v>
+        <v>7516900</v>
       </c>
       <c r="J72" s="3">
+        <v>7195900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6958000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6802400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6608300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7685100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7241700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6959000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6491000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6261500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6576600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6409300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7695400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7362300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6785400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6552600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8286800</v>
+        <v>8546800</v>
       </c>
       <c r="E76" s="3">
-        <v>7860300</v>
+        <v>8125100</v>
       </c>
       <c r="F76" s="3">
-        <v>7372800</v>
+        <v>7706900</v>
       </c>
       <c r="G76" s="3">
-        <v>7026900</v>
+        <v>7229000</v>
       </c>
       <c r="H76" s="3">
-        <v>8165300</v>
+        <v>6889900</v>
       </c>
       <c r="I76" s="3">
-        <v>7821400</v>
+        <v>8006000</v>
       </c>
       <c r="J76" s="3">
+        <v>7668900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7430900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7258300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7073500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8146500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7686600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7369700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6887600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6605400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6983300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6802900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8133000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7818800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7169800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6970800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>390700</v>
+        <v>388000</v>
       </c>
       <c r="E81" s="3">
-        <v>430800</v>
+        <v>383000</v>
       </c>
       <c r="F81" s="3">
-        <v>396200</v>
+        <v>422400</v>
       </c>
       <c r="G81" s="3">
-        <v>395500</v>
+        <v>388500</v>
       </c>
       <c r="H81" s="3">
-        <v>328700</v>
+        <v>387700</v>
       </c>
       <c r="I81" s="3">
-        <v>318600</v>
+        <v>322300</v>
       </c>
       <c r="J81" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K81" s="3">
         <v>310100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>330300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>350700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>328000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>336000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>338100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>249700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>280300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>260700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>280100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>316900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>311600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>290700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102900</v>
+        <v>97500</v>
       </c>
       <c r="E83" s="3">
-        <v>111800</v>
+        <v>100900</v>
       </c>
       <c r="F83" s="3">
-        <v>93200</v>
+        <v>109700</v>
       </c>
       <c r="G83" s="3">
-        <v>105700</v>
+        <v>91400</v>
       </c>
       <c r="H83" s="3">
-        <v>87700</v>
+        <v>103600</v>
       </c>
       <c r="I83" s="3">
-        <v>82000</v>
+        <v>86000</v>
       </c>
       <c r="J83" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K83" s="3">
         <v>77300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>82500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>76300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>71500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>112700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>74600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>318400</v>
+        <v>393000</v>
       </c>
       <c r="E89" s="3">
-        <v>447000</v>
+        <v>312200</v>
       </c>
       <c r="F89" s="3">
-        <v>230400</v>
+        <v>438200</v>
       </c>
       <c r="G89" s="3">
-        <v>590800</v>
+        <v>225900</v>
       </c>
       <c r="H89" s="3">
-        <v>588300</v>
+        <v>579300</v>
       </c>
       <c r="I89" s="3">
-        <v>557400</v>
+        <v>576800</v>
       </c>
       <c r="J89" s="3">
+        <v>546500</v>
+      </c>
+      <c r="K89" s="3">
         <v>187600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>411100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>374500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>395100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>450100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>480300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>245700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>380900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>108600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>431300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>250800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>427400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>352600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>363600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-76100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-61700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-81500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-68200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-54600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-56700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-79400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-80100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-75000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-76100</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-93600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-57100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-69900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-224400</v>
+        <v>-1044800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1233100</v>
+        <v>-220100</v>
       </c>
       <c r="F94" s="3">
-        <v>1732200</v>
+        <v>-1209100</v>
       </c>
       <c r="G94" s="3">
-        <v>-711800</v>
+        <v>1698400</v>
       </c>
       <c r="H94" s="3">
-        <v>-658500</v>
+        <v>-697900</v>
       </c>
       <c r="I94" s="3">
-        <v>-258700</v>
+        <v>-645700</v>
       </c>
       <c r="J94" s="3">
+        <v>-253600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-377300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>462200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>692500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-112600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>487600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>315400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-187100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1361700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-239500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-420700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-180600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-689300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6042,11 +6275,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-72600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6066,11 +6299,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-78400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6078,16 +6311,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-80200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60800</v>
+        <v>194500</v>
       </c>
       <c r="E100" s="3">
-        <v>387800</v>
+        <v>-59700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1548600</v>
+        <v>380200</v>
       </c>
       <c r="G100" s="3">
-        <v>-52000</v>
+        <v>-1518400</v>
       </c>
       <c r="H100" s="3">
-        <v>-22500</v>
+        <v>-51000</v>
       </c>
       <c r="I100" s="3">
-        <v>-94300</v>
+        <v>-22100</v>
       </c>
       <c r="J100" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-371100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-58000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-120200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-122200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-314000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-76900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-39600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>25200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-262300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>404100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13900</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>10600</v>
+        <v>-13600</v>
       </c>
       <c r="F101" s="3">
-        <v>-10400</v>
+        <v>10400</v>
       </c>
       <c r="G101" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-30800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19200</v>
+        <v>-451900</v>
       </c>
       <c r="E102" s="3">
-        <v>-387800</v>
+        <v>18900</v>
       </c>
       <c r="F102" s="3">
-        <v>403600</v>
+        <v>-380200</v>
       </c>
       <c r="G102" s="3">
-        <v>-173800</v>
+        <v>395700</v>
       </c>
       <c r="H102" s="3">
-        <v>-91600</v>
+        <v>-170400</v>
       </c>
       <c r="I102" s="3">
-        <v>202500</v>
+        <v>-89800</v>
       </c>
       <c r="J102" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-552300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-838700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1138500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>213200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>850200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>124700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>387200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-150600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-25200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>32400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-121200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>84900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2655000</v>
+        <v>2624500</v>
       </c>
       <c r="E8" s="3">
-        <v>2570500</v>
+        <v>2541000</v>
       </c>
       <c r="F8" s="3">
-        <v>2385600</v>
+        <v>2358200</v>
       </c>
       <c r="G8" s="3">
-        <v>2123300</v>
+        <v>2098900</v>
       </c>
       <c r="H8" s="3">
-        <v>2048100</v>
+        <v>2024600</v>
       </c>
       <c r="I8" s="3">
-        <v>1975500</v>
+        <v>1952800</v>
       </c>
       <c r="J8" s="3">
-        <v>1949100</v>
+        <v>1926800</v>
       </c>
       <c r="K8" s="3">
         <v>2094300</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1866100</v>
+        <v>1844700</v>
       </c>
       <c r="E9" s="3">
-        <v>1797900</v>
+        <v>1777300</v>
       </c>
       <c r="F9" s="3">
-        <v>1667300</v>
+        <v>1648200</v>
       </c>
       <c r="G9" s="3">
-        <v>1435200</v>
+        <v>1418700</v>
       </c>
       <c r="H9" s="3">
-        <v>1363400</v>
+        <v>1347700</v>
       </c>
       <c r="I9" s="3">
-        <v>1377400</v>
+        <v>1361600</v>
       </c>
       <c r="J9" s="3">
-        <v>1355400</v>
+        <v>1339800</v>
       </c>
       <c r="K9" s="3">
         <v>1521400</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>788900</v>
+        <v>779800</v>
       </c>
       <c r="E10" s="3">
-        <v>772600</v>
+        <v>763700</v>
       </c>
       <c r="F10" s="3">
-        <v>718300</v>
+        <v>710000</v>
       </c>
       <c r="G10" s="3">
-        <v>688100</v>
+        <v>680200</v>
       </c>
       <c r="H10" s="3">
-        <v>684700</v>
+        <v>676800</v>
       </c>
       <c r="I10" s="3">
-        <v>598100</v>
+        <v>591200</v>
       </c>
       <c r="J10" s="3">
-        <v>593800</v>
+        <v>587000</v>
       </c>
       <c r="K10" s="3">
         <v>572900</v>
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="I14" s="3">
         <v>3400</v>
@@ -1223,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="E15" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="F15" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="G15" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="H15" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I15" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J15" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="K15" s="3">
         <v>12200</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2190500</v>
+        <v>2165400</v>
       </c>
       <c r="E17" s="3">
-        <v>2114100</v>
+        <v>2089900</v>
       </c>
       <c r="F17" s="3">
-        <v>1931800</v>
+        <v>1909600</v>
       </c>
       <c r="G17" s="3">
-        <v>1676700</v>
+        <v>1657500</v>
       </c>
       <c r="H17" s="3">
-        <v>1606100</v>
+        <v>1587700</v>
       </c>
       <c r="I17" s="3">
-        <v>1607700</v>
+        <v>1589300</v>
       </c>
       <c r="J17" s="3">
-        <v>1597100</v>
+        <v>1578700</v>
       </c>
       <c r="K17" s="3">
         <v>1742500</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>464400</v>
+        <v>459100</v>
       </c>
       <c r="E18" s="3">
-        <v>456400</v>
+        <v>451200</v>
       </c>
       <c r="F18" s="3">
-        <v>453800</v>
+        <v>448600</v>
       </c>
       <c r="G18" s="3">
-        <v>446600</v>
+        <v>441400</v>
       </c>
       <c r="H18" s="3">
-        <v>441900</v>
+        <v>436900</v>
       </c>
       <c r="I18" s="3">
-        <v>367700</v>
+        <v>363500</v>
       </c>
       <c r="J18" s="3">
-        <v>352100</v>
+        <v>348000</v>
       </c>
       <c r="K18" s="3">
         <v>351800</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47800</v>
+        <v>47200</v>
       </c>
       <c r="E20" s="3">
-        <v>53600</v>
+        <v>53000</v>
       </c>
       <c r="F20" s="3">
-        <v>60500</v>
+        <v>59800</v>
       </c>
       <c r="G20" s="3">
-        <v>56400</v>
+        <v>55700</v>
       </c>
       <c r="H20" s="3">
-        <v>77100</v>
+        <v>76200</v>
       </c>
       <c r="I20" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="J20" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="K20" s="3">
         <v>59100</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>609700</v>
+        <v>602700</v>
       </c>
       <c r="E21" s="3">
-        <v>610900</v>
+        <v>603900</v>
       </c>
       <c r="F21" s="3">
-        <v>623900</v>
+        <v>616700</v>
       </c>
       <c r="G21" s="3">
-        <v>594300</v>
+        <v>587500</v>
       </c>
       <c r="H21" s="3">
-        <v>622600</v>
+        <v>615500</v>
       </c>
       <c r="I21" s="3">
-        <v>519500</v>
+        <v>513500</v>
       </c>
       <c r="J21" s="3">
-        <v>498100</v>
+        <v>492300</v>
       </c>
       <c r="K21" s="3">
         <v>488200</v>
@@ -1629,25 +1629,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="E22" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="F22" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H22" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="I22" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="J22" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="K22" s="3">
         <v>15600</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>493900</v>
+        <v>488200</v>
       </c>
       <c r="E23" s="3">
-        <v>491000</v>
+        <v>485300</v>
       </c>
       <c r="F23" s="3">
-        <v>504500</v>
+        <v>498700</v>
       </c>
       <c r="G23" s="3">
-        <v>490100</v>
+        <v>484400</v>
       </c>
       <c r="H23" s="3">
-        <v>503100</v>
+        <v>497300</v>
       </c>
       <c r="I23" s="3">
-        <v>419200</v>
+        <v>414400</v>
       </c>
       <c r="J23" s="3">
-        <v>404500</v>
+        <v>399900</v>
       </c>
       <c r="K23" s="3">
         <v>395300</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105400</v>
+        <v>104200</v>
       </c>
       <c r="E24" s="3">
-        <v>107900</v>
+        <v>106700</v>
       </c>
       <c r="F24" s="3">
-        <v>81400</v>
+        <v>80400</v>
       </c>
       <c r="G24" s="3">
-        <v>101400</v>
+        <v>100200</v>
       </c>
       <c r="H24" s="3">
-        <v>111400</v>
+        <v>110100</v>
       </c>
       <c r="I24" s="3">
-        <v>94500</v>
+        <v>93400</v>
       </c>
       <c r="J24" s="3">
-        <v>89400</v>
+        <v>88300</v>
       </c>
       <c r="K24" s="3">
         <v>82700</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>388500</v>
+        <v>384000</v>
       </c>
       <c r="E26" s="3">
-        <v>383000</v>
+        <v>378600</v>
       </c>
       <c r="F26" s="3">
-        <v>423100</v>
+        <v>418300</v>
       </c>
       <c r="G26" s="3">
-        <v>388700</v>
+        <v>384300</v>
       </c>
       <c r="H26" s="3">
-        <v>391600</v>
+        <v>387100</v>
       </c>
       <c r="I26" s="3">
-        <v>324700</v>
+        <v>321000</v>
       </c>
       <c r="J26" s="3">
-        <v>315200</v>
+        <v>311500</v>
       </c>
       <c r="K26" s="3">
         <v>312600</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>388000</v>
+        <v>383600</v>
       </c>
       <c r="E27" s="3">
-        <v>383000</v>
+        <v>378600</v>
       </c>
       <c r="F27" s="3">
-        <v>422400</v>
+        <v>417600</v>
       </c>
       <c r="G27" s="3">
-        <v>388500</v>
+        <v>384000</v>
       </c>
       <c r="H27" s="3">
-        <v>387700</v>
+        <v>383300</v>
       </c>
       <c r="I27" s="3">
-        <v>322300</v>
+        <v>318600</v>
       </c>
       <c r="J27" s="3">
-        <v>312400</v>
+        <v>308800</v>
       </c>
       <c r="K27" s="3">
         <v>310100</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47800</v>
+        <v>-47200</v>
       </c>
       <c r="E32" s="3">
-        <v>-53600</v>
+        <v>-53000</v>
       </c>
       <c r="F32" s="3">
-        <v>-60500</v>
+        <v>-59800</v>
       </c>
       <c r="G32" s="3">
-        <v>-56400</v>
+        <v>-55700</v>
       </c>
       <c r="H32" s="3">
-        <v>-77100</v>
+        <v>-76200</v>
       </c>
       <c r="I32" s="3">
-        <v>-65700</v>
+        <v>-65000</v>
       </c>
       <c r="J32" s="3">
-        <v>-65500</v>
+        <v>-64800</v>
       </c>
       <c r="K32" s="3">
         <v>-59100</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>388000</v>
+        <v>383600</v>
       </c>
       <c r="E33" s="3">
-        <v>383000</v>
+        <v>378600</v>
       </c>
       <c r="F33" s="3">
-        <v>422400</v>
+        <v>417600</v>
       </c>
       <c r="G33" s="3">
-        <v>388500</v>
+        <v>384000</v>
       </c>
       <c r="H33" s="3">
-        <v>387700</v>
+        <v>383300</v>
       </c>
       <c r="I33" s="3">
-        <v>322300</v>
+        <v>318600</v>
       </c>
       <c r="J33" s="3">
-        <v>312400</v>
+        <v>308800</v>
       </c>
       <c r="K33" s="3">
         <v>310100</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>388000</v>
+        <v>383600</v>
       </c>
       <c r="E35" s="3">
-        <v>383000</v>
+        <v>378600</v>
       </c>
       <c r="F35" s="3">
-        <v>422400</v>
+        <v>417600</v>
       </c>
       <c r="G35" s="3">
-        <v>388500</v>
+        <v>384000</v>
       </c>
       <c r="H35" s="3">
-        <v>387700</v>
+        <v>383300</v>
       </c>
       <c r="I35" s="3">
-        <v>322300</v>
+        <v>318600</v>
       </c>
       <c r="J35" s="3">
-        <v>312400</v>
+        <v>308800</v>
       </c>
       <c r="K35" s="3">
         <v>310100</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1404500</v>
+        <v>1388400</v>
       </c>
       <c r="E41" s="3">
-        <v>1856300</v>
+        <v>1835000</v>
       </c>
       <c r="F41" s="3">
-        <v>1837900</v>
+        <v>1816800</v>
       </c>
       <c r="G41" s="3">
-        <v>2219200</v>
+        <v>2193700</v>
       </c>
       <c r="H41" s="3">
-        <v>1822400</v>
+        <v>1801500</v>
       </c>
       <c r="I41" s="3">
-        <v>1992200</v>
+        <v>1969300</v>
       </c>
       <c r="J41" s="3">
-        <v>2083900</v>
+        <v>2060000</v>
       </c>
       <c r="K41" s="3">
         <v>1926200</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3072700</v>
+        <v>3037400</v>
       </c>
       <c r="E42" s="3">
-        <v>2290200</v>
+        <v>2263900</v>
       </c>
       <c r="F42" s="3">
-        <v>2175000</v>
+        <v>2150100</v>
       </c>
       <c r="G42" s="3">
-        <v>2288500</v>
+        <v>2262200</v>
       </c>
       <c r="H42" s="3">
-        <v>4083100</v>
+        <v>4036200</v>
       </c>
       <c r="I42" s="3">
-        <v>3367200</v>
+        <v>3328600</v>
       </c>
       <c r="J42" s="3">
-        <v>2784700</v>
+        <v>2752700</v>
       </c>
       <c r="K42" s="3">
         <v>2517200</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2607000</v>
+        <v>2577000</v>
       </c>
       <c r="E43" s="3">
-        <v>2484600</v>
+        <v>2456100</v>
       </c>
       <c r="F43" s="3">
-        <v>2332700</v>
+        <v>2305900</v>
       </c>
       <c r="G43" s="3">
-        <v>2034300</v>
+        <v>2010900</v>
       </c>
       <c r="H43" s="3">
-        <v>1932100</v>
+        <v>1909900</v>
       </c>
       <c r="I43" s="3">
-        <v>1951100</v>
+        <v>1928700</v>
       </c>
       <c r="J43" s="3">
-        <v>2028800</v>
+        <v>2005500</v>
       </c>
       <c r="K43" s="3">
         <v>2218600</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="E44" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="F44" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="G44" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H44" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="I44" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="J44" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="K44" s="3">
         <v>66500</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>362200</v>
+        <v>358000</v>
       </c>
       <c r="E45" s="3">
-        <v>313300</v>
+        <v>309700</v>
       </c>
       <c r="F45" s="3">
-        <v>286500</v>
+        <v>283200</v>
       </c>
       <c r="G45" s="3">
-        <v>282200</v>
+        <v>279000</v>
       </c>
       <c r="H45" s="3">
-        <v>262500</v>
+        <v>259500</v>
       </c>
       <c r="I45" s="3">
-        <v>243200</v>
+        <v>240400</v>
       </c>
       <c r="J45" s="3">
-        <v>231900</v>
+        <v>229200</v>
       </c>
       <c r="K45" s="3">
         <v>201100</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7459700</v>
+        <v>7374100</v>
       </c>
       <c r="E46" s="3">
-        <v>6954500</v>
+        <v>6874700</v>
       </c>
       <c r="F46" s="3">
-        <v>6644400</v>
+        <v>6568100</v>
       </c>
       <c r="G46" s="3">
-        <v>6838000</v>
+        <v>6759600</v>
       </c>
       <c r="H46" s="3">
-        <v>8115900</v>
+        <v>8022800</v>
       </c>
       <c r="I46" s="3">
-        <v>7570800</v>
+        <v>7483900</v>
       </c>
       <c r="J46" s="3">
-        <v>7150700</v>
+        <v>7068700</v>
       </c>
       <c r="K46" s="3">
         <v>6929600</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>469100</v>
+        <v>463700</v>
       </c>
       <c r="E47" s="3">
-        <v>484600</v>
+        <v>479100</v>
       </c>
       <c r="F47" s="3">
-        <v>463600</v>
+        <v>458300</v>
       </c>
       <c r="G47" s="3">
-        <v>481000</v>
+        <v>475500</v>
       </c>
       <c r="H47" s="3">
-        <v>463000</v>
+        <v>457700</v>
       </c>
       <c r="I47" s="3">
-        <v>469300</v>
+        <v>463900</v>
       </c>
       <c r="J47" s="3">
-        <v>451000</v>
+        <v>445800</v>
       </c>
       <c r="K47" s="3">
         <v>457600</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1420600</v>
+        <v>1404300</v>
       </c>
       <c r="E48" s="3">
-        <v>1400000</v>
+        <v>1384000</v>
       </c>
       <c r="F48" s="3">
-        <v>1392300</v>
+        <v>1376300</v>
       </c>
       <c r="G48" s="3">
-        <v>1328100</v>
+        <v>1312800</v>
       </c>
       <c r="H48" s="3">
-        <v>1291300</v>
+        <v>1276500</v>
       </c>
       <c r="I48" s="3">
-        <v>1266800</v>
+        <v>1252300</v>
       </c>
       <c r="J48" s="3">
-        <v>1279000</v>
+        <v>1264400</v>
       </c>
       <c r="K48" s="3">
         <v>1304600</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3754600</v>
+        <v>3711500</v>
       </c>
       <c r="E49" s="3">
-        <v>3549400</v>
+        <v>3508700</v>
       </c>
       <c r="F49" s="3">
-        <v>3483300</v>
+        <v>3443400</v>
       </c>
       <c r="G49" s="3">
-        <v>1989400</v>
+        <v>1966600</v>
       </c>
       <c r="H49" s="3">
-        <v>1952400</v>
+        <v>1930000</v>
       </c>
       <c r="I49" s="3">
-        <v>1966800</v>
+        <v>1944300</v>
       </c>
       <c r="J49" s="3">
-        <v>1922600</v>
+        <v>1900500</v>
       </c>
       <c r="K49" s="3">
         <v>1964500</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>193000</v>
+        <v>190800</v>
       </c>
       <c r="E52" s="3">
-        <v>186500</v>
+        <v>184400</v>
       </c>
       <c r="F52" s="3">
-        <v>190300</v>
+        <v>188100</v>
       </c>
       <c r="G52" s="3">
-        <v>230300</v>
+        <v>227600</v>
       </c>
       <c r="H52" s="3">
-        <v>172200</v>
+        <v>170200</v>
       </c>
       <c r="I52" s="3">
-        <v>165300</v>
+        <v>163400</v>
       </c>
       <c r="J52" s="3">
-        <v>190000</v>
+        <v>187800</v>
       </c>
       <c r="K52" s="3">
         <v>235100</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13297000</v>
+        <v>13144400</v>
       </c>
       <c r="E54" s="3">
-        <v>12575100</v>
+        <v>12430800</v>
       </c>
       <c r="F54" s="3">
-        <v>12173800</v>
+        <v>12034100</v>
       </c>
       <c r="G54" s="3">
-        <v>10866800</v>
+        <v>10742100</v>
       </c>
       <c r="H54" s="3">
-        <v>11994800</v>
+        <v>11857100</v>
       </c>
       <c r="I54" s="3">
-        <v>11439100</v>
+        <v>11307800</v>
       </c>
       <c r="J54" s="3">
-        <v>10993300</v>
+        <v>10867100</v>
       </c>
       <c r="K54" s="3">
         <v>10891400</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1143700</v>
+        <v>1130600</v>
       </c>
       <c r="E57" s="3">
-        <v>1186500</v>
+        <v>1172900</v>
       </c>
       <c r="F57" s="3">
-        <v>1162500</v>
+        <v>1149100</v>
       </c>
       <c r="G57" s="3">
-        <v>1030800</v>
+        <v>1019000</v>
       </c>
       <c r="H57" s="3">
-        <v>1090800</v>
+        <v>1078300</v>
       </c>
       <c r="I57" s="3">
-        <v>1072000</v>
+        <v>1059700</v>
       </c>
       <c r="J57" s="3">
-        <v>981000</v>
+        <v>969700</v>
       </c>
       <c r="K57" s="3">
         <v>1041500</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1139000</v>
+        <v>1126000</v>
       </c>
       <c r="E58" s="3">
-        <v>883600</v>
+        <v>873500</v>
       </c>
       <c r="F58" s="3">
-        <v>900700</v>
+        <v>890400</v>
       </c>
       <c r="G58" s="3">
-        <v>1091900</v>
+        <v>1079400</v>
       </c>
       <c r="H58" s="3">
-        <v>1055500</v>
+        <v>1043400</v>
       </c>
       <c r="I58" s="3">
-        <v>1066200</v>
+        <v>1054000</v>
       </c>
       <c r="J58" s="3">
-        <v>1000800</v>
+        <v>989300</v>
       </c>
       <c r="K58" s="3">
         <v>1063200</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>999100</v>
+        <v>987600</v>
       </c>
       <c r="E59" s="3">
-        <v>952500</v>
+        <v>941600</v>
       </c>
       <c r="F59" s="3">
-        <v>949900</v>
+        <v>939000</v>
       </c>
       <c r="G59" s="3">
-        <v>883900</v>
+        <v>873700</v>
       </c>
       <c r="H59" s="3">
-        <v>2423400</v>
+        <v>2395500</v>
       </c>
       <c r="I59" s="3">
-        <v>811300</v>
+        <v>802000</v>
       </c>
       <c r="J59" s="3">
-        <v>787800</v>
+        <v>778800</v>
       </c>
       <c r="K59" s="3">
         <v>779800</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3281800</v>
+        <v>3244200</v>
       </c>
       <c r="E60" s="3">
-        <v>3022700</v>
+        <v>2988000</v>
       </c>
       <c r="F60" s="3">
-        <v>3013100</v>
+        <v>2978500</v>
       </c>
       <c r="G60" s="3">
-        <v>3006600</v>
+        <v>2972100</v>
       </c>
       <c r="H60" s="3">
-        <v>4569700</v>
+        <v>4517300</v>
       </c>
       <c r="I60" s="3">
-        <v>2949600</v>
+        <v>2915700</v>
       </c>
       <c r="J60" s="3">
-        <v>2769600</v>
+        <v>2737800</v>
       </c>
       <c r="K60" s="3">
         <v>2884500</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>921100</v>
+        <v>910500</v>
       </c>
       <c r="E61" s="3">
-        <v>922800</v>
+        <v>912200</v>
       </c>
       <c r="F61" s="3">
-        <v>931300</v>
+        <v>920600</v>
       </c>
       <c r="G61" s="3">
-        <v>274100</v>
+        <v>270900</v>
       </c>
       <c r="H61" s="3">
-        <v>171300</v>
+        <v>169300</v>
       </c>
       <c r="I61" s="3">
-        <v>164000</v>
+        <v>162100</v>
       </c>
       <c r="J61" s="3">
-        <v>228600</v>
+        <v>226000</v>
       </c>
       <c r="K61" s="3">
         <v>233000</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>541500</v>
+        <v>535300</v>
       </c>
       <c r="E62" s="3">
-        <v>490300</v>
+        <v>484700</v>
       </c>
       <c r="F62" s="3">
-        <v>508200</v>
+        <v>502400</v>
       </c>
       <c r="G62" s="3">
-        <v>337600</v>
+        <v>333700</v>
       </c>
       <c r="H62" s="3">
-        <v>344500</v>
+        <v>340500</v>
       </c>
       <c r="I62" s="3">
-        <v>303800</v>
+        <v>300300</v>
       </c>
       <c r="J62" s="3">
-        <v>312300</v>
+        <v>308700</v>
       </c>
       <c r="K62" s="3">
         <v>318000</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4750200</v>
+        <v>4695700</v>
       </c>
       <c r="E66" s="3">
-        <v>4450000</v>
+        <v>4398900</v>
       </c>
       <c r="F66" s="3">
-        <v>4466900</v>
+        <v>4415600</v>
       </c>
       <c r="G66" s="3">
-        <v>3637900</v>
+        <v>3596100</v>
       </c>
       <c r="H66" s="3">
-        <v>5104900</v>
+        <v>5046400</v>
       </c>
       <c r="I66" s="3">
-        <v>3433000</v>
+        <v>3393600</v>
       </c>
       <c r="J66" s="3">
-        <v>3324400</v>
+        <v>3286300</v>
       </c>
       <c r="K66" s="3">
         <v>3460500</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8057200</v>
+        <v>7964800</v>
       </c>
       <c r="E72" s="3">
-        <v>7635100</v>
+        <v>7547500</v>
       </c>
       <c r="F72" s="3">
-        <v>7209900</v>
+        <v>7127100</v>
       </c>
       <c r="G72" s="3">
-        <v>6754000</v>
+        <v>6676500</v>
       </c>
       <c r="H72" s="3">
-        <v>6384100</v>
+        <v>6310800</v>
       </c>
       <c r="I72" s="3">
-        <v>7516900</v>
+        <v>7430600</v>
       </c>
       <c r="J72" s="3">
-        <v>7195900</v>
+        <v>7113400</v>
       </c>
       <c r="K72" s="3">
         <v>6958000</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8546800</v>
+        <v>8448700</v>
       </c>
       <c r="E76" s="3">
-        <v>8125100</v>
+        <v>8031900</v>
       </c>
       <c r="F76" s="3">
-        <v>7706900</v>
+        <v>7618500</v>
       </c>
       <c r="G76" s="3">
-        <v>7229000</v>
+        <v>7146000</v>
       </c>
       <c r="H76" s="3">
-        <v>6889900</v>
+        <v>6810800</v>
       </c>
       <c r="I76" s="3">
-        <v>8006000</v>
+        <v>7914100</v>
       </c>
       <c r="J76" s="3">
-        <v>7668900</v>
+        <v>7580900</v>
       </c>
       <c r="K76" s="3">
         <v>7430900</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>388000</v>
+        <v>383600</v>
       </c>
       <c r="E81" s="3">
-        <v>383000</v>
+        <v>378600</v>
       </c>
       <c r="F81" s="3">
-        <v>422400</v>
+        <v>417600</v>
       </c>
       <c r="G81" s="3">
-        <v>388500</v>
+        <v>384000</v>
       </c>
       <c r="H81" s="3">
-        <v>387700</v>
+        <v>383300</v>
       </c>
       <c r="I81" s="3">
-        <v>322300</v>
+        <v>318600</v>
       </c>
       <c r="J81" s="3">
-        <v>312400</v>
+        <v>308800</v>
       </c>
       <c r="K81" s="3">
         <v>310100</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97500</v>
+        <v>96400</v>
       </c>
       <c r="E83" s="3">
-        <v>100900</v>
+        <v>99700</v>
       </c>
       <c r="F83" s="3">
-        <v>109700</v>
+        <v>108400</v>
       </c>
       <c r="G83" s="3">
-        <v>91400</v>
+        <v>90400</v>
       </c>
       <c r="H83" s="3">
-        <v>103600</v>
+        <v>102400</v>
       </c>
       <c r="I83" s="3">
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="J83" s="3">
-        <v>80400</v>
+        <v>79500</v>
       </c>
       <c r="K83" s="3">
         <v>77300</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>393000</v>
+        <v>388500</v>
       </c>
       <c r="E89" s="3">
-        <v>312200</v>
+        <v>308600</v>
       </c>
       <c r="F89" s="3">
-        <v>438200</v>
+        <v>433200</v>
       </c>
       <c r="G89" s="3">
-        <v>225900</v>
+        <v>223300</v>
       </c>
       <c r="H89" s="3">
-        <v>579300</v>
+        <v>572700</v>
       </c>
       <c r="I89" s="3">
-        <v>576800</v>
+        <v>570200</v>
       </c>
       <c r="J89" s="3">
-        <v>546500</v>
+        <v>540200</v>
       </c>
       <c r="K89" s="3">
         <v>187600</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-73500</v>
+        <v>-72700</v>
       </c>
       <c r="E91" s="3">
-        <v>-74600</v>
+        <v>-73800</v>
       </c>
       <c r="F91" s="3">
-        <v>-60500</v>
+        <v>-59800</v>
       </c>
       <c r="G91" s="3">
-        <v>-79900</v>
+        <v>-79000</v>
       </c>
       <c r="H91" s="3">
-        <v>-66800</v>
+        <v>-66100</v>
       </c>
       <c r="I91" s="3">
-        <v>-53500</v>
+        <v>-52900</v>
       </c>
       <c r="J91" s="3">
-        <v>-55600</v>
+        <v>-55000</v>
       </c>
       <c r="K91" s="3">
         <v>-79400</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1044800</v>
+        <v>-1032800</v>
       </c>
       <c r="E94" s="3">
-        <v>-220100</v>
+        <v>-217500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1209100</v>
+        <v>-1195200</v>
       </c>
       <c r="G94" s="3">
-        <v>1698400</v>
+        <v>1678900</v>
       </c>
       <c r="H94" s="3">
-        <v>-697900</v>
+        <v>-689900</v>
       </c>
       <c r="I94" s="3">
-        <v>-645700</v>
+        <v>-638300</v>
       </c>
       <c r="J94" s="3">
-        <v>-253600</v>
+        <v>-250700</v>
       </c>
       <c r="K94" s="3">
         <v>-377300</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>194500</v>
+        <v>192300</v>
       </c>
       <c r="E100" s="3">
-        <v>-59700</v>
+        <v>-59000</v>
       </c>
       <c r="F100" s="3">
-        <v>380200</v>
+        <v>375900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1518400</v>
+        <v>-1500900</v>
       </c>
       <c r="H100" s="3">
-        <v>-51000</v>
+        <v>-50400</v>
       </c>
       <c r="I100" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="J100" s="3">
-        <v>-92500</v>
+        <v>-91400</v>
       </c>
       <c r="K100" s="3">
         <v>-371100</v>
@@ -6612,22 +6612,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E101" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="F101" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G101" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="H101" s="3">
         <v>-800</v>
       </c>
       <c r="I101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
         <v>-1800</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-451900</v>
+        <v>-446700</v>
       </c>
       <c r="E102" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="F102" s="3">
-        <v>-380200</v>
+        <v>-375800</v>
       </c>
       <c r="G102" s="3">
-        <v>395700</v>
+        <v>391200</v>
       </c>
       <c r="H102" s="3">
-        <v>-170400</v>
+        <v>-168400</v>
       </c>
       <c r="I102" s="3">
-        <v>-89800</v>
+        <v>-88800</v>
       </c>
       <c r="J102" s="3">
-        <v>198500</v>
+        <v>196300</v>
       </c>
       <c r="K102" s="3">
         <v>-552300</v>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2624500</v>
+        <v>2695400</v>
       </c>
       <c r="E8" s="3">
-        <v>2541000</v>
+        <v>2611700</v>
       </c>
       <c r="F8" s="3">
-        <v>2358200</v>
+        <v>2543300</v>
       </c>
       <c r="G8" s="3">
-        <v>2098900</v>
+        <v>2462400</v>
       </c>
       <c r="H8" s="3">
-        <v>2024600</v>
+        <v>2285200</v>
       </c>
       <c r="I8" s="3">
+        <v>2033900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1961900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1952800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1926800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2094300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2080800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2078300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2022000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2030400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2028500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1922300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1847900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1990900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1976500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1941000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1970300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1927500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1886200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1844700</v>
+        <v>1948100</v>
       </c>
       <c r="E9" s="3">
-        <v>1777300</v>
+        <v>1852500</v>
       </c>
       <c r="F9" s="3">
-        <v>1648200</v>
+        <v>1787600</v>
       </c>
       <c r="G9" s="3">
-        <v>1418700</v>
+        <v>1722300</v>
       </c>
       <c r="H9" s="3">
-        <v>1347700</v>
+        <v>1597100</v>
       </c>
       <c r="I9" s="3">
+        <v>1374800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1361600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1339800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1521400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1475100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1484000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1432700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1446900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1400500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1345400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1326600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1414100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1387800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1369300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1404200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1388600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1330800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>779800</v>
+        <v>747300</v>
       </c>
       <c r="E10" s="3">
-        <v>763700</v>
+        <v>759200</v>
       </c>
       <c r="F10" s="3">
-        <v>710000</v>
+        <v>755700</v>
       </c>
       <c r="G10" s="3">
-        <v>680200</v>
+        <v>740100</v>
       </c>
       <c r="H10" s="3">
-        <v>676800</v>
+        <v>688100</v>
       </c>
       <c r="I10" s="3">
+        <v>659200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>655900</v>
+      </c>
+      <c r="K10" s="3">
         <v>591200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>587000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>572900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>605700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>594300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>589300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>583400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>628000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>576900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>521200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>576800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>588700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>571700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>566100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>538900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>555400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,17 +1203,17 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K14" s="3">
         <v>3400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1184,112 +1224,124 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>11200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-33600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>9300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-17000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2800</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21500</v>
+        <v>23700</v>
       </c>
       <c r="E15" s="3">
-        <v>27400</v>
+        <v>20500</v>
       </c>
       <c r="F15" s="3">
-        <v>36100</v>
+        <v>20800</v>
       </c>
       <c r="G15" s="3">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="H15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="M15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="O15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="T15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="U15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="V15" s="3">
         <v>13000</v>
       </c>
-      <c r="I15" s="3">
-        <v>13900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>13200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>12200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>11500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>10200</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="W15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="X15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AA15" s="3">
         <v>11000</v>
       </c>
-      <c r="P15" s="3">
-        <v>12100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>11600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>11300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>13100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>13000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>12800</v>
-      </c>
-      <c r="V15" s="3">
-        <v>11300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>12500</v>
-      </c>
-      <c r="X15" s="3">
-        <v>6200</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2165400</v>
+        <v>2296100</v>
       </c>
       <c r="E17" s="3">
-        <v>2089900</v>
+        <v>2172100</v>
       </c>
       <c r="F17" s="3">
-        <v>1909600</v>
+        <v>2098400</v>
       </c>
       <c r="G17" s="3">
-        <v>1657500</v>
+        <v>2025200</v>
       </c>
       <c r="H17" s="3">
-        <v>1587700</v>
+        <v>1850500</v>
       </c>
       <c r="I17" s="3">
+        <v>1606200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1538500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1589300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1578700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1742500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1714500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1710900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1673400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1660700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1642400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1649800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1539700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1710600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1690600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1607900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1650900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1585300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1566000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>459100</v>
+        <v>399300</v>
       </c>
       <c r="E18" s="3">
-        <v>451200</v>
+        <v>439600</v>
       </c>
       <c r="F18" s="3">
-        <v>448600</v>
+        <v>444900</v>
       </c>
       <c r="G18" s="3">
-        <v>441400</v>
+        <v>437200</v>
       </c>
       <c r="H18" s="3">
-        <v>436900</v>
+        <v>434700</v>
       </c>
       <c r="I18" s="3">
+        <v>427800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>423300</v>
+      </c>
+      <c r="K18" s="3">
         <v>363500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>348000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>351800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>366300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>367300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>348600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>369600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>386200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>272500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>308100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>280300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>285900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>333200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>319500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>342100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>320200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47200</v>
+        <v>46000</v>
       </c>
       <c r="E20" s="3">
-        <v>53000</v>
+        <v>49200</v>
       </c>
       <c r="F20" s="3">
-        <v>59800</v>
+        <v>45700</v>
       </c>
       <c r="G20" s="3">
-        <v>55700</v>
+        <v>51400</v>
       </c>
       <c r="H20" s="3">
-        <v>76200</v>
+        <v>57900</v>
       </c>
       <c r="I20" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K20" s="3">
         <v>65000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>64800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>59100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>64900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>82900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>91000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>92000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>66000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>62300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>62200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>65200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>82600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>86600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>78400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>71100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>65200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>602700</v>
+        <v>542200</v>
       </c>
       <c r="E21" s="3">
-        <v>603900</v>
+        <v>580800</v>
       </c>
       <c r="F21" s="3">
-        <v>616700</v>
+        <v>584000</v>
       </c>
       <c r="G21" s="3">
-        <v>587500</v>
+        <v>585200</v>
       </c>
       <c r="H21" s="3">
-        <v>615500</v>
+        <v>597700</v>
       </c>
       <c r="I21" s="3">
+        <v>569300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>596400</v>
+      </c>
+      <c r="K21" s="3">
         <v>513500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>492300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>488200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>502400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>516400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>507700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>537300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>521900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>392600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>427600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>428000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>444800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>495000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>469300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>526000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>460000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18100</v>
+        <v>25600</v>
       </c>
       <c r="E22" s="3">
-        <v>18900</v>
+        <v>21500</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>17600</v>
       </c>
       <c r="G22" s="3">
-        <v>12700</v>
+        <v>18300</v>
       </c>
       <c r="H22" s="3">
-        <v>15800</v>
+        <v>9300</v>
       </c>
       <c r="I22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K22" s="3">
         <v>14100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>19600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>17500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>28700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>15600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>14900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>16000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>18500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>11100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>10300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>10100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>8000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>5300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>488200</v>
+        <v>419700</v>
       </c>
       <c r="E23" s="3">
-        <v>485300</v>
+        <v>467300</v>
       </c>
       <c r="F23" s="3">
-        <v>498700</v>
+        <v>473100</v>
       </c>
       <c r="G23" s="3">
-        <v>484400</v>
+        <v>470300</v>
       </c>
       <c r="H23" s="3">
-        <v>497300</v>
+        <v>483300</v>
       </c>
       <c r="I23" s="3">
+        <v>469400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>481900</v>
+      </c>
+      <c r="K23" s="3">
         <v>414400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>399900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>395300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>414200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>430700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>422100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>433000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>436600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>320000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>354300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>327100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>357400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>409500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>387800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>405300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>380100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104200</v>
+        <v>99300</v>
       </c>
       <c r="E24" s="3">
+        <v>80100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>103400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>77900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>97100</v>
+      </c>
+      <c r="J24" s="3">
         <v>106700</v>
       </c>
-      <c r="F24" s="3">
-        <v>80400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>110100</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>93400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>88300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>82700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>82900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>78700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>92000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>95600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>93800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>70700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>77500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>89300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>77400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>92900</v>
-      </c>
-      <c r="V24" s="3">
-        <v>86700</v>
       </c>
       <c r="W24" s="3">
         <v>92900</v>
       </c>
       <c r="X24" s="3">
+        <v>86700</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>92900</v>
+      </c>
+      <c r="Z24" s="3">
         <v>88700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>384000</v>
+        <v>320400</v>
       </c>
       <c r="E26" s="3">
-        <v>378600</v>
+        <v>387200</v>
       </c>
       <c r="F26" s="3">
-        <v>418300</v>
+        <v>372100</v>
       </c>
       <c r="G26" s="3">
-        <v>384300</v>
+        <v>366900</v>
       </c>
       <c r="H26" s="3">
-        <v>387100</v>
+        <v>405300</v>
       </c>
       <c r="I26" s="3">
+        <v>372400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>375200</v>
+      </c>
+      <c r="K26" s="3">
         <v>321000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>311500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>312600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>331300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>351900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>330000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>337400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>342700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>249300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>276800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>237800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>279900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>316600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>301100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>312400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>291400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>383600</v>
+        <v>321000</v>
       </c>
       <c r="E27" s="3">
-        <v>378600</v>
+        <v>386500</v>
       </c>
       <c r="F27" s="3">
-        <v>417600</v>
+        <v>371700</v>
       </c>
       <c r="G27" s="3">
-        <v>384000</v>
+        <v>366900</v>
       </c>
       <c r="H27" s="3">
-        <v>383300</v>
+        <v>404700</v>
       </c>
       <c r="I27" s="3">
+        <v>372100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K27" s="3">
         <v>318600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>308800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>310100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>330300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>350700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>328000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>336000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>338100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>249700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>280300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>238100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>280100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>316900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>311600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>290700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2152,11 +2274,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2170,14 +2292,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>22600</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>22600</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47200</v>
+        <v>-46000</v>
       </c>
       <c r="E32" s="3">
-        <v>-53000</v>
+        <v>-49200</v>
       </c>
       <c r="F32" s="3">
-        <v>-59800</v>
+        <v>-45700</v>
       </c>
       <c r="G32" s="3">
-        <v>-55700</v>
+        <v>-51400</v>
       </c>
       <c r="H32" s="3">
-        <v>-76200</v>
+        <v>-57900</v>
       </c>
       <c r="I32" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-65000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-64800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-59100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-64900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-82900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-91000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-92000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-62300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-62200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-65200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-82600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-86600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-78400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-71100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-65200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>383600</v>
+        <v>321000</v>
       </c>
       <c r="E33" s="3">
-        <v>378600</v>
+        <v>386500</v>
       </c>
       <c r="F33" s="3">
-        <v>417600</v>
+        <v>371700</v>
       </c>
       <c r="G33" s="3">
-        <v>384000</v>
+        <v>366900</v>
       </c>
       <c r="H33" s="3">
-        <v>383300</v>
+        <v>404700</v>
       </c>
       <c r="I33" s="3">
+        <v>372100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K33" s="3">
         <v>318600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>308800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>310100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>330300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>350700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>328000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>336000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>338100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>249700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>280300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>260700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>280100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>316900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>311600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>290700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>383600</v>
+        <v>321000</v>
       </c>
       <c r="E35" s="3">
-        <v>378600</v>
+        <v>386500</v>
       </c>
       <c r="F35" s="3">
-        <v>417600</v>
+        <v>371700</v>
       </c>
       <c r="G35" s="3">
-        <v>384000</v>
+        <v>366900</v>
       </c>
       <c r="H35" s="3">
-        <v>383300</v>
+        <v>404700</v>
       </c>
       <c r="I35" s="3">
+        <v>372100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K35" s="3">
         <v>318600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>308800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>310100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>330300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>350700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>328000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>336000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>338100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>249700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>280300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>260700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>280100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>316900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>311600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>290700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1388400</v>
+        <v>1037000</v>
       </c>
       <c r="E41" s="3">
-        <v>1835000</v>
+        <v>1300000</v>
       </c>
       <c r="F41" s="3">
-        <v>1816800</v>
+        <v>1345400</v>
       </c>
       <c r="G41" s="3">
-        <v>2193700</v>
+        <v>1778200</v>
       </c>
       <c r="H41" s="3">
-        <v>1801500</v>
+        <v>1760500</v>
       </c>
       <c r="I41" s="3">
+        <v>2125800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1745700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1969300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2060000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1926200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2510300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2479300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3316900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2144900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1923100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1055200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>934500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>649600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>752900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>743400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>785400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>726300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>826000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3037400</v>
+        <v>2828400</v>
       </c>
       <c r="E42" s="3">
-        <v>2263900</v>
+        <v>3017300</v>
       </c>
       <c r="F42" s="3">
-        <v>2150100</v>
+        <v>2943400</v>
       </c>
       <c r="G42" s="3">
-        <v>2262200</v>
+        <v>2193800</v>
       </c>
       <c r="H42" s="3">
-        <v>4036200</v>
+        <v>2083500</v>
       </c>
       <c r="I42" s="3">
+        <v>2192200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3911300</v>
+      </c>
+      <c r="K42" s="3">
         <v>3328600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2752700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2517200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2198700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1995900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2499100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3208200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2882400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3289300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3314600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3634700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3462900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>4840800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>4623800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>4049700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>3766400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2577000</v>
+        <v>3065800</v>
       </c>
       <c r="E43" s="3">
-        <v>2456100</v>
+        <v>3127200</v>
       </c>
       <c r="F43" s="3">
-        <v>2305900</v>
+        <v>2497300</v>
       </c>
       <c r="G43" s="3">
-        <v>2010900</v>
+        <v>2380000</v>
       </c>
       <c r="H43" s="3">
-        <v>1909900</v>
+        <v>2234500</v>
       </c>
       <c r="I43" s="3">
+        <v>1948700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1850800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1928700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2005500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2218600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2155600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2228800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2233700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2060000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2087400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2217600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2046700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2182200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2212900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2257800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2283300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2125900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2321200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13200</v>
+        <v>21000</v>
       </c>
       <c r="E44" s="3">
-        <v>10100</v>
+        <v>16700</v>
       </c>
       <c r="F44" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="G44" s="3">
-        <v>13700</v>
+        <v>9700</v>
       </c>
       <c r="H44" s="3">
-        <v>15600</v>
+        <v>11800</v>
       </c>
       <c r="I44" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K44" s="3">
         <v>16900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>21200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>66500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>59300</v>
       </c>
       <c r="M44" s="3">
         <v>66500</v>
       </c>
       <c r="N44" s="3">
+        <v>59300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>66500</v>
+      </c>
+      <c r="P44" s="3">
         <v>94100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>97400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>92900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>80200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>74400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>75000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>62600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>74900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>68200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>73900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>97500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>358000</v>
+        <v>373000</v>
       </c>
       <c r="E45" s="3">
-        <v>309700</v>
+        <v>310500</v>
       </c>
       <c r="F45" s="3">
-        <v>283200</v>
+        <v>346900</v>
       </c>
       <c r="G45" s="3">
-        <v>279000</v>
+        <v>300100</v>
       </c>
       <c r="H45" s="3">
-        <v>259500</v>
+        <v>274400</v>
       </c>
       <c r="I45" s="3">
+        <v>270400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K45" s="3">
         <v>240400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>229200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>201100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>193000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>225900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>253400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>227300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>277200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>292600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>777400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>399600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>371700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>412900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>450200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>382100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7374100</v>
+        <v>7325100</v>
       </c>
       <c r="E46" s="3">
-        <v>6874700</v>
+        <v>7771800</v>
       </c>
       <c r="F46" s="3">
-        <v>6568100</v>
+        <v>7145800</v>
       </c>
       <c r="G46" s="3">
-        <v>6759600</v>
+        <v>6661800</v>
       </c>
       <c r="H46" s="3">
-        <v>8022800</v>
+        <v>6364800</v>
       </c>
       <c r="I46" s="3">
+        <v>6550300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7774400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7483900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7068700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6929600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7117000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6996300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8397100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7737900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7263000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6942800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6662800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7319000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6890800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8288700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8173700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7426000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7393100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>463700</v>
+        <v>541700</v>
       </c>
       <c r="E47" s="3">
-        <v>479100</v>
+        <v>513200</v>
       </c>
       <c r="F47" s="3">
-        <v>458300</v>
+        <v>449400</v>
       </c>
       <c r="G47" s="3">
-        <v>475500</v>
+        <v>464300</v>
       </c>
       <c r="H47" s="3">
-        <v>457700</v>
+        <v>444100</v>
       </c>
       <c r="I47" s="3">
+        <v>460800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>443500</v>
+      </c>
+      <c r="K47" s="3">
         <v>463900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>445800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>457600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>489000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>404500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>406400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>555300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>487600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>483100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>457200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>514800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>469000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>460600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>450600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>355300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>349500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1404300</v>
+        <v>1383000</v>
       </c>
       <c r="E48" s="3">
-        <v>1384000</v>
+        <v>1374300</v>
       </c>
       <c r="F48" s="3">
-        <v>1376300</v>
+        <v>1360800</v>
       </c>
       <c r="G48" s="3">
-        <v>1312800</v>
+        <v>1341100</v>
       </c>
       <c r="H48" s="3">
-        <v>1276500</v>
+        <v>1333700</v>
       </c>
       <c r="I48" s="3">
+        <v>1272200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1252300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1264400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1304600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1267800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1256000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1205500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>955200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>945700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>903900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>864000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>939300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1039900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1038300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1027000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>961800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>969600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3711500</v>
+        <v>4323500</v>
       </c>
       <c r="E49" s="3">
-        <v>3508700</v>
+        <v>3637600</v>
       </c>
       <c r="F49" s="3">
-        <v>3443400</v>
+        <v>3596600</v>
       </c>
       <c r="G49" s="3">
-        <v>1966600</v>
+        <v>3400100</v>
       </c>
       <c r="H49" s="3">
-        <v>1930000</v>
+        <v>3336800</v>
       </c>
       <c r="I49" s="3">
+        <v>1905700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1870200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1944300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1900500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1964500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1860600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1848600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1786500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1768900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1867400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1930800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1843900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1962200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2115800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2160500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2053400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1952900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2076300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>190800</v>
+        <v>234700</v>
       </c>
       <c r="E52" s="3">
-        <v>184400</v>
+        <v>214500</v>
       </c>
       <c r="F52" s="3">
-        <v>188100</v>
+        <v>184900</v>
       </c>
       <c r="G52" s="3">
-        <v>227600</v>
+        <v>178700</v>
       </c>
       <c r="H52" s="3">
-        <v>170200</v>
+        <v>182300</v>
       </c>
       <c r="I52" s="3">
+        <v>220600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K52" s="3">
         <v>163400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>187800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>235100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>176900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>246400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>242900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>255500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>329200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>340700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>262000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>263500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>206300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>245100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>305700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>238700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>230900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13144400</v>
+        <v>13808100</v>
       </c>
       <c r="E54" s="3">
-        <v>12430800</v>
+        <v>13511400</v>
       </c>
       <c r="F54" s="3">
-        <v>12034100</v>
+        <v>12737500</v>
       </c>
       <c r="G54" s="3">
-        <v>10742100</v>
+        <v>12046000</v>
       </c>
       <c r="H54" s="3">
-        <v>11857100</v>
+        <v>11661600</v>
       </c>
       <c r="I54" s="3">
+        <v>10409600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11490000</v>
+      </c>
+      <c r="K54" s="3">
         <v>11307800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10867100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10891400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10911200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10751900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12038400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11272800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10892900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10601300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10090000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10998900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10722000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12193100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12010400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10934700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>11019400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1130600</v>
+        <v>1107800</v>
       </c>
       <c r="E57" s="3">
-        <v>1172900</v>
+        <v>1239900</v>
       </c>
       <c r="F57" s="3">
-        <v>1149100</v>
+        <v>1095600</v>
       </c>
       <c r="G57" s="3">
-        <v>1019000</v>
+        <v>1136600</v>
       </c>
       <c r="H57" s="3">
-        <v>1078300</v>
+        <v>1113500</v>
       </c>
       <c r="I57" s="3">
+        <v>987500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1044900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1059700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>969700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1041500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1083700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1147100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1154700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1194800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1067800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1121000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>998500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>985100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1031000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1007000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1068700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>902400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>956000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1126000</v>
+        <v>1552300</v>
       </c>
       <c r="E58" s="3">
-        <v>873500</v>
+        <v>1305700</v>
       </c>
       <c r="F58" s="3">
-        <v>890400</v>
+        <v>1091100</v>
       </c>
       <c r="G58" s="3">
-        <v>1079400</v>
+        <v>846400</v>
       </c>
       <c r="H58" s="3">
-        <v>1043400</v>
+        <v>862800</v>
       </c>
       <c r="I58" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1011100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1054000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>989300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1063200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1059400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1077100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1203900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>962000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>725500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>829200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>934200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1344600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1477300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1651500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1644300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1692200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1878400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>987600</v>
+        <v>1102100</v>
       </c>
       <c r="E59" s="3">
-        <v>941600</v>
+        <v>1314700</v>
       </c>
       <c r="F59" s="3">
-        <v>939000</v>
+        <v>957100</v>
       </c>
       <c r="G59" s="3">
-        <v>873700</v>
+        <v>912400</v>
       </c>
       <c r="H59" s="3">
-        <v>2395500</v>
+        <v>909900</v>
       </c>
       <c r="I59" s="3">
+        <v>846700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2321400</v>
+      </c>
+      <c r="K59" s="3">
         <v>802000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>778800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>779800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>760000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>694200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>737100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>743400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>807900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>820200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>697200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>757500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>687900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>616800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>675700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>568500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>577000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3244200</v>
+        <v>3762100</v>
       </c>
       <c r="E60" s="3">
-        <v>2988000</v>
+        <v>3860300</v>
       </c>
       <c r="F60" s="3">
-        <v>2978500</v>
+        <v>3143700</v>
       </c>
       <c r="G60" s="3">
-        <v>2972100</v>
+        <v>2895500</v>
       </c>
       <c r="H60" s="3">
-        <v>4517300</v>
+        <v>2886300</v>
       </c>
       <c r="I60" s="3">
+        <v>2880100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4377400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2915700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2737800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2884500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2903100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2918400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3095600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2601200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2770400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2629900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3087300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3196200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3275200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3388700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3163100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3411400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>910500</v>
+        <v>925200</v>
       </c>
       <c r="E61" s="3">
-        <v>912200</v>
+        <v>896900</v>
       </c>
       <c r="F61" s="3">
-        <v>920600</v>
+        <v>882300</v>
       </c>
       <c r="G61" s="3">
-        <v>270900</v>
+        <v>883900</v>
       </c>
       <c r="H61" s="3">
-        <v>169300</v>
+        <v>892100</v>
       </c>
       <c r="I61" s="3">
+        <v>262600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>164100</v>
+      </c>
+      <c r="K61" s="3">
         <v>162100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>226000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>233000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>442900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>451500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>456500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>383800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>673300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>691800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>622100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>654600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>430400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>450500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>469800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>270200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>275800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>535300</v>
+        <v>515700</v>
       </c>
       <c r="E62" s="3">
-        <v>484700</v>
+        <v>507600</v>
       </c>
       <c r="F62" s="3">
-        <v>502400</v>
+        <v>518700</v>
       </c>
       <c r="G62" s="3">
-        <v>333700</v>
+        <v>469700</v>
       </c>
       <c r="H62" s="3">
-        <v>340500</v>
+        <v>486800</v>
       </c>
       <c r="I62" s="3">
+        <v>323400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>330000</v>
+      </c>
+      <c r="K62" s="3">
         <v>300300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>308700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>318000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>285600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>287900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>301700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>266500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>214300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>220900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>203800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>238900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>258000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>299000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>298000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>298600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>327500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4695700</v>
+        <v>5208200</v>
       </c>
       <c r="E66" s="3">
-        <v>4398900</v>
+        <v>5271200</v>
       </c>
       <c r="F66" s="3">
-        <v>4415600</v>
+        <v>4550300</v>
       </c>
       <c r="G66" s="3">
-        <v>3596100</v>
+        <v>4262700</v>
       </c>
       <c r="H66" s="3">
-        <v>5046400</v>
+        <v>4278900</v>
       </c>
       <c r="I66" s="3">
+        <v>3484800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4890100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3393600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3286300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3460500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3652900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3678400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3891900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3586200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3523300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3713700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3484600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4015600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3919100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4060100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4191700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3764900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4048700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7964800</v>
+        <v>8034900</v>
       </c>
       <c r="E72" s="3">
-        <v>7547500</v>
+        <v>7728600</v>
       </c>
       <c r="F72" s="3">
-        <v>7127100</v>
+        <v>7718200</v>
       </c>
       <c r="G72" s="3">
-        <v>6676500</v>
+        <v>7313800</v>
       </c>
       <c r="H72" s="3">
-        <v>6310800</v>
+        <v>6906500</v>
       </c>
       <c r="I72" s="3">
+        <v>6469800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6115400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7430600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7113400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6958000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6802400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6608300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7685100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7241700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6959000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6491000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>6261500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6576600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>6409300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>7695400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>7362300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>6785400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>6552600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8448700</v>
+        <v>8599900</v>
       </c>
       <c r="E76" s="3">
-        <v>8031900</v>
+        <v>8240100</v>
       </c>
       <c r="F76" s="3">
-        <v>7618500</v>
+        <v>8187100</v>
       </c>
       <c r="G76" s="3">
-        <v>7146000</v>
+        <v>7783200</v>
       </c>
       <c r="H76" s="3">
-        <v>6810800</v>
+        <v>7382600</v>
       </c>
       <c r="I76" s="3">
+        <v>6924700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6599900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7914100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7580900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7430900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7258300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7073500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8146500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7686600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7369700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6887600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6605400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6983300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6802900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8133000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7818800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7169800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6970800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>383600</v>
+        <v>321000</v>
       </c>
       <c r="E81" s="3">
-        <v>378600</v>
+        <v>386500</v>
       </c>
       <c r="F81" s="3">
-        <v>417600</v>
+        <v>371700</v>
       </c>
       <c r="G81" s="3">
-        <v>384000</v>
+        <v>366900</v>
       </c>
       <c r="H81" s="3">
-        <v>383300</v>
+        <v>404700</v>
       </c>
       <c r="I81" s="3">
+        <v>372100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K81" s="3">
         <v>318600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>308800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>310100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>330300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>350700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>328000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>336000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>338100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>249700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>280300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>260700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>280100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>316900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>311600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>290700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>96400</v>
+        <v>96900</v>
       </c>
       <c r="E83" s="3">
-        <v>99700</v>
+        <v>92000</v>
       </c>
       <c r="F83" s="3">
-        <v>108400</v>
+        <v>93400</v>
       </c>
       <c r="G83" s="3">
-        <v>90400</v>
+        <v>96600</v>
       </c>
       <c r="H83" s="3">
-        <v>102400</v>
+        <v>105000</v>
       </c>
       <c r="I83" s="3">
+        <v>87600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K83" s="3">
         <v>85000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>79500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>77300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>71200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>66100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>68100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>75700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>69700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>57800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>57300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>82500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>76300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>75200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>71500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>112700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>74600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>388500</v>
+        <v>22300</v>
       </c>
       <c r="E89" s="3">
-        <v>308600</v>
+        <v>291900</v>
       </c>
       <c r="F89" s="3">
-        <v>433200</v>
+        <v>376400</v>
       </c>
       <c r="G89" s="3">
-        <v>223300</v>
+        <v>299100</v>
       </c>
       <c r="H89" s="3">
-        <v>572700</v>
+        <v>419800</v>
       </c>
       <c r="I89" s="3">
+        <v>216400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K89" s="3">
         <v>570200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>540200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>187600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>411100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>374500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>395100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>450100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>480300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>245700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>380900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>108600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>431300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>250800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>427400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>352600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>363600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-72700</v>
+        <v>-60900</v>
       </c>
       <c r="E91" s="3">
-        <v>-73800</v>
+        <v>-52400</v>
       </c>
       <c r="F91" s="3">
-        <v>-59800</v>
+        <v>-70400</v>
       </c>
       <c r="G91" s="3">
-        <v>-79000</v>
+        <v>-71500</v>
       </c>
       <c r="H91" s="3">
-        <v>-66100</v>
+        <v>-58000</v>
       </c>
       <c r="I91" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-79400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-84000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-80100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-75000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-76100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-88400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-78900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-61100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-93600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-83500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-78300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-60800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-57100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-69900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1032800</v>
+        <v>-124000</v>
       </c>
       <c r="E94" s="3">
-        <v>-217500</v>
+        <v>-440900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1195200</v>
+        <v>-1000800</v>
       </c>
       <c r="G94" s="3">
-        <v>1678900</v>
+        <v>-210800</v>
       </c>
       <c r="H94" s="3">
-        <v>-689900</v>
+        <v>-1158200</v>
       </c>
       <c r="I94" s="3">
+        <v>1626900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-668500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-638300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-250700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-377300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-292100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>462200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>692500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-112600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>487600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-21400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>315400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-187100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1361700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-239500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-420700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-180600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-689300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,13 +6717,15 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-342300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6278,14 +6746,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-72600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6302,28 +6770,34 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-78400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-80200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>192300</v>
+        <v>-167300</v>
       </c>
       <c r="E100" s="3">
-        <v>-59000</v>
+        <v>89900</v>
       </c>
       <c r="F100" s="3">
-        <v>375900</v>
+        <v>186300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1500900</v>
+        <v>-57100</v>
       </c>
       <c r="H100" s="3">
-        <v>-50400</v>
+        <v>364200</v>
       </c>
       <c r="I100" s="3">
+        <v>-1454500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-21800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-91400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-371100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-58000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>48600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-120200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-122200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-314000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-76900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-39600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>25200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-262300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>404100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-13400</v>
+        <v>13900</v>
       </c>
       <c r="F101" s="3">
-        <v>10300</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>-10100</v>
+        <v>-13000</v>
       </c>
       <c r="H101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>8600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>22600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-30800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>6500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-446700</v>
+        <v>-263000</v>
       </c>
       <c r="E102" s="3">
-        <v>18700</v>
+        <v>-45200</v>
       </c>
       <c r="F102" s="3">
-        <v>-375800</v>
+        <v>-432900</v>
       </c>
       <c r="G102" s="3">
-        <v>391200</v>
+        <v>18100</v>
       </c>
       <c r="H102" s="3">
-        <v>-168400</v>
+        <v>-364200</v>
       </c>
       <c r="I102" s="3">
+        <v>379100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-88800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>196300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-552300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>69800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-838700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1138500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>213200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>850200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>124700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>387200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-150600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-25200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>32400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-121200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>84900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2695400</v>
+        <v>2794900</v>
       </c>
       <c r="E8" s="3">
-        <v>2611700</v>
+        <v>2669500</v>
       </c>
       <c r="F8" s="3">
-        <v>2543300</v>
+        <v>2586600</v>
       </c>
       <c r="G8" s="3">
-        <v>2462400</v>
+        <v>2518900</v>
       </c>
       <c r="H8" s="3">
-        <v>2285200</v>
+        <v>2438800</v>
       </c>
       <c r="I8" s="3">
-        <v>2033900</v>
+        <v>2263300</v>
       </c>
       <c r="J8" s="3">
+        <v>2014400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1961900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1952800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1926800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2094300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2080800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2078300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2022000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2030400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2028500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1922300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1847900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1990900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1976500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1941000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1970300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1927500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1886200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1948100</v>
+        <v>2031600</v>
       </c>
       <c r="E9" s="3">
-        <v>1852500</v>
+        <v>1929400</v>
       </c>
       <c r="F9" s="3">
-        <v>1787600</v>
+        <v>1834800</v>
       </c>
       <c r="G9" s="3">
-        <v>1722300</v>
+        <v>1770400</v>
       </c>
       <c r="H9" s="3">
-        <v>1597100</v>
+        <v>1705800</v>
       </c>
       <c r="I9" s="3">
-        <v>1374800</v>
+        <v>1581800</v>
       </c>
       <c r="J9" s="3">
+        <v>1361600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1306000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1361600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1339800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1521400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1475100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1484000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1432700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1446900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1345400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1326600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1414100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1387800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1369300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1404200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1388600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1330800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>747300</v>
+        <v>763400</v>
       </c>
       <c r="E10" s="3">
-        <v>759200</v>
+        <v>740100</v>
       </c>
       <c r="F10" s="3">
-        <v>755700</v>
+        <v>751900</v>
       </c>
       <c r="G10" s="3">
-        <v>740100</v>
+        <v>748400</v>
       </c>
       <c r="H10" s="3">
-        <v>688100</v>
+        <v>733000</v>
       </c>
       <c r="I10" s="3">
-        <v>659200</v>
+        <v>681500</v>
       </c>
       <c r="J10" s="3">
+        <v>652800</v>
+      </c>
+      <c r="K10" s="3">
         <v>655900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>591200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>587000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>572900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>605700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>594300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>589300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>583400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>628000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>576900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>521200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>576800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>588700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>571700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>566100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>538900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>555400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,14 +1229,14 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>20400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1230,23 +1250,23 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11200</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-33600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1254,94 +1274,100 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2800</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>23700</v>
+        <v>78300</v>
       </c>
       <c r="E15" s="3">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="F15" s="3">
-        <v>20800</v>
+        <v>20300</v>
       </c>
       <c r="G15" s="3">
-        <v>26500</v>
+        <v>20600</v>
       </c>
       <c r="H15" s="3">
-        <v>35000</v>
+        <v>26300</v>
       </c>
       <c r="I15" s="3">
-        <v>20200</v>
+        <v>34600</v>
       </c>
       <c r="J15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K15" s="3">
         <v>12600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>12500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>6200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2296100</v>
+        <v>2391900</v>
       </c>
       <c r="E17" s="3">
-        <v>2172100</v>
+        <v>2274100</v>
       </c>
       <c r="F17" s="3">
-        <v>2098400</v>
+        <v>2151300</v>
       </c>
       <c r="G17" s="3">
-        <v>2025200</v>
+        <v>2078300</v>
       </c>
       <c r="H17" s="3">
-        <v>1850500</v>
+        <v>2005700</v>
       </c>
       <c r="I17" s="3">
-        <v>1606200</v>
+        <v>1832800</v>
       </c>
       <c r="J17" s="3">
+        <v>1590800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1538500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1589300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1578700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1742500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1714500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1710900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1673400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1660700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1642400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1649800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1539700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1710600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1690600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1607900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1650900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1585300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1566000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>399300</v>
+        <v>403000</v>
       </c>
       <c r="E18" s="3">
-        <v>439600</v>
+        <v>395400</v>
       </c>
       <c r="F18" s="3">
-        <v>444900</v>
+        <v>435400</v>
       </c>
       <c r="G18" s="3">
-        <v>437200</v>
+        <v>440600</v>
       </c>
       <c r="H18" s="3">
-        <v>434700</v>
+        <v>433000</v>
       </c>
       <c r="I18" s="3">
-        <v>427800</v>
+        <v>430500</v>
       </c>
       <c r="J18" s="3">
+        <v>423700</v>
+      </c>
+      <c r="K18" s="3">
         <v>423300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>363500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>348000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>351800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>366300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>367300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>348600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>369600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>386200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>272500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>308100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>280300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>285900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>333200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>319500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>342100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>320200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46000</v>
+        <v>49200</v>
       </c>
       <c r="E20" s="3">
-        <v>49200</v>
+        <v>45600</v>
       </c>
       <c r="F20" s="3">
-        <v>45700</v>
+        <v>48700</v>
       </c>
       <c r="G20" s="3">
-        <v>51400</v>
+        <v>45300</v>
       </c>
       <c r="H20" s="3">
-        <v>57900</v>
+        <v>50900</v>
       </c>
       <c r="I20" s="3">
-        <v>54000</v>
+        <v>57400</v>
       </c>
       <c r="J20" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K20" s="3">
         <v>73800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>65000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>64800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>59100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>64900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>82900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>91000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>92000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>66000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>62300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>62200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>65200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>82600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>86600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>78400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>71100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>65200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>542200</v>
+        <v>551100</v>
       </c>
       <c r="E21" s="3">
-        <v>580800</v>
+        <v>537000</v>
       </c>
       <c r="F21" s="3">
-        <v>584000</v>
+        <v>575200</v>
       </c>
       <c r="G21" s="3">
-        <v>585200</v>
+        <v>578400</v>
       </c>
       <c r="H21" s="3">
-        <v>597700</v>
+        <v>579600</v>
       </c>
       <c r="I21" s="3">
-        <v>569300</v>
+        <v>591900</v>
       </c>
       <c r="J21" s="3">
+        <v>563900</v>
+      </c>
+      <c r="K21" s="3">
         <v>596400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>513500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>492300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>488200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>502400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>516400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>507700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>537300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>521900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>392600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>427600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>428000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>444800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>495000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>469300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>526000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>460000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25600</v>
+        <v>28100</v>
       </c>
       <c r="E22" s="3">
-        <v>21500</v>
+        <v>25400</v>
       </c>
       <c r="F22" s="3">
-        <v>17600</v>
+        <v>21300</v>
       </c>
       <c r="G22" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="H22" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I22" s="3">
         <v>9300</v>
       </c>
-      <c r="I22" s="3">
-        <v>12300</v>
-      </c>
       <c r="J22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>419700</v>
+        <v>424100</v>
       </c>
       <c r="E23" s="3">
-        <v>467300</v>
+        <v>415600</v>
       </c>
       <c r="F23" s="3">
-        <v>473100</v>
+        <v>462800</v>
       </c>
       <c r="G23" s="3">
-        <v>470300</v>
+        <v>468500</v>
       </c>
       <c r="H23" s="3">
-        <v>483300</v>
+        <v>465800</v>
       </c>
       <c r="I23" s="3">
-        <v>469400</v>
+        <v>478600</v>
       </c>
       <c r="J23" s="3">
+        <v>465000</v>
+      </c>
+      <c r="K23" s="3">
         <v>481900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>414400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>399900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>395300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>414200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>430700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>422100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>433000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>436600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>320000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>354300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>327100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>357400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>409500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>387800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>405300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>380100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>99300</v>
+        <v>95600</v>
       </c>
       <c r="E24" s="3">
-        <v>80100</v>
+        <v>98300</v>
       </c>
       <c r="F24" s="3">
-        <v>100900</v>
+        <v>79300</v>
       </c>
       <c r="G24" s="3">
-        <v>103400</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="3">
-        <v>77900</v>
+        <v>102400</v>
       </c>
       <c r="I24" s="3">
-        <v>97100</v>
+        <v>77200</v>
       </c>
       <c r="J24" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K24" s="3">
         <v>106700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>88300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>78700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>92000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>95600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>93800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>70700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>77500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>89300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>77400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>92900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>86700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>92900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>88700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>320400</v>
+        <v>328500</v>
       </c>
       <c r="E26" s="3">
-        <v>387200</v>
+        <v>317300</v>
       </c>
       <c r="F26" s="3">
-        <v>372100</v>
+        <v>383500</v>
       </c>
       <c r="G26" s="3">
-        <v>366900</v>
+        <v>368600</v>
       </c>
       <c r="H26" s="3">
-        <v>405300</v>
+        <v>363400</v>
       </c>
       <c r="I26" s="3">
-        <v>372400</v>
+        <v>401500</v>
       </c>
       <c r="J26" s="3">
+        <v>368800</v>
+      </c>
+      <c r="K26" s="3">
         <v>375200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>321000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>311500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>312600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>331300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>351900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>330000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>337400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>342700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>249300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>276800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>237800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>279900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>316600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>301100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>312400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>291400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>321000</v>
+        <v>329700</v>
       </c>
       <c r="E27" s="3">
-        <v>386500</v>
+        <v>317900</v>
       </c>
       <c r="F27" s="3">
-        <v>371700</v>
+        <v>382800</v>
       </c>
       <c r="G27" s="3">
-        <v>366900</v>
+        <v>368200</v>
       </c>
       <c r="H27" s="3">
-        <v>404700</v>
+        <v>363400</v>
       </c>
       <c r="I27" s="3">
-        <v>372100</v>
+        <v>400800</v>
       </c>
       <c r="J27" s="3">
+        <v>368500</v>
+      </c>
+      <c r="K27" s="3">
         <v>371400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>318600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>308800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>310100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>330300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>350700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>328000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>336000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>338100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>249700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>280300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>238100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>280100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>316900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>311600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>290700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2298,11 +2359,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>22600</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46000</v>
+        <v>-49200</v>
       </c>
       <c r="E32" s="3">
-        <v>-49200</v>
+        <v>-45600</v>
       </c>
       <c r="F32" s="3">
-        <v>-45700</v>
+        <v>-48700</v>
       </c>
       <c r="G32" s="3">
-        <v>-51400</v>
+        <v>-45300</v>
       </c>
       <c r="H32" s="3">
-        <v>-57900</v>
+        <v>-50900</v>
       </c>
       <c r="I32" s="3">
-        <v>-54000</v>
+        <v>-57400</v>
       </c>
       <c r="J32" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-73800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-65000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-64800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-59100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-64900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-82900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-92000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-66000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-62300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-62200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-65200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-82600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-86600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-78400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-71100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-65200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>321000</v>
+        <v>329700</v>
       </c>
       <c r="E33" s="3">
-        <v>386500</v>
+        <v>317900</v>
       </c>
       <c r="F33" s="3">
-        <v>371700</v>
+        <v>382800</v>
       </c>
       <c r="G33" s="3">
-        <v>366900</v>
+        <v>368200</v>
       </c>
       <c r="H33" s="3">
-        <v>404700</v>
+        <v>363400</v>
       </c>
       <c r="I33" s="3">
-        <v>372100</v>
+        <v>400800</v>
       </c>
       <c r="J33" s="3">
+        <v>368500</v>
+      </c>
+      <c r="K33" s="3">
         <v>371400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>318600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>308800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>310100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>330300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>350700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>328000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>336000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>338100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>249700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>280300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>260700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>280100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>316900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>311600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>290700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>321000</v>
+        <v>329700</v>
       </c>
       <c r="E35" s="3">
-        <v>386500</v>
+        <v>317900</v>
       </c>
       <c r="F35" s="3">
-        <v>371700</v>
+        <v>382800</v>
       </c>
       <c r="G35" s="3">
-        <v>366900</v>
+        <v>368200</v>
       </c>
       <c r="H35" s="3">
-        <v>404700</v>
+        <v>363400</v>
       </c>
       <c r="I35" s="3">
-        <v>372100</v>
+        <v>400800</v>
       </c>
       <c r="J35" s="3">
+        <v>368500</v>
+      </c>
+      <c r="K35" s="3">
         <v>371400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>318600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>308800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>310100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>330300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>350700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>328000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>336000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>338100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>249700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>280300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>260700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>280100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>316900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>311600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>290700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1037000</v>
+        <v>905500</v>
       </c>
       <c r="E41" s="3">
-        <v>1300000</v>
+        <v>1027100</v>
       </c>
       <c r="F41" s="3">
-        <v>1345400</v>
+        <v>1287600</v>
       </c>
       <c r="G41" s="3">
-        <v>1778200</v>
+        <v>1332500</v>
       </c>
       <c r="H41" s="3">
-        <v>1760500</v>
+        <v>1761100</v>
       </c>
       <c r="I41" s="3">
-        <v>2125800</v>
+        <v>1743700</v>
       </c>
       <c r="J41" s="3">
+        <v>2105400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1745700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1969300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2060000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1926200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2510300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2479300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3316900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2144900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1923100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1055200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>934500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>649600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>752900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>743400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>785400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>726300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>826000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2828400</v>
+        <v>3396600</v>
       </c>
       <c r="E42" s="3">
-        <v>3017300</v>
+        <v>2801200</v>
       </c>
       <c r="F42" s="3">
-        <v>2943400</v>
+        <v>2988400</v>
       </c>
       <c r="G42" s="3">
-        <v>2193800</v>
+        <v>2915200</v>
       </c>
       <c r="H42" s="3">
-        <v>2083500</v>
+        <v>2172800</v>
       </c>
       <c r="I42" s="3">
-        <v>2192200</v>
+        <v>2063500</v>
       </c>
       <c r="J42" s="3">
+        <v>2171100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3911300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3328600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2752700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2517200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2198700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1995900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2499100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3208200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2882400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3289300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3314600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3634700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3462900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4840800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4623800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4049700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3766400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3065800</v>
+        <v>2945700</v>
       </c>
       <c r="E43" s="3">
-        <v>3127200</v>
+        <v>3036400</v>
       </c>
       <c r="F43" s="3">
-        <v>2497300</v>
+        <v>3097300</v>
       </c>
       <c r="G43" s="3">
-        <v>2380000</v>
+        <v>2473300</v>
       </c>
       <c r="H43" s="3">
-        <v>2234500</v>
+        <v>2357200</v>
       </c>
       <c r="I43" s="3">
-        <v>1948700</v>
+        <v>2213100</v>
       </c>
       <c r="J43" s="3">
+        <v>1930000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1850800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1928700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2005500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2218600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2155600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2228800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2233700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2060000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2087400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2217600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2046700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2182200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2212900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2257800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2283300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2125900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2321200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21000</v>
+        <v>24900</v>
       </c>
       <c r="E44" s="3">
-        <v>16700</v>
+        <v>20800</v>
       </c>
       <c r="F44" s="3">
-        <v>12800</v>
+        <v>16500</v>
       </c>
       <c r="G44" s="3">
-        <v>9700</v>
+        <v>12700</v>
       </c>
       <c r="H44" s="3">
-        <v>11800</v>
+        <v>9600</v>
       </c>
       <c r="I44" s="3">
-        <v>13300</v>
+        <v>11700</v>
       </c>
       <c r="J44" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K44" s="3">
         <v>15100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>94100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>97400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>92900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>80200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>74400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>75000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>74900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>68200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>73900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>97500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>373000</v>
+        <v>397900</v>
       </c>
       <c r="E45" s="3">
-        <v>310500</v>
+        <v>369400</v>
       </c>
       <c r="F45" s="3">
-        <v>346900</v>
+        <v>307500</v>
       </c>
       <c r="G45" s="3">
-        <v>300100</v>
+        <v>343600</v>
       </c>
       <c r="H45" s="3">
-        <v>274400</v>
+        <v>297200</v>
       </c>
       <c r="I45" s="3">
-        <v>270400</v>
+        <v>271800</v>
       </c>
       <c r="J45" s="3">
+        <v>267800</v>
+      </c>
+      <c r="K45" s="3">
         <v>251500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>240400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>229200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>201100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>193000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>225900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>253400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>227300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>277200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>292600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>777400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>399600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>371700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>412900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>450200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>382100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7325100</v>
+        <v>7670600</v>
       </c>
       <c r="E46" s="3">
-        <v>7771800</v>
+        <v>7254900</v>
       </c>
       <c r="F46" s="3">
-        <v>7145800</v>
+        <v>7697300</v>
       </c>
       <c r="G46" s="3">
-        <v>6661800</v>
+        <v>7077300</v>
       </c>
       <c r="H46" s="3">
-        <v>6364800</v>
+        <v>6598000</v>
       </c>
       <c r="I46" s="3">
-        <v>6550300</v>
+        <v>6303800</v>
       </c>
       <c r="J46" s="3">
+        <v>6487500</v>
+      </c>
+      <c r="K46" s="3">
         <v>7774400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7483900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7068700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6929600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7117000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6996300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8397100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7737900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7263000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6942800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6662800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7319000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6890800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8288700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8173700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7426000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7393100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>541700</v>
+        <v>530900</v>
       </c>
       <c r="E47" s="3">
-        <v>513200</v>
+        <v>536500</v>
       </c>
       <c r="F47" s="3">
-        <v>449400</v>
+        <v>508300</v>
       </c>
       <c r="G47" s="3">
-        <v>464300</v>
+        <v>445100</v>
       </c>
       <c r="H47" s="3">
-        <v>444100</v>
+        <v>459800</v>
       </c>
       <c r="I47" s="3">
-        <v>460800</v>
+        <v>439800</v>
       </c>
       <c r="J47" s="3">
+        <v>456400</v>
+      </c>
+      <c r="K47" s="3">
         <v>443500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>463900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>445800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>457600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>489000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>404500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>406400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>555300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>487600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>483100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>457200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>514800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>469000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>460600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>450600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>355300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>349500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1383000</v>
+        <v>1371000</v>
       </c>
       <c r="E48" s="3">
-        <v>1374300</v>
+        <v>1369800</v>
       </c>
       <c r="F48" s="3">
-        <v>1360800</v>
+        <v>1361100</v>
       </c>
       <c r="G48" s="3">
-        <v>1341100</v>
+        <v>1347800</v>
       </c>
       <c r="H48" s="3">
-        <v>1333700</v>
+        <v>1328300</v>
       </c>
       <c r="I48" s="3">
-        <v>1272200</v>
+        <v>1320900</v>
       </c>
       <c r="J48" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1237000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1252300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1264400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1304600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1267800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1256000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1205500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>955200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>945700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>903900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>864000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>939300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1039900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1038300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1027000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>961800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>969600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4323500</v>
+        <v>4351300</v>
       </c>
       <c r="E49" s="3">
-        <v>3637600</v>
+        <v>4282000</v>
       </c>
       <c r="F49" s="3">
-        <v>3596600</v>
+        <v>3602700</v>
       </c>
       <c r="G49" s="3">
-        <v>3400100</v>
+        <v>3562100</v>
       </c>
       <c r="H49" s="3">
-        <v>3336800</v>
+        <v>3367500</v>
       </c>
       <c r="I49" s="3">
-        <v>1905700</v>
+        <v>3304800</v>
       </c>
       <c r="J49" s="3">
+        <v>1887400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1870200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1944300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1964500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1860600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1848600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1786500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1768900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1867400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1930800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1843900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1962200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2115800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2160500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2053400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1952900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2076300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>234700</v>
+        <v>235400</v>
       </c>
       <c r="E52" s="3">
-        <v>214500</v>
+        <v>232500</v>
       </c>
       <c r="F52" s="3">
-        <v>184900</v>
+        <v>212400</v>
       </c>
       <c r="G52" s="3">
-        <v>178700</v>
+        <v>183100</v>
       </c>
       <c r="H52" s="3">
-        <v>182300</v>
+        <v>177000</v>
       </c>
       <c r="I52" s="3">
-        <v>220600</v>
+        <v>180500</v>
       </c>
       <c r="J52" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K52" s="3">
         <v>165000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>163400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>187800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>235100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>176900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>246400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>242900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>255500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>329200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>340700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>262000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>263500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>206300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>245100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>305700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>238700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>230900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13808100</v>
+        <v>14159200</v>
       </c>
       <c r="E54" s="3">
-        <v>13511400</v>
+        <v>13675700</v>
       </c>
       <c r="F54" s="3">
-        <v>12737500</v>
+        <v>13381900</v>
       </c>
       <c r="G54" s="3">
-        <v>12046000</v>
+        <v>12615400</v>
       </c>
       <c r="H54" s="3">
-        <v>11661600</v>
+        <v>11930500</v>
       </c>
       <c r="I54" s="3">
-        <v>10409600</v>
+        <v>11549800</v>
       </c>
       <c r="J54" s="3">
+        <v>10309800</v>
+      </c>
+      <c r="K54" s="3">
         <v>11490000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11307800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10867100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10891400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10911200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10751900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12038400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11272800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10892900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10601300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10090000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10998900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10722000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12193100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12010400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10934700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11019400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1107800</v>
+        <v>1128200</v>
       </c>
       <c r="E57" s="3">
-        <v>1239900</v>
+        <v>1097200</v>
       </c>
       <c r="F57" s="3">
-        <v>1095600</v>
+        <v>1228000</v>
       </c>
       <c r="G57" s="3">
-        <v>1136600</v>
+        <v>1085100</v>
       </c>
       <c r="H57" s="3">
-        <v>1113500</v>
+        <v>1125700</v>
       </c>
       <c r="I57" s="3">
-        <v>987500</v>
+        <v>1102900</v>
       </c>
       <c r="J57" s="3">
+        <v>978000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1044900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1059700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>969700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1041500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1083700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1147100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1154700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1194800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1067800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1121000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>998500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>985100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1031000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1007000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1068700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>902400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>956000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1552300</v>
+        <v>1469000</v>
       </c>
       <c r="E58" s="3">
-        <v>1305700</v>
+        <v>1537400</v>
       </c>
       <c r="F58" s="3">
-        <v>1091100</v>
+        <v>1293200</v>
       </c>
       <c r="G58" s="3">
-        <v>846400</v>
+        <v>1080600</v>
       </c>
       <c r="H58" s="3">
-        <v>862800</v>
+        <v>838300</v>
       </c>
       <c r="I58" s="3">
-        <v>1046000</v>
+        <v>854600</v>
       </c>
       <c r="J58" s="3">
+        <v>1035900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1011100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1054000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>989300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1063200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1059400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1077100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1203900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>962000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>725500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>829200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>934200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1344600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1477300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1651500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1644300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1692200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1878400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1102100</v>
+        <v>1202000</v>
       </c>
       <c r="E59" s="3">
-        <v>1314700</v>
+        <v>1091500</v>
       </c>
       <c r="F59" s="3">
-        <v>957100</v>
+        <v>1302100</v>
       </c>
       <c r="G59" s="3">
-        <v>912400</v>
+        <v>947900</v>
       </c>
       <c r="H59" s="3">
-        <v>909900</v>
+        <v>903700</v>
       </c>
       <c r="I59" s="3">
-        <v>846700</v>
+        <v>901200</v>
       </c>
       <c r="J59" s="3">
+        <v>838600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2321400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>802000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>778800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>779800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>760000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>694200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>737100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>743400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>807900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>820200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>697200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>757500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>687900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>616800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>675700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>568500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>577000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3762100</v>
+        <v>3799200</v>
       </c>
       <c r="E60" s="3">
-        <v>3860300</v>
+        <v>3726000</v>
       </c>
       <c r="F60" s="3">
-        <v>3143700</v>
+        <v>3823300</v>
       </c>
       <c r="G60" s="3">
-        <v>2895500</v>
+        <v>3113600</v>
       </c>
       <c r="H60" s="3">
-        <v>2886300</v>
+        <v>2867700</v>
       </c>
       <c r="I60" s="3">
-        <v>2880100</v>
+        <v>2858600</v>
       </c>
       <c r="J60" s="3">
+        <v>2852500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4377400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2915700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2737800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2884500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2903100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2918400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3095600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2601200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2770400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2629900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3087300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3196200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3275200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3388700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3163100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3411400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>925200</v>
+        <v>943900</v>
       </c>
       <c r="E61" s="3">
-        <v>896900</v>
+        <v>916300</v>
       </c>
       <c r="F61" s="3">
-        <v>882300</v>
+        <v>888300</v>
       </c>
       <c r="G61" s="3">
-        <v>883900</v>
+        <v>873900</v>
       </c>
       <c r="H61" s="3">
-        <v>892100</v>
+        <v>875500</v>
       </c>
       <c r="I61" s="3">
-        <v>262600</v>
+        <v>883500</v>
       </c>
       <c r="J61" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K61" s="3">
         <v>164100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>162100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>226000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>233000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>442900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>451500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>456500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>383800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>673300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>691800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>622100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>654600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>430400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>450500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>469800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>270200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>275800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>515700</v>
+        <v>514300</v>
       </c>
       <c r="E62" s="3">
-        <v>507600</v>
+        <v>510800</v>
       </c>
       <c r="F62" s="3">
-        <v>518700</v>
+        <v>502700</v>
       </c>
       <c r="G62" s="3">
-        <v>469700</v>
+        <v>513700</v>
       </c>
       <c r="H62" s="3">
-        <v>486800</v>
+        <v>465200</v>
       </c>
       <c r="I62" s="3">
-        <v>323400</v>
+        <v>482100</v>
       </c>
       <c r="J62" s="3">
+        <v>320300</v>
+      </c>
+      <c r="K62" s="3">
         <v>330000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>308700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>318000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>285600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>287900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>301700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>266500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>214300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>220900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>203800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>238900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>258000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>299000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>298000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>298600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>327500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5208200</v>
+        <v>5261500</v>
       </c>
       <c r="E66" s="3">
-        <v>5271200</v>
+        <v>5158300</v>
       </c>
       <c r="F66" s="3">
-        <v>4550300</v>
+        <v>5220700</v>
       </c>
       <c r="G66" s="3">
-        <v>4262700</v>
+        <v>4506700</v>
       </c>
       <c r="H66" s="3">
-        <v>4278900</v>
+        <v>4221900</v>
       </c>
       <c r="I66" s="3">
-        <v>3484800</v>
+        <v>4237900</v>
       </c>
       <c r="J66" s="3">
+        <v>3451400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4890100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3393600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3286300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3460500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3652900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3678400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3891900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3586200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3523300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3713700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3484600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4015600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3919100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4060100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4191700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3764900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4048700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8034900</v>
+        <v>8297100</v>
       </c>
       <c r="E72" s="3">
-        <v>7728600</v>
+        <v>7957900</v>
       </c>
       <c r="F72" s="3">
-        <v>7718200</v>
+        <v>7654500</v>
       </c>
       <c r="G72" s="3">
-        <v>7313800</v>
+        <v>7644200</v>
       </c>
       <c r="H72" s="3">
-        <v>6906500</v>
+        <v>7243700</v>
       </c>
       <c r="I72" s="3">
-        <v>6469800</v>
+        <v>6840300</v>
       </c>
       <c r="J72" s="3">
+        <v>6407800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6115400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7430600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7113400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6958000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6802400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6608300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7685100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7241700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6959000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6491000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6261500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6576600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6409300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7695400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7362300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6785400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6552600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8599900</v>
+        <v>8897700</v>
       </c>
       <c r="E76" s="3">
-        <v>8240100</v>
+        <v>8517400</v>
       </c>
       <c r="F76" s="3">
-        <v>8187100</v>
+        <v>8161200</v>
       </c>
       <c r="G76" s="3">
-        <v>7783200</v>
+        <v>8108700</v>
       </c>
       <c r="H76" s="3">
-        <v>7382600</v>
+        <v>7708600</v>
       </c>
       <c r="I76" s="3">
-        <v>6924700</v>
+        <v>7311900</v>
       </c>
       <c r="J76" s="3">
+        <v>6858400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6599900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7914100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7580900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7430900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7258300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7073500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8146500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7686600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7369700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6887600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6605400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6983300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6802900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8133000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7818800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7169800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6970800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>321000</v>
+        <v>329700</v>
       </c>
       <c r="E81" s="3">
-        <v>386500</v>
+        <v>317900</v>
       </c>
       <c r="F81" s="3">
-        <v>371700</v>
+        <v>382800</v>
       </c>
       <c r="G81" s="3">
-        <v>366900</v>
+        <v>368200</v>
       </c>
       <c r="H81" s="3">
-        <v>404700</v>
+        <v>363400</v>
       </c>
       <c r="I81" s="3">
-        <v>372100</v>
+        <v>400800</v>
       </c>
       <c r="J81" s="3">
+        <v>368500</v>
+      </c>
+      <c r="K81" s="3">
         <v>371400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>318600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>308800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>310100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>330300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>350700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>328000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>336000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>338100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>249700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>280300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>260700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>280100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>316900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>311600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>290700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>96900</v>
+        <v>98800</v>
       </c>
       <c r="E83" s="3">
-        <v>92000</v>
+        <v>96000</v>
       </c>
       <c r="F83" s="3">
-        <v>93400</v>
+        <v>91100</v>
       </c>
       <c r="G83" s="3">
-        <v>96600</v>
+        <v>92500</v>
       </c>
       <c r="H83" s="3">
-        <v>105000</v>
+        <v>95700</v>
       </c>
       <c r="I83" s="3">
-        <v>87600</v>
+        <v>104000</v>
       </c>
       <c r="J83" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K83" s="3">
         <v>99200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>68100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>82500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>76300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>71500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>112700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>74600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22300</v>
+        <v>595300</v>
       </c>
       <c r="E89" s="3">
-        <v>291900</v>
+        <v>22100</v>
       </c>
       <c r="F89" s="3">
-        <v>376400</v>
+        <v>289100</v>
       </c>
       <c r="G89" s="3">
-        <v>299100</v>
+        <v>372800</v>
       </c>
       <c r="H89" s="3">
-        <v>419800</v>
+        <v>296200</v>
       </c>
       <c r="I89" s="3">
-        <v>216400</v>
+        <v>415800</v>
       </c>
       <c r="J89" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K89" s="3">
         <v>554900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>570200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>540200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>187600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>411100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>374500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>395100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>450100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>480300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>245700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>380900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>108600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>431300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>250800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>427400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>352600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>363600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-60900</v>
+        <v>-48100</v>
       </c>
       <c r="E91" s="3">
-        <v>-52400</v>
+        <v>-60300</v>
       </c>
       <c r="F91" s="3">
-        <v>-70400</v>
+        <v>-51900</v>
       </c>
       <c r="G91" s="3">
-        <v>-71500</v>
+        <v>-69800</v>
       </c>
       <c r="H91" s="3">
-        <v>-58000</v>
+        <v>-70800</v>
       </c>
       <c r="I91" s="3">
-        <v>-76500</v>
+        <v>-57400</v>
       </c>
       <c r="J91" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-64000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-79400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-84000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-80100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-76100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-88400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-61100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-93600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-83500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-78300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-57100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-69900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-124000</v>
+        <v>-577800</v>
       </c>
       <c r="E94" s="3">
-        <v>-440900</v>
+        <v>-122800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1000800</v>
+        <v>-436600</v>
       </c>
       <c r="G94" s="3">
-        <v>-210800</v>
+        <v>-991300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1158200</v>
+        <v>-208800</v>
       </c>
       <c r="I94" s="3">
-        <v>1626900</v>
+        <v>-1147100</v>
       </c>
       <c r="J94" s="3">
+        <v>1611300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-668500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-638300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-250700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-377300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-292100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>462200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>692500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-112600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>487600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>315400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-187100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1361700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-239500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-420700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-180600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-689300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,16 +6952,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-342300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-339000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6752,11 +6986,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-72600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6776,11 +7010,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-78400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6788,16 +7022,19 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-80200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-167300</v>
+        <v>-138900</v>
       </c>
       <c r="E100" s="3">
-        <v>89900</v>
+        <v>-165700</v>
       </c>
       <c r="F100" s="3">
-        <v>186300</v>
+        <v>89000</v>
       </c>
       <c r="G100" s="3">
-        <v>-57100</v>
+        <v>184500</v>
       </c>
       <c r="H100" s="3">
-        <v>364200</v>
+        <v>-56600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1454500</v>
+        <v>360700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1440500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-48800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-91400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-371100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-58000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-120200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-122200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-314000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-76900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-39600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>25200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-262300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>404100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>5900</v>
       </c>
-      <c r="E101" s="3">
-        <v>13900</v>
-      </c>
       <c r="F101" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G101" s="3">
         <v>5200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-13000</v>
-      </c>
       <c r="H101" s="3">
-        <v>10000</v>
+        <v>-12900</v>
       </c>
       <c r="I101" s="3">
-        <v>-9700</v>
+        <v>9900</v>
       </c>
       <c r="J101" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>22600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-30800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-263000</v>
+        <v>-121600</v>
       </c>
       <c r="E102" s="3">
-        <v>-45200</v>
+        <v>-260500</v>
       </c>
       <c r="F102" s="3">
-        <v>-432900</v>
+        <v>-44800</v>
       </c>
       <c r="G102" s="3">
-        <v>18100</v>
+        <v>-428700</v>
       </c>
       <c r="H102" s="3">
-        <v>-364200</v>
+        <v>17900</v>
       </c>
       <c r="I102" s="3">
-        <v>379100</v>
+        <v>-360700</v>
       </c>
       <c r="J102" s="3">
+        <v>375400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-163200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-88800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>196300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-552300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-838700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1138500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>213200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>850200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>124700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>387200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-150600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-25200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>32400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-121200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>84900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2794900</v>
+        <v>2831600</v>
       </c>
       <c r="E8" s="3">
-        <v>2669500</v>
+        <v>2747600</v>
       </c>
       <c r="F8" s="3">
-        <v>2586600</v>
+        <v>2624300</v>
       </c>
       <c r="G8" s="3">
-        <v>2518900</v>
+        <v>2542800</v>
       </c>
       <c r="H8" s="3">
-        <v>2438800</v>
+        <v>2476200</v>
       </c>
       <c r="I8" s="3">
-        <v>2263300</v>
+        <v>2397500</v>
       </c>
       <c r="J8" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2014400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1961900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1952800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1926800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2094300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2080800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2078300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2022000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2030400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2028500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1922300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1847900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1990900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1976500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1941000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1970300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1927500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1886200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2031600</v>
+        <v>1990300</v>
       </c>
       <c r="E9" s="3">
-        <v>1929400</v>
+        <v>1997100</v>
       </c>
       <c r="F9" s="3">
-        <v>1834800</v>
+        <v>1896800</v>
       </c>
       <c r="G9" s="3">
-        <v>1770400</v>
+        <v>1803700</v>
       </c>
       <c r="H9" s="3">
-        <v>1705800</v>
+        <v>1740500</v>
       </c>
       <c r="I9" s="3">
-        <v>1581800</v>
+        <v>1676900</v>
       </c>
       <c r="J9" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1361600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1306000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1361600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1339800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1521400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1475100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1484000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1432700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1446900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1345400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1326600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1414100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1387800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1369300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1404200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1388600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1330800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>763400</v>
+        <v>841300</v>
       </c>
       <c r="E10" s="3">
-        <v>740100</v>
+        <v>750400</v>
       </c>
       <c r="F10" s="3">
-        <v>751900</v>
+        <v>727600</v>
       </c>
       <c r="G10" s="3">
-        <v>748400</v>
+        <v>739100</v>
       </c>
       <c r="H10" s="3">
-        <v>733000</v>
+        <v>735800</v>
       </c>
       <c r="I10" s="3">
-        <v>681500</v>
+        <v>720600</v>
       </c>
       <c r="J10" s="3">
+        <v>669900</v>
+      </c>
+      <c r="K10" s="3">
         <v>652800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>655900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>591200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>587000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>572900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>605700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>594300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>589300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>583400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>628000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>576900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>521200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>576800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>588700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>571700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>566100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>538900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>555400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1222,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>14200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1232,14 +1251,14 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>20400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1253,23 +1272,23 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11200</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-33600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9300</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1277,97 +1296,103 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2800</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>78300</v>
+        <v>26400</v>
       </c>
       <c r="E15" s="3">
-        <v>23500</v>
+        <v>25900</v>
       </c>
       <c r="F15" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="3">
         <v>20300</v>
       </c>
-      <c r="G15" s="3">
-        <v>20600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>26300</v>
-      </c>
       <c r="I15" s="3">
-        <v>34600</v>
+        <v>25800</v>
       </c>
       <c r="J15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K15" s="3">
         <v>20000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>11300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>12800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>11300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>12500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>6200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2391900</v>
+        <v>2372800</v>
       </c>
       <c r="E17" s="3">
-        <v>2274100</v>
+        <v>2351400</v>
       </c>
       <c r="F17" s="3">
-        <v>2151300</v>
+        <v>2235600</v>
       </c>
       <c r="G17" s="3">
-        <v>2078300</v>
+        <v>2114800</v>
       </c>
       <c r="H17" s="3">
-        <v>2005700</v>
+        <v>2043100</v>
       </c>
       <c r="I17" s="3">
-        <v>1832800</v>
+        <v>1971800</v>
       </c>
       <c r="J17" s="3">
+        <v>1801700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1590800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1538500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1589300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1578700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1742500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1714500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1710900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1673400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1660700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1642400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1649800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1539700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1710600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1690600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1607900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1650900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1585300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1566000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>403000</v>
+        <v>458800</v>
       </c>
       <c r="E18" s="3">
-        <v>395400</v>
+        <v>396200</v>
       </c>
       <c r="F18" s="3">
-        <v>435400</v>
+        <v>388700</v>
       </c>
       <c r="G18" s="3">
-        <v>440600</v>
+        <v>428000</v>
       </c>
       <c r="H18" s="3">
-        <v>433000</v>
+        <v>433200</v>
       </c>
       <c r="I18" s="3">
-        <v>430500</v>
+        <v>425700</v>
       </c>
       <c r="J18" s="3">
+        <v>423200</v>
+      </c>
+      <c r="K18" s="3">
         <v>423700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>423300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>363500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>348000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>351800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>366300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>367300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>348600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>369600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>386200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>272500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>308100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>280300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>285900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>333200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>319500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>342100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>320200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49200</v>
+        <v>61200</v>
       </c>
       <c r="E20" s="3">
-        <v>45600</v>
+        <v>48400</v>
       </c>
       <c r="F20" s="3">
-        <v>48700</v>
+        <v>44800</v>
       </c>
       <c r="G20" s="3">
-        <v>45300</v>
+        <v>47900</v>
       </c>
       <c r="H20" s="3">
-        <v>50900</v>
+        <v>44500</v>
       </c>
       <c r="I20" s="3">
-        <v>57400</v>
+        <v>50000</v>
       </c>
       <c r="J20" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K20" s="3">
         <v>53500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>73800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>65000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>64800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>59100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>64900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>82900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>91000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>92000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>66000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>62300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>62200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>65200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>82600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>86600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>78400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>71100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>65200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>551100</v>
+        <v>632500</v>
       </c>
       <c r="E21" s="3">
-        <v>537000</v>
+        <v>541700</v>
       </c>
       <c r="F21" s="3">
-        <v>575200</v>
+        <v>527900</v>
       </c>
       <c r="G21" s="3">
-        <v>578400</v>
+        <v>565400</v>
       </c>
       <c r="H21" s="3">
-        <v>579600</v>
+        <v>568600</v>
       </c>
       <c r="I21" s="3">
-        <v>591900</v>
+        <v>569800</v>
       </c>
       <c r="J21" s="3">
+        <v>581900</v>
+      </c>
+      <c r="K21" s="3">
         <v>563900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>596400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>513500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>492300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>488200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>502400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>516400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>537300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>521900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>392600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>427600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>428000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>444800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>495000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>469300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>526000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>460000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28100</v>
+        <v>35400</v>
       </c>
       <c r="E22" s="3">
-        <v>25400</v>
+        <v>27700</v>
       </c>
       <c r="F22" s="3">
-        <v>21300</v>
+        <v>24900</v>
       </c>
       <c r="G22" s="3">
-        <v>17400</v>
+        <v>20900</v>
       </c>
       <c r="H22" s="3">
-        <v>18100</v>
+        <v>17100</v>
       </c>
       <c r="I22" s="3">
-        <v>9300</v>
+        <v>17800</v>
       </c>
       <c r="J22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K22" s="3">
         <v>12200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>424100</v>
+        <v>484600</v>
       </c>
       <c r="E23" s="3">
-        <v>415600</v>
+        <v>416900</v>
       </c>
       <c r="F23" s="3">
-        <v>462800</v>
+        <v>408600</v>
       </c>
       <c r="G23" s="3">
-        <v>468500</v>
+        <v>455000</v>
       </c>
       <c r="H23" s="3">
-        <v>465800</v>
+        <v>460600</v>
       </c>
       <c r="I23" s="3">
-        <v>478600</v>
+        <v>457900</v>
       </c>
       <c r="J23" s="3">
+        <v>470500</v>
+      </c>
+      <c r="K23" s="3">
         <v>465000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>481900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>414400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>399900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>395300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>414200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>430700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>422100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>433000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>436600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>320000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>354300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>327100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>357400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>409500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>387800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>405300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>380100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>96700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>78000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>98300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>96200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>106700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>93400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>88300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>82700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>82900</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>78700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>92000</v>
+      </c>
+      <c r="S24" s="3">
         <v>95600</v>
       </c>
-      <c r="E24" s="3">
-        <v>98300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>79300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>102400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>77200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>96200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>106700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>93400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>88300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>82700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>82900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>78700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>92000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>95600</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>93800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>70700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>77500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>89300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>77400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>92900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>86700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>92900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>88700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>328500</v>
+        <v>373600</v>
       </c>
       <c r="E26" s="3">
-        <v>317300</v>
+        <v>322900</v>
       </c>
       <c r="F26" s="3">
-        <v>383500</v>
+        <v>311900</v>
       </c>
       <c r="G26" s="3">
-        <v>368600</v>
+        <v>377000</v>
       </c>
       <c r="H26" s="3">
-        <v>363400</v>
+        <v>362300</v>
       </c>
       <c r="I26" s="3">
-        <v>401500</v>
+        <v>357200</v>
       </c>
       <c r="J26" s="3">
+        <v>394700</v>
+      </c>
+      <c r="K26" s="3">
         <v>368800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>375200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>321000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>311500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>312600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>331300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>351900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>330000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>337400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>342700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>249300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>276800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>237800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>279900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>316600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>301100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>312400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>291400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>329700</v>
+        <v>372100</v>
       </c>
       <c r="E27" s="3">
-        <v>317900</v>
+        <v>324100</v>
       </c>
       <c r="F27" s="3">
-        <v>382800</v>
+        <v>312500</v>
       </c>
       <c r="G27" s="3">
-        <v>368200</v>
+        <v>376300</v>
       </c>
       <c r="H27" s="3">
-        <v>363400</v>
+        <v>361900</v>
       </c>
       <c r="I27" s="3">
-        <v>400800</v>
+        <v>357300</v>
       </c>
       <c r="J27" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K27" s="3">
         <v>368500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>371400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>318600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>308800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>310100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>330300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>350700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>328000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>336000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>338100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>249700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>280300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>238100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>280100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>316900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>311600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>290700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2404,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2362,11 +2422,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>22600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49200</v>
+        <v>-61200</v>
       </c>
       <c r="E32" s="3">
-        <v>-45600</v>
+        <v>-48400</v>
       </c>
       <c r="F32" s="3">
-        <v>-48700</v>
+        <v>-44800</v>
       </c>
       <c r="G32" s="3">
-        <v>-45300</v>
+        <v>-47900</v>
       </c>
       <c r="H32" s="3">
-        <v>-50900</v>
+        <v>-44500</v>
       </c>
       <c r="I32" s="3">
-        <v>-57400</v>
+        <v>-50000</v>
       </c>
       <c r="J32" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-53500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-73800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-65000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-64800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-59100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-64900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-82900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-91000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-92000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-66000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-62300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-62200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-65200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-82600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-86600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-78400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-71100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-65200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>329700</v>
+        <v>372100</v>
       </c>
       <c r="E33" s="3">
-        <v>317900</v>
+        <v>324100</v>
       </c>
       <c r="F33" s="3">
-        <v>382800</v>
+        <v>312500</v>
       </c>
       <c r="G33" s="3">
-        <v>368200</v>
+        <v>376300</v>
       </c>
       <c r="H33" s="3">
-        <v>363400</v>
+        <v>361900</v>
       </c>
       <c r="I33" s="3">
-        <v>400800</v>
+        <v>357300</v>
       </c>
       <c r="J33" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K33" s="3">
         <v>368500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>371400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>318600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>308800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>310100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>330300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>350700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>328000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>336000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>338100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>249700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>280300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>260700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>280100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>316900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>311600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>290700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>329700</v>
+        <v>372100</v>
       </c>
       <c r="E35" s="3">
-        <v>317900</v>
+        <v>324100</v>
       </c>
       <c r="F35" s="3">
-        <v>382800</v>
+        <v>312500</v>
       </c>
       <c r="G35" s="3">
-        <v>368200</v>
+        <v>376300</v>
       </c>
       <c r="H35" s="3">
-        <v>363400</v>
+        <v>361900</v>
       </c>
       <c r="I35" s="3">
-        <v>400800</v>
+        <v>357300</v>
       </c>
       <c r="J35" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K35" s="3">
         <v>368500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>371400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>318600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>308800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>310100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>330300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>350700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>328000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>336000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>338100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>249700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>280300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>260700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>280100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>316900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>311600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>290700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>905500</v>
+        <v>1064300</v>
       </c>
       <c r="E41" s="3">
-        <v>1027100</v>
+        <v>890200</v>
       </c>
       <c r="F41" s="3">
-        <v>1287600</v>
+        <v>1009700</v>
       </c>
       <c r="G41" s="3">
-        <v>1332500</v>
+        <v>1265800</v>
       </c>
       <c r="H41" s="3">
-        <v>1761100</v>
+        <v>1309900</v>
       </c>
       <c r="I41" s="3">
-        <v>1743700</v>
+        <v>1731300</v>
       </c>
       <c r="J41" s="3">
+        <v>1714100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2105400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1745700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1969300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2060000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1926200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2510300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2479300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3316900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2144900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1923100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1055200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>934500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>649600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>752900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>743400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>785400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>726300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>826000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3396600</v>
+        <v>3553300</v>
       </c>
       <c r="E42" s="3">
-        <v>2801200</v>
+        <v>3339100</v>
       </c>
       <c r="F42" s="3">
-        <v>2988400</v>
+        <v>2753800</v>
       </c>
       <c r="G42" s="3">
-        <v>2915200</v>
+        <v>2937800</v>
       </c>
       <c r="H42" s="3">
-        <v>2172800</v>
+        <v>2865800</v>
       </c>
       <c r="I42" s="3">
-        <v>2063500</v>
+        <v>2136000</v>
       </c>
       <c r="J42" s="3">
+        <v>2028600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2171100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3911300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3328600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2752700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2517200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2198700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1995900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2499100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3208200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2882400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3289300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3314600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3634700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3462900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4840800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4623800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4049700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3766400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2945700</v>
+        <v>2792500</v>
       </c>
       <c r="E43" s="3">
-        <v>3036400</v>
+        <v>2895800</v>
       </c>
       <c r="F43" s="3">
-        <v>3097300</v>
+        <v>2985000</v>
       </c>
       <c r="G43" s="3">
-        <v>2473300</v>
+        <v>3044800</v>
       </c>
       <c r="H43" s="3">
-        <v>2357200</v>
+        <v>2431400</v>
       </c>
       <c r="I43" s="3">
-        <v>2213100</v>
+        <v>2317300</v>
       </c>
       <c r="J43" s="3">
+        <v>2175600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1930000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1850800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1928700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2005500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2218600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2155600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2228800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2233700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2060000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2087400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2217600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2046700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2182200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2212900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2257800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2283300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2125900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2321200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="E44" s="3">
-        <v>20800</v>
+        <v>24500</v>
       </c>
       <c r="F44" s="3">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="G44" s="3">
-        <v>12700</v>
+        <v>16300</v>
       </c>
       <c r="H44" s="3">
-        <v>9600</v>
+        <v>12500</v>
       </c>
       <c r="I44" s="3">
-        <v>11700</v>
+        <v>9500</v>
       </c>
       <c r="J44" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K44" s="3">
         <v>13200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>66500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>66500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>94100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>92900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>80200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>74400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>75000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>74900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>68200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>73900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>97500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>397900</v>
+        <v>347200</v>
       </c>
       <c r="E45" s="3">
-        <v>369400</v>
+        <v>391200</v>
       </c>
       <c r="F45" s="3">
-        <v>307500</v>
+        <v>363100</v>
       </c>
       <c r="G45" s="3">
-        <v>343600</v>
+        <v>302300</v>
       </c>
       <c r="H45" s="3">
-        <v>297200</v>
+        <v>337800</v>
       </c>
       <c r="I45" s="3">
-        <v>271800</v>
+        <v>292200</v>
       </c>
       <c r="J45" s="3">
+        <v>267200</v>
+      </c>
+      <c r="K45" s="3">
         <v>267800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>251500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>240400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>229200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>201100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>193000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>225900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>253400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>227300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>277200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>292600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>777400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>399600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>371700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>412900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>450200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>382100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7670600</v>
+        <v>7781800</v>
       </c>
       <c r="E46" s="3">
-        <v>7254900</v>
+        <v>7540700</v>
       </c>
       <c r="F46" s="3">
-        <v>7697300</v>
+        <v>7132000</v>
       </c>
       <c r="G46" s="3">
-        <v>7077300</v>
+        <v>7567000</v>
       </c>
       <c r="H46" s="3">
-        <v>6598000</v>
+        <v>6957400</v>
       </c>
       <c r="I46" s="3">
-        <v>6303800</v>
+        <v>6486200</v>
       </c>
       <c r="J46" s="3">
+        <v>6197000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6487500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7774400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7483900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7068700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6929600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7117000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6996300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8397100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7737900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7263000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6942800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6662800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7319000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6890800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8288700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8173700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7426000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7393100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>530900</v>
+        <v>533800</v>
       </c>
       <c r="E47" s="3">
-        <v>536500</v>
+        <v>521900</v>
       </c>
       <c r="F47" s="3">
-        <v>508300</v>
+        <v>527400</v>
       </c>
       <c r="G47" s="3">
-        <v>445100</v>
+        <v>499600</v>
       </c>
       <c r="H47" s="3">
-        <v>459800</v>
+        <v>437500</v>
       </c>
       <c r="I47" s="3">
-        <v>439800</v>
+        <v>452000</v>
       </c>
       <c r="J47" s="3">
+        <v>432400</v>
+      </c>
+      <c r="K47" s="3">
         <v>456400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>443500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>463900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>445800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>457600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>489000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>404500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>406400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>555300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>487600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>483100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>457200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>514800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>469000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>460600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>450600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>355300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>349500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1371000</v>
+        <v>1335100</v>
       </c>
       <c r="E48" s="3">
-        <v>1369800</v>
+        <v>1347700</v>
       </c>
       <c r="F48" s="3">
-        <v>1361100</v>
+        <v>1346600</v>
       </c>
       <c r="G48" s="3">
-        <v>1347800</v>
+        <v>1338100</v>
       </c>
       <c r="H48" s="3">
-        <v>1328300</v>
+        <v>1325000</v>
       </c>
       <c r="I48" s="3">
-        <v>1320900</v>
+        <v>1305800</v>
       </c>
       <c r="J48" s="3">
+        <v>1298500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1260000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1237000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1252300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1264400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1304600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1267800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1205500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>955200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>945700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>903900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>864000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>939300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1039900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1038300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1027000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>961800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>969600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4351300</v>
+        <v>4332000</v>
       </c>
       <c r="E49" s="3">
-        <v>4282000</v>
+        <v>4277700</v>
       </c>
       <c r="F49" s="3">
-        <v>3602700</v>
+        <v>4209500</v>
       </c>
       <c r="G49" s="3">
-        <v>3562100</v>
+        <v>3541700</v>
       </c>
       <c r="H49" s="3">
-        <v>3367500</v>
+        <v>3501800</v>
       </c>
       <c r="I49" s="3">
-        <v>3304800</v>
+        <v>3310500</v>
       </c>
       <c r="J49" s="3">
+        <v>3248800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1887400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1870200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1944300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1900500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1964500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1860600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1848600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1786500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1768900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1867400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1930800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1843900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1962200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2115800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2160500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2053400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1952900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2076300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235400</v>
+        <v>221600</v>
       </c>
       <c r="E52" s="3">
-        <v>232500</v>
+        <v>231400</v>
       </c>
       <c r="F52" s="3">
-        <v>212400</v>
+        <v>228500</v>
       </c>
       <c r="G52" s="3">
-        <v>183100</v>
+        <v>208800</v>
       </c>
       <c r="H52" s="3">
-        <v>177000</v>
+        <v>180000</v>
       </c>
       <c r="I52" s="3">
-        <v>180500</v>
+        <v>174000</v>
       </c>
       <c r="J52" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K52" s="3">
         <v>218500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>163400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>187800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>235100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>176900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>246400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>242900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>255500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>329200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>340700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>262000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>263500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>206300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>245100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>305700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>238700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>230900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14159200</v>
+        <v>14204300</v>
       </c>
       <c r="E54" s="3">
-        <v>13675700</v>
+        <v>13919400</v>
       </c>
       <c r="F54" s="3">
-        <v>13381900</v>
+        <v>13444100</v>
       </c>
       <c r="G54" s="3">
-        <v>12615400</v>
+        <v>13155200</v>
       </c>
       <c r="H54" s="3">
-        <v>11930500</v>
+        <v>12401700</v>
       </c>
       <c r="I54" s="3">
-        <v>11549800</v>
+        <v>11728500</v>
       </c>
       <c r="J54" s="3">
+        <v>11354200</v>
+      </c>
+      <c r="K54" s="3">
         <v>10309800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11490000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11307800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10867100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10891400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10911200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10751900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12038400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11272800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10892900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10601300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10090000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10998900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10722000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12193100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12010400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10934700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11019400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1128200</v>
+        <v>1092400</v>
       </c>
       <c r="E57" s="3">
-        <v>1097200</v>
+        <v>1109100</v>
       </c>
       <c r="F57" s="3">
-        <v>1228000</v>
+        <v>1078600</v>
       </c>
       <c r="G57" s="3">
-        <v>1085100</v>
+        <v>1207200</v>
       </c>
       <c r="H57" s="3">
-        <v>1125700</v>
+        <v>1066700</v>
       </c>
       <c r="I57" s="3">
-        <v>1102900</v>
+        <v>1106600</v>
       </c>
       <c r="J57" s="3">
+        <v>1084200</v>
+      </c>
+      <c r="K57" s="3">
         <v>978000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1044900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1059700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>969700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1041500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1083700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1147100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1154700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1194800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1067800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1121000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>998500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>985100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1031000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1007000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1068700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>902400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>956000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1469000</v>
+        <v>1289800</v>
       </c>
       <c r="E58" s="3">
-        <v>1537400</v>
+        <v>1444100</v>
       </c>
       <c r="F58" s="3">
-        <v>1293200</v>
+        <v>1511300</v>
       </c>
       <c r="G58" s="3">
-        <v>1080600</v>
+        <v>1271300</v>
       </c>
       <c r="H58" s="3">
-        <v>838300</v>
+        <v>1062300</v>
       </c>
       <c r="I58" s="3">
-        <v>854600</v>
+        <v>824100</v>
       </c>
       <c r="J58" s="3">
+        <v>840100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1035900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1011100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1054000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>989300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1063200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1059400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1077100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1203900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>962000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>725500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>829200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>934200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1344600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1477300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1651500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1644300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1692200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1878400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1202000</v>
+        <v>1094900</v>
       </c>
       <c r="E59" s="3">
-        <v>1091500</v>
+        <v>1181600</v>
       </c>
       <c r="F59" s="3">
-        <v>1302100</v>
+        <v>1073000</v>
       </c>
       <c r="G59" s="3">
-        <v>947900</v>
+        <v>1280000</v>
       </c>
       <c r="H59" s="3">
-        <v>903700</v>
+        <v>931800</v>
       </c>
       <c r="I59" s="3">
-        <v>901200</v>
+        <v>888400</v>
       </c>
       <c r="J59" s="3">
+        <v>886000</v>
+      </c>
+      <c r="K59" s="3">
         <v>838600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2321400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>802000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>778800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>779800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>760000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>694200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>737100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>743400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>807900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>820200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>697200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>757500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>687900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>616800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>675700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>568500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>577000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3799200</v>
+        <v>3477100</v>
       </c>
       <c r="E60" s="3">
-        <v>3726000</v>
+        <v>3734800</v>
       </c>
       <c r="F60" s="3">
-        <v>3823300</v>
+        <v>3662900</v>
       </c>
       <c r="G60" s="3">
-        <v>3113600</v>
+        <v>3758500</v>
       </c>
       <c r="H60" s="3">
-        <v>2867700</v>
+        <v>3060900</v>
       </c>
       <c r="I60" s="3">
-        <v>2858600</v>
+        <v>2819200</v>
       </c>
       <c r="J60" s="3">
+        <v>2810200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2852500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4377400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2915700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2737800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2884500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2903100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2918400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3095600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2601200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2770400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2629900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3087300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3196200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3275200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3388700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3163100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3411400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>943900</v>
+        <v>941500</v>
       </c>
       <c r="E61" s="3">
-        <v>916300</v>
+        <v>927900</v>
       </c>
       <c r="F61" s="3">
-        <v>888300</v>
+        <v>900800</v>
       </c>
       <c r="G61" s="3">
-        <v>873900</v>
+        <v>873300</v>
       </c>
       <c r="H61" s="3">
-        <v>875500</v>
+        <v>859100</v>
       </c>
       <c r="I61" s="3">
-        <v>883500</v>
+        <v>860600</v>
       </c>
       <c r="J61" s="3">
+        <v>868600</v>
+      </c>
+      <c r="K61" s="3">
         <v>260000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>164100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>162100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>226000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>233000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>442900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>451500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>456500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>383800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>673300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>691800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>622100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>654600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>430400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>450500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>469800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>270200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>275800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>514300</v>
+        <v>578800</v>
       </c>
       <c r="E62" s="3">
-        <v>510800</v>
+        <v>505600</v>
       </c>
       <c r="F62" s="3">
-        <v>502700</v>
+        <v>502100</v>
       </c>
       <c r="G62" s="3">
-        <v>513700</v>
+        <v>494200</v>
       </c>
       <c r="H62" s="3">
-        <v>465200</v>
+        <v>505000</v>
       </c>
       <c r="I62" s="3">
-        <v>482100</v>
+        <v>457300</v>
       </c>
       <c r="J62" s="3">
+        <v>474000</v>
+      </c>
+      <c r="K62" s="3">
         <v>320300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>330000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>308700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>318000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>285600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>287900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>301700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>266500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>214300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>220900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>203800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>238900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>258000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>299000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>298000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>298600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>327500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5261500</v>
+        <v>5002400</v>
       </c>
       <c r="E66" s="3">
-        <v>5158300</v>
+        <v>5172400</v>
       </c>
       <c r="F66" s="3">
-        <v>5220700</v>
+        <v>5070900</v>
       </c>
       <c r="G66" s="3">
-        <v>4506700</v>
+        <v>5132300</v>
       </c>
       <c r="H66" s="3">
-        <v>4221900</v>
+        <v>4430400</v>
       </c>
       <c r="I66" s="3">
-        <v>4237900</v>
+        <v>4150400</v>
       </c>
       <c r="J66" s="3">
+        <v>4166100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3451400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4890100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3393600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3286300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3460500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3652900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3678400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3891900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3586200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3523300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3713700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3484600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4015600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3919100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4060100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4191700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3764900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4048700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8297100</v>
+        <v>8534600</v>
       </c>
       <c r="E72" s="3">
-        <v>7957900</v>
+        <v>8156600</v>
       </c>
       <c r="F72" s="3">
-        <v>7654500</v>
+        <v>7823200</v>
       </c>
       <c r="G72" s="3">
-        <v>7644200</v>
+        <v>7524900</v>
       </c>
       <c r="H72" s="3">
-        <v>7243700</v>
+        <v>7514700</v>
       </c>
       <c r="I72" s="3">
-        <v>6840300</v>
+        <v>7121000</v>
       </c>
       <c r="J72" s="3">
+        <v>6724400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6407800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6115400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7430600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7113400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6958000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6802400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6608300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7685100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7241700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6959000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6491000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6261500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6576600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6409300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7695400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7362300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6785400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6552600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8897700</v>
+        <v>9201900</v>
       </c>
       <c r="E76" s="3">
-        <v>8517400</v>
+        <v>8747000</v>
       </c>
       <c r="F76" s="3">
-        <v>8161200</v>
+        <v>8373200</v>
       </c>
       <c r="G76" s="3">
-        <v>8108700</v>
+        <v>8022900</v>
       </c>
       <c r="H76" s="3">
-        <v>7708600</v>
+        <v>7971300</v>
       </c>
       <c r="I76" s="3">
-        <v>7311900</v>
+        <v>7578100</v>
       </c>
       <c r="J76" s="3">
+        <v>7188000</v>
+      </c>
+      <c r="K76" s="3">
         <v>6858400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6599900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7914100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7580900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7430900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7258300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7073500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8146500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7686600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7369700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6887600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6605400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6983300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6802900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8133000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7818800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7169800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6970800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>329700</v>
+        <v>372100</v>
       </c>
       <c r="E81" s="3">
-        <v>317900</v>
+        <v>324100</v>
       </c>
       <c r="F81" s="3">
-        <v>382800</v>
+        <v>312500</v>
       </c>
       <c r="G81" s="3">
-        <v>368200</v>
+        <v>376300</v>
       </c>
       <c r="H81" s="3">
-        <v>363400</v>
+        <v>361900</v>
       </c>
       <c r="I81" s="3">
-        <v>400800</v>
+        <v>357300</v>
       </c>
       <c r="J81" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K81" s="3">
         <v>368500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>371400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>318600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>308800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>310100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>330300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>350700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>328000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>336000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>338100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>249700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>280300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>260700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>280100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>316900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>311600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>290700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98800</v>
+        <v>112500</v>
       </c>
       <c r="E83" s="3">
-        <v>96000</v>
+        <v>97100</v>
       </c>
       <c r="F83" s="3">
-        <v>91100</v>
+        <v>94300</v>
       </c>
       <c r="G83" s="3">
-        <v>92500</v>
+        <v>89500</v>
       </c>
       <c r="H83" s="3">
-        <v>95700</v>
+        <v>90900</v>
       </c>
       <c r="I83" s="3">
-        <v>104000</v>
+        <v>94100</v>
       </c>
       <c r="J83" s="3">
+        <v>102300</v>
+      </c>
+      <c r="K83" s="3">
         <v>86700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>99200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>79500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>68100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>69700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>82500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>76300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>71500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>112700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>74600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>595300</v>
+        <v>530400</v>
       </c>
       <c r="E89" s="3">
-        <v>22100</v>
+        <v>585200</v>
       </c>
       <c r="F89" s="3">
-        <v>289100</v>
+        <v>21700</v>
       </c>
       <c r="G89" s="3">
-        <v>372800</v>
+        <v>284200</v>
       </c>
       <c r="H89" s="3">
-        <v>296200</v>
+        <v>366500</v>
       </c>
       <c r="I89" s="3">
-        <v>415800</v>
+        <v>291200</v>
       </c>
       <c r="J89" s="3">
+        <v>408700</v>
+      </c>
+      <c r="K89" s="3">
         <v>214300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>554900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>570200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>540200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>187600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>411100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>374500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>395100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>450100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>480300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>245700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>380900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>108600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>431300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>250800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>427400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>352600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>363600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48100</v>
+        <v>-37600</v>
       </c>
       <c r="E91" s="3">
-        <v>-60300</v>
+        <v>-47200</v>
       </c>
       <c r="F91" s="3">
-        <v>-51900</v>
+        <v>-59300</v>
       </c>
       <c r="G91" s="3">
-        <v>-69800</v>
+        <v>-51100</v>
       </c>
       <c r="H91" s="3">
-        <v>-70800</v>
+        <v>-68600</v>
       </c>
       <c r="I91" s="3">
-        <v>-57400</v>
+        <v>-69600</v>
       </c>
       <c r="J91" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-75800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-52900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-84000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-80100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-75000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-76100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-88400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-93600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-78300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-60800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-57100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-69900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-577800</v>
+        <v>-151400</v>
       </c>
       <c r="E94" s="3">
-        <v>-122800</v>
+        <v>-568000</v>
       </c>
       <c r="F94" s="3">
-        <v>-436600</v>
+        <v>-120700</v>
       </c>
       <c r="G94" s="3">
-        <v>-991300</v>
+        <v>-429200</v>
       </c>
       <c r="H94" s="3">
-        <v>-208800</v>
+        <v>-974500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1147100</v>
+        <v>-205200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1127600</v>
+      </c>
+      <c r="K94" s="3">
         <v>1611300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-668500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-638300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-250700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-377300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-292100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>462200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>692500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-112600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>487600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>315400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-187100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1361700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-239500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-420700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-180600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-689300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-339000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-333200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6989,11 +7222,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-72600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7013,11 +7246,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-78400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7025,16 +7258,19 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-80200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-138900</v>
+        <v>-231100</v>
       </c>
       <c r="E100" s="3">
-        <v>-165700</v>
+        <v>-136500</v>
       </c>
       <c r="F100" s="3">
-        <v>89000</v>
+        <v>-162900</v>
       </c>
       <c r="G100" s="3">
-        <v>184500</v>
+        <v>87500</v>
       </c>
       <c r="H100" s="3">
-        <v>-56600</v>
+        <v>181400</v>
       </c>
       <c r="I100" s="3">
-        <v>360700</v>
+        <v>-55600</v>
       </c>
       <c r="J100" s="3">
+        <v>354600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1440500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-371100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-58000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-120200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-122200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-314000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-76900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-39600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>25200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-262300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>404100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>5900</v>
-      </c>
       <c r="F101" s="3">
-        <v>13800</v>
+        <v>5800</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>13500</v>
       </c>
       <c r="H101" s="3">
-        <v>-12900</v>
+        <v>5100</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
+        <v>-12700</v>
       </c>
       <c r="J101" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>22600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-30800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-121600</v>
+        <v>174000</v>
       </c>
       <c r="E102" s="3">
-        <v>-260500</v>
+        <v>-119500</v>
       </c>
       <c r="F102" s="3">
-        <v>-44800</v>
+        <v>-256100</v>
       </c>
       <c r="G102" s="3">
-        <v>-428700</v>
+        <v>-44000</v>
       </c>
       <c r="H102" s="3">
-        <v>17900</v>
+        <v>-421400</v>
       </c>
       <c r="I102" s="3">
-        <v>-360700</v>
+        <v>17600</v>
       </c>
       <c r="J102" s="3">
+        <v>-354600</v>
+      </c>
+      <c r="K102" s="3">
         <v>375400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-163200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-88800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>196300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-552300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-838700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1138500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>213200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>850200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>124700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>387200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-150600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-25200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>32400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-121200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>84900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2831600</v>
+        <v>2808400</v>
       </c>
       <c r="E8" s="3">
-        <v>2747600</v>
+        <v>2725000</v>
       </c>
       <c r="F8" s="3">
-        <v>2624300</v>
+        <v>2602800</v>
       </c>
       <c r="G8" s="3">
-        <v>2542800</v>
+        <v>2522000</v>
       </c>
       <c r="H8" s="3">
-        <v>2476200</v>
+        <v>2455900</v>
       </c>
       <c r="I8" s="3">
-        <v>2397500</v>
+        <v>2377800</v>
       </c>
       <c r="J8" s="3">
-        <v>2225000</v>
+        <v>2206700</v>
       </c>
       <c r="K8" s="3">
         <v>2014400</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1990300</v>
+        <v>1974000</v>
       </c>
       <c r="E9" s="3">
-        <v>1997100</v>
+        <v>1980800</v>
       </c>
       <c r="F9" s="3">
-        <v>1896800</v>
+        <v>1881200</v>
       </c>
       <c r="G9" s="3">
-        <v>1803700</v>
+        <v>1788900</v>
       </c>
       <c r="H9" s="3">
-        <v>1740500</v>
+        <v>1726200</v>
       </c>
       <c r="I9" s="3">
-        <v>1676900</v>
+        <v>1663100</v>
       </c>
       <c r="J9" s="3">
-        <v>1555000</v>
+        <v>1542300</v>
       </c>
       <c r="K9" s="3">
         <v>1361600</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>841300</v>
+        <v>834400</v>
       </c>
       <c r="E10" s="3">
-        <v>750400</v>
+        <v>744300</v>
       </c>
       <c r="F10" s="3">
-        <v>727600</v>
+        <v>721600</v>
       </c>
       <c r="G10" s="3">
-        <v>739100</v>
+        <v>733100</v>
       </c>
       <c r="H10" s="3">
-        <v>735800</v>
+        <v>729700</v>
       </c>
       <c r="I10" s="3">
-        <v>720600</v>
+        <v>714700</v>
       </c>
       <c r="J10" s="3">
-        <v>669900</v>
+        <v>664400</v>
       </c>
       <c r="K10" s="3">
         <v>652800</v>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1314,25 +1314,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="E15" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="F15" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="G15" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="H15" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="I15" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="J15" s="3">
-        <v>34000</v>
+        <v>33800</v>
       </c>
       <c r="K15" s="3">
         <v>20000</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2372800</v>
+        <v>2353400</v>
       </c>
       <c r="E17" s="3">
-        <v>2351400</v>
+        <v>2332100</v>
       </c>
       <c r="F17" s="3">
-        <v>2235600</v>
+        <v>2217300</v>
       </c>
       <c r="G17" s="3">
-        <v>2114800</v>
+        <v>2097500</v>
       </c>
       <c r="H17" s="3">
-        <v>2043100</v>
+        <v>2026300</v>
       </c>
       <c r="I17" s="3">
-        <v>1971800</v>
+        <v>1955600</v>
       </c>
       <c r="J17" s="3">
-        <v>1801700</v>
+        <v>1787000</v>
       </c>
       <c r="K17" s="3">
         <v>1590800</v>
@@ -1508,25 +1508,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>458800</v>
+        <v>455000</v>
       </c>
       <c r="E18" s="3">
-        <v>396200</v>
+        <v>393000</v>
       </c>
       <c r="F18" s="3">
-        <v>388700</v>
+        <v>385600</v>
       </c>
       <c r="G18" s="3">
-        <v>428000</v>
+        <v>424500</v>
       </c>
       <c r="H18" s="3">
-        <v>433200</v>
+        <v>429600</v>
       </c>
       <c r="I18" s="3">
-        <v>425700</v>
+        <v>422200</v>
       </c>
       <c r="J18" s="3">
-        <v>423200</v>
+        <v>419800</v>
       </c>
       <c r="K18" s="3">
         <v>423700</v>
@@ -1622,25 +1622,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>61200</v>
+        <v>60700</v>
       </c>
       <c r="E20" s="3">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="F20" s="3">
-        <v>44800</v>
+        <v>44400</v>
       </c>
       <c r="G20" s="3">
-        <v>47900</v>
+        <v>47500</v>
       </c>
       <c r="H20" s="3">
-        <v>44500</v>
+        <v>44200</v>
       </c>
       <c r="I20" s="3">
-        <v>50000</v>
+        <v>49600</v>
       </c>
       <c r="J20" s="3">
-        <v>56400</v>
+        <v>55900</v>
       </c>
       <c r="K20" s="3">
         <v>53500</v>
@@ -1705,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>632500</v>
+        <v>627300</v>
       </c>
       <c r="E21" s="3">
-        <v>541700</v>
+        <v>537300</v>
       </c>
       <c r="F21" s="3">
-        <v>527900</v>
+        <v>523500</v>
       </c>
       <c r="G21" s="3">
-        <v>565400</v>
+        <v>560800</v>
       </c>
       <c r="H21" s="3">
-        <v>568600</v>
+        <v>564000</v>
       </c>
       <c r="I21" s="3">
-        <v>569800</v>
+        <v>565100</v>
       </c>
       <c r="J21" s="3">
-        <v>581900</v>
+        <v>577100</v>
       </c>
       <c r="K21" s="3">
         <v>563900</v>
@@ -1788,25 +1788,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="E22" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="F22" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="G22" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="H22" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="I22" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="J22" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K22" s="3">
         <v>12200</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>484600</v>
+        <v>480600</v>
       </c>
       <c r="E23" s="3">
-        <v>416900</v>
+        <v>413500</v>
       </c>
       <c r="F23" s="3">
-        <v>408600</v>
+        <v>405300</v>
       </c>
       <c r="G23" s="3">
-        <v>455000</v>
+        <v>451200</v>
       </c>
       <c r="H23" s="3">
-        <v>460600</v>
+        <v>456800</v>
       </c>
       <c r="I23" s="3">
-        <v>457900</v>
+        <v>454200</v>
       </c>
       <c r="J23" s="3">
-        <v>470500</v>
+        <v>466700</v>
       </c>
       <c r="K23" s="3">
         <v>465000</v>
@@ -1954,25 +1954,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>111000</v>
+        <v>110000</v>
       </c>
       <c r="E24" s="3">
-        <v>94000</v>
+        <v>93200</v>
       </c>
       <c r="F24" s="3">
-        <v>96700</v>
+        <v>95900</v>
       </c>
       <c r="G24" s="3">
-        <v>78000</v>
+        <v>77400</v>
       </c>
       <c r="H24" s="3">
-        <v>98300</v>
+        <v>97500</v>
       </c>
       <c r="I24" s="3">
-        <v>100700</v>
+        <v>99900</v>
       </c>
       <c r="J24" s="3">
-        <v>75900</v>
+        <v>75300</v>
       </c>
       <c r="K24" s="3">
         <v>96200</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>373600</v>
+        <v>370600</v>
       </c>
       <c r="E26" s="3">
-        <v>322900</v>
+        <v>320300</v>
       </c>
       <c r="F26" s="3">
-        <v>311900</v>
+        <v>309400</v>
       </c>
       <c r="G26" s="3">
-        <v>377000</v>
+        <v>373900</v>
       </c>
       <c r="H26" s="3">
-        <v>362300</v>
+        <v>359400</v>
       </c>
       <c r="I26" s="3">
-        <v>357200</v>
+        <v>354300</v>
       </c>
       <c r="J26" s="3">
-        <v>394700</v>
+        <v>391400</v>
       </c>
       <c r="K26" s="3">
         <v>368800</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>372100</v>
+        <v>369100</v>
       </c>
       <c r="E27" s="3">
-        <v>324100</v>
+        <v>321500</v>
       </c>
       <c r="F27" s="3">
-        <v>312500</v>
+        <v>309900</v>
       </c>
       <c r="G27" s="3">
-        <v>376300</v>
+        <v>373300</v>
       </c>
       <c r="H27" s="3">
-        <v>361900</v>
+        <v>359000</v>
       </c>
       <c r="I27" s="3">
-        <v>357300</v>
+        <v>354300</v>
       </c>
       <c r="J27" s="3">
-        <v>394000</v>
+        <v>390800</v>
       </c>
       <c r="K27" s="3">
         <v>368500</v>
@@ -2618,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-61200</v>
+        <v>-60700</v>
       </c>
       <c r="E32" s="3">
-        <v>-48400</v>
+        <v>-48000</v>
       </c>
       <c r="F32" s="3">
-        <v>-44800</v>
+        <v>-44400</v>
       </c>
       <c r="G32" s="3">
-        <v>-47900</v>
+        <v>-47500</v>
       </c>
       <c r="H32" s="3">
-        <v>-44500</v>
+        <v>-44200</v>
       </c>
       <c r="I32" s="3">
-        <v>-50000</v>
+        <v>-49600</v>
       </c>
       <c r="J32" s="3">
-        <v>-56400</v>
+        <v>-55900</v>
       </c>
       <c r="K32" s="3">
         <v>-53500</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>372100</v>
+        <v>369100</v>
       </c>
       <c r="E33" s="3">
-        <v>324100</v>
+        <v>321500</v>
       </c>
       <c r="F33" s="3">
-        <v>312500</v>
+        <v>309900</v>
       </c>
       <c r="G33" s="3">
-        <v>376300</v>
+        <v>373300</v>
       </c>
       <c r="H33" s="3">
-        <v>361900</v>
+        <v>359000</v>
       </c>
       <c r="I33" s="3">
-        <v>357300</v>
+        <v>354300</v>
       </c>
       <c r="J33" s="3">
-        <v>394000</v>
+        <v>390800</v>
       </c>
       <c r="K33" s="3">
         <v>368500</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>372100</v>
+        <v>369100</v>
       </c>
       <c r="E35" s="3">
-        <v>324100</v>
+        <v>321500</v>
       </c>
       <c r="F35" s="3">
-        <v>312500</v>
+        <v>309900</v>
       </c>
       <c r="G35" s="3">
-        <v>376300</v>
+        <v>373300</v>
       </c>
       <c r="H35" s="3">
-        <v>361900</v>
+        <v>359000</v>
       </c>
       <c r="I35" s="3">
-        <v>357300</v>
+        <v>354300</v>
       </c>
       <c r="J35" s="3">
-        <v>394000</v>
+        <v>390800</v>
       </c>
       <c r="K35" s="3">
         <v>368500</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1064300</v>
+        <v>1055500</v>
       </c>
       <c r="E41" s="3">
-        <v>890200</v>
+        <v>882800</v>
       </c>
       <c r="F41" s="3">
-        <v>1009700</v>
+        <v>1001400</v>
       </c>
       <c r="G41" s="3">
-        <v>1265800</v>
+        <v>1255400</v>
       </c>
       <c r="H41" s="3">
-        <v>1309900</v>
+        <v>1299200</v>
       </c>
       <c r="I41" s="3">
-        <v>1731300</v>
+        <v>1717100</v>
       </c>
       <c r="J41" s="3">
-        <v>1714100</v>
+        <v>1700100</v>
       </c>
       <c r="K41" s="3">
         <v>2105400</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3553300</v>
+        <v>3524100</v>
       </c>
       <c r="E42" s="3">
-        <v>3339100</v>
+        <v>3311700</v>
       </c>
       <c r="F42" s="3">
-        <v>2753800</v>
+        <v>2731200</v>
       </c>
       <c r="G42" s="3">
-        <v>2937800</v>
+        <v>2913700</v>
       </c>
       <c r="H42" s="3">
-        <v>2865800</v>
+        <v>2842300</v>
       </c>
       <c r="I42" s="3">
-        <v>2136000</v>
+        <v>2118400</v>
       </c>
       <c r="J42" s="3">
-        <v>2028600</v>
+        <v>2011900</v>
       </c>
       <c r="K42" s="3">
         <v>2171100</v>
@@ -3266,25 +3266,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2792500</v>
+        <v>2769600</v>
       </c>
       <c r="E43" s="3">
-        <v>2895800</v>
+        <v>2872100</v>
       </c>
       <c r="F43" s="3">
-        <v>2985000</v>
+        <v>2960500</v>
       </c>
       <c r="G43" s="3">
-        <v>3044800</v>
+        <v>3019800</v>
       </c>
       <c r="H43" s="3">
-        <v>2431400</v>
+        <v>2411500</v>
       </c>
       <c r="I43" s="3">
-        <v>2317300</v>
+        <v>2298300</v>
       </c>
       <c r="J43" s="3">
-        <v>2175600</v>
+        <v>2157800</v>
       </c>
       <c r="K43" s="3">
         <v>1930000</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24600</v>
+        <v>24400</v>
       </c>
       <c r="E44" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="F44" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="G44" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="H44" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="I44" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J44" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="K44" s="3">
         <v>13200</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>347200</v>
+        <v>344300</v>
       </c>
       <c r="E45" s="3">
-        <v>391200</v>
+        <v>387900</v>
       </c>
       <c r="F45" s="3">
-        <v>363100</v>
+        <v>360200</v>
       </c>
       <c r="G45" s="3">
-        <v>302300</v>
+        <v>299900</v>
       </c>
       <c r="H45" s="3">
-        <v>337800</v>
+        <v>335000</v>
       </c>
       <c r="I45" s="3">
-        <v>292200</v>
+        <v>289800</v>
       </c>
       <c r="J45" s="3">
-        <v>267200</v>
+        <v>265000</v>
       </c>
       <c r="K45" s="3">
         <v>267800</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7781800</v>
+        <v>7718000</v>
       </c>
       <c r="E46" s="3">
-        <v>7540700</v>
+        <v>7478900</v>
       </c>
       <c r="F46" s="3">
-        <v>7132000</v>
+        <v>7073500</v>
       </c>
       <c r="G46" s="3">
-        <v>7567000</v>
+        <v>7504900</v>
       </c>
       <c r="H46" s="3">
-        <v>6957400</v>
+        <v>6900400</v>
       </c>
       <c r="I46" s="3">
-        <v>6486200</v>
+        <v>6433000</v>
       </c>
       <c r="J46" s="3">
-        <v>6197000</v>
+        <v>6146200</v>
       </c>
       <c r="K46" s="3">
         <v>6487500</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>533800</v>
+        <v>529400</v>
       </c>
       <c r="E47" s="3">
-        <v>521900</v>
+        <v>517600</v>
       </c>
       <c r="F47" s="3">
-        <v>527400</v>
+        <v>523100</v>
       </c>
       <c r="G47" s="3">
-        <v>499600</v>
+        <v>495500</v>
       </c>
       <c r="H47" s="3">
-        <v>437500</v>
+        <v>433900</v>
       </c>
       <c r="I47" s="3">
-        <v>452000</v>
+        <v>448300</v>
       </c>
       <c r="J47" s="3">
-        <v>432400</v>
+        <v>428800</v>
       </c>
       <c r="K47" s="3">
         <v>456400</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1335100</v>
+        <v>1324200</v>
       </c>
       <c r="E48" s="3">
-        <v>1347700</v>
+        <v>1336700</v>
       </c>
       <c r="F48" s="3">
-        <v>1346600</v>
+        <v>1335500</v>
       </c>
       <c r="G48" s="3">
-        <v>1338100</v>
+        <v>1327100</v>
       </c>
       <c r="H48" s="3">
-        <v>1325000</v>
+        <v>1314100</v>
       </c>
       <c r="I48" s="3">
-        <v>1305800</v>
+        <v>1295100</v>
       </c>
       <c r="J48" s="3">
-        <v>1298500</v>
+        <v>1287900</v>
       </c>
       <c r="K48" s="3">
         <v>1260000</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4332000</v>
+        <v>4296400</v>
       </c>
       <c r="E49" s="3">
-        <v>4277700</v>
+        <v>4242600</v>
       </c>
       <c r="F49" s="3">
-        <v>4209500</v>
+        <v>4175000</v>
       </c>
       <c r="G49" s="3">
-        <v>3541700</v>
+        <v>3512700</v>
       </c>
       <c r="H49" s="3">
-        <v>3501800</v>
+        <v>3473000</v>
       </c>
       <c r="I49" s="3">
-        <v>3310500</v>
+        <v>3283300</v>
       </c>
       <c r="J49" s="3">
-        <v>3248800</v>
+        <v>3222200</v>
       </c>
       <c r="K49" s="3">
         <v>1887400</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>221600</v>
+        <v>219700</v>
       </c>
       <c r="E52" s="3">
-        <v>231400</v>
+        <v>229500</v>
       </c>
       <c r="F52" s="3">
-        <v>228500</v>
+        <v>226700</v>
       </c>
       <c r="G52" s="3">
-        <v>208800</v>
+        <v>207100</v>
       </c>
       <c r="H52" s="3">
-        <v>180000</v>
+        <v>178600</v>
       </c>
       <c r="I52" s="3">
-        <v>174000</v>
+        <v>172500</v>
       </c>
       <c r="J52" s="3">
-        <v>177400</v>
+        <v>176000</v>
       </c>
       <c r="K52" s="3">
         <v>218500</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14204300</v>
+        <v>14087800</v>
       </c>
       <c r="E54" s="3">
-        <v>13919400</v>
+        <v>13805200</v>
       </c>
       <c r="F54" s="3">
-        <v>13444100</v>
+        <v>13333800</v>
       </c>
       <c r="G54" s="3">
-        <v>13155200</v>
+        <v>13047300</v>
       </c>
       <c r="H54" s="3">
-        <v>12401700</v>
+        <v>12300000</v>
       </c>
       <c r="I54" s="3">
-        <v>11728500</v>
+        <v>11632200</v>
       </c>
       <c r="J54" s="3">
-        <v>11354200</v>
+        <v>11261000</v>
       </c>
       <c r="K54" s="3">
         <v>10309800</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1092400</v>
+        <v>1083400</v>
       </c>
       <c r="E57" s="3">
-        <v>1109100</v>
+        <v>1100000</v>
       </c>
       <c r="F57" s="3">
-        <v>1078600</v>
+        <v>1069700</v>
       </c>
       <c r="G57" s="3">
-        <v>1207200</v>
+        <v>1197300</v>
       </c>
       <c r="H57" s="3">
-        <v>1066700</v>
+        <v>1057900</v>
       </c>
       <c r="I57" s="3">
-        <v>1106600</v>
+        <v>1097600</v>
       </c>
       <c r="J57" s="3">
-        <v>1084200</v>
+        <v>1075300</v>
       </c>
       <c r="K57" s="3">
         <v>978000</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1289800</v>
+        <v>1279300</v>
       </c>
       <c r="E58" s="3">
-        <v>1444100</v>
+        <v>1432300</v>
       </c>
       <c r="F58" s="3">
-        <v>1511300</v>
+        <v>1498900</v>
       </c>
       <c r="G58" s="3">
-        <v>1271300</v>
+        <v>1260900</v>
       </c>
       <c r="H58" s="3">
-        <v>1062300</v>
+        <v>1053600</v>
       </c>
       <c r="I58" s="3">
-        <v>824100</v>
+        <v>817400</v>
       </c>
       <c r="J58" s="3">
-        <v>840100</v>
+        <v>833200</v>
       </c>
       <c r="K58" s="3">
         <v>1035900</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1094900</v>
+        <v>1085900</v>
       </c>
       <c r="E59" s="3">
-        <v>1181600</v>
+        <v>1171900</v>
       </c>
       <c r="F59" s="3">
-        <v>1073000</v>
+        <v>1064200</v>
       </c>
       <c r="G59" s="3">
-        <v>1280000</v>
+        <v>1269500</v>
       </c>
       <c r="H59" s="3">
-        <v>931800</v>
+        <v>924200</v>
       </c>
       <c r="I59" s="3">
-        <v>888400</v>
+        <v>881100</v>
       </c>
       <c r="J59" s="3">
-        <v>886000</v>
+        <v>878700</v>
       </c>
       <c r="K59" s="3">
         <v>838600</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3477100</v>
+        <v>3448600</v>
       </c>
       <c r="E60" s="3">
-        <v>3734800</v>
+        <v>3704200</v>
       </c>
       <c r="F60" s="3">
-        <v>3662900</v>
+        <v>3632900</v>
       </c>
       <c r="G60" s="3">
-        <v>3758500</v>
+        <v>3727700</v>
       </c>
       <c r="H60" s="3">
-        <v>3060900</v>
+        <v>3035800</v>
       </c>
       <c r="I60" s="3">
-        <v>2819200</v>
+        <v>2796000</v>
       </c>
       <c r="J60" s="3">
-        <v>2810200</v>
+        <v>2787200</v>
       </c>
       <c r="K60" s="3">
         <v>2852500</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>941500</v>
+        <v>933800</v>
       </c>
       <c r="E61" s="3">
-        <v>927900</v>
+        <v>920300</v>
       </c>
       <c r="F61" s="3">
-        <v>900800</v>
+        <v>893400</v>
       </c>
       <c r="G61" s="3">
-        <v>873300</v>
+        <v>866100</v>
       </c>
       <c r="H61" s="3">
-        <v>859100</v>
+        <v>852000</v>
       </c>
       <c r="I61" s="3">
-        <v>860600</v>
+        <v>853600</v>
       </c>
       <c r="J61" s="3">
-        <v>868600</v>
+        <v>861500</v>
       </c>
       <c r="K61" s="3">
         <v>260000</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>578800</v>
+        <v>574000</v>
       </c>
       <c r="E62" s="3">
-        <v>505600</v>
+        <v>501500</v>
       </c>
       <c r="F62" s="3">
-        <v>502100</v>
+        <v>498000</v>
       </c>
       <c r="G62" s="3">
-        <v>494200</v>
+        <v>490100</v>
       </c>
       <c r="H62" s="3">
-        <v>505000</v>
+        <v>500900</v>
       </c>
       <c r="I62" s="3">
-        <v>457300</v>
+        <v>453600</v>
       </c>
       <c r="J62" s="3">
-        <v>474000</v>
+        <v>470100</v>
       </c>
       <c r="K62" s="3">
         <v>320300</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5002400</v>
+        <v>4961300</v>
       </c>
       <c r="E66" s="3">
-        <v>5172400</v>
+        <v>5129900</v>
       </c>
       <c r="F66" s="3">
-        <v>5070900</v>
+        <v>5029300</v>
       </c>
       <c r="G66" s="3">
-        <v>5132300</v>
+        <v>5090200</v>
       </c>
       <c r="H66" s="3">
-        <v>4430400</v>
+        <v>4394100</v>
       </c>
       <c r="I66" s="3">
-        <v>4150400</v>
+        <v>4116300</v>
       </c>
       <c r="J66" s="3">
-        <v>4166100</v>
+        <v>4132000</v>
       </c>
       <c r="K66" s="3">
         <v>3451400</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8534600</v>
+        <v>8464600</v>
       </c>
       <c r="E72" s="3">
-        <v>8156600</v>
+        <v>8089700</v>
       </c>
       <c r="F72" s="3">
-        <v>7823200</v>
+        <v>7759000</v>
       </c>
       <c r="G72" s="3">
-        <v>7524900</v>
+        <v>7463200</v>
       </c>
       <c r="H72" s="3">
-        <v>7514700</v>
+        <v>7453100</v>
       </c>
       <c r="I72" s="3">
-        <v>7121000</v>
+        <v>7062600</v>
       </c>
       <c r="J72" s="3">
-        <v>6724400</v>
+        <v>6669300</v>
       </c>
       <c r="K72" s="3">
         <v>6407800</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9201900</v>
+        <v>9126400</v>
       </c>
       <c r="E76" s="3">
-        <v>8747000</v>
+        <v>8675300</v>
       </c>
       <c r="F76" s="3">
-        <v>8373200</v>
+        <v>8304500</v>
       </c>
       <c r="G76" s="3">
-        <v>8022900</v>
+        <v>7957100</v>
       </c>
       <c r="H76" s="3">
-        <v>7971300</v>
+        <v>7906000</v>
       </c>
       <c r="I76" s="3">
-        <v>7578100</v>
+        <v>7515900</v>
       </c>
       <c r="J76" s="3">
-        <v>7188000</v>
+        <v>7129100</v>
       </c>
       <c r="K76" s="3">
         <v>6858400</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>372100</v>
+        <v>369100</v>
       </c>
       <c r="E81" s="3">
-        <v>324100</v>
+        <v>321500</v>
       </c>
       <c r="F81" s="3">
-        <v>312500</v>
+        <v>309900</v>
       </c>
       <c r="G81" s="3">
-        <v>376300</v>
+        <v>373300</v>
       </c>
       <c r="H81" s="3">
-        <v>361900</v>
+        <v>359000</v>
       </c>
       <c r="I81" s="3">
-        <v>357300</v>
+        <v>354300</v>
       </c>
       <c r="J81" s="3">
-        <v>394000</v>
+        <v>390800</v>
       </c>
       <c r="K81" s="3">
         <v>368500</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>112500</v>
+        <v>111600</v>
       </c>
       <c r="E83" s="3">
-        <v>97100</v>
+        <v>96300</v>
       </c>
       <c r="F83" s="3">
-        <v>94300</v>
+        <v>93600</v>
       </c>
       <c r="G83" s="3">
-        <v>89500</v>
+        <v>88800</v>
       </c>
       <c r="H83" s="3">
-        <v>90900</v>
+        <v>90200</v>
       </c>
       <c r="I83" s="3">
-        <v>94100</v>
+        <v>93300</v>
       </c>
       <c r="J83" s="3">
-        <v>102300</v>
+        <v>101400</v>
       </c>
       <c r="K83" s="3">
         <v>86700</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>530400</v>
+        <v>526000</v>
       </c>
       <c r="E89" s="3">
-        <v>585200</v>
+        <v>580400</v>
       </c>
       <c r="F89" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="G89" s="3">
-        <v>284200</v>
+        <v>281900</v>
       </c>
       <c r="H89" s="3">
-        <v>366500</v>
+        <v>363500</v>
       </c>
       <c r="I89" s="3">
-        <v>291200</v>
+        <v>288800</v>
       </c>
       <c r="J89" s="3">
-        <v>408700</v>
+        <v>405400</v>
       </c>
       <c r="K89" s="3">
         <v>214300</v>
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37600</v>
+        <v>-3082000</v>
       </c>
       <c r="E91" s="3">
-        <v>-47200</v>
+        <v>-3875000</v>
       </c>
       <c r="F91" s="3">
-        <v>-59300</v>
+        <v>-4862000</v>
       </c>
       <c r="G91" s="3">
-        <v>-51100</v>
+        <v>-4188000</v>
       </c>
       <c r="H91" s="3">
-        <v>-68600</v>
+        <v>-5626000</v>
       </c>
       <c r="I91" s="3">
-        <v>-69600</v>
+        <v>-5709000</v>
       </c>
       <c r="J91" s="3">
-        <v>-56400</v>
+        <v>-4630000</v>
       </c>
       <c r="K91" s="3">
         <v>-75800</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151400</v>
+        <v>-150100</v>
       </c>
       <c r="E94" s="3">
-        <v>-568000</v>
+        <v>-563300</v>
       </c>
       <c r="F94" s="3">
-        <v>-120700</v>
+        <v>-119700</v>
       </c>
       <c r="G94" s="3">
-        <v>-429200</v>
+        <v>-425700</v>
       </c>
       <c r="H94" s="3">
-        <v>-974500</v>
+        <v>-966500</v>
       </c>
       <c r="I94" s="3">
-        <v>-205200</v>
+        <v>-203600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1127600</v>
+        <v>-1118400</v>
       </c>
       <c r="K94" s="3">
         <v>1611300</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-333200</v>
+        <v>-330500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-231100</v>
+        <v>-229200</v>
       </c>
       <c r="E100" s="3">
-        <v>-136500</v>
+        <v>-135400</v>
       </c>
       <c r="F100" s="3">
-        <v>-162900</v>
+        <v>-161600</v>
       </c>
       <c r="G100" s="3">
-        <v>87500</v>
+        <v>86800</v>
       </c>
       <c r="H100" s="3">
-        <v>181400</v>
+        <v>179900</v>
       </c>
       <c r="I100" s="3">
-        <v>-55600</v>
+        <v>-55200</v>
       </c>
       <c r="J100" s="3">
-        <v>354600</v>
+        <v>351700</v>
       </c>
       <c r="K100" s="3">
         <v>-1440500</v>
@@ -7607,25 +7607,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G101" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="H101" s="3">
         <v>5100</v>
       </c>
       <c r="I101" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="J101" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="K101" s="3">
         <v>-9600</v>
@@ -7690,25 +7690,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>174000</v>
+        <v>172600</v>
       </c>
       <c r="E102" s="3">
-        <v>-119500</v>
+        <v>-118500</v>
       </c>
       <c r="F102" s="3">
-        <v>-256100</v>
+        <v>-254000</v>
       </c>
       <c r="G102" s="3">
-        <v>-44000</v>
+        <v>-43700</v>
       </c>
       <c r="H102" s="3">
-        <v>-421400</v>
+        <v>-418000</v>
       </c>
       <c r="I102" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="J102" s="3">
-        <v>-354600</v>
+        <v>-351700</v>
       </c>
       <c r="K102" s="3">
         <v>375400</v>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2760300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2803700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2808400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2725000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2602800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2522000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2455900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2377800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2206700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2014400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1961900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1952800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1926800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2094300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2080800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2078300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2022000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2030400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2028500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1922300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1847900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1990900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1976500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1941000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1970300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1927500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1886200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1949600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1967500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1974000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1980800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1881200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1788900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1726200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1663100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1542300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1361600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1306000</v>
       </c>
       <c r="M9" s="3">
         <v>1361600</v>
       </c>
       <c r="N9" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1361600</v>
+      </c>
+      <c r="P9" s="3">
         <v>1339800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1521400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1475100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1484000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1432700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1446900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1400500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1345400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1326600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1414100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1387800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1369300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1404200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1388600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1330800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>810600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>836200</v>
+      </c>
+      <c r="F10" s="3">
         <v>834400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>744300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>721600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>733100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>729700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>714700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>664400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>652800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>655900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>591200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>587000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>572900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>605700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>594300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>589300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>583400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>628000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>576900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>521200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>576800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>588700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>571700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>566100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>538900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>555400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,19 +1259,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F14" s="3">
         <v>14100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1254,17 +1294,17 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>20400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1275,124 +1315,136 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>-4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>11200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-33600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>9300</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>2800</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F15" s="3">
         <v>26100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>25700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>22900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>19800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>20100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>25600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>33800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>20000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>13900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>13200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>12200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>11500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>10400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>10200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>11000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>12100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>11600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>11300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>13000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>12800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>11300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>12500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>6200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2349400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2353400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2332100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2217300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2097500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2026300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1955600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1787000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1590800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1538500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1589300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1578700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1742500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1714500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1710900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1673400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1660700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1642400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1649800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1539700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1710600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1690600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1607900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1650900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1585300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1566000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>454300</v>
+      </c>
+      <c r="F18" s="3">
         <v>455000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>393000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>385600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>424500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>429600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>422200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>419800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>423700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>423300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>363500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>348000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>351800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>366300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>367300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>348600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>369600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>386200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>272500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>308100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>280300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>285900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>333200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>319500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>342100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>320200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1682,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F20" s="3">
         <v>60700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>48000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>44400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>47500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>44200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>49600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>55900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>53500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>73800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>65000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>64800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>59100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>64900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>82900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>91000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>92000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>66000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>62300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>62200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>65200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>82600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>86600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>78400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>71100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>65200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>585700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>622800</v>
+      </c>
+      <c r="F21" s="3">
         <v>627300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>537300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>523500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>560800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>564000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>565100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>577100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>563900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>596400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>513500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>492300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>488200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>502400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>516400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>507700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>537300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>521900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>392600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>427600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>428000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>444800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>495000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>469300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>526000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>460000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F22" s="3">
         <v>35100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>27400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>24700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>20800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>15300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>14100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>15600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>17000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>19600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>17500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>28700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>15600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>14900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>16000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>18500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>11100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>10300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>10100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>8000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>5300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>485800</v>
+      </c>
+      <c r="F23" s="3">
         <v>480600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>413500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>405300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>451200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>456800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>454200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>466700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>465000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>481900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>414400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>399900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>395300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>414200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>430700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>422100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>433000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>436600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>320000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>354300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>327100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>357400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>409500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>387800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>405300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>380100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>111800</v>
+      </c>
+      <c r="F24" s="3">
         <v>110000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>93200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>95900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>77400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>97500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>99900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>75300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>96200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>106700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>93400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>88300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>82700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>82900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>78700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>92000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>95600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>93800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>70700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>77500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>89300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>77400</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>92900</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>86700</v>
       </c>
       <c r="AA24" s="3">
         <v>92900</v>
       </c>
       <c r="AB24" s="3">
+        <v>86700</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>92900</v>
+      </c>
+      <c r="AD24" s="3">
         <v>88700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>374000</v>
+      </c>
+      <c r="F26" s="3">
         <v>370600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>320300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>309400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>373900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>359400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>354300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>391400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>368800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>375200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>321000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>311500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>312600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>331300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>351900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>330000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>337400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>342700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>249300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>276800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>237800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>279900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>316600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>301100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>312400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>291400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>371700</v>
+      </c>
+      <c r="F27" s="3">
         <v>369100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>321500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>309900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>373300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>359000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>354300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>390800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>368500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>371400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>318600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>308800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>310100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>330300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>350700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>328000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>336000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>338100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>249700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>280300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>238100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>280100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>316900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>300300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>311600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>290700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2407,11 +2529,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2425,14 +2547,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>22600</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>22600</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-60700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-48000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-44400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-47500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-44200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-49600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-55900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-53500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-73800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-65000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-64800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-59100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-82900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-91000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-92000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-66000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-62300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-62200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-65200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-82600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-86600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-78400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-71100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-65200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>371700</v>
+      </c>
+      <c r="F33" s="3">
         <v>369100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>321500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>309900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>373300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>359000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>354300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>390800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>368500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>371400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>318600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>308800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>310100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>330300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>350700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>328000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>336000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>338100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>249700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>280300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>260700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>280100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>316900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>300300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>311600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>290700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>371700</v>
+      </c>
+      <c r="F35" s="3">
         <v>369100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>321500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>309900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>373300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>359000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>354300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>390800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>368500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>371400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>318600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>308800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>310100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>330300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>350700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>328000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>336000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>338100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>249700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>280300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>260700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>280100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>316900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>300300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>311600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>290700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3266,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1010900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1055500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>882800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1001400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1255400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1299200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1717100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2105400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1745700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1969300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2060000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1926200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2510300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2479300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3316900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2144900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1923100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1055200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>934500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>649600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>752900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>743400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>785400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>726300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>826000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4088900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3730700</v>
+      </c>
+      <c r="F42" s="3">
         <v>3524100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3311700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2731200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2913700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2842300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2118400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2011900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2171100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3911300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3328600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2752700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2517200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2198700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1995900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2499100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3208200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2882400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3289300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>3314600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3634700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>3462900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>4840800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>4623800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>4049700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>3766400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2725800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2814300</v>
+      </c>
+      <c r="F43" s="3">
         <v>2769600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2872100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2960500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3019800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2411500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2298300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2157800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1930000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1850800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1928700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2005500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2218600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2155600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2228800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2233700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2060000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2087400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2217600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2046700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2182200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2212900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2257800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>2283300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>2125900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>2321200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F44" s="3">
         <v>24400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>24300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>20300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>16100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>12400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>9400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>15100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>16900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>21200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>66500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>59300</v>
       </c>
       <c r="Q44" s="3">
         <v>66500</v>
       </c>
       <c r="R44" s="3">
+        <v>59300</v>
+      </c>
+      <c r="S44" s="3">
+        <v>66500</v>
+      </c>
+      <c r="T44" s="3">
         <v>94100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>97400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>92900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>80200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>74400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>75000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>62600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>74900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>68200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>73900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>97500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>513300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F45" s="3">
         <v>344300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>387900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>360200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>299900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>335000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>289800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>265000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>267800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>251500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>240400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>229200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>201100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>193000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>225900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>253400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>227300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>277200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>300500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>292600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>777400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>399600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>371700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>412900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>450200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>382100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8355500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7992700</v>
+      </c>
+      <c r="F46" s="3">
         <v>7718000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7478900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7073500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7504900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6900400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6433000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6146200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6487500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7774400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7483900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7068700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6929600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7117000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6996300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8397100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7737900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7263000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6942800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6662800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7319000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6890800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8288700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>8173700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>7426000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>7393100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>496800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>491000</v>
+      </c>
+      <c r="F47" s="3">
         <v>529400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>517600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>523100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>495500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>433900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>448300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>428800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>456400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>443500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>463900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>445800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>457600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>489000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>404500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>406400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>555300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>487600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>483100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>457200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>514800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>469000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>460600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>450600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>355300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>349500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1268400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1324200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1336700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1335500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1327100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1314100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1295100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1287900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1260000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1237000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1252300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1264400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1304600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1267800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1256000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1205500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>955200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>945700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>903900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>864000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>939300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1039900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1038300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1027000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>961800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>969600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4208800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4243800</v>
+      </c>
+      <c r="F49" s="3">
         <v>4296400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4242600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4175000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3512700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3473000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3283300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3222200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1887400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1870200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1944300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1900500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1964500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1860600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1848600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1786500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1768900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1867400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1930800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1843900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1962200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2115800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2160500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2053400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1952900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2076300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>190200</v>
+      </c>
+      <c r="F52" s="3">
         <v>219700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>229500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>226700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>207100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>178600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>172500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>176000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>218500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>165000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>163400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>187800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>235100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>176900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>246400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>242900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>255500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>329200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>340700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>262000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>263500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>206300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>245100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>305700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>238700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>230900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14515400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14215700</v>
+      </c>
+      <c r="F54" s="3">
         <v>14087800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13805200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13333800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13047300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12300000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11632200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11261000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10309800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11490000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11307800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10867100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10891400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10911200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10751900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12038400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11272800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10892900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10601300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10090000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10998900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10722000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>12193100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>12010400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>10934700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>11019400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>976100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1076700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1083400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1069700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1197300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1057900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1097600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1075300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>978000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1044900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1059700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>969700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1041500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1083700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1147100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1154700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1194800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1067800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1121000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>998500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>985100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1031000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1007000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1068700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>902400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>956000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1177800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1178100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1279300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1432300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1498900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1260900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1053600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>817400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>833200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1035900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1011100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1054000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>989300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1063200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1059400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1077100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1203900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>962000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>725500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>829200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>934200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1344600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1477300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1651500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1644300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1692200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1878400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2714400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>982400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1085900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1171900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1064200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1269500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>924200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>881100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>878700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>838600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2321400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>802000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>778800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>779800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>760000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>694200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>737100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>743400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>807900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>820200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>697200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>757500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>687900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>616800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>675700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>568500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>577000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4868200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3237100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3448600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3704200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3632900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3727700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3035800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2796000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2787200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2852500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4377400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2915700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2737800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2884500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2903100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2918400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3095600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2900200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2601200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2770400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2629900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3087300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3196200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3275200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3388700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>3163100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3411400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>934300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>933700</v>
+      </c>
+      <c r="F61" s="3">
         <v>933800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>920300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>893400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>866100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>852000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>853600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>861500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>260000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>164100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>162100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>226000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>233000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>442900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>451500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>456500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>383800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>673300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>691800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>622100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>654600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>430400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>450500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>469800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>270200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>275800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>616800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>593500</v>
+      </c>
+      <c r="F62" s="3">
         <v>574000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>501500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>498000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>490100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>453600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>470100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>320300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>330000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>308700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>318000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>285600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>287900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>301700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>266500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>214300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>220900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>203800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>238900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>258000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>299000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>298000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>298600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>327500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6426900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4771400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4961300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5129900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5029300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5090200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4394100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4116300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4132000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3451400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4890100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3393600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3286300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3460500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3652900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3678400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3891900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3586200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3523300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3713700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3484600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4015600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3919100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4060100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4191700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3764900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4048700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7377400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8761000</v>
+      </c>
+      <c r="F72" s="3">
         <v>8464600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8089700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7759000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7463200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7453100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7062600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6669300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6407800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6115400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7430600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7113400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6958000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6802400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6608300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>7685100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>7241700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>6959000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>6491000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>6261500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>6576600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>6409300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>7695400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>7362300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>6785400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>6552600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8088600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9444300</v>
+      </c>
+      <c r="F76" s="3">
         <v>9126400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8675300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8304500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7957100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7906000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7515900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7129100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6858400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6599900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7914100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7580900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7430900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7258300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7073500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8146500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7686600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7369700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6887600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6605400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6983300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6802900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>8133000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>7818800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>7169800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>6970800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>371700</v>
+      </c>
+      <c r="F81" s="3">
         <v>369100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>321500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>309900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>373300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>359000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>354300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>390800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>368500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>371400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>318600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>308800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>310100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>330300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>350700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>328000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>336000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>338100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>249700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>280300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>260700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>280100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>316900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>300300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>311600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>290700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>102400</v>
+      </c>
+      <c r="F83" s="3">
         <v>111600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>96300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>93600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>88800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>90200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>93300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>101400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>86700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>99200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>85000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>79500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>77300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>71200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>66100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>68100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>75700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>69700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>57800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>57300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>82500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>76300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>75200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>71500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>112700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>74600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>453500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>450900</v>
+      </c>
+      <c r="F89" s="3">
         <v>526000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>580400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>281900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>363500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>288800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>405400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>214300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>554900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>570200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>540200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>187600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>411100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>374500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>395100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>450100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>480300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>245700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>380900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>108600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>431300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>250800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>427400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>352600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>363600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2209000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3015000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3082000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3875000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4862000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5626000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5709000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4630000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-75800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-64000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-52900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-55000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-79400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-80100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-75000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-76100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-88400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-78900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-61100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-93600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-83500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-78300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-60800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-57100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-69900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-469200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-150100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-563300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-119700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-425700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-966500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-203600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1118400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1611300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-668500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-638300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-250700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-377300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-292100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>462200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>692500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-112600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>487600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-21400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>315400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-187100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1361700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-239500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-420700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-180600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-689300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7195,17 +7663,17 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-66200</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-330500</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -7225,14 +7693,14 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-72600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7249,28 +7717,34 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-78400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-80200</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-209800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-229200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-135400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-161600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>86800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>179900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-55200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>351700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1440500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-48800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-21800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-91400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-371100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>48600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-120200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-100900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-122200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-314000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-76900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-39600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>25200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-262300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>404100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F101" s="3">
         <v>25900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>13400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-12600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>9600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-9600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>8600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>8800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-4200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-16800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>22600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>4900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>4800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-30800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>6500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F102" s="3">
         <v>172600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-118500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-254000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-43700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-418000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-351700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>375400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-163200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-88800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>196300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-552300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>69800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-838700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1138500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>213200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>850200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>124700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>387200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-150600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-25200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>32400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-121200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>84900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-949800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2760300</v>
+        <v>2708700</v>
       </c>
       <c r="E8" s="3">
-        <v>2803700</v>
+        <v>2746600</v>
       </c>
       <c r="F8" s="3">
-        <v>2808400</v>
+        <v>2789800</v>
       </c>
       <c r="G8" s="3">
-        <v>2725000</v>
+        <v>2794400</v>
       </c>
       <c r="H8" s="3">
-        <v>2602800</v>
+        <v>2711500</v>
       </c>
       <c r="I8" s="3">
-        <v>2522000</v>
+        <v>2589900</v>
       </c>
       <c r="J8" s="3">
+        <v>2509500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2455900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2377800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2206700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2014400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1961900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1952800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1926800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2094300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2080800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2078300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2022000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2030400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2028500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1922300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1847900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1990900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1976500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1941000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1970300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1927500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1886200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1896900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1949600</v>
+        <v>1915100</v>
       </c>
       <c r="E9" s="3">
-        <v>1967500</v>
+        <v>1940000</v>
       </c>
       <c r="F9" s="3">
-        <v>1974000</v>
+        <v>1957700</v>
       </c>
       <c r="G9" s="3">
-        <v>1980800</v>
+        <v>1964200</v>
       </c>
       <c r="H9" s="3">
-        <v>1881200</v>
+        <v>1970900</v>
       </c>
       <c r="I9" s="3">
-        <v>1788900</v>
+        <v>1871900</v>
       </c>
       <c r="J9" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1726200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1663100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1542300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1361600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1306000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1361600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1339800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1521400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1475100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1484000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1432700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1446900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1345400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1326600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1414100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1387800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1369300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1404200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1388600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1330800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1347800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>810600</v>
+        <v>793600</v>
       </c>
       <c r="E10" s="3">
-        <v>836200</v>
+        <v>806600</v>
       </c>
       <c r="F10" s="3">
-        <v>834400</v>
+        <v>832100</v>
       </c>
       <c r="G10" s="3">
-        <v>744300</v>
+        <v>830300</v>
       </c>
       <c r="H10" s="3">
-        <v>721600</v>
+        <v>740600</v>
       </c>
       <c r="I10" s="3">
-        <v>733100</v>
+        <v>718000</v>
       </c>
       <c r="J10" s="3">
+        <v>729400</v>
+      </c>
+      <c r="K10" s="3">
         <v>729700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>714700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>664400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>652800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>655900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>591200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>587000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>572900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>605700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>594300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>589300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>583400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>628000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>576900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>521200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>576800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>588700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>571700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>566100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>538900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>555400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>549100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,22 +1282,25 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>7900</v>
-      </c>
       <c r="F14" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>7800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>14000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1300,14 +1320,14 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>20400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1321,23 +1341,23 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-4000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11200</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-33600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9300</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1345,106 +1365,112 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-17000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2800</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21900</v>
+        <v>36700</v>
       </c>
       <c r="E15" s="3">
-        <v>23700</v>
+        <v>21800</v>
       </c>
       <c r="F15" s="3">
-        <v>26100</v>
+        <v>23500</v>
       </c>
       <c r="G15" s="3">
-        <v>25700</v>
+        <v>26000</v>
       </c>
       <c r="H15" s="3">
-        <v>22900</v>
+        <v>25600</v>
       </c>
       <c r="I15" s="3">
-        <v>19800</v>
+        <v>22800</v>
       </c>
       <c r="J15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K15" s="3">
         <v>20100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>11000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>12800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>11300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>12500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>6200</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2343000</v>
+        <v>2307500</v>
       </c>
       <c r="E17" s="3">
-        <v>2349400</v>
+        <v>2331300</v>
       </c>
       <c r="F17" s="3">
-        <v>2353400</v>
+        <v>2337700</v>
       </c>
       <c r="G17" s="3">
-        <v>2332100</v>
+        <v>2341700</v>
       </c>
       <c r="H17" s="3">
-        <v>2217300</v>
+        <v>2320500</v>
       </c>
       <c r="I17" s="3">
-        <v>2097500</v>
+        <v>2206300</v>
       </c>
       <c r="J17" s="3">
+        <v>2087100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2026300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1955600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1787000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1590800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1538500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1589300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1578700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1742500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1714500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1710900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1673400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1660700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1642400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1649800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1539700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1710600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1690600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1607900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1650900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1585300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1566000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1580400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>417300</v>
+        <v>401100</v>
       </c>
       <c r="E18" s="3">
-        <v>454300</v>
+        <v>415200</v>
       </c>
       <c r="F18" s="3">
-        <v>455000</v>
+        <v>452100</v>
       </c>
       <c r="G18" s="3">
-        <v>393000</v>
+        <v>452800</v>
       </c>
       <c r="H18" s="3">
-        <v>385600</v>
+        <v>391000</v>
       </c>
       <c r="I18" s="3">
-        <v>424500</v>
+        <v>383600</v>
       </c>
       <c r="J18" s="3">
+        <v>422400</v>
+      </c>
+      <c r="K18" s="3">
         <v>429600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>422200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>419800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>423700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>423300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>363500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>348000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>351800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>366300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>367300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>348600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>369600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>386200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>272500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>308100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>280300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>285900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>333200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>319500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>342100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>320200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>316500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>79100</v>
+        <v>57500</v>
       </c>
       <c r="E20" s="3">
-        <v>66100</v>
+        <v>78700</v>
       </c>
       <c r="F20" s="3">
-        <v>60700</v>
+        <v>65800</v>
       </c>
       <c r="G20" s="3">
-        <v>48000</v>
+        <v>60400</v>
       </c>
       <c r="H20" s="3">
-        <v>44400</v>
+        <v>47700</v>
       </c>
       <c r="I20" s="3">
-        <v>47500</v>
+        <v>44200</v>
       </c>
       <c r="J20" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K20" s="3">
         <v>44200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>55900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>53500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>73800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>65000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>64800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>59100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>64900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>82900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>91000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>92000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>66000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>62300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>62200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>65200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>82600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>86600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>78400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>71100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>65200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>585700</v>
+        <v>566600</v>
       </c>
       <c r="E21" s="3">
-        <v>622800</v>
+        <v>582700</v>
       </c>
       <c r="F21" s="3">
-        <v>627300</v>
+        <v>619700</v>
       </c>
       <c r="G21" s="3">
+        <v>624200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>534600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>520900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>558000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>564000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>565100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>577100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>563900</v>
+      </c>
+      <c r="O21" s="3">
+        <v>596400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>513500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>492300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>488200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>502400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>516400</v>
+      </c>
+      <c r="U21" s="3">
+        <v>507700</v>
+      </c>
+      <c r="V21" s="3">
         <v>537300</v>
       </c>
-      <c r="H21" s="3">
-        <v>523500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>560800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>564000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>565100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>577100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>563900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>596400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>513500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>492300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>488200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>502400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>516400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>507700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>537300</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>521900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>392600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>427600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>428000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>444800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>495000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>469300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>526000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>460000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>441500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37300</v>
+        <v>36500</v>
       </c>
       <c r="E22" s="3">
-        <v>34600</v>
+        <v>37100</v>
       </c>
       <c r="F22" s="3">
-        <v>35100</v>
+        <v>34400</v>
       </c>
       <c r="G22" s="3">
-        <v>27400</v>
+        <v>34900</v>
       </c>
       <c r="H22" s="3">
-        <v>24700</v>
+        <v>27300</v>
       </c>
       <c r="I22" s="3">
-        <v>20800</v>
+        <v>24600</v>
       </c>
       <c r="J22" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>18500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>10100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>459100</v>
+        <v>422200</v>
       </c>
       <c r="E23" s="3">
-        <v>485800</v>
+        <v>456800</v>
       </c>
       <c r="F23" s="3">
-        <v>480600</v>
+        <v>483400</v>
       </c>
       <c r="G23" s="3">
-        <v>413500</v>
+        <v>478200</v>
       </c>
       <c r="H23" s="3">
+        <v>411400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>403200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>449000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>456800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>454200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>466700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>465000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>481900</v>
+      </c>
+      <c r="P23" s="3">
+        <v>414400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>399900</v>
+      </c>
+      <c r="R23" s="3">
+        <v>395300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>414200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>430700</v>
+      </c>
+      <c r="U23" s="3">
+        <v>422100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>433000</v>
+      </c>
+      <c r="W23" s="3">
+        <v>436600</v>
+      </c>
+      <c r="X23" s="3">
+        <v>320000</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>354300</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>327100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>357400</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>409500</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>387800</v>
+      </c>
+      <c r="AD23" s="3">
         <v>405300</v>
       </c>
-      <c r="I23" s="3">
-        <v>451200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>456800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>454200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>466700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>465000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>481900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>414400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>399900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>395300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>414200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>430700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>422100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>433000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>436600</v>
-      </c>
-      <c r="W23" s="3">
-        <v>320000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>354300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>327100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>357400</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>409500</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>387800</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>405300</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>380100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>367200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>110200</v>
+        <v>101300</v>
       </c>
       <c r="E24" s="3">
-        <v>111800</v>
+        <v>109700</v>
       </c>
       <c r="F24" s="3">
-        <v>110000</v>
+        <v>111300</v>
       </c>
       <c r="G24" s="3">
-        <v>93200</v>
+        <v>109500</v>
       </c>
       <c r="H24" s="3">
-        <v>95900</v>
+        <v>92800</v>
       </c>
       <c r="I24" s="3">
+        <v>95400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>97500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>99900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>75300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>96200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>106700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>93400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>88300</v>
+      </c>
+      <c r="R24" s="3">
+        <v>82700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>82900</v>
+      </c>
+      <c r="T24" s="3">
+        <v>78700</v>
+      </c>
+      <c r="U24" s="3">
+        <v>92000</v>
+      </c>
+      <c r="V24" s="3">
+        <v>95600</v>
+      </c>
+      <c r="W24" s="3">
+        <v>93800</v>
+      </c>
+      <c r="X24" s="3">
+        <v>70700</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>77500</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>89300</v>
+      </c>
+      <c r="AA24" s="3">
         <v>77400</v>
       </c>
-      <c r="J24" s="3">
-        <v>97500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>99900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>75300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>96200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>106700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>93400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>88300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>82700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>82900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>78700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>92000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>95600</v>
-      </c>
-      <c r="V24" s="3">
-        <v>93800</v>
-      </c>
-      <c r="W24" s="3">
-        <v>70700</v>
-      </c>
-      <c r="X24" s="3">
-        <v>77500</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>89300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>77400</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>92900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>86700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>92900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>88700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>348900</v>
+        <v>320900</v>
       </c>
       <c r="E26" s="3">
-        <v>374000</v>
+        <v>347200</v>
       </c>
       <c r="F26" s="3">
-        <v>370600</v>
+        <v>372100</v>
       </c>
       <c r="G26" s="3">
-        <v>320300</v>
+        <v>368700</v>
       </c>
       <c r="H26" s="3">
-        <v>309400</v>
+        <v>318700</v>
       </c>
       <c r="I26" s="3">
-        <v>373900</v>
+        <v>307800</v>
       </c>
       <c r="J26" s="3">
+        <v>372000</v>
+      </c>
+      <c r="K26" s="3">
         <v>359400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>354300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>391400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>368800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>375200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>321000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>311500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>312600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>331300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>351900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>330000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>337400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>342700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>249300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>276800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>237800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>279900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>316600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>301100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>312400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>291400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>285800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>347000</v>
+        <v>318300</v>
       </c>
       <c r="E27" s="3">
-        <v>371700</v>
+        <v>345300</v>
       </c>
       <c r="F27" s="3">
-        <v>369100</v>
+        <v>369900</v>
       </c>
       <c r="G27" s="3">
-        <v>321500</v>
+        <v>367300</v>
       </c>
       <c r="H27" s="3">
-        <v>309900</v>
+        <v>319900</v>
       </c>
       <c r="I27" s="3">
-        <v>373300</v>
+        <v>308400</v>
       </c>
       <c r="J27" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K27" s="3">
         <v>359000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>354300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>390800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>368500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>371400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>318600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>308800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>310100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>330300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>350700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>328000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>336000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>338100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>249700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>280300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>238100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>280100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>316900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>300300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>311600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>290700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2553,11 +2614,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>22600</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-79100</v>
+        <v>-57500</v>
       </c>
       <c r="E32" s="3">
-        <v>-66100</v>
+        <v>-78700</v>
       </c>
       <c r="F32" s="3">
-        <v>-60700</v>
+        <v>-65800</v>
       </c>
       <c r="G32" s="3">
-        <v>-48000</v>
+        <v>-60400</v>
       </c>
       <c r="H32" s="3">
-        <v>-44400</v>
+        <v>-47700</v>
       </c>
       <c r="I32" s="3">
-        <v>-47500</v>
+        <v>-44200</v>
       </c>
       <c r="J32" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-44200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-55900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-53500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-73800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-65000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-59100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-64900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-82900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-91000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-92000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-66000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-62300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-62200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-65200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-82600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-86600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-78400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-71100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-65200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-58200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>347000</v>
+        <v>318300</v>
       </c>
       <c r="E33" s="3">
-        <v>371700</v>
+        <v>345300</v>
       </c>
       <c r="F33" s="3">
-        <v>369100</v>
+        <v>369900</v>
       </c>
       <c r="G33" s="3">
-        <v>321500</v>
+        <v>367300</v>
       </c>
       <c r="H33" s="3">
-        <v>309900</v>
+        <v>319900</v>
       </c>
       <c r="I33" s="3">
-        <v>373300</v>
+        <v>308400</v>
       </c>
       <c r="J33" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K33" s="3">
         <v>359000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>354300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>390800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>368500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>371400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>318600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>308800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>310100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>330300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>350700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>328000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>336000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>338100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>249700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>280300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>260700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>280100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>316900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>300300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>311600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>290700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>347000</v>
+        <v>318300</v>
       </c>
       <c r="E35" s="3">
-        <v>371700</v>
+        <v>345300</v>
       </c>
       <c r="F35" s="3">
-        <v>369100</v>
+        <v>369900</v>
       </c>
       <c r="G35" s="3">
-        <v>321500</v>
+        <v>367300</v>
       </c>
       <c r="H35" s="3">
-        <v>309900</v>
+        <v>319900</v>
       </c>
       <c r="I35" s="3">
-        <v>373300</v>
+        <v>308400</v>
       </c>
       <c r="J35" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K35" s="3">
         <v>359000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>354300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>390800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>368500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>371400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>318600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>308800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>310100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>330300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>350700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>328000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>336000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>338100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>249700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>280300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>260700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>280100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>316900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>300300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>311600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>290700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1010900</v>
+        <v>1177700</v>
       </c>
       <c r="E41" s="3">
-        <v>1110800</v>
+        <v>1005900</v>
       </c>
       <c r="F41" s="3">
-        <v>1055500</v>
+        <v>1105300</v>
       </c>
       <c r="G41" s="3">
-        <v>882800</v>
+        <v>1050300</v>
       </c>
       <c r="H41" s="3">
-        <v>1001400</v>
+        <v>878500</v>
       </c>
       <c r="I41" s="3">
-        <v>1255400</v>
+        <v>996400</v>
       </c>
       <c r="J41" s="3">
+        <v>1249100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1299200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1717100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2105400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1745700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1969300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1926200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2510300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2479300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3316900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2144900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1923100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1055200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>934500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>649600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>752900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>743400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>785400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>726300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>826000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>760200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4088900</v>
+        <v>2886800</v>
       </c>
       <c r="E42" s="3">
-        <v>3730700</v>
+        <v>4075200</v>
       </c>
       <c r="F42" s="3">
-        <v>3524100</v>
+        <v>3721300</v>
       </c>
       <c r="G42" s="3">
-        <v>3311700</v>
+        <v>3506600</v>
       </c>
       <c r="H42" s="3">
-        <v>2731200</v>
+        <v>3295300</v>
       </c>
       <c r="I42" s="3">
-        <v>2913700</v>
+        <v>2717700</v>
       </c>
       <c r="J42" s="3">
+        <v>2899200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2842300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2118400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2011900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2171100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3911300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3328600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2752700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2517200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2198700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1995900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2499100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3208200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2882400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3289300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3314600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3634700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3462900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4840800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4623800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4049700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3766400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>3587800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2725800</v>
+        <v>2604200</v>
       </c>
       <c r="E43" s="3">
-        <v>2814300</v>
+        <v>2682100</v>
       </c>
       <c r="F43" s="3">
-        <v>2769600</v>
+        <v>2772700</v>
       </c>
       <c r="G43" s="3">
-        <v>2872100</v>
+        <v>2735900</v>
       </c>
       <c r="H43" s="3">
-        <v>2960500</v>
+        <v>2839800</v>
       </c>
       <c r="I43" s="3">
-        <v>3019800</v>
+        <v>2927700</v>
       </c>
       <c r="J43" s="3">
+        <v>3004800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2411500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2298300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2157800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1930000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1850800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1928700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2005500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2218600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2155600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2228800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2233700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2060000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2087400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2217600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2046700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2182200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2212900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2257800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2283300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2125900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2321200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2246600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16600</v>
+        <v>35500</v>
       </c>
       <c r="E44" s="3">
-        <v>14400</v>
+        <v>31200</v>
       </c>
       <c r="F44" s="3">
-        <v>24400</v>
+        <v>44400</v>
       </c>
       <c r="G44" s="3">
-        <v>24300</v>
+        <v>93100</v>
       </c>
       <c r="H44" s="3">
-        <v>20300</v>
+        <v>60900</v>
       </c>
       <c r="I44" s="3">
-        <v>16100</v>
+        <v>62200</v>
       </c>
       <c r="J44" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K44" s="3">
         <v>12400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>66500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>94100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>97400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>92900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>80200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>74400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>75000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>62600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>74900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>68200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>73900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>97500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>513300</v>
+        <v>333900</v>
       </c>
       <c r="E45" s="3">
-        <v>322400</v>
+        <v>519700</v>
       </c>
       <c r="F45" s="3">
-        <v>344300</v>
+        <v>309300</v>
       </c>
       <c r="G45" s="3">
-        <v>387900</v>
+        <v>293700</v>
       </c>
       <c r="H45" s="3">
-        <v>360200</v>
+        <v>367300</v>
       </c>
       <c r="I45" s="3">
-        <v>299900</v>
+        <v>334400</v>
       </c>
       <c r="J45" s="3">
+        <v>260100</v>
+      </c>
+      <c r="K45" s="3">
         <v>335000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>289800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>265000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>267800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>251500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>240400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>229200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>201100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>193000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>225900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>253400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>227300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>277200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>292600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>777400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>399600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>371700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>412900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>450200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>382100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>423300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8355500</v>
+        <v>7038100</v>
       </c>
       <c r="E46" s="3">
-        <v>7992700</v>
+        <v>8314000</v>
       </c>
       <c r="F46" s="3">
-        <v>7718000</v>
+        <v>7953000</v>
       </c>
       <c r="G46" s="3">
-        <v>7478900</v>
+        <v>7679700</v>
       </c>
       <c r="H46" s="3">
-        <v>7073500</v>
+        <v>7441700</v>
       </c>
       <c r="I46" s="3">
-        <v>7504900</v>
+        <v>7038400</v>
       </c>
       <c r="J46" s="3">
+        <v>7467600</v>
+      </c>
+      <c r="K46" s="3">
         <v>6900400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6433000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6146200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6487500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7774400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7483900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7068700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6929600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7117000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6996300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8397100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7737900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7263000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6942800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6662800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7319000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6890800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8288700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8173700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7426000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7393100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>7108600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>496800</v>
+        <v>468500</v>
       </c>
       <c r="E47" s="3">
-        <v>491000</v>
+        <v>478500</v>
       </c>
       <c r="F47" s="3">
-        <v>529400</v>
+        <v>469800</v>
       </c>
       <c r="G47" s="3">
-        <v>517600</v>
+        <v>508400</v>
       </c>
       <c r="H47" s="3">
-        <v>523100</v>
+        <v>496000</v>
       </c>
       <c r="I47" s="3">
-        <v>495500</v>
+        <v>502200</v>
       </c>
       <c r="J47" s="3">
+        <v>476300</v>
+      </c>
+      <c r="K47" s="3">
         <v>433900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>448300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>428800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>456400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>443500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>463900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>445800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>457600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>489000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>404500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>406400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>555300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>487600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>483100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>457200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>514800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>469000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>460600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>450600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>355300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>349500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1268400</v>
+        <v>1204600</v>
       </c>
       <c r="E48" s="3">
-        <v>1298000</v>
+        <v>1262100</v>
       </c>
       <c r="F48" s="3">
-        <v>1324200</v>
+        <v>1291600</v>
       </c>
       <c r="G48" s="3">
-        <v>1336700</v>
+        <v>1317600</v>
       </c>
       <c r="H48" s="3">
-        <v>1335500</v>
+        <v>1330000</v>
       </c>
       <c r="I48" s="3">
-        <v>1327100</v>
+        <v>1328900</v>
       </c>
       <c r="J48" s="3">
+        <v>1320500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1314100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1295100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1287900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1260000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1237000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1252300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1264400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1304600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1267800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1256000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1205500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>955200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>945700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>903900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>864000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>939300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1039900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1038300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1027000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>961800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>969600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>952200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4208800</v>
+        <v>4184500</v>
       </c>
       <c r="E49" s="3">
-        <v>4243800</v>
+        <v>4187900</v>
       </c>
       <c r="F49" s="3">
-        <v>4296400</v>
+        <v>4222700</v>
       </c>
       <c r="G49" s="3">
-        <v>4242600</v>
+        <v>4275100</v>
       </c>
       <c r="H49" s="3">
-        <v>4175000</v>
+        <v>4221500</v>
       </c>
       <c r="I49" s="3">
-        <v>3512700</v>
+        <v>4154300</v>
       </c>
       <c r="J49" s="3">
+        <v>3495200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3473000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3283300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3222200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1887400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1870200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1944300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1900500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1964500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1860600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1848600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1786500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1768900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1867400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1930800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1843900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1962200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2115800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2160500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2053400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1952900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2076300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1603200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>186000</v>
+        <v>172900</v>
       </c>
       <c r="E52" s="3">
-        <v>190200</v>
+        <v>200900</v>
       </c>
       <c r="F52" s="3">
-        <v>219700</v>
+        <v>208100</v>
       </c>
       <c r="G52" s="3">
-        <v>229500</v>
+        <v>237000</v>
       </c>
       <c r="H52" s="3">
-        <v>226700</v>
+        <v>247400</v>
       </c>
       <c r="I52" s="3">
-        <v>207100</v>
+        <v>243800</v>
       </c>
       <c r="J52" s="3">
+        <v>222900</v>
+      </c>
+      <c r="K52" s="3">
         <v>178600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>172500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>218500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>163400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>187800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>235100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>176900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>246400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>242900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>255500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>329200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>340700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>262000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>263500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>206300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>245100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>305700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>238700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>230900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14515400</v>
+        <v>13068500</v>
       </c>
       <c r="E54" s="3">
-        <v>14215700</v>
+        <v>14443400</v>
       </c>
       <c r="F54" s="3">
-        <v>14087800</v>
+        <v>14145100</v>
       </c>
       <c r="G54" s="3">
-        <v>13805200</v>
+        <v>14017800</v>
       </c>
       <c r="H54" s="3">
-        <v>13333800</v>
+        <v>13736700</v>
       </c>
       <c r="I54" s="3">
-        <v>13047300</v>
+        <v>13267600</v>
       </c>
       <c r="J54" s="3">
+        <v>12982600</v>
+      </c>
+      <c r="K54" s="3">
         <v>12300000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11632200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11261000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10309800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11490000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11307800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10867100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10891400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10911200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10751900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12038400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11272800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10892900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10601300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10090000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10998900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10722000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12193100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12010400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10934700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>11019400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>10179900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>976100</v>
+        <v>948600</v>
       </c>
       <c r="E57" s="3">
-        <v>1076700</v>
+        <v>971200</v>
       </c>
       <c r="F57" s="3">
-        <v>1083400</v>
+        <v>1071300</v>
       </c>
       <c r="G57" s="3">
-        <v>1100000</v>
+        <v>1078000</v>
       </c>
       <c r="H57" s="3">
-        <v>1069700</v>
+        <v>1094500</v>
       </c>
       <c r="I57" s="3">
-        <v>1197300</v>
+        <v>1064400</v>
       </c>
       <c r="J57" s="3">
+        <v>1191400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1057900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1097600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1075300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>978000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1044900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1059700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>969700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1041500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1083700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1147100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1154700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1194800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1067800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1121000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>998500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>985100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1031000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1007000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1068700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>902400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>956000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>943800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1177800</v>
+        <v>1232000</v>
       </c>
       <c r="E58" s="3">
-        <v>1178100</v>
+        <v>1171900</v>
       </c>
       <c r="F58" s="3">
-        <v>1279300</v>
+        <v>1172200</v>
       </c>
       <c r="G58" s="3">
-        <v>1432300</v>
+        <v>1272900</v>
       </c>
       <c r="H58" s="3">
-        <v>1498900</v>
+        <v>1425200</v>
       </c>
       <c r="I58" s="3">
-        <v>1260900</v>
+        <v>1491500</v>
       </c>
       <c r="J58" s="3">
+        <v>1254600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1053600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>817400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>833200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1035900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1011100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1054000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>989300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1063200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1059400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1077100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1203900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>962000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>725500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>829200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>934200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1344600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1477300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1651500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1644300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1692200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1878400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1468900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2714400</v>
+        <v>896600</v>
       </c>
       <c r="E59" s="3">
-        <v>982400</v>
+        <v>2700900</v>
       </c>
       <c r="F59" s="3">
-        <v>1085900</v>
+        <v>977500</v>
       </c>
       <c r="G59" s="3">
-        <v>1171900</v>
+        <v>1080500</v>
       </c>
       <c r="H59" s="3">
-        <v>1064200</v>
+        <v>1166100</v>
       </c>
       <c r="I59" s="3">
-        <v>1269500</v>
+        <v>1058900</v>
       </c>
       <c r="J59" s="3">
+        <v>1263200</v>
+      </c>
+      <c r="K59" s="3">
         <v>924200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>881100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>878700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>838600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2321400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>802000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>778800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>779800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>760000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>694200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>737100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>743400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>807900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>820200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>697200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>757500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>687900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>616800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>675700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>568500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>577000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>557000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4868200</v>
+        <v>3077200</v>
       </c>
       <c r="E60" s="3">
-        <v>3237100</v>
+        <v>4844100</v>
       </c>
       <c r="F60" s="3">
-        <v>3448600</v>
+        <v>3221100</v>
       </c>
       <c r="G60" s="3">
-        <v>3704200</v>
+        <v>3431500</v>
       </c>
       <c r="H60" s="3">
-        <v>3632900</v>
+        <v>3685800</v>
       </c>
       <c r="I60" s="3">
-        <v>3727700</v>
+        <v>3614800</v>
       </c>
       <c r="J60" s="3">
+        <v>3709200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3035800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2796000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2787200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2852500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4377400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2915700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2737800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2884500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2903100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2918400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3095600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2900200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2601200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2770400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2629900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3087300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3196200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3275200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3388700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3163100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3411400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2969700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>934300</v>
+        <v>923500</v>
       </c>
       <c r="E61" s="3">
-        <v>933700</v>
+        <v>929600</v>
       </c>
       <c r="F61" s="3">
-        <v>933800</v>
+        <v>929000</v>
       </c>
       <c r="G61" s="3">
-        <v>920300</v>
+        <v>929200</v>
       </c>
       <c r="H61" s="3">
-        <v>893400</v>
+        <v>915700</v>
       </c>
       <c r="I61" s="3">
-        <v>866100</v>
+        <v>889000</v>
       </c>
       <c r="J61" s="3">
+        <v>861800</v>
+      </c>
+      <c r="K61" s="3">
         <v>852000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>853600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>861500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>260000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>164100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>162100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>226000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>233000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>442900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>451500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>456500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>383800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>673300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>691800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>622100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>654600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>430400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>450500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>469800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>270200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>275800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>248100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>616800</v>
+        <v>650100</v>
       </c>
       <c r="E62" s="3">
-        <v>593500</v>
+        <v>613800</v>
       </c>
       <c r="F62" s="3">
-        <v>574000</v>
+        <v>590600</v>
       </c>
       <c r="G62" s="3">
-        <v>501500</v>
+        <v>571200</v>
       </c>
       <c r="H62" s="3">
-        <v>498000</v>
+        <v>499000</v>
       </c>
       <c r="I62" s="3">
-        <v>490100</v>
+        <v>495600</v>
       </c>
       <c r="J62" s="3">
+        <v>487700</v>
+      </c>
+      <c r="K62" s="3">
         <v>500900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>453600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>470100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>320300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>330000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>308700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>318000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>285600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>287900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>301700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>266500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>214300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>220900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>203800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>238900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>258000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>299000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>298000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>298600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>327500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>269300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6426900</v>
+        <v>4660700</v>
       </c>
       <c r="E66" s="3">
-        <v>4771400</v>
+        <v>6395000</v>
       </c>
       <c r="F66" s="3">
-        <v>4961300</v>
+        <v>4747700</v>
       </c>
       <c r="G66" s="3">
-        <v>5129900</v>
+        <v>4936700</v>
       </c>
       <c r="H66" s="3">
-        <v>5029300</v>
+        <v>5104500</v>
       </c>
       <c r="I66" s="3">
-        <v>5090200</v>
+        <v>5004300</v>
       </c>
       <c r="J66" s="3">
+        <v>5064900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4394100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4116300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4132000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3451400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4890100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3393600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3286300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3460500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3652900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3678400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3891900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3586200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3523300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3713700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3484600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4015600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3919100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4060100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4191700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3764900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4048700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3519600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7377400</v>
+        <v>7718100</v>
       </c>
       <c r="E72" s="3">
-        <v>8761000</v>
+        <v>7340700</v>
       </c>
       <c r="F72" s="3">
-        <v>8464600</v>
+        <v>8717500</v>
       </c>
       <c r="G72" s="3">
-        <v>8089700</v>
+        <v>8422600</v>
       </c>
       <c r="H72" s="3">
-        <v>7759000</v>
+        <v>8049500</v>
       </c>
       <c r="I72" s="3">
-        <v>7463200</v>
+        <v>7720500</v>
       </c>
       <c r="J72" s="3">
+        <v>7426100</v>
+      </c>
+      <c r="K72" s="3">
         <v>7453100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7062600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6669300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6407800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6115400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7430600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7113400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6958000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6802400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6608300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7685100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7241700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6959000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6491000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6261500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6576600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6409300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7695400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7362300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6785400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6552600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>6263000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8088600</v>
+        <v>8407900</v>
       </c>
       <c r="E76" s="3">
-        <v>9444300</v>
+        <v>8048400</v>
       </c>
       <c r="F76" s="3">
-        <v>9126400</v>
+        <v>9397400</v>
       </c>
       <c r="G76" s="3">
-        <v>8675300</v>
+        <v>9081100</v>
       </c>
       <c r="H76" s="3">
-        <v>8304500</v>
+        <v>8632200</v>
       </c>
       <c r="I76" s="3">
-        <v>7957100</v>
+        <v>8263300</v>
       </c>
       <c r="J76" s="3">
+        <v>7917600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7906000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7515900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7129100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6858400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6599900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7914100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7580900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7430900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7258300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7073500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8146500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7686600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7369700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6887600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6605400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6983300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6802900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8133000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7818800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7169800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6970800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>6660200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>347000</v>
+        <v>318300</v>
       </c>
       <c r="E81" s="3">
-        <v>371700</v>
+        <v>345300</v>
       </c>
       <c r="F81" s="3">
-        <v>369100</v>
+        <v>369900</v>
       </c>
       <c r="G81" s="3">
-        <v>321500</v>
+        <v>367300</v>
       </c>
       <c r="H81" s="3">
-        <v>309900</v>
+        <v>319900</v>
       </c>
       <c r="I81" s="3">
-        <v>373300</v>
+        <v>308400</v>
       </c>
       <c r="J81" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K81" s="3">
         <v>359000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>354300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>390800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>368500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>371400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>318600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>308800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>310100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>330300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>350700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>328000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>336000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>338100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>249700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>280300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>260700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>280100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>316900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>300300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>311600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>290700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>284900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89200</v>
+        <v>107900</v>
       </c>
       <c r="E83" s="3">
-        <v>102400</v>
+        <v>88800</v>
       </c>
       <c r="F83" s="3">
-        <v>111600</v>
+        <v>101800</v>
       </c>
       <c r="G83" s="3">
-        <v>96300</v>
+        <v>111000</v>
       </c>
       <c r="H83" s="3">
-        <v>93600</v>
+        <v>95900</v>
       </c>
       <c r="I83" s="3">
-        <v>88800</v>
+        <v>93100</v>
       </c>
       <c r="J83" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K83" s="3">
         <v>90200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>101400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>85000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>66100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>68100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>69700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>57300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>82500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>76300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>75200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>71500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>112700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>74600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>453500</v>
+        <v>464800</v>
       </c>
       <c r="E89" s="3">
-        <v>450900</v>
+        <v>451300</v>
       </c>
       <c r="F89" s="3">
-        <v>526000</v>
+        <v>448700</v>
       </c>
       <c r="G89" s="3">
-        <v>580400</v>
+        <v>523400</v>
       </c>
       <c r="H89" s="3">
-        <v>21600</v>
+        <v>577500</v>
       </c>
       <c r="I89" s="3">
-        <v>281900</v>
+        <v>21500</v>
       </c>
       <c r="J89" s="3">
+        <v>280500</v>
+      </c>
+      <c r="K89" s="3">
         <v>363500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>288800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>405400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>214300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>554900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>570200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>540200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>187600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>411100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>374500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>395100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>450100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>480300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>245700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>380900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>108600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>431300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>250800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>427400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>352600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>363600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>363300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1975000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2209000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3015000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3082000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3875000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4862000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5626000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5709000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4630000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-64000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-52900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-79400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-84000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-80100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-75000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-76100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-88400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-78900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-61100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-93600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-83500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-78300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-60800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-57100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-69900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-95800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-469200</v>
+        <v>1448600</v>
       </c>
       <c r="E94" s="3">
-        <v>-183200</v>
+        <v>-466900</v>
       </c>
       <c r="F94" s="3">
-        <v>-150100</v>
+        <v>-182300</v>
       </c>
       <c r="G94" s="3">
-        <v>-563300</v>
+        <v>-149400</v>
       </c>
       <c r="H94" s="3">
-        <v>-119700</v>
+        <v>-560500</v>
       </c>
       <c r="I94" s="3">
-        <v>-425700</v>
+        <v>-119100</v>
       </c>
       <c r="J94" s="3">
+        <v>-423600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-966500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-203600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1118400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1611300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-668500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-638300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-250700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-377300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-292100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>462200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>692500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-112600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>487600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>315400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-187100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1361700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-239500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-420700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-180600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-689300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-839500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7663,19 +7897,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-66200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-65900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-330500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-328900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7699,11 +7933,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-72600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7723,11 +7957,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-78400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7735,16 +7969,19 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-80200</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-78700</v>
+        <v>-1744000</v>
       </c>
       <c r="E100" s="3">
-        <v>-209800</v>
+        <v>-78300</v>
       </c>
       <c r="F100" s="3">
-        <v>-229200</v>
+        <v>-208800</v>
       </c>
       <c r="G100" s="3">
-        <v>-135400</v>
+        <v>-228100</v>
       </c>
       <c r="H100" s="3">
-        <v>-161600</v>
+        <v>-134700</v>
       </c>
       <c r="I100" s="3">
-        <v>86800</v>
+        <v>-160800</v>
       </c>
       <c r="J100" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K100" s="3">
         <v>179900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>351700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1440500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-91400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-371100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1681500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>48600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-120200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-122200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-76900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1788200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-39600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>25200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-262300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>404100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-466600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5600</v>
+        <v>2400</v>
       </c>
       <c r="E101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
-        <v>25900</v>
-      </c>
       <c r="G101" s="3">
+        <v>25800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5700</v>
       </c>
-      <c r="I101" s="3">
-        <v>13400</v>
-      </c>
       <c r="J101" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K101" s="3">
         <v>5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>22600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-30800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>6500</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100000</v>
+        <v>171800</v>
       </c>
       <c r="E102" s="3">
-        <v>55200</v>
+        <v>-99500</v>
       </c>
       <c r="F102" s="3">
-        <v>172600</v>
+        <v>54900</v>
       </c>
       <c r="G102" s="3">
-        <v>-118500</v>
+        <v>171700</v>
       </c>
       <c r="H102" s="3">
-        <v>-254000</v>
+        <v>-118000</v>
       </c>
       <c r="I102" s="3">
-        <v>-43700</v>
+        <v>-252700</v>
       </c>
       <c r="J102" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-418000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-351700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>375400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-163200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-88800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>196300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-552300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>69800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-838700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1138500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>213200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>850200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>124700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>387200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-150600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-25200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>32400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-121200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>84900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-949800</v>
       </c>
     </row>
